--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA334D-C89D-44BB-941E-6E5A7602FED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CDA8DD-04A7-4B78-ACBB-040682466A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1187">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3562,6 +3562,30 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/GOL.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/CLX.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/FDX.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/SIA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/KAL.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/CAL.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/MAS.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/UPS.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/QFA.png</t>
   </si>
 </sst>
 </file>
@@ -3959,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,8 +4210,8 @@
       <c r="B20" t="s">
         <v>953</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>1158</v>
+      <c r="C20" s="5" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,8 +4309,8 @@
       <c r="B29" t="s">
         <v>423</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>1158</v>
+      <c r="C29" s="5" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,8 +4474,8 @@
       <c r="B44" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>1158</v>
+      <c r="C44" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,8 +4606,8 @@
       <c r="B56" t="s">
         <v>752</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>1158</v>
+      <c r="C56" s="5" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,8 +4749,8 @@
       <c r="B69" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>1158</v>
+      <c r="C69" s="5" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4846,8 +4870,8 @@
       <c r="B80" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>1158</v>
+      <c r="C80" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,8 +5101,8 @@
       <c r="B101" t="s">
         <v>501</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>1158</v>
+      <c r="C101" s="5" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,8 +5244,8 @@
       <c r="B114" t="s">
         <v>520</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>1158</v>
+      <c r="C114" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,8 +5662,8 @@
       <c r="B152" t="s">
         <v>124</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>1158</v>
+      <c r="C152" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -6122,8 +6146,8 @@
       <c r="B196" t="s">
         <v>656</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>1158</v>
+      <c r="C196" s="5" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -7134,8 +7158,8 @@
       <c r="B288" t="s">
         <v>1018</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>1158</v>
+      <c r="C288" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7409,8 +7433,8 @@
       <c r="B313" t="s">
         <v>225</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>1158</v>
+      <c r="C313" s="5" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7486,8 +7510,8 @@
       <c r="B320" t="s">
         <v>1018</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>1158</v>
+      <c r="C320" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -8333,8 +8357,8 @@
       <c r="B397" t="s">
         <v>216</v>
       </c>
-      <c r="C397" s="3" t="s">
-        <v>1158</v>
+      <c r="C397" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8740,8 +8764,8 @@
       <c r="B434" t="s">
         <v>124</v>
       </c>
-      <c r="C434" s="3" t="s">
-        <v>1158</v>
+      <c r="C434" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -8806,8 +8830,8 @@
       <c r="B440" t="s">
         <v>656</v>
       </c>
-      <c r="C440" s="3" t="s">
-        <v>1158</v>
+      <c r="C440" s="5" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9004,8 +9028,8 @@
       <c r="B458" t="s">
         <v>194</v>
       </c>
-      <c r="C458" s="3" t="s">
-        <v>1158</v>
+      <c r="C458" s="5" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9169,8 +9193,8 @@
       <c r="B473" t="s">
         <v>225</v>
       </c>
-      <c r="C473" s="3" t="s">
-        <v>1158</v>
+      <c r="C473" s="5" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9213,8 +9237,8 @@
       <c r="B477" t="s">
         <v>1109</v>
       </c>
-      <c r="C477" s="3" t="s">
-        <v>1158</v>
+      <c r="C477" s="5" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9510,8 +9534,8 @@
       <c r="B504" t="s">
         <v>216</v>
       </c>
-      <c r="C504" s="3" t="s">
-        <v>1158</v>
+      <c r="C504" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9554,8 +9578,8 @@
       <c r="B508" t="s">
         <v>194</v>
       </c>
-      <c r="C508" s="3" t="s">
-        <v>1158</v>
+      <c r="C508" s="5" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9565,8 +9589,8 @@
       <c r="B509" t="s">
         <v>225</v>
       </c>
-      <c r="C509" s="3" t="s">
-        <v>1158</v>
+      <c r="C509" s="5" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9719,8 +9743,8 @@
       <c r="B523" t="s">
         <v>216</v>
       </c>
-      <c r="C523" s="3" t="s">
-        <v>1158</v>
+      <c r="C523" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -9840,8 +9864,8 @@
       <c r="B534" t="s">
         <v>194</v>
       </c>
-      <c r="C534" s="3" t="s">
-        <v>1158</v>
+      <c r="C534" s="5" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10203,8 +10227,8 @@
       <c r="B567" t="s">
         <v>1109</v>
       </c>
-      <c r="C567" s="3" t="s">
-        <v>1158</v>
+      <c r="C567" s="5" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10269,8 +10293,8 @@
       <c r="B573" t="s">
         <v>1018</v>
       </c>
-      <c r="C573" s="3" t="s">
-        <v>1158</v>
+      <c r="C573" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10324,8 +10348,8 @@
       <c r="B578" t="s">
         <v>194</v>
       </c>
-      <c r="C578" s="3" t="s">
-        <v>1158</v>
+      <c r="C578" s="5" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10368,8 +10392,8 @@
       <c r="B582" t="s">
         <v>1109</v>
       </c>
-      <c r="C582" s="3" t="s">
-        <v>1158</v>
+      <c r="C582" s="5" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10555,8 +10579,8 @@
       <c r="B599" t="s">
         <v>1109</v>
       </c>
-      <c r="C599" s="3" t="s">
-        <v>1158</v>
+      <c r="C599" s="5" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10753,8 +10777,8 @@
       <c r="B617" t="s">
         <v>752</v>
       </c>
-      <c r="C617" s="3" t="s">
-        <v>1158</v>
+      <c r="C617" s="5" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -10940,8 +10964,8 @@
       <c r="B634" t="s">
         <v>194</v>
       </c>
-      <c r="C634" s="3" t="s">
-        <v>1158</v>
+      <c r="C634" s="5" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -10995,8 +11019,8 @@
       <c r="B639" t="s">
         <v>225</v>
       </c>
-      <c r="C639" s="3" t="s">
-        <v>1158</v>
+      <c r="C639" s="5" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11380,8 +11404,8 @@
       <c r="B674" t="s">
         <v>752</v>
       </c>
-      <c r="C674" s="3" t="s">
-        <v>1158</v>
+      <c r="C674" s="5" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -12029,8 +12053,8 @@
       <c r="B733" t="s">
         <v>214</v>
       </c>
-      <c r="C733" s="3" t="s">
-        <v>1158</v>
+      <c r="C733" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
@@ -12040,8 +12064,8 @@
       <c r="B734" t="s">
         <v>216</v>
       </c>
-      <c r="C734" s="3" t="s">
-        <v>1158</v>
+      <c r="C734" s="5" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
@@ -12062,8 +12086,8 @@
       <c r="B736" t="s">
         <v>1109</v>
       </c>
-      <c r="C736" s="3" t="s">
-        <v>1158</v>
+      <c r="C736" s="5" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -12117,8 +12141,8 @@
       <c r="B741" t="s">
         <v>225</v>
       </c>
-      <c r="C741" s="3" t="s">
-        <v>1158</v>
+      <c r="C741" s="5" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CDA8DD-04A7-4B78-ACBB-040682466A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1BF925-A743-48B5-A041-6006A8936F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1190">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3586,6 +3586,15 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/QFA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ASA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/DAL.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/SWA.png</t>
   </si>
 </sst>
 </file>
@@ -3983,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,8 +4153,8 @@
       <c r="B14" t="s">
         <v>951</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>1158</v>
+      <c r="C14" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,8 +4450,8 @@
       <c r="B41" t="s">
         <v>951</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>1158</v>
+      <c r="C41" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,8 +4714,8 @@
       <c r="B65" t="s">
         <v>951</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>1158</v>
+      <c r="C65" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,8 +4802,8 @@
       <c r="B73" t="s">
         <v>963</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>1158</v>
+      <c r="C73" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5002,8 +5011,8 @@
       <c r="B92" t="s">
         <v>968</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>1158</v>
+      <c r="C92" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5992,8 +6001,8 @@
       <c r="B182" t="s">
         <v>951</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>1158</v>
+      <c r="C182" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6080,8 +6089,8 @@
       <c r="B190" t="s">
         <v>951</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>1158</v>
+      <c r="C190" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6267,8 +6276,8 @@
       <c r="B207" t="s">
         <v>951</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>1158</v>
+      <c r="C207" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6674,8 +6683,8 @@
       <c r="B244" t="s">
         <v>951</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>1158</v>
+      <c r="C244" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -7026,8 +7035,8 @@
       <c r="B276" t="s">
         <v>951</v>
       </c>
-      <c r="C276" s="3" t="s">
-        <v>1158</v>
+      <c r="C276" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7224,8 +7233,8 @@
       <c r="B294" t="s">
         <v>951</v>
       </c>
-      <c r="C294" s="3" t="s">
-        <v>1158</v>
+      <c r="C294" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7367,8 +7376,8 @@
       <c r="B307" t="s">
         <v>951</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>1158</v>
+      <c r="C307" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7840,8 +7849,8 @@
       <c r="B350" t="s">
         <v>951</v>
       </c>
-      <c r="C350" s="3" t="s">
-        <v>1158</v>
+      <c r="C350" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8181,8 +8190,8 @@
       <c r="B381" t="s">
         <v>963</v>
       </c>
-      <c r="C381" s="3" t="s">
-        <v>1158</v>
+      <c r="C381" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8192,8 +8201,8 @@
       <c r="B382" t="s">
         <v>1054</v>
       </c>
-      <c r="C382" s="3" t="s">
-        <v>1158</v>
+      <c r="C382" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8203,8 +8212,8 @@
       <c r="B383" t="s">
         <v>968</v>
       </c>
-      <c r="C383" s="3" t="s">
-        <v>1158</v>
+      <c r="C383" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8214,8 +8223,8 @@
       <c r="B384" t="s">
         <v>271</v>
       </c>
-      <c r="C384" s="3" t="s">
-        <v>1158</v>
+      <c r="C384" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8225,8 +8234,8 @@
       <c r="B385" t="s">
         <v>1055</v>
       </c>
-      <c r="C385" s="3" t="s">
-        <v>1158</v>
+      <c r="C385" s="5" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8335,8 +8344,8 @@
       <c r="B395" t="s">
         <v>951</v>
       </c>
-      <c r="C395" s="3" t="s">
-        <v>1158</v>
+      <c r="C395" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8742,8 +8751,8 @@
       <c r="B432" t="s">
         <v>710</v>
       </c>
-      <c r="C432" s="3" t="s">
-        <v>1158</v>
+      <c r="C432" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9050,8 +9059,8 @@
       <c r="B460" t="s">
         <v>951</v>
       </c>
-      <c r="C460" s="3" t="s">
-        <v>1158</v>
+      <c r="C460" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9567,8 +9576,8 @@
       <c r="B507" t="s">
         <v>951</v>
       </c>
-      <c r="C507" s="3" t="s">
-        <v>1158</v>
+      <c r="C507" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10304,8 +10313,8 @@
       <c r="B574" t="s">
         <v>951</v>
       </c>
-      <c r="C574" s="3" t="s">
-        <v>1158</v>
+      <c r="C574" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10975,8 +10984,8 @@
       <c r="B635" t="s">
         <v>951</v>
       </c>
-      <c r="C635" s="3" t="s">
-        <v>1158</v>
+      <c r="C635" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11272,8 +11281,8 @@
       <c r="B662" t="s">
         <v>951</v>
       </c>
-      <c r="C662" s="3" t="s">
-        <v>1158</v>
+      <c r="C662" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -11525,8 +11534,8 @@
       <c r="B685" t="s">
         <v>951</v>
       </c>
-      <c r="C685" s="3" t="s">
-        <v>1158</v>
+      <c r="C685" s="5" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1BF925-A743-48B5-A041-6006A8936F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274EADEC-B78B-4C5D-A00A-BBB1ADC9F42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1193">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3595,6 +3595,15 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/SWA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/MEA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/IRA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ROT.png</t>
   </si>
 </sst>
 </file>
@@ -3992,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="C710" sqref="C710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5858,8 +5867,8 @@
       <c r="B169" t="s">
         <v>381</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>1158</v>
+      <c r="C169" s="5" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -6969,8 +6978,8 @@
       <c r="B270" t="s">
         <v>159</v>
       </c>
-      <c r="C270" s="3" t="s">
-        <v>1158</v>
+      <c r="C270" s="6" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -11810,7 +11819,7 @@
         <v>18</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -12201,8 +12210,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C570" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
+    <hyperlink ref="C270" r:id="rId2" xr:uid="{1FFD7F10-30E1-431E-898A-7FE98CA9E75E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274EADEC-B78B-4C5D-A00A-BBB1ADC9F42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0AE46-A755-4DD7-9A64-5A269F842465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1207">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3604,6 +3604,48 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/ROT.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/SWR.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/CPA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ACA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/JBU.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/AVA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/CMP.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ANZ.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/LOT.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/JAL.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ANA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/AIC.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/WZZ.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/AEE.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ETD.png</t>
   </si>
 </sst>
 </file>
@@ -4001,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
-      <selection activeCell="C710" sqref="C710"/>
+    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
+      <selection activeCell="C679" sqref="C679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,8 +4160,8 @@
       <c r="B10" t="s">
         <v>624</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1158</v>
+      <c r="C10" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,8 +4215,8 @@
       <c r="B15" t="s">
         <v>631</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1158</v>
+      <c r="C15" s="5" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4712,8 +4754,8 @@
       <c r="B64" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>1158</v>
+      <c r="C64" s="5" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4987,8 +5029,8 @@
       <c r="B89" t="s">
         <v>334</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>1158</v>
+      <c r="C89" s="5" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5174,8 +5216,8 @@
       <c r="B106" t="s">
         <v>972</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>1158</v>
+      <c r="C106" s="5" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5416,8 +5458,8 @@
       <c r="B128" t="s">
         <v>86</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>1158</v>
+      <c r="C128" s="5" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5438,8 +5480,8 @@
       <c r="B130" t="s">
         <v>90</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>1158</v>
+      <c r="C130" s="5" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5548,8 +5590,8 @@
       <c r="B140" t="s">
         <v>104</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>1158</v>
+      <c r="C140" s="5" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,8 +5788,8 @@
       <c r="B158" t="s">
         <v>990</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>1158</v>
+      <c r="C158" s="5" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,8 +5810,8 @@
       <c r="B160" t="s">
         <v>16</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>1158</v>
+      <c r="C160" s="5" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,8 +5876,8 @@
       <c r="B166" t="s">
         <v>33</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>1158</v>
+      <c r="C166" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,8 +6041,8 @@
       <c r="B181" t="s">
         <v>334</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>1158</v>
+      <c r="C181" s="5" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6230,8 +6272,8 @@
       <c r="B202" t="s">
         <v>33</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>1158</v>
+      <c r="C202" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6384,8 +6426,8 @@
       <c r="B216" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>1158</v>
+      <c r="C216" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6428,8 +6470,8 @@
       <c r="B220" t="s">
         <v>1008</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>1158</v>
+      <c r="C220" s="5" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6659,8 +6701,8 @@
       <c r="B241" t="s">
         <v>33</v>
       </c>
-      <c r="C241" s="3" t="s">
-        <v>1158</v>
+      <c r="C241" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6670,8 +6712,8 @@
       <c r="B242" t="s">
         <v>135</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>1158</v>
+      <c r="C242" s="5" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6813,8 +6855,8 @@
       <c r="B255" t="s">
         <v>135</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>1158</v>
+      <c r="C255" s="5" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -6857,8 +6899,8 @@
       <c r="B259" t="s">
         <v>141</v>
       </c>
-      <c r="C259" s="3" t="s">
-        <v>1158</v>
+      <c r="C259" s="5" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -6934,8 +6976,8 @@
       <c r="B266" t="s">
         <v>1008</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>1158</v>
+      <c r="C266" s="5" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7066,8 +7108,8 @@
       <c r="B278" t="s">
         <v>86</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>1158</v>
+      <c r="C278" s="5" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7099,8 +7141,8 @@
       <c r="B281" t="s">
         <v>33</v>
       </c>
-      <c r="C281" s="3" t="s">
-        <v>1158</v>
+      <c r="C281" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7110,8 +7152,8 @@
       <c r="B282" t="s">
         <v>104</v>
       </c>
-      <c r="C282" s="3" t="s">
-        <v>1158</v>
+      <c r="C282" s="5" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7418,8 +7460,8 @@
       <c r="B310" t="s">
         <v>141</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>1158</v>
+      <c r="C310" s="5" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,8 +7845,8 @@
       <c r="B345" t="s">
         <v>135</v>
       </c>
-      <c r="C345" s="3" t="s">
-        <v>1158</v>
+      <c r="C345" s="5" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7814,8 +7856,8 @@
       <c r="B346" t="s">
         <v>16</v>
       </c>
-      <c r="C346" s="3" t="s">
-        <v>1158</v>
+      <c r="C346" s="5" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,8 +7933,8 @@
       <c r="B353" t="s">
         <v>334</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>1158</v>
+      <c r="C353" s="5" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8331,8 +8373,8 @@
       <c r="B393" t="s">
         <v>33</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>1158</v>
+      <c r="C393" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8694,8 +8736,8 @@
       <c r="B426" t="s">
         <v>701</v>
       </c>
-      <c r="C426" s="3" t="s">
-        <v>1158</v>
+      <c r="C426" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8705,8 +8747,8 @@
       <c r="B427" t="s">
         <v>141</v>
       </c>
-      <c r="C427" s="3" t="s">
-        <v>1158</v>
+      <c r="C427" s="5" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -9035,8 +9077,8 @@
       <c r="B457" t="s">
         <v>186</v>
       </c>
-      <c r="C457" s="3" t="s">
-        <v>1158</v>
+      <c r="C457" s="5" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9541,8 +9583,8 @@
       <c r="B503" t="s">
         <v>186</v>
       </c>
-      <c r="C503" s="3" t="s">
-        <v>1158</v>
+      <c r="C503" s="5" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9618,8 +9660,8 @@
       <c r="B510" t="s">
         <v>135</v>
       </c>
-      <c r="C510" s="3" t="s">
-        <v>1158</v>
+      <c r="C510" s="5" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9629,8 +9671,8 @@
       <c r="B511" t="s">
         <v>33</v>
       </c>
-      <c r="C511" s="3" t="s">
-        <v>1158</v>
+      <c r="C511" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9662,8 +9704,8 @@
       <c r="B514" t="s">
         <v>90</v>
       </c>
-      <c r="C514" s="3" t="s">
-        <v>1158</v>
+      <c r="C514" s="5" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9904,8 +9946,8 @@
       <c r="B536" t="s">
         <v>1008</v>
       </c>
-      <c r="C536" s="3" t="s">
-        <v>1158</v>
+      <c r="C536" s="5" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -9915,8 +9957,8 @@
       <c r="B537" t="s">
         <v>33</v>
       </c>
-      <c r="C537" s="3" t="s">
-        <v>1158</v>
+      <c r="C537" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -9926,8 +9968,8 @@
       <c r="B538" t="s">
         <v>1125</v>
       </c>
-      <c r="C538" s="3" t="s">
-        <v>1158</v>
+      <c r="C538" s="5" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -9937,8 +9979,8 @@
       <c r="B539" t="s">
         <v>90</v>
       </c>
-      <c r="C539" s="3" t="s">
-        <v>1158</v>
+      <c r="C539" s="5" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -9970,8 +10012,8 @@
       <c r="B542" t="s">
         <v>186</v>
       </c>
-      <c r="C542" s="3" t="s">
-        <v>1158</v>
+      <c r="C542" s="5" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10113,8 +10155,8 @@
       <c r="B555" t="s">
         <v>929</v>
       </c>
-      <c r="C555" s="3" t="s">
-        <v>1158</v>
+      <c r="C555" s="5" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10135,8 +10177,8 @@
       <c r="B557" t="s">
         <v>90</v>
       </c>
-      <c r="C557" s="3" t="s">
-        <v>1158</v>
+      <c r="C557" s="5" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10289,8 +10331,8 @@
       <c r="B571" t="s">
         <v>186</v>
       </c>
-      <c r="C571" s="3" t="s">
-        <v>1158</v>
+      <c r="C571" s="5" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10300,8 +10342,8 @@
       <c r="B572" t="s">
         <v>1008</v>
       </c>
-      <c r="C572" s="3" t="s">
-        <v>1158</v>
+      <c r="C572" s="5" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10333,8 +10375,8 @@
       <c r="B575" t="s">
         <v>33</v>
       </c>
-      <c r="C575" s="3" t="s">
-        <v>1158</v>
+      <c r="C575" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10498,8 +10540,8 @@
       <c r="B590" t="s">
         <v>141</v>
       </c>
-      <c r="C590" s="3" t="s">
-        <v>1158</v>
+      <c r="C590" s="5" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10564,8 +10606,8 @@
       <c r="B596" t="s">
         <v>1133</v>
       </c>
-      <c r="C596" s="3" t="s">
-        <v>1158</v>
+      <c r="C596" s="5" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10641,8 +10683,8 @@
       <c r="B603" t="s">
         <v>33</v>
       </c>
-      <c r="C603" s="3" t="s">
-        <v>1158</v>
+      <c r="C603" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10894,8 +10936,8 @@
       <c r="B626" t="s">
         <v>86</v>
       </c>
-      <c r="C626" s="3" t="s">
-        <v>1158</v>
+      <c r="C626" s="5" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11048,8 +11090,8 @@
       <c r="B640" t="s">
         <v>1008</v>
       </c>
-      <c r="C640" s="3" t="s">
-        <v>1158</v>
+      <c r="C640" s="5" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11235,8 +11277,8 @@
       <c r="B657" t="s">
         <v>33</v>
       </c>
-      <c r="C657" s="3" t="s">
-        <v>1158</v>
+      <c r="C657" s="5" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -11807,8 +11849,8 @@
       <c r="B709" t="s">
         <v>16</v>
       </c>
-      <c r="C709" s="3" t="s">
-        <v>1158</v>
+      <c r="C709" s="5" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0AE46-A755-4DD7-9A64-5A269F842465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C36514-2738-4A77-B330-E177AEB591FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1208">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3646,6 +3646,9 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/ETD.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ARG.png</t>
   </si>
 </sst>
 </file>
@@ -4043,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="C679" sqref="C679"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,8 +4724,8 @@
       <c r="B61" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>1158</v>
+      <c r="C61" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,8 +4955,8 @@
       <c r="B82" t="s">
         <v>965</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>1158</v>
+      <c r="C82" s="5" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,8 +5703,8 @@
       <c r="B150" t="s">
         <v>120</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>1158</v>
+      <c r="C150" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,8 +6110,8 @@
       <c r="B187" t="s">
         <v>120</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>1158</v>
+      <c r="C187" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -7196,8 +7199,8 @@
       <c r="B286" t="s">
         <v>120</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>1158</v>
+      <c r="C286" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7350,8 +7353,8 @@
       <c r="B300" t="s">
         <v>371</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>1158</v>
+      <c r="C300" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7361,8 +7364,8 @@
       <c r="B301" t="s">
         <v>373</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>1158</v>
+      <c r="C301" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C36514-2738-4A77-B330-E177AEB591FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89EE5C0-179E-45AC-93CD-1157D5D52D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1214">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3649,6 +3649,24 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/ARG.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/BOX.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/BRU.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/CCA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/EXY.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/WJA.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/EWG.png</t>
   </si>
 </sst>
 </file>
@@ -4046,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
+      <selection activeCell="B663" sqref="B663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,8 +4214,8 @@
       <c r="B13" t="s">
         <v>628</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1158</v>
+      <c r="C13" s="5" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,8 +4280,8 @@
       <c r="B19" t="s">
         <v>637</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1158</v>
+      <c r="C19" s="5" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,7 +4292,7 @@
         <v>953</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4328,8 +4346,8 @@
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>1158</v>
+      <c r="C25" s="5" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4383,8 +4401,8 @@
       <c r="B30" t="s">
         <v>955</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>1158</v>
+      <c r="C30" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5131,8 +5149,8 @@
       <c r="B98" t="s">
         <v>348</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>1158</v>
+      <c r="C98" s="5" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5175,8 +5193,8 @@
       <c r="B102" t="s">
         <v>503</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>1158</v>
+      <c r="C102" s="5" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5857,8 +5875,8 @@
       <c r="B164" t="s">
         <v>69</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>1158</v>
+      <c r="C164" s="5" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -6198,8 +6216,8 @@
       <c r="B195" t="s">
         <v>637</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>1158</v>
+      <c r="C195" s="5" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6286,8 +6304,8 @@
       <c r="B203" t="s">
         <v>35</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>1158</v>
+      <c r="C203" s="5" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6506,8 +6524,8 @@
       <c r="B223" t="s">
         <v>69</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>1158</v>
+      <c r="C223" s="5" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -8134,8 +8152,8 @@
       <c r="B371" t="s">
         <v>252</v>
       </c>
-      <c r="C371" s="3" t="s">
-        <v>1158</v>
+      <c r="C371" s="5" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8222,8 +8240,8 @@
       <c r="B379" t="s">
         <v>35</v>
       </c>
-      <c r="C379" s="3" t="s">
-        <v>1158</v>
+      <c r="C379" s="5" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8860,8 +8878,8 @@
       <c r="B437" t="s">
         <v>718</v>
       </c>
-      <c r="C437" s="3" t="s">
-        <v>1158</v>
+      <c r="C437" s="5" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9685,8 +9703,8 @@
       <c r="B512" t="s">
         <v>35</v>
       </c>
-      <c r="C512" s="3" t="s">
-        <v>1158</v>
+      <c r="C512" s="5" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -11346,8 +11364,8 @@
       <c r="B663" t="s">
         <v>69</v>
       </c>
-      <c r="C663" s="3" t="s">
-        <v>1158</v>
+      <c r="C663" s="5" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89EE5C0-179E-45AC-93CD-1157D5D52D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67BD29-B719-4D93-B942-3E25F754DF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1217">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3667,6 +3667,15 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/EWG.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/ELY.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/HVN.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/TOM.png</t>
   </si>
 </sst>
 </file>
@@ -4064,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="B663" sqref="B663"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4797,8 +4806,8 @@
       <c r="B66" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>1158</v>
+      <c r="C66" s="5" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4907,8 +4916,8 @@
       <c r="B76" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>1158</v>
+      <c r="C76" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5094,8 +5103,8 @@
       <c r="B93" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>1158</v>
+      <c r="C93" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7096,8 +7105,8 @@
       <c r="B275" t="s">
         <v>167</v>
       </c>
-      <c r="C275" s="3" t="s">
-        <v>1158</v>
+      <c r="C275" s="5" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -8009,8 +8018,8 @@
       <c r="B358" t="s">
         <v>339</v>
       </c>
-      <c r="C358" s="3" t="s">
-        <v>1158</v>
+      <c r="C358" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8174,8 +8183,8 @@
       <c r="B373" t="s">
         <v>255</v>
       </c>
-      <c r="C373" s="3" t="s">
-        <v>1158</v>
+      <c r="C373" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -9373,8 +9382,8 @@
       <c r="B482" t="s">
         <v>167</v>
       </c>
-      <c r="C482" s="3" t="s">
-        <v>1158</v>
+      <c r="C482" s="5" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9857,7 +9866,7 @@
       <c r="B526" t="s">
         <v>339</v>
       </c>
-      <c r="C526" s="3" t="s">
+      <c r="C526" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -9879,8 +9888,8 @@
       <c r="B528" t="s">
         <v>167</v>
       </c>
-      <c r="C528" s="3" t="s">
-        <v>1158</v>
+      <c r="C528" s="5" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10605,8 +10614,8 @@
       <c r="B594" t="s">
         <v>1132</v>
       </c>
-      <c r="C594" s="3" t="s">
-        <v>1158</v>
+      <c r="C594" s="5" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67BD29-B719-4D93-B942-3E25F754DF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8AEC4-4195-4B10-93EB-3F7228D3BCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1218">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3676,6 +3676,9 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/TOM.png</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/TRA.png</t>
   </si>
 </sst>
 </file>
@@ -4073,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4201,8 +4204,8 @@
       <c r="B11" t="s">
         <v>949</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1158</v>
+      <c r="C11" s="5" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4905,8 +4908,8 @@
       <c r="B75" t="s">
         <v>312</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>1158</v>
+      <c r="C75" s="5" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -11670,8 +11673,8 @@
       <c r="B690" t="s">
         <v>312</v>
       </c>
-      <c r="C690" s="3" t="s">
-        <v>1158</v>
+      <c r="C690" s="5" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69314FFE-2B93-406C-B8FA-397689CBDA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9DBBD-BC68-4301-8E48-9B8F33D3211D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1322">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3958,6 +3958,39 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/HXA.png</t>
+  </si>
+  <si>
+    <t>233594d9-2f49-490a-b3de-3db4ab97b1d5</t>
+  </si>
+  <si>
+    <t>7f1760d2-9223-4261-b73e-d48b9bad61ce</t>
+  </si>
+  <si>
+    <t>9c9f2445-778c-45c1-9f4f-626bdf02d8b4</t>
+  </si>
+  <si>
+    <t>Nordwind Airlines</t>
+  </si>
+  <si>
+    <t>d0d20cd8-de39-461d-8cea-7d599921cd77</t>
+  </si>
+  <si>
+    <t>462d706a-fa0c-45cf-b94e-68a4d94dd805</t>
+  </si>
+  <si>
+    <t>Ukraine International Airlines</t>
+  </si>
+  <si>
+    <t>99cb6665-fc96-4b91-8570-052747c7676e</t>
+  </si>
+  <si>
+    <t>Varig</t>
+  </si>
+  <si>
+    <t>4b791971-49ce-4e11-ae5d-90f09ffd3993</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/NWS.png</t>
   </si>
 </sst>
 </file>
@@ -4356,10 +4389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C745"/>
+  <dimension ref="A1:C753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H753" sqref="H753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5713,10 +5746,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>213</v>
+        <v>1311</v>
       </c>
       <c r="B123" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>205</v>
@@ -5724,10 +5757,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>205</v>
@@ -5735,10 +5768,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>205</v>
@@ -5746,10 +5779,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>205</v>
@@ -5757,10 +5790,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>205</v>
@@ -5768,10 +5801,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>205</v>
@@ -5779,10 +5812,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>205</v>
@@ -5790,10 +5823,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>205</v>
@@ -5801,7 +5834,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B131" t="s">
         <v>225</v>
@@ -5812,29 +5845,29 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B134" t="s">
         <v>229</v>
@@ -5845,76 +5878,76 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B135" t="s">
         <v>229</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>5</v>
+        <v>229</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B138" t="s">
-        <v>237</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>5</v>
+        <v>237</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>243</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>5</v>
+        <v>237</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B141" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>5</v>
@@ -5922,32 +5955,32 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
-        <v>247</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>248</v>
@@ -5955,10 +5988,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>248</v>
@@ -5966,7 +5999,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B146" t="s">
         <v>251</v>
@@ -5977,197 +6010,197 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B147" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>5</v>
+        <v>258</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>1312</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B152" t="s">
-        <v>265</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>5</v>
+        <v>265</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B160" t="s">
-        <v>283</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>5</v>
+        <v>276</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>5</v>
+        <v>280</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B163" t="s">
-        <v>290</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>5</v>
@@ -6175,32 +6208,32 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>5</v>
+        <v>290</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>5</v>
@@ -6208,21 +6241,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>5</v>
+        <v>295</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>5</v>
@@ -6230,10 +6263,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B170" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>5</v>
@@ -6241,10 +6274,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B171" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>5</v>
@@ -6252,10 +6285,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>5</v>
@@ -6263,10 +6296,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B173" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>5</v>
@@ -6274,10 +6307,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B174" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>5</v>
@@ -6285,10 +6318,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B175" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>5</v>
@@ -6296,10 +6329,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>5</v>
@@ -6307,10 +6340,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B177" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>5</v>
@@ -6318,40 +6351,40 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B178" t="s">
-        <v>319</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B179" t="s">
-        <v>319</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B180" t="s">
-        <v>319</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B181" t="s">
         <v>319</v>
@@ -6362,7 +6395,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B182" t="s">
         <v>319</v>
@@ -6373,7 +6406,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B183" t="s">
         <v>319</v>
@@ -6384,7 +6417,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B184" t="s">
         <v>319</v>
@@ -6395,7 +6428,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B185" t="s">
         <v>319</v>
@@ -6406,7 +6439,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B186" t="s">
         <v>319</v>
@@ -6417,7 +6450,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B187" t="s">
         <v>319</v>
@@ -6428,7 +6461,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B188" t="s">
         <v>319</v>
@@ -6439,7 +6472,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B189" t="s">
         <v>319</v>
@@ -6450,7 +6483,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B190" t="s">
         <v>319</v>
@@ -6461,7 +6494,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B191" t="s">
         <v>319</v>
@@ -6472,7 +6505,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B192" t="s">
         <v>319</v>
@@ -6483,10 +6516,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B193" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>320</v>
@@ -6494,106 +6527,106 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B194" t="s">
-        <v>338</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>5</v>
+        <v>319</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B195" t="s">
-        <v>340</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B196" t="s">
-        <v>343</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>93</v>
+        <v>336</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B197" t="s">
-        <v>345</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B198" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B199" t="s">
-        <v>351</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>5</v>
+        <v>343</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B200" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B201" t="s">
-        <v>353</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>353</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B203" t="s">
         <v>353</v>
@@ -6604,10 +6637,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>354</v>
@@ -6615,95 +6648,95 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>361</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B206" t="s">
-        <v>361</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B207" t="s">
-        <v>365</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B208" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>371</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>5</v>
+        <v>361</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>373</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B211" t="s">
-        <v>373</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B212" t="s">
-        <v>373</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B213" t="s">
         <v>373</v>
@@ -6714,7 +6747,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B214" t="s">
         <v>373</v>
@@ -6725,98 +6758,98 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B215" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1309</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B216" t="s">
-        <v>382</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B217" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>1310</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B218" t="s">
-        <v>387</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B219" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B220" t="s">
-        <v>391</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>5</v>
+        <v>385</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B221" t="s">
-        <v>393</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>5</v>
+        <v>387</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B222" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B223" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>5</v>
@@ -6824,106 +6857,106 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B224" t="s">
-        <v>400</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B225" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B226" t="s">
-        <v>403</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B227" t="s">
-        <v>407</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B228" t="s">
-        <v>409</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>5</v>
+        <v>403</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B229" t="s">
-        <v>409</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>5</v>
+        <v>403</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>411</v>
+      <c r="A230" t="s">
+        <v>406</v>
       </c>
       <c r="B230" t="s">
-        <v>412</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B231" t="s">
-        <v>412</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B232" t="s">
-        <v>412</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>416</v>
+      <c r="A233" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B233" t="s">
         <v>412</v>
@@ -6934,7 +6967,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B234" t="s">
         <v>412</v>
@@ -6945,7 +6978,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B235" t="s">
         <v>412</v>
@@ -6956,7 +6989,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B236" t="s">
         <v>412</v>
@@ -6966,8 +6999,8 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>420</v>
+      <c r="A237" t="s">
+        <v>417</v>
       </c>
       <c r="B237" t="s">
         <v>412</v>
@@ -6978,7 +7011,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B238" t="s">
         <v>412</v>
@@ -6989,7 +7022,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B239" t="s">
         <v>412</v>
@@ -6999,8 +7032,8 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>423</v>
+      <c r="A240" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="B240" t="s">
         <v>412</v>
@@ -7011,7 +7044,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B241" t="s">
         <v>412</v>
@@ -7022,7 +7055,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B242" t="s">
         <v>412</v>
@@ -7033,7 +7066,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B243" t="s">
         <v>412</v>
@@ -7044,7 +7077,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B244" t="s">
         <v>412</v>
@@ -7055,7 +7088,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B245" t="s">
         <v>412</v>
@@ -7066,7 +7099,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B246" t="s">
         <v>412</v>
@@ -7077,7 +7110,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B247" t="s">
         <v>412</v>
@@ -7088,98 +7121,98 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B248" t="s">
-        <v>432</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>433</v>
+        <v>412</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B249" t="s">
-        <v>432</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>433</v>
+        <v>412</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B250" t="s">
-        <v>436</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B251" t="s">
-        <v>439</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>5</v>
+        <v>432</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B252" t="s">
-        <v>441</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>5</v>
+        <v>432</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B253" t="s">
-        <v>441</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>5</v>
+        <v>436</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B254" t="s">
-        <v>444</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B255" t="s">
-        <v>444</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B256" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>5</v>
@@ -7187,54 +7220,54 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B257" t="s">
-        <v>450</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>5</v>
+        <v>444</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B258" t="s">
-        <v>452</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>5</v>
+        <v>444</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B259" t="s">
-        <v>454</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B260" t="s">
-        <v>457</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B261" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>5</v>
@@ -7242,51 +7275,51 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B262" t="s">
-        <v>461</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>5</v>
+        <v>454</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B263" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B264" t="s">
-        <v>463</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B265" t="s">
-        <v>463</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B266" t="s">
         <v>463</v>
@@ -7297,10 +7330,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B267" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>464</v>
@@ -7308,98 +7341,98 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B268" t="s">
-        <v>471</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B269" t="s">
-        <v>471</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B270" t="s">
-        <v>475</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B271" t="s">
-        <v>475</v>
-      </c>
-      <c r="C271" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C271" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B272" t="s">
-        <v>475</v>
-      </c>
-      <c r="C272" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C272" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B273" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B274" t="s">
-        <v>479</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B275" t="s">
-        <v>479</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B276" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>480</v>
@@ -7407,10 +7440,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B277" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>480</v>
@@ -7418,10 +7451,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B278" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>480</v>
@@ -7429,10 +7462,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B279" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>480</v>
@@ -7440,21 +7473,21 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B280" t="s">
-        <v>491</v>
-      </c>
-      <c r="C280" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C280" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B281" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>480</v>
@@ -7462,10 +7495,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B282" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>480</v>
@@ -7473,128 +7506,128 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B283" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B284" t="s">
-        <v>496</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B285" t="s">
-        <v>496</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B286" t="s">
-        <v>501</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B287" t="s">
-        <v>504</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B288" t="s">
-        <v>506</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>5</v>
+        <v>496</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B289" t="s">
-        <v>508</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>5</v>
+        <v>501</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B290" t="s">
-        <v>508</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>5</v>
+        <v>504</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B291" t="s">
-        <v>511</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>512</v>
+        <v>506</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B292" t="s">
-        <v>514</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B293" t="s">
-        <v>511</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B294" t="s">
         <v>511</v>
@@ -7605,164 +7638,164 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B295" t="s">
-        <v>518</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>5</v>
+        <v>514</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B296" t="s">
-        <v>520</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B297" t="s">
-        <v>523</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B298" t="s">
-        <v>523</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B299" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B300" t="s">
-        <v>528</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>5</v>
+        <v>523</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>529</v>
+      <c r="A301" t="s">
+        <v>525</v>
       </c>
       <c r="B301" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B302" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B303" t="s">
-        <v>534</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>536</v>
+      <c r="A304" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="B304" t="s">
-        <v>537</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>5</v>
+        <v>530</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B305" t="s">
-        <v>539</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>5</v>
+        <v>530</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B306" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B307" t="s">
-        <v>541</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B308" t="s">
-        <v>545</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B309" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>542</v>
@@ -7770,10 +7803,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B310" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>542</v>
@@ -7781,10 +7814,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B311" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>542</v>
@@ -7792,10 +7825,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B312" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>542</v>
@@ -7803,10 +7836,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B313" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>542</v>
@@ -7814,40 +7847,40 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B314" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B315" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B316" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B317" t="s">
         <v>557</v>
@@ -7858,7 +7891,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B318" t="s">
         <v>557</v>
@@ -7869,10 +7902,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B319" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>558</v>
@@ -7880,43 +7913,43 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B320" t="s">
-        <v>566</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>5</v>
+        <v>557</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B321" t="s">
-        <v>568</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>5</v>
+        <v>557</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B322" t="s">
-        <v>568</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>5</v>
+        <v>564</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>5</v>
@@ -7924,7 +7957,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B324" t="s">
         <v>568</v>
@@ -7935,7 +7968,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B325" t="s">
         <v>568</v>
@@ -7946,7 +7979,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B326" t="s">
         <v>568</v>
@@ -7957,7 +7990,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B327" t="s">
         <v>568</v>
@@ -7968,7 +8001,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B328" t="s">
         <v>568</v>
@@ -7979,7 +8012,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B329" t="s">
         <v>568</v>
@@ -7990,7 +8023,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B330" t="s">
         <v>568</v>
@@ -8001,7 +8034,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B331" t="s">
         <v>568</v>
@@ -8012,7 +8045,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B332" t="s">
         <v>568</v>
@@ -8023,7 +8056,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B333" t="s">
         <v>568</v>
@@ -8034,7 +8067,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B334" t="s">
         <v>568</v>
@@ -8045,7 +8078,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B335" t="s">
         <v>568</v>
@@ -8056,7 +8089,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B336" t="s">
         <v>568</v>
@@ -8067,7 +8100,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B337" t="s">
         <v>568</v>
@@ -8078,7 +8111,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B338" t="s">
         <v>568</v>
@@ -8089,7 +8122,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B339" t="s">
         <v>568</v>
@@ -8100,7 +8133,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B340" t="s">
         <v>568</v>
@@ -8111,7 +8144,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B341" t="s">
         <v>568</v>
@@ -8122,7 +8155,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B342" t="s">
         <v>568</v>
@@ -8133,7 +8166,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B343" t="s">
         <v>568</v>
@@ -8144,7 +8177,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B344" t="s">
         <v>568</v>
@@ -8155,7 +8188,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B345" t="s">
         <v>568</v>
@@ -8166,7 +8199,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B346" t="s">
         <v>568</v>
@@ -8177,7 +8210,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B347" t="s">
         <v>568</v>
@@ -8188,7 +8221,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B348" t="s">
         <v>568</v>
@@ -8199,7 +8232,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B349" t="s">
         <v>568</v>
@@ -8210,7 +8243,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B350" t="s">
         <v>568</v>
@@ -8221,7 +8254,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B351" t="s">
         <v>568</v>
@@ -8232,7 +8265,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B352" t="s">
         <v>568</v>
@@ -8243,7 +8276,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B353" t="s">
         <v>568</v>
@@ -8254,7 +8287,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B354" t="s">
         <v>568</v>
@@ -8265,7 +8298,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B355" t="s">
         <v>568</v>
@@ -8276,7 +8309,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B356" t="s">
         <v>568</v>
@@ -8287,7 +8320,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B357" t="s">
         <v>568</v>
@@ -8298,7 +8331,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B358" t="s">
         <v>568</v>
@@ -8309,7 +8342,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B359" t="s">
         <v>568</v>
@@ -8320,7 +8353,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B360" t="s">
         <v>568</v>
@@ -8330,8 +8363,8 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>608</v>
+      <c r="A361" t="s">
+        <v>605</v>
       </c>
       <c r="B361" t="s">
         <v>568</v>
@@ -8342,7 +8375,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B362" t="s">
         <v>568</v>
@@ -8353,7 +8386,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B363" t="s">
         <v>568</v>
@@ -8363,8 +8396,8 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>611</v>
+      <c r="A364" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="B364" t="s">
         <v>568</v>
@@ -8375,7 +8408,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B365" t="s">
         <v>568</v>
@@ -8386,7 +8419,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B366" t="s">
         <v>568</v>
@@ -8397,7 +8430,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B367" t="s">
         <v>568</v>
@@ -8408,87 +8441,87 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B368" t="s">
-        <v>616</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>617</v>
+        <v>568</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B369" t="s">
-        <v>619</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>617</v>
+        <v>568</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B370" t="s">
-        <v>621</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>617</v>
+        <v>568</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B371" t="s">
-        <v>623</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>5</v>
+        <v>616</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B372" t="s">
-        <v>625</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>5</v>
+        <v>619</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B373" t="s">
-        <v>627</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>5</v>
+        <v>621</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B374" t="s">
-        <v>629</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B375" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>5</v>
@@ -8496,32 +8529,32 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B376" t="s">
-        <v>634</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B377" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B378" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>5</v>
@@ -8529,65 +8562,65 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B379" t="s">
-        <v>639</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>5</v>
+        <v>634</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B380" t="s">
-        <v>642</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>185</v>
+        <v>637</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B381" t="s">
-        <v>644</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B382" t="s">
-        <v>644</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B383" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>645</v>
+        <v>185</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B384" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>645</v>
@@ -8595,10 +8628,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B385" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>645</v>
@@ -8606,54 +8639,54 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B386" t="s">
-        <v>653</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B387" t="s">
-        <v>656</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>5</v>
+        <v>649</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B388" t="s">
-        <v>658</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B389" t="s">
-        <v>661</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>5</v>
+        <v>653</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B390" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>5</v>
@@ -8661,21 +8694,21 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B391" t="s">
-        <v>664</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>5</v>
+        <v>658</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B392" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>5</v>
@@ -8683,10 +8716,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B393" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>5</v>
@@ -8694,7 +8727,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B394" t="s">
         <v>664</v>
@@ -8705,7 +8738,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B395" t="s">
         <v>664</v>
@@ -8716,10 +8749,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B396" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>5</v>
@@ -8727,10 +8760,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B397" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>5</v>
@@ -8738,10 +8771,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B398" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>5</v>
@@ -8749,10 +8782,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B399" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>5</v>
@@ -8760,7 +8793,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B400" t="s">
         <v>672</v>
@@ -8771,10 +8804,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B401" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>5</v>
@@ -8782,10 +8815,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B402" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>5</v>
@@ -8793,10 +8826,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B403" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>5</v>
@@ -8804,10 +8837,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B404" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>5</v>
@@ -8815,32 +8848,32 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B405" t="s">
-        <v>685</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>686</v>
+        <v>679</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B406" t="s">
-        <v>688</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B407" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>5</v>
@@ -8848,54 +8881,54 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B408" t="s">
-        <v>693</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>5</v>
+        <v>685</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B409" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B410" t="s">
-        <v>698</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B411" t="s">
-        <v>700</v>
-      </c>
-      <c r="C411" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B412" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>696</v>
@@ -8903,10 +8936,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B413" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>696</v>
@@ -8914,7 +8947,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B414" t="s">
         <v>700</v>
@@ -8925,7 +8958,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B415" t="s">
         <v>700</v>
@@ -8936,120 +8969,120 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B416" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B417" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B418" t="s">
-        <v>712</v>
-      </c>
-      <c r="C418" s="5" t="s">
-        <v>713</v>
+        <v>700</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B419" t="s">
-        <v>712</v>
-      </c>
-      <c r="C419" s="5" t="s">
-        <v>713</v>
+        <v>706</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B420" t="s">
-        <v>712</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B421" t="s">
-        <v>717</v>
-      </c>
-      <c r="C421" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B422" t="s">
-        <v>717</v>
-      </c>
-      <c r="C422" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B423" t="s">
-        <v>721</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>5</v>
+        <v>712</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B424" t="s">
-        <v>723</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>5</v>
+        <v>717</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B425" t="s">
-        <v>725</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>5</v>
+        <v>717</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B426" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>5</v>
@@ -9057,10 +9090,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B427" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>5</v>
@@ -9068,62 +9101,62 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B428" t="s">
-        <v>731</v>
-      </c>
-      <c r="C428" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B429" t="s">
-        <v>734</v>
-      </c>
-      <c r="C429" s="5" t="s">
-        <v>735</v>
+        <v>727</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B430" t="s">
-        <v>734</v>
-      </c>
-      <c r="C430" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B431" t="s">
-        <v>734</v>
-      </c>
-      <c r="C431" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>738</v>
+        <v>1320</v>
       </c>
       <c r="B432" t="s">
-        <v>734</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B433" t="s">
         <v>734</v>
@@ -9134,7 +9167,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B434" t="s">
         <v>734</v>
@@ -9145,7 +9178,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B435" t="s">
         <v>734</v>
@@ -9156,7 +9189,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B436" t="s">
         <v>734</v>
@@ -9167,7 +9200,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B437" t="s">
         <v>734</v>
@@ -9178,7 +9211,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B438" t="s">
         <v>734</v>
@@ -9189,7 +9222,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B439" t="s">
         <v>734</v>
@@ -9200,7 +9233,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B440" t="s">
         <v>734</v>
@@ -9211,10 +9244,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B441" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>735</v>
@@ -9222,10 +9255,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B442" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>735</v>
@@ -9233,10 +9266,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B443" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>735</v>
@@ -9244,54 +9277,54 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B444" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B445" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B446" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B447" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B448" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>754</v>
@@ -9299,10 +9332,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B449" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>754</v>
@@ -9310,205 +9343,205 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B450" t="s">
-        <v>764</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>5</v>
+        <v>758</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B451" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B452" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B453" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B454" t="s">
-        <v>772</v>
-      </c>
-      <c r="C454" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B455" t="s">
-        <v>772</v>
-      </c>
-      <c r="C455" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C455" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B456" t="s">
-        <v>772</v>
-      </c>
-      <c r="C456" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C456" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B457" t="s">
-        <v>772</v>
-      </c>
-      <c r="C457" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C457" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B458" t="s">
-        <v>777</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>5</v>
+        <v>772</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B459" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B460" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B461" t="s">
-        <v>785</v>
-      </c>
-      <c r="C461" s="5" t="s">
-        <v>786</v>
+        <v>772</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B462" t="s">
-        <v>785</v>
-      </c>
-      <c r="C462" s="5" t="s">
-        <v>786</v>
+        <v>777</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>788</v>
+      <c r="A463" t="s">
+        <v>778</v>
       </c>
       <c r="B463" t="s">
-        <v>785</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>786</v>
+        <v>779</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B464" t="s">
-        <v>790</v>
-      </c>
-      <c r="C464" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B465" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B466" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>794</v>
+      <c r="A467" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="B467" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B468" t="s">
         <v>790</v>
@@ -9518,8 +9551,8 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>796</v>
+      <c r="A469" t="s">
+        <v>792</v>
       </c>
       <c r="B469" t="s">
         <v>790</v>
@@ -9530,18 +9563,18 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B470" t="s">
         <v>790</v>
       </c>
-      <c r="C470" s="6" t="s">
+      <c r="C470" s="5" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B471" t="s">
         <v>790</v>
@@ -9552,7 +9585,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B472" t="s">
         <v>790</v>
@@ -9562,11 +9595,11 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>800</v>
+      <c r="A473" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="B473" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>791</v>
@@ -9574,21 +9607,21 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B474" t="s">
-        <v>801</v>
-      </c>
-      <c r="C474" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C474" s="6" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B475" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>791</v>
@@ -9596,10 +9629,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B476" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>791</v>
@@ -9607,10 +9640,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B477" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>791</v>
@@ -9618,10 +9651,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B478" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>791</v>
@@ -9629,73 +9662,73 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B479" t="s">
-        <v>812</v>
-      </c>
-      <c r="C479" s="7" t="s">
-        <v>813</v>
+        <v>804</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B480" t="s">
-        <v>812</v>
-      </c>
-      <c r="C480" s="7" t="s">
-        <v>813</v>
+        <v>806</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B481" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B482" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B483" t="s">
-        <v>816</v>
-      </c>
-      <c r="C483" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B484" t="s">
-        <v>816</v>
-      </c>
-      <c r="C484" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
-        <v>821</v>
+      <c r="A485" t="s">
+        <v>815</v>
       </c>
       <c r="B485" t="s">
         <v>816</v>
@@ -9706,7 +9739,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B486" t="s">
         <v>816</v>
@@ -9717,54 +9750,54 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B487" t="s">
-        <v>824</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>5</v>
+        <v>816</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B488" t="s">
-        <v>826</v>
-      </c>
-      <c r="C488" s="7" t="s">
-        <v>827</v>
+        <v>816</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>828</v>
+      <c r="A489" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="B489" t="s">
-        <v>829</v>
-      </c>
-      <c r="C489" s="7" t="s">
-        <v>830</v>
+        <v>816</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B490" t="s">
-        <v>832</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>5</v>
+        <v>816</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B491" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>5</v>
@@ -9772,43 +9805,43 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B492" t="s">
-        <v>836</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>5</v>
+        <v>826</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B493" t="s">
-        <v>838</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>5</v>
+        <v>829</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B494" t="s">
-        <v>840</v>
-      </c>
-      <c r="C494" s="7" t="s">
-        <v>841</v>
+        <v>832</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B495" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>5</v>
@@ -9816,10 +9849,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B496" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>5</v>
@@ -9827,10 +9860,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="B497" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>5</v>
@@ -9838,21 +9871,21 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="B498" t="s">
-        <v>849</v>
-      </c>
-      <c r="C498" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C498" s="7" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B499" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>5</v>
@@ -9860,43 +9893,43 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B500" t="s">
-        <v>853</v>
-      </c>
-      <c r="C500" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B501" t="s">
-        <v>856</v>
-      </c>
-      <c r="C501" s="7" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B502" t="s">
-        <v>858</v>
-      </c>
-      <c r="C502" s="7" t="s">
-        <v>859</v>
+        <v>849</v>
+      </c>
+      <c r="C502" s="6" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B503" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>5</v>
@@ -9904,43 +9937,43 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B504" t="s">
-        <v>863</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>5</v>
+        <v>853</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B505" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
-        <v>867</v>
+      <c r="A506" t="s">
+        <v>857</v>
       </c>
       <c r="B506" t="s">
-        <v>868</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>5</v>
+        <v>858</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B507" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C507" s="3" t="s">
         <v>5</v>
@@ -9948,10 +9981,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B508" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C508" s="3" t="s">
         <v>5</v>
@@ -9959,32 +9992,32 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B509" t="s">
-        <v>874</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>5</v>
+        <v>865</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>875</v>
+      <c r="A510" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="B510" t="s">
-        <v>876</v>
-      </c>
-      <c r="C510" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C510" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B511" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="C511" s="3" t="s">
         <v>5</v>
@@ -9992,10 +10025,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B512" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C512" s="3" t="s">
         <v>5</v>
@@ -10003,10 +10036,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B513" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C513" s="3" t="s">
         <v>5</v>
@@ -10014,29 +10047,29 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>880</v>
+        <v>1313</v>
       </c>
       <c r="B514" t="s">
-        <v>876</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>5</v>
+        <v>1314</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B515" t="s">
         <v>876</v>
       </c>
-      <c r="C515" s="3" t="s">
+      <c r="C515" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B516" t="s">
         <v>876</v>
@@ -10047,32 +10080,32 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B517" t="s">
-        <v>884</v>
-      </c>
-      <c r="C517" s="7" t="s">
-        <v>885</v>
+        <v>876</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B518" t="s">
-        <v>884</v>
-      </c>
-      <c r="C518" s="7" t="s">
-        <v>885</v>
+        <v>876</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B519" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="C519" s="3" t="s">
         <v>5</v>
@@ -10080,21 +10113,21 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B520" t="s">
-        <v>890</v>
-      </c>
-      <c r="C520" s="7" t="s">
-        <v>891</v>
+        <v>876</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B521" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="C521" s="3" t="s">
         <v>5</v>
@@ -10102,219 +10135,219 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B522" t="s">
-        <v>893</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>5</v>
+        <v>884</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="B523" t="s">
-        <v>896</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>5</v>
+        <v>884</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
-        <v>897</v>
+      <c r="A524" t="s">
+        <v>887</v>
       </c>
       <c r="B524" t="s">
-        <v>898</v>
-      </c>
-      <c r="C524" s="7" t="s">
-        <v>899</v>
+        <v>888</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B525" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="B526" t="s">
-        <v>901</v>
-      </c>
-      <c r="C526" s="7" t="s">
-        <v>899</v>
+        <v>893</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B527" t="s">
-        <v>904</v>
-      </c>
-      <c r="C527" s="7" t="s">
-        <v>905</v>
+        <v>893</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B528" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="C528" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>908</v>
+      <c r="A529" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="B529" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="B530" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="B531" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="B532" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B533" t="s">
-        <v>912</v>
-      </c>
-      <c r="C533" s="7" t="s">
-        <v>913</v>
+        <v>907</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B534" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B535" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B536" t="s">
-        <v>923</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>5</v>
+        <v>912</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B537" t="s">
-        <v>923</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>5</v>
+        <v>912</v>
+      </c>
+      <c r="C537" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B538" t="s">
-        <v>926</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>5</v>
+        <v>912</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B539" t="s">
-        <v>926</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>5</v>
+        <v>918</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B540" t="s">
-        <v>929</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>5</v>
+        <v>920</v>
+      </c>
+      <c r="C540" s="7" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B541" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C541" s="3" t="s">
         <v>5</v>
@@ -10322,10 +10355,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B542" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="C542" s="3" t="s">
         <v>5</v>
@@ -10333,10 +10366,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B543" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C543" s="3" t="s">
         <v>5</v>
@@ -10344,10 +10377,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B544" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="C544" s="3" t="s">
         <v>5</v>
@@ -10355,10 +10388,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B545" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="C545" s="3" t="s">
         <v>5</v>
@@ -10366,10 +10399,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="B546" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="C546" s="3" t="s">
         <v>5</v>
@@ -10377,10 +10410,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="B547" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="C547" s="3" t="s">
         <v>5</v>
@@ -10388,10 +10421,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="B548" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="C548" s="3" t="s">
         <v>5</v>
@@ -10399,65 +10432,65 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="B549" t="s">
-        <v>946</v>
-      </c>
-      <c r="C549" s="5" t="s">
-        <v>947</v>
+        <v>936</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="B550" t="s">
-        <v>946</v>
-      </c>
-      <c r="C550" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="B551" t="s">
-        <v>946</v>
-      </c>
-      <c r="C551" s="5" t="s">
-        <v>947</v>
+        <v>940</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B552" t="s">
-        <v>946</v>
-      </c>
-      <c r="C552" s="5" t="s">
-        <v>947</v>
+        <v>942</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="B553" t="s">
-        <v>946</v>
-      </c>
-      <c r="C553" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B554" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>947</v>
@@ -10465,10 +10498,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B555" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C555" s="5" t="s">
         <v>947</v>
@@ -10476,10 +10509,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B556" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>947</v>
@@ -10487,73 +10520,73 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B557" t="s">
-        <v>957</v>
-      </c>
-      <c r="C557" s="7" t="s">
-        <v>958</v>
+        <v>946</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B558" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="C558" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="B559" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B560" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C560" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B561" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C561" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="B562" t="s">
-        <v>960</v>
-      </c>
-      <c r="C562" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C562" s="7" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B563" t="s">
         <v>960</v>
@@ -10564,7 +10597,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B564" t="s">
         <v>960</v>
@@ -10575,10 +10608,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B565" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>958</v>
@@ -10586,10 +10619,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B566" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C566" s="5" t="s">
         <v>958</v>
@@ -10597,76 +10630,76 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B567" t="s">
-        <v>972</v>
-      </c>
-      <c r="C567" s="3" t="s">
-        <v>5</v>
+        <v>960</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B568" t="s">
-        <v>974</v>
-      </c>
-      <c r="C568" s="3" t="s">
-        <v>5</v>
+        <v>960</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B569" t="s">
-        <v>976</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>5</v>
+        <v>960</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="B570" t="s">
-        <v>978</v>
-      </c>
-      <c r="C570" s="3" t="s">
-        <v>5</v>
+        <v>968</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B571" t="s">
-        <v>978</v>
-      </c>
-      <c r="C571" s="3" t="s">
-        <v>5</v>
+        <v>970</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B572" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C572" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
-        <v>982</v>
+      <c r="A573" t="s">
+        <v>973</v>
       </c>
       <c r="B573" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="C573" s="3" t="s">
         <v>5</v>
@@ -10674,32 +10707,32 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B574" t="s">
-        <v>985</v>
-      </c>
-      <c r="C574" s="7" t="s">
-        <v>986</v>
+        <v>976</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="B575" t="s">
-        <v>985</v>
-      </c>
-      <c r="C575" s="7" t="s">
-        <v>986</v>
+        <v>978</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="B576" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="C576" s="3" t="s">
         <v>5</v>
@@ -10707,128 +10740,128 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="B577" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="C577" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>992</v>
+      <c r="A578" s="1" t="s">
+        <v>982</v>
       </c>
       <c r="B578" t="s">
-        <v>993</v>
-      </c>
-      <c r="C578" s="7" t="s">
-        <v>994</v>
+        <v>983</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="B579" t="s">
-        <v>996</v>
-      </c>
-      <c r="C579" s="3" t="s">
-        <v>5</v>
+        <v>985</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="B580" t="s">
-        <v>998</v>
-      </c>
-      <c r="C580" s="5" t="s">
-        <v>999</v>
+        <v>985</v>
+      </c>
+      <c r="C580" s="7" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B581" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C581" s="7" t="s">
-        <v>1002</v>
+        <v>989</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="B582" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C582" s="7" t="s">
-        <v>1005</v>
+        <v>991</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="B583" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="B584" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C584" s="7" t="s">
-        <v>1008</v>
+        <v>996</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="B585" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C585" s="7" t="s">
-        <v>1008</v>
+        <v>998</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="B586" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
-        <v>1012</v>
+      <c r="A587" t="s">
+        <v>1003</v>
       </c>
       <c r="B587" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B588" t="s">
         <v>1007</v>
@@ -10839,7 +10872,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B589" t="s">
         <v>1007</v>
@@ -10849,11 +10882,11 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
-        <v>1015</v>
+      <c r="A590" t="s">
+        <v>1010</v>
       </c>
       <c r="B590" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C590" s="7" t="s">
         <v>1008</v>
@@ -10861,362 +10894,362 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B591" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>1020</v>
+      <c r="A592" s="1" t="s">
+        <v>1012</v>
       </c>
       <c r="B592" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="B593" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C593" s="7" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B594" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>1025</v>
+      <c r="A595" s="1" t="s">
+        <v>1015</v>
       </c>
       <c r="B595" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C595" s="3" t="s">
-        <v>5</v>
+        <v>1016</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="B596" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C596" s="3" t="s">
-        <v>5</v>
+        <v>1018</v>
+      </c>
+      <c r="C596" s="7" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B597" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C597" s="3" t="s">
-        <v>5</v>
+        <v>1018</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B598" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>5</v>
+        <v>1018</v>
+      </c>
+      <c r="C598" s="7" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="B599" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C599" s="3" t="s">
-        <v>5</v>
+        <v>1023</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="B600" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C600" s="7" t="s">
-        <v>1037</v>
+        <v>1026</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="B601" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C601" s="7" t="s">
-        <v>1040</v>
+        <v>1028</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="B602" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C602" s="5" t="s">
-        <v>1040</v>
+        <v>1030</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="B603" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C603" s="5" t="s">
-        <v>1040</v>
+        <v>1032</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="B604" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C604" s="5" t="s">
-        <v>1040</v>
+        <v>1034</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B605" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C605" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="B606" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C606" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C606" s="7" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B607" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C607" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C607" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B608" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C608" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B609" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C609" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C609" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B610" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C610" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="B611" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C611" s="7" t="s">
-        <v>1057</v>
+        <v>1042</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="B612" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C612" s="7" t="s">
-        <v>1057</v>
+        <v>1048</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="B613" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C613" s="7" t="s">
-        <v>1057</v>
+        <v>1050</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="B614" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C614" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B615" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C615" s="5" t="s">
-        <v>1005</v>
+        <v>1054</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="B616" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C616" s="5" t="s">
-        <v>1005</v>
+        <v>1056</v>
+      </c>
+      <c r="C616" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B617" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C617" s="3" t="s">
-        <v>5</v>
+        <v>1056</v>
+      </c>
+      <c r="C617" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B618" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C618" s="5" t="s">
-        <v>1068</v>
+        <v>1056</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="B619" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C619" s="5" t="s">
-        <v>1068</v>
+        <v>1056</v>
+      </c>
+      <c r="C619" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="B620" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="C620" s="5" t="s">
-        <v>1068</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="B621" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>1068</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="B622" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C622" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="B623" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="C623" s="5" t="s">
         <v>1068</v>
@@ -11224,10 +11257,10 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="B624" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>1068</v>
@@ -11235,329 +11268,329 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="B625" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C625" s="3" t="s">
-        <v>5</v>
+        <v>1071</v>
+      </c>
+      <c r="C625" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="B626" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C626" s="7" t="s">
-        <v>1083</v>
+        <v>1073</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="B627" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C627" s="7" t="s">
-        <v>1083</v>
+        <v>1073</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="B628" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C628" s="7" t="s">
-        <v>1088</v>
+        <v>1076</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="B629" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C629" s="7" t="s">
-        <v>1088</v>
+        <v>1078</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="B630" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C630" s="7" t="s">
-        <v>1093</v>
+        <v>1080</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="B631" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="B632" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C632" s="3" t="s">
-        <v>5</v>
+        <v>1085</v>
+      </c>
+      <c r="C632" s="7" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="B633" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C633" s="5" t="s">
-        <v>1101</v>
+        <v>1087</v>
+      </c>
+      <c r="C633" s="7" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="B634" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C634" s="5" t="s">
-        <v>1101</v>
+        <v>1090</v>
+      </c>
+      <c r="C634" s="7" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="B635" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C635" s="5" t="s">
-        <v>1101</v>
+        <v>1092</v>
+      </c>
+      <c r="C635" s="7" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="B636" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C636" s="5" t="s">
-        <v>1101</v>
+        <v>1095</v>
+      </c>
+      <c r="C636" s="7" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="B637" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C637" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B638" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C638" s="5" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="B639" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C639" s="7" t="s">
-        <v>767</v>
+        <v>1100</v>
+      </c>
+      <c r="C639" s="5" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="B640" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C640" s="7" t="s">
-        <v>767</v>
+        <v>1100</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="B641" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C641" s="7" t="s">
-        <v>767</v>
+        <v>1100</v>
+      </c>
+      <c r="C641" s="5" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="B642" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C642" s="3" t="s">
-        <v>5</v>
+        <v>1100</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B643" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C643" s="3" t="s">
-        <v>5</v>
+        <v>1107</v>
+      </c>
+      <c r="C643" s="5" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1118</v>
+        <v>1315</v>
       </c>
       <c r="B644" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="C644" s="5" t="s">
-        <v>161</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="B645" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C645" s="5" t="s">
-        <v>161</v>
+        <v>1110</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="B646" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C646" s="3" t="s">
-        <v>1123</v>
+        <v>1110</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="B647" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C647" s="3" t="s">
-        <v>5</v>
+        <v>1113</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B648" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C648" s="5" t="s">
-        <v>1128</v>
+        <v>1115</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="B649" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C649" s="5" t="s">
-        <v>1128</v>
+        <v>1117</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="B650" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C650" s="5" t="s">
-        <v>1128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="B651" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C651" s="5" t="s">
-        <v>1128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="B652" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C652" s="5" t="s">
-        <v>1128</v>
+        <v>1122</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="B653" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C653" s="7" t="s">
-        <v>1128</v>
+        <v>1125</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B654" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C654" s="5" t="s">
         <v>1128</v>
@@ -11565,10 +11598,10 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="B655" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C655" s="5" t="s">
         <v>1128</v>
@@ -11576,384 +11609,384 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="B656" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C656" s="7" t="s">
-        <v>1139</v>
+        <v>1127</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="B657" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C657" s="7" t="s">
-        <v>1139</v>
+        <v>1127</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="B658" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C658" s="7" t="s">
-        <v>1139</v>
+        <v>1127</v>
+      </c>
+      <c r="C658" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="B659" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="B660" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C660" s="7" t="s">
-        <v>1144</v>
+        <v>1135</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="B661" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C661" s="3" t="s">
-        <v>5</v>
+        <v>1135</v>
+      </c>
+      <c r="C661" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="B662" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="B663" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="B664" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="B665" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C665" s="5" t="s">
-        <v>1158</v>
+        <v>1143</v>
+      </c>
+      <c r="C665" s="7" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="B666" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C666" s="5" t="s">
-        <v>1158</v>
+        <v>1146</v>
+      </c>
+      <c r="C666" s="7" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="B667" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C667" s="5" t="s">
-        <v>1144</v>
+        <v>1148</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="B668" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C668" s="5" t="s">
-        <v>1144</v>
+        <v>1150</v>
+      </c>
+      <c r="C668" s="7" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="B669" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C669" s="5" t="s">
-        <v>5</v>
+        <v>1153</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="B670" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C670" s="5" t="s">
-        <v>1144</v>
+        <v>1153</v>
+      </c>
+      <c r="C670" s="7" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="B671" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C671" s="5" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B672" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C672" s="3" t="s">
-        <v>5</v>
+        <v>1157</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="B673" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C673" s="3" t="s">
-        <v>5</v>
+        <v>1161</v>
+      </c>
+      <c r="C673" s="5" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="B674" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="C674" s="5" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="B675" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="C675" s="5" t="s">
-        <v>1173</v>
+        <v>5</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="B676" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C676" s="5" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="B677" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C677" s="5" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="B678" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C678" s="5" t="s">
-        <v>1173</v>
+        <v>1168</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="B679" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C679" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="B680" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="C680" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="B681" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C681" s="3" t="s">
-        <v>5</v>
+        <v>1172</v>
+      </c>
+      <c r="C681" s="5" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="B682" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="C682" s="5" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="B683" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="C683" s="5" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="B684" t="s">
-        <v>1192</v>
+        <v>1172</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="B685" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="C685" s="5" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="B686" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="C686" s="5" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="B687" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C687" s="5" t="s">
-        <v>1190</v>
+        <v>1184</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B688" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1197</v>
+        <v>1316</v>
       </c>
       <c r="B689" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C689" s="5" t="s">
-        <v>1190</v>
+        <v>1317</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="B690" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>1190</v>
@@ -11961,7 +11994,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="B691" t="s">
         <v>1192</v>
@@ -11972,7 +12005,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B692" t="s">
         <v>1192</v>
@@ -11983,7 +12016,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B693" t="s">
         <v>1192</v>
@@ -11994,10 +12027,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B694" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>1190</v>
@@ -12005,10 +12038,10 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="B695" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>1190</v>
@@ -12016,10 +12049,10 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="B696" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>1190</v>
@@ -12027,10 +12060,10 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B697" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="C697" s="5" t="s">
         <v>1190</v>
@@ -12038,10 +12071,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="B698" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="C698" s="5" t="s">
         <v>1190</v>
@@ -12049,10 +12082,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="B699" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>1190</v>
@@ -12060,10 +12093,10 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="B700" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="C700" s="5" t="s">
         <v>1190</v>
@@ -12071,120 +12104,120 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="B701" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="B702" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="C702" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="B703" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="C703" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="B704" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C704" s="3" t="s">
-        <v>5</v>
+        <v>1207</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="B705" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C705" s="3" t="s">
-        <v>5</v>
+        <v>1210</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="B706" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C706" s="3" t="s">
-        <v>5</v>
+        <v>1210</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="B707" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C707" s="3" t="s">
-        <v>5</v>
+        <v>1213</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="B708" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C708" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B709" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C709" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="B710" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C710" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="B711" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="C711" s="3" t="s">
         <v>5</v>
@@ -12192,10 +12225,10 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="B712" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="C712" s="3" t="s">
         <v>5</v>
@@ -12203,10 +12236,10 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="B713" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="C713" s="3" t="s">
         <v>5</v>
@@ -12214,10 +12247,10 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="B714" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="C714" s="3" t="s">
         <v>5</v>
@@ -12225,10 +12258,10 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="B715" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="C715" s="3" t="s">
         <v>5</v>
@@ -12236,10 +12269,10 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="B716" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="C716" s="3" t="s">
         <v>5</v>
@@ -12247,230 +12280,230 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="B717" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C717" s="5" t="s">
-        <v>1244</v>
+        <v>1229</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="B718" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C718" s="5" t="s">
-        <v>1244</v>
+        <v>1231</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="B719" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C719" s="5" t="s">
-        <v>1244</v>
+        <v>1233</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="B720" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C720" s="7" t="s">
-        <v>1249</v>
+        <v>1235</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="B721" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C721" s="7" t="s">
-        <v>1252</v>
+        <v>1237</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1253</v>
+        <v>1318</v>
       </c>
       <c r="B722" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C722" s="7" t="s">
-        <v>1252</v>
+        <v>1319</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="B723" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C723" s="7" t="s">
-        <v>1252</v>
+        <v>1239</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
       <c r="B724" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C724" s="7" t="s">
-        <v>1259</v>
+        <v>1241</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1260</v>
+        <v>1242</v>
       </c>
       <c r="B725" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C725" s="7" t="s">
-        <v>1259</v>
+        <v>1243</v>
+      </c>
+      <c r="C725" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="B726" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C726" s="7" t="s">
-        <v>1263</v>
+        <v>1243</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1264</v>
+        <v>1246</v>
       </c>
       <c r="B727" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C727" s="7" t="s">
-        <v>1266</v>
+        <v>1243</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="B728" t="s">
-        <v>1268</v>
+        <v>1248</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>1269</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="B729" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C729" s="3" t="s">
-        <v>5</v>
+        <v>1251</v>
+      </c>
+      <c r="C729" s="7" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1272</v>
+        <v>1253</v>
       </c>
       <c r="B730" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C730" s="5" t="s">
-        <v>1274</v>
+        <v>1254</v>
+      </c>
+      <c r="C730" s="7" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1275</v>
+        <v>1255</v>
       </c>
       <c r="B731" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C731" s="5" t="s">
-        <v>1274</v>
+        <v>1256</v>
+      </c>
+      <c r="C731" s="7" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1277</v>
+        <v>1257</v>
       </c>
       <c r="B732" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C732" s="5" t="s">
-        <v>1274</v>
+        <v>1258</v>
+      </c>
+      <c r="C732" s="7" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1279</v>
+        <v>1260</v>
       </c>
       <c r="B733" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C733" s="3" t="s">
-        <v>5</v>
+        <v>1258</v>
+      </c>
+      <c r="C733" s="7" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1281</v>
+        <v>1261</v>
       </c>
       <c r="B734" t="s">
-        <v>1282</v>
+        <v>1262</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>1283</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1284</v>
+        <v>1264</v>
       </c>
       <c r="B735" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C735" s="5" t="s">
-        <v>1286</v>
+        <v>1265</v>
+      </c>
+      <c r="C735" s="7" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1287</v>
+        <v>1267</v>
       </c>
       <c r="B736" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C736" s="5" t="s">
-        <v>1286</v>
+        <v>1268</v>
+      </c>
+      <c r="C736" s="7" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="B737" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="C737" s="3" t="s">
         <v>5</v>
@@ -12478,271 +12511,361 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1290</v>
+        <v>1272</v>
       </c>
       <c r="B738" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C738" s="7" t="s">
-        <v>1292</v>
+        <v>1273</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1293</v>
+        <v>1275</v>
       </c>
       <c r="B739" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C739" s="7" t="s">
-        <v>1292</v>
+        <v>1276</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1295</v>
+        <v>1277</v>
       </c>
       <c r="B740" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C740" s="7" t="s">
-        <v>1297</v>
+        <v>1278</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="B741" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C741" s="7" t="s">
-        <v>1300</v>
+        <v>1280</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1301</v>
+        <v>1281</v>
       </c>
       <c r="B742" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C742" s="3" t="s">
-        <v>5</v>
+        <v>1282</v>
+      </c>
+      <c r="C742" s="7" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
       <c r="B743" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C743" s="3" t="s">
-        <v>5</v>
+        <v>1285</v>
+      </c>
+      <c r="C743" s="5" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1305</v>
+        <v>1287</v>
       </c>
       <c r="B744" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C744" s="3" t="s">
-        <v>5</v>
+        <v>1285</v>
+      </c>
+      <c r="C744" s="5" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C746" s="7" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C747" s="7" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C748" s="7" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C749" s="7" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
         <v>1307</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B753" t="s">
         <v>1308</v>
       </c>
-      <c r="C745" s="3" t="s">
+      <c r="C753" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C745">
-    <sortCondition ref="B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C753">
+    <sortCondition ref="B740"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C470" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
-    <hyperlink ref="C498" r:id="rId2" xr:uid="{1FFD7F10-30E1-431E-898A-7FE98CA9E75E}"/>
+    <hyperlink ref="C474" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
+    <hyperlink ref="C502" r:id="rId2" xr:uid="{1FFD7F10-30E1-431E-898A-7FE98CA9E75E}"/>
     <hyperlink ref="C113" r:id="rId3" xr:uid="{5694FAF1-3C4D-41FD-9342-1F750914BD88}"/>
     <hyperlink ref="C114" r:id="rId4" xr:uid="{DE929E58-0827-4DE7-89E8-7164CAB16A48}"/>
-    <hyperlink ref="C137" r:id="rId5" xr:uid="{F41125B7-D667-481B-B74B-B8CFB86E824E}"/>
-    <hyperlink ref="C138" r:id="rId6" xr:uid="{C2446C7E-5645-410D-9C05-D11C80F487A6}"/>
-    <hyperlink ref="C148" r:id="rId7" xr:uid="{C93E5BBB-1956-4333-A0C2-AEB27C909B82}"/>
-    <hyperlink ref="C149" r:id="rId8" xr:uid="{A11BBEAA-2057-4F39-BE07-2E07C1B7AE35}"/>
-    <hyperlink ref="C156" r:id="rId9" xr:uid="{31FAAE50-BEFA-43B5-B55C-91B97B365920}"/>
-    <hyperlink ref="C155" r:id="rId10" xr:uid="{307D70AE-C4F4-4ED2-A8A9-8D969AE983CE}"/>
-    <hyperlink ref="C159" r:id="rId11" xr:uid="{1FCFAE34-56BD-49FA-AB6E-C46A06A7B47D}"/>
-    <hyperlink ref="C160" r:id="rId12" xr:uid="{865F5313-214F-47F5-9B1B-A14692FC1927}"/>
-    <hyperlink ref="C165" r:id="rId13" xr:uid="{D95CFC15-DE0B-4697-8208-EE57D4FF0102}"/>
-    <hyperlink ref="C195" r:id="rId14" xr:uid="{F08DD734-A9B1-47D3-AC2B-03A743A1B2A8}"/>
-    <hyperlink ref="C196" r:id="rId15" xr:uid="{BDFB4DA0-A56B-4A59-BC2D-8F73C733D79A}"/>
-    <hyperlink ref="C198" r:id="rId16" xr:uid="{058EF08E-6A77-448A-8D18-B6DC91CC902E}"/>
-    <hyperlink ref="C205" r:id="rId17" xr:uid="{4706EEFA-A1AB-4625-A7EF-F0221B98CB1D}"/>
-    <hyperlink ref="C206" r:id="rId18" xr:uid="{F3A739B8-8873-4E71-9EED-8C6CB09879E4}"/>
-    <hyperlink ref="C207" r:id="rId19" xr:uid="{02A1ADE3-F608-4EF7-8AB4-3FEC81E75A0E}"/>
-    <hyperlink ref="C208" r:id="rId20" xr:uid="{D6B0FD9B-5308-47D8-9BF9-377CAA3414E4}"/>
-    <hyperlink ref="C216" r:id="rId21" xr:uid="{B979763C-A57B-4A25-96F1-71D15E63977C}"/>
-    <hyperlink ref="C218" r:id="rId22" xr:uid="{76A1E6E6-903B-4543-9AFE-7FFD16AFF685}"/>
-    <hyperlink ref="C219" r:id="rId23" xr:uid="{31E1C69A-49DA-4906-B12F-CCC0168EC9FE}"/>
-    <hyperlink ref="C222" r:id="rId24" xr:uid="{3521175F-AC2B-43DD-BDA3-4211EE90B588}"/>
-    <hyperlink ref="C225" r:id="rId25" xr:uid="{58B2B766-2ED9-4F2A-926F-7CE5876202AE}"/>
-    <hyperlink ref="C226" r:id="rId26" xr:uid="{E0821DBA-5193-4E9B-BC50-7CB9E2655589}"/>
-    <hyperlink ref="C248" r:id="rId27" xr:uid="{DCF379A6-68B2-496C-B7B3-19BEA96F2204}"/>
-    <hyperlink ref="C249" r:id="rId28" xr:uid="{C0CD2576-3FC2-4AE0-BE27-ED5A9990B3E9}"/>
-    <hyperlink ref="C250" r:id="rId29" xr:uid="{73CFADC2-AA5F-451E-BDDE-C5D0C08C22E0}"/>
-    <hyperlink ref="C254" r:id="rId30" xr:uid="{06603856-CABA-41CC-8B3B-F3215E576EC9}"/>
-    <hyperlink ref="C255" r:id="rId31" xr:uid="{55007813-6CB6-43CD-876C-FE838DE94AF9}"/>
-    <hyperlink ref="C259" r:id="rId32" xr:uid="{2D8EC933-1BE9-4DFB-A220-A681BE615921}"/>
-    <hyperlink ref="C270" r:id="rId33" xr:uid="{761AE8F5-6CE5-45F1-B281-1C3F85C3AF27}"/>
-    <hyperlink ref="C269" r:id="rId34" xr:uid="{A4A2AF16-F107-4EA3-87D5-2E4889CFED26}"/>
-    <hyperlink ref="C268" r:id="rId35" xr:uid="{636F97C2-A40D-4730-AD86-49EC8390577C}"/>
-    <hyperlink ref="C273" r:id="rId36" xr:uid="{A1825094-8361-41CF-A0DE-4A84AC5EB13E}"/>
-    <hyperlink ref="C274" r:id="rId37" xr:uid="{E0E4A481-A30C-4846-9C0B-86548B33EC38}"/>
-    <hyperlink ref="C275" r:id="rId38" xr:uid="{3A2E3784-72FD-4311-A9DD-EF8AF7B78089}"/>
-    <hyperlink ref="C276" r:id="rId39" xr:uid="{D115A1B5-B1D9-409C-BB9E-667F49A6C083}"/>
-    <hyperlink ref="C277" r:id="rId40" xr:uid="{10889A01-4559-4097-B267-1E6068B2EDD9}"/>
-    <hyperlink ref="C278" r:id="rId41" xr:uid="{BF493C2D-9194-4A43-BA82-B718205F57E5}"/>
-    <hyperlink ref="C279" r:id="rId42" xr:uid="{00375E0A-C35B-4E75-B31F-A82AC7A9B931}"/>
-    <hyperlink ref="C281" r:id="rId43" xr:uid="{7CECD78A-F0DD-4021-80A9-50DF2B814A4F}"/>
-    <hyperlink ref="C282" r:id="rId44" xr:uid="{487B22D0-57BA-4B40-877E-1FEC4051FE7C}"/>
-    <hyperlink ref="C286" r:id="rId45" xr:uid="{6E8C69AA-192A-4154-8C85-5C713441D938}"/>
-    <hyperlink ref="C287" r:id="rId46" xr:uid="{0F8F4654-49B4-430A-9560-018D6E62BA04}"/>
-    <hyperlink ref="C296" r:id="rId47" xr:uid="{385A0A0C-BDA8-4951-A24D-A5F4685BC65B}"/>
-    <hyperlink ref="C297" r:id="rId48" xr:uid="{D89BE6C8-8469-4F2C-9FC6-9FE6BD571CE1}"/>
-    <hyperlink ref="C298" r:id="rId49" xr:uid="{DC995FC6-4B24-4F0B-9645-C1C953BB9075}"/>
-    <hyperlink ref="C299" r:id="rId50" xr:uid="{E2AE46AD-3F70-45DB-8515-9BCD53AABC7D}"/>
-    <hyperlink ref="C301" r:id="rId51" xr:uid="{C06C8A75-5A3D-421C-9098-23D59F26FF3B}"/>
-    <hyperlink ref="C302" r:id="rId52" xr:uid="{154CCA85-9370-47F2-9CA1-AD3D91019655}"/>
-    <hyperlink ref="C303" r:id="rId53" xr:uid="{BDE4EA5B-E212-43AF-9F2D-E0D13DC21DFF}"/>
-    <hyperlink ref="C306" r:id="rId54" xr:uid="{459C73A2-5837-420A-9041-BA13EF27B907}"/>
-    <hyperlink ref="C307" r:id="rId55" xr:uid="{64087C42-A7E5-4954-A4CA-6FCD3AFC9F54}"/>
-    <hyperlink ref="C308" r:id="rId56" xr:uid="{F29AE44F-4E3D-48B1-91DA-EDE94508D8C4}"/>
-    <hyperlink ref="C309" r:id="rId57" xr:uid="{6501AA8B-F65E-4E03-B2DF-0B3378B03E48}"/>
-    <hyperlink ref="C310" r:id="rId58" xr:uid="{A8939077-23AF-4587-AE24-0E324533AAC6}"/>
-    <hyperlink ref="C311" r:id="rId59" xr:uid="{4FE90C1E-698A-4BCC-92F8-7707B6ACC42B}"/>
-    <hyperlink ref="C312" r:id="rId60" xr:uid="{E545AA3D-E166-49A7-9E84-8FE2AE6230A3}"/>
-    <hyperlink ref="C313" r:id="rId61" xr:uid="{D7524563-2549-4EDA-9AB4-4A578B02C796}"/>
-    <hyperlink ref="C314" r:id="rId62" xr:uid="{DF4E4437-78B1-4902-AFA1-5395FEB03076}"/>
-    <hyperlink ref="C315" r:id="rId63" xr:uid="{AD3F5082-2B66-4261-9EB2-CD2B2ACA7A7E}"/>
-    <hyperlink ref="C316" r:id="rId64" xr:uid="{DCACB595-564E-45B7-812F-95F2BFE2869D}"/>
-    <hyperlink ref="C317" r:id="rId65" xr:uid="{1D53DCDD-A90E-47F0-85E4-D7F1F7A4A0AC}"/>
-    <hyperlink ref="C318" r:id="rId66" xr:uid="{EC1FFFD2-3999-487A-8CA8-2314FA16DBBB}"/>
-    <hyperlink ref="C319" r:id="rId67" xr:uid="{B5CEE578-DD01-4EC9-93D7-01DDE211FE35}"/>
-    <hyperlink ref="C374" r:id="rId68" xr:uid="{1D3AC609-2E4B-40B6-AD33-7BA034F6183B}"/>
-    <hyperlink ref="C376" r:id="rId69" xr:uid="{5C77D951-3C85-4C4E-A8D9-F6AF0D5843DE}"/>
-    <hyperlink ref="C377" r:id="rId70" xr:uid="{15A99EDB-D519-4239-80CB-C53A72CE2619}"/>
-    <hyperlink ref="C386" r:id="rId71" xr:uid="{92EF42C3-7729-4CD5-8DA1-307456AC5A86}"/>
-    <hyperlink ref="C388" r:id="rId72" xr:uid="{85D1F75B-83E1-4CB7-956E-2C1DEB380C90}"/>
-    <hyperlink ref="C406" r:id="rId73" xr:uid="{2662653A-DD6A-4A24-A16D-DDAB0A6760CC}"/>
-    <hyperlink ref="C409" r:id="rId74" xr:uid="{91607537-76ED-421C-9EF0-77F8A2D8304A}"/>
-    <hyperlink ref="C410" r:id="rId75" xr:uid="{6BEC13F7-BF8E-4B73-90E5-C53796CDA863}"/>
-    <hyperlink ref="C411" r:id="rId76" xr:uid="{7BB177D0-D2B7-45D6-BEB8-228A983C8172}"/>
-    <hyperlink ref="C412" r:id="rId77" xr:uid="{6B2F58DF-AA6C-4BA7-B7EA-D0B7ECE46279}"/>
-    <hyperlink ref="C413" r:id="rId78" xr:uid="{5E3FF262-1E26-47E6-A40F-8AEF03715EF3}"/>
-    <hyperlink ref="C414" r:id="rId79" xr:uid="{4827EC17-D5E3-4F7E-8621-AF1577399BAA}"/>
-    <hyperlink ref="C415" r:id="rId80" xr:uid="{2FB66B37-E01F-4CBC-B69F-EAA6F4466B06}"/>
-    <hyperlink ref="C416" r:id="rId81" xr:uid="{2DEBA2DE-4AE2-44EE-9A0C-4BE62E8161CA}"/>
-    <hyperlink ref="C417" r:id="rId82" xr:uid="{9F336295-81C0-40F2-93DB-BCFC172F1706}"/>
-    <hyperlink ref="C421" r:id="rId83" xr:uid="{373CB7F6-BCED-430A-8FB7-4106FA77A5CE}"/>
-    <hyperlink ref="C422" r:id="rId84" xr:uid="{49DEADCC-DD9B-40F4-93C8-AB8B5B5D8C85}"/>
-    <hyperlink ref="C428" r:id="rId85" xr:uid="{27435455-E4D7-46FE-9979-76D8D5E45A7C}"/>
-    <hyperlink ref="C459" r:id="rId86" xr:uid="{CB445ED1-986D-49AA-B92A-D152D2EE26D7}"/>
-    <hyperlink ref="C460" r:id="rId87" xr:uid="{AC452A0B-C5A2-4ED3-9EB9-C8AF832ADF22}"/>
-    <hyperlink ref="C479" r:id="rId88" xr:uid="{008F7E1C-3DD9-488D-B92E-B47478E6257E}"/>
-    <hyperlink ref="C480" r:id="rId89" xr:uid="{DFD1AAE1-7763-43BA-B64B-50D8EF3A8FA4}"/>
-    <hyperlink ref="C488" r:id="rId90" xr:uid="{FE93D868-FB33-4933-869F-7E1364946E29}"/>
-    <hyperlink ref="C489" r:id="rId91" xr:uid="{3232589B-AD34-44A2-A894-DD86D94FFEB5}"/>
-    <hyperlink ref="C494" r:id="rId92" xr:uid="{C887C4B4-9C80-45CB-A0BD-5EEFCB9C6A5D}"/>
-    <hyperlink ref="C500" r:id="rId93" xr:uid="{922FF8E9-2048-495F-AECF-0934A9EDBBFD}"/>
-    <hyperlink ref="C501" r:id="rId94" xr:uid="{6BA9828B-BD89-4F94-9410-5284C9B221E4}"/>
-    <hyperlink ref="C502" r:id="rId95" xr:uid="{FF8A8CBB-337D-4C36-8DEA-88B26CA6FE1D}"/>
-    <hyperlink ref="C505" r:id="rId96" xr:uid="{BC87A924-52A1-4F62-B96D-D7768848AFD3}"/>
-    <hyperlink ref="C510" r:id="rId97" xr:uid="{801CB12B-C855-4D47-A845-0F2BBE148A2A}"/>
-    <hyperlink ref="C517" r:id="rId98" xr:uid="{6739B732-0245-4ADC-9A2D-3A23EAF29A45}"/>
-    <hyperlink ref="C518" r:id="rId99" xr:uid="{45825CC5-5E1E-45FD-9E2D-C8E45A0FD0DB}"/>
-    <hyperlink ref="C520" r:id="rId100" xr:uid="{EC3D4157-1CAE-4C13-954B-0DFF53D3DDB9}"/>
-    <hyperlink ref="C524" r:id="rId101" xr:uid="{E990EB42-0515-4430-A365-67BACA2D48CE}"/>
-    <hyperlink ref="C525" r:id="rId102" xr:uid="{FC673107-5C8A-4E1B-8C38-55F35E559ECB}"/>
-    <hyperlink ref="C526" r:id="rId103" xr:uid="{716AF2A5-F40B-4FCE-B0B8-1A836CBE6D26}"/>
-    <hyperlink ref="C527" r:id="rId104" xr:uid="{3A4F84A5-7A7C-4B23-AAB1-07FF7291F07B}"/>
-    <hyperlink ref="C529" r:id="rId105" xr:uid="{DBB07998-0CD2-41A8-B9C7-111A698C04D4}"/>
-    <hyperlink ref="C530" r:id="rId106" xr:uid="{A72954A2-4BE8-4E5B-A403-B1D9F9DAC964}"/>
-    <hyperlink ref="C531" r:id="rId107" xr:uid="{F77C3477-6D7E-45FF-9BC2-E21C6DA8DFDC}"/>
-    <hyperlink ref="C532" r:id="rId108" xr:uid="{3EAE3DE2-87FE-448A-8D9B-20D3C4D5400C}"/>
-    <hyperlink ref="C533" r:id="rId109" xr:uid="{C9D581BB-76F4-4C1D-8FCE-450FED677B68}"/>
-    <hyperlink ref="C534" r:id="rId110" xr:uid="{BE571891-8E35-469F-9FE6-1E8C6D264793}"/>
-    <hyperlink ref="C535" r:id="rId111" xr:uid="{64A3CE78-7C62-474D-86F4-CD2B0CD3764E}"/>
-    <hyperlink ref="C557" r:id="rId112" xr:uid="{6756F5E3-A910-40AF-B2FB-FA2896AEA41B}"/>
-    <hyperlink ref="C575" r:id="rId113" xr:uid="{799435F4-7649-46B9-9669-5C3B9E72D41A}"/>
-    <hyperlink ref="C574" r:id="rId114" xr:uid="{4E065C65-24D3-4F9B-97F2-39C3D2EA30F1}"/>
-    <hyperlink ref="C578" r:id="rId115" xr:uid="{4D5DAB33-F966-4485-9423-DF4F732554FC}"/>
-    <hyperlink ref="C581" r:id="rId116" xr:uid="{23E1B7C6-9D92-448C-9364-59F7D53F222B}"/>
-    <hyperlink ref="C582" r:id="rId117" xr:uid="{5A4CD2B6-0BED-4566-B9FC-BBE8FF1BB536}"/>
-    <hyperlink ref="C583" r:id="rId118" xr:uid="{E62F34BE-AD16-4697-AE3E-9E661A24148A}"/>
-    <hyperlink ref="C584" r:id="rId119" xr:uid="{121A711F-95BB-4538-B243-D3464240F575}"/>
-    <hyperlink ref="C585" r:id="rId120" xr:uid="{CD5D138F-1EF3-4FD4-9363-CE2F9579D4A0}"/>
-    <hyperlink ref="C586" r:id="rId121" xr:uid="{E0B3A71E-1BF1-43DD-A8B4-4F31545C0449}"/>
-    <hyperlink ref="C587" r:id="rId122" xr:uid="{26AE98E3-17E4-4C62-926F-5533DA8DDA54}"/>
-    <hyperlink ref="C588" r:id="rId123" xr:uid="{C86EF7AB-FDFC-41F5-8CFC-E1B8122AD848}"/>
-    <hyperlink ref="C589" r:id="rId124" xr:uid="{DEB8CDD4-F974-4551-9A88-9D3F031FAF61}"/>
-    <hyperlink ref="C590" r:id="rId125" xr:uid="{26A26117-6F55-41B0-B595-FB655A623076}"/>
-    <hyperlink ref="C591" r:id="rId126" xr:uid="{72A32827-9D20-4D73-B3C0-C324089DD165}"/>
-    <hyperlink ref="C592" r:id="rId127" xr:uid="{EC81D2F1-46AB-42B8-8F4C-04751200BFF4}"/>
-    <hyperlink ref="C593" r:id="rId128" xr:uid="{F6C7F9A4-D91A-402B-8A19-824CB5932DF9}"/>
-    <hyperlink ref="C594" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
-    <hyperlink ref="C600" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
-    <hyperlink ref="C601" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
-    <hyperlink ref="C611" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
-    <hyperlink ref="C612" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
-    <hyperlink ref="C613" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
-    <hyperlink ref="C614" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
-    <hyperlink ref="C626" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
-    <hyperlink ref="C627" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
-    <hyperlink ref="C628" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
-    <hyperlink ref="C629" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
-    <hyperlink ref="C630" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
-    <hyperlink ref="C631" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
-    <hyperlink ref="C639" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
-    <hyperlink ref="C640" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
-    <hyperlink ref="C641" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
-    <hyperlink ref="C457" r:id="rId145" xr:uid="{377CD652-368C-4314-A164-D49B86A5008D}"/>
-    <hyperlink ref="C456" r:id="rId146" xr:uid="{C951C838-B3A0-47F2-ADAE-652F18C58DC1}"/>
-    <hyperlink ref="C454" r:id="rId147" xr:uid="{888616A4-9F6D-45D1-8BF2-E426AFB16F80}"/>
-    <hyperlink ref="C455" r:id="rId148" xr:uid="{0B3F2A4A-91C2-4D5A-B29A-4D5117BFEFE3}"/>
-    <hyperlink ref="C653" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
-    <hyperlink ref="C656" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
-    <hyperlink ref="C657" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
-    <hyperlink ref="C658" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
-    <hyperlink ref="C659" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
-    <hyperlink ref="C660" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
-    <hyperlink ref="C662" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
-    <hyperlink ref="C663" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
-    <hyperlink ref="C664" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
-    <hyperlink ref="C720" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
-    <hyperlink ref="C721" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
-    <hyperlink ref="C722" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
-    <hyperlink ref="C723" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
-    <hyperlink ref="C724" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
-    <hyperlink ref="C725" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
-    <hyperlink ref="C726" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
-    <hyperlink ref="C727" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
-    <hyperlink ref="C728" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
-    <hyperlink ref="C734" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
-    <hyperlink ref="C738" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
-    <hyperlink ref="C739" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
-    <hyperlink ref="C740" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
-    <hyperlink ref="C741" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
-    <hyperlink ref="C133" r:id="rId172" xr:uid="{0EBD26DB-323F-422E-91F1-A6E9B3505678}"/>
+    <hyperlink ref="C139" r:id="rId5" xr:uid="{F41125B7-D667-481B-B74B-B8CFB86E824E}"/>
+    <hyperlink ref="C140" r:id="rId6" xr:uid="{C2446C7E-5645-410D-9C05-D11C80F487A6}"/>
+    <hyperlink ref="C150" r:id="rId7" xr:uid="{C93E5BBB-1956-4333-A0C2-AEB27C909B82}"/>
+    <hyperlink ref="C152" r:id="rId8" xr:uid="{A11BBEAA-2057-4F39-BE07-2E07C1B7AE35}"/>
+    <hyperlink ref="C159" r:id="rId9" xr:uid="{31FAAE50-BEFA-43B5-B55C-91B97B365920}"/>
+    <hyperlink ref="C158" r:id="rId10" xr:uid="{307D70AE-C4F4-4ED2-A8A9-8D969AE983CE}"/>
+    <hyperlink ref="C162" r:id="rId11" xr:uid="{1FCFAE34-56BD-49FA-AB6E-C46A06A7B47D}"/>
+    <hyperlink ref="C163" r:id="rId12" xr:uid="{865F5313-214F-47F5-9B1B-A14692FC1927}"/>
+    <hyperlink ref="C168" r:id="rId13" xr:uid="{D95CFC15-DE0B-4697-8208-EE57D4FF0102}"/>
+    <hyperlink ref="C198" r:id="rId14" xr:uid="{F08DD734-A9B1-47D3-AC2B-03A743A1B2A8}"/>
+    <hyperlink ref="C199" r:id="rId15" xr:uid="{BDFB4DA0-A56B-4A59-BC2D-8F73C733D79A}"/>
+    <hyperlink ref="C201" r:id="rId16" xr:uid="{058EF08E-6A77-448A-8D18-B6DC91CC902E}"/>
+    <hyperlink ref="C208" r:id="rId17" xr:uid="{4706EEFA-A1AB-4625-A7EF-F0221B98CB1D}"/>
+    <hyperlink ref="C209" r:id="rId18" xr:uid="{F3A739B8-8873-4E71-9EED-8C6CB09879E4}"/>
+    <hyperlink ref="C210" r:id="rId19" xr:uid="{02A1ADE3-F608-4EF7-8AB4-3FEC81E75A0E}"/>
+    <hyperlink ref="C211" r:id="rId20" xr:uid="{D6B0FD9B-5308-47D8-9BF9-377CAA3414E4}"/>
+    <hyperlink ref="C219" r:id="rId21" xr:uid="{B979763C-A57B-4A25-96F1-71D15E63977C}"/>
+    <hyperlink ref="C221" r:id="rId22" xr:uid="{76A1E6E6-903B-4543-9AFE-7FFD16AFF685}"/>
+    <hyperlink ref="C222" r:id="rId23" xr:uid="{31E1C69A-49DA-4906-B12F-CCC0168EC9FE}"/>
+    <hyperlink ref="C225" r:id="rId24" xr:uid="{3521175F-AC2B-43DD-BDA3-4211EE90B588}"/>
+    <hyperlink ref="C228" r:id="rId25" xr:uid="{58B2B766-2ED9-4F2A-926F-7CE5876202AE}"/>
+    <hyperlink ref="C229" r:id="rId26" xr:uid="{E0821DBA-5193-4E9B-BC50-7CB9E2655589}"/>
+    <hyperlink ref="C251" r:id="rId27" xr:uid="{DCF379A6-68B2-496C-B7B3-19BEA96F2204}"/>
+    <hyperlink ref="C252" r:id="rId28" xr:uid="{C0CD2576-3FC2-4AE0-BE27-ED5A9990B3E9}"/>
+    <hyperlink ref="C253" r:id="rId29" xr:uid="{73CFADC2-AA5F-451E-BDDE-C5D0C08C22E0}"/>
+    <hyperlink ref="C257" r:id="rId30" xr:uid="{06603856-CABA-41CC-8B3B-F3215E576EC9}"/>
+    <hyperlink ref="C258" r:id="rId31" xr:uid="{55007813-6CB6-43CD-876C-FE838DE94AF9}"/>
+    <hyperlink ref="C262" r:id="rId32" xr:uid="{2D8EC933-1BE9-4DFB-A220-A681BE615921}"/>
+    <hyperlink ref="C273" r:id="rId33" xr:uid="{761AE8F5-6CE5-45F1-B281-1C3F85C3AF27}"/>
+    <hyperlink ref="C272" r:id="rId34" xr:uid="{A4A2AF16-F107-4EA3-87D5-2E4889CFED26}"/>
+    <hyperlink ref="C271" r:id="rId35" xr:uid="{636F97C2-A40D-4730-AD86-49EC8390577C}"/>
+    <hyperlink ref="C276" r:id="rId36" xr:uid="{A1825094-8361-41CF-A0DE-4A84AC5EB13E}"/>
+    <hyperlink ref="C277" r:id="rId37" xr:uid="{E0E4A481-A30C-4846-9C0B-86548B33EC38}"/>
+    <hyperlink ref="C278" r:id="rId38" xr:uid="{3A2E3784-72FD-4311-A9DD-EF8AF7B78089}"/>
+    <hyperlink ref="C279" r:id="rId39" xr:uid="{D115A1B5-B1D9-409C-BB9E-667F49A6C083}"/>
+    <hyperlink ref="C280" r:id="rId40" xr:uid="{10889A01-4559-4097-B267-1E6068B2EDD9}"/>
+    <hyperlink ref="C281" r:id="rId41" xr:uid="{BF493C2D-9194-4A43-BA82-B718205F57E5}"/>
+    <hyperlink ref="C282" r:id="rId42" xr:uid="{00375E0A-C35B-4E75-B31F-A82AC7A9B931}"/>
+    <hyperlink ref="C284" r:id="rId43" xr:uid="{7CECD78A-F0DD-4021-80A9-50DF2B814A4F}"/>
+    <hyperlink ref="C285" r:id="rId44" xr:uid="{487B22D0-57BA-4B40-877E-1FEC4051FE7C}"/>
+    <hyperlink ref="C289" r:id="rId45" xr:uid="{6E8C69AA-192A-4154-8C85-5C713441D938}"/>
+    <hyperlink ref="C290" r:id="rId46" xr:uid="{0F8F4654-49B4-430A-9560-018D6E62BA04}"/>
+    <hyperlink ref="C299" r:id="rId47" xr:uid="{385A0A0C-BDA8-4951-A24D-A5F4685BC65B}"/>
+    <hyperlink ref="C300" r:id="rId48" xr:uid="{D89BE6C8-8469-4F2C-9FC6-9FE6BD571CE1}"/>
+    <hyperlink ref="C301" r:id="rId49" xr:uid="{DC995FC6-4B24-4F0B-9645-C1C953BB9075}"/>
+    <hyperlink ref="C302" r:id="rId50" xr:uid="{E2AE46AD-3F70-45DB-8515-9BCD53AABC7D}"/>
+    <hyperlink ref="C304" r:id="rId51" xr:uid="{C06C8A75-5A3D-421C-9098-23D59F26FF3B}"/>
+    <hyperlink ref="C305" r:id="rId52" xr:uid="{154CCA85-9370-47F2-9CA1-AD3D91019655}"/>
+    <hyperlink ref="C306" r:id="rId53" xr:uid="{BDE4EA5B-E212-43AF-9F2D-E0D13DC21DFF}"/>
+    <hyperlink ref="C309" r:id="rId54" xr:uid="{459C73A2-5837-420A-9041-BA13EF27B907}"/>
+    <hyperlink ref="C310" r:id="rId55" xr:uid="{64087C42-A7E5-4954-A4CA-6FCD3AFC9F54}"/>
+    <hyperlink ref="C311" r:id="rId56" xr:uid="{F29AE44F-4E3D-48B1-91DA-EDE94508D8C4}"/>
+    <hyperlink ref="C312" r:id="rId57" xr:uid="{6501AA8B-F65E-4E03-B2DF-0B3378B03E48}"/>
+    <hyperlink ref="C313" r:id="rId58" xr:uid="{A8939077-23AF-4587-AE24-0E324533AAC6}"/>
+    <hyperlink ref="C314" r:id="rId59" xr:uid="{4FE90C1E-698A-4BCC-92F8-7707B6ACC42B}"/>
+    <hyperlink ref="C315" r:id="rId60" xr:uid="{E545AA3D-E166-49A7-9E84-8FE2AE6230A3}"/>
+    <hyperlink ref="C316" r:id="rId61" xr:uid="{D7524563-2549-4EDA-9AB4-4A578B02C796}"/>
+    <hyperlink ref="C317" r:id="rId62" xr:uid="{DF4E4437-78B1-4902-AFA1-5395FEB03076}"/>
+    <hyperlink ref="C318" r:id="rId63" xr:uid="{AD3F5082-2B66-4261-9EB2-CD2B2ACA7A7E}"/>
+    <hyperlink ref="C319" r:id="rId64" xr:uid="{DCACB595-564E-45B7-812F-95F2BFE2869D}"/>
+    <hyperlink ref="C320" r:id="rId65" xr:uid="{1D53DCDD-A90E-47F0-85E4-D7F1F7A4A0AC}"/>
+    <hyperlink ref="C321" r:id="rId66" xr:uid="{EC1FFFD2-3999-487A-8CA8-2314FA16DBBB}"/>
+    <hyperlink ref="C322" r:id="rId67" xr:uid="{B5CEE578-DD01-4EC9-93D7-01DDE211FE35}"/>
+    <hyperlink ref="C377" r:id="rId68" xr:uid="{1D3AC609-2E4B-40B6-AD33-7BA034F6183B}"/>
+    <hyperlink ref="C379" r:id="rId69" xr:uid="{5C77D951-3C85-4C4E-A8D9-F6AF0D5843DE}"/>
+    <hyperlink ref="C380" r:id="rId70" xr:uid="{15A99EDB-D519-4239-80CB-C53A72CE2619}"/>
+    <hyperlink ref="C389" r:id="rId71" xr:uid="{92EF42C3-7729-4CD5-8DA1-307456AC5A86}"/>
+    <hyperlink ref="C391" r:id="rId72" xr:uid="{85D1F75B-83E1-4CB7-956E-2C1DEB380C90}"/>
+    <hyperlink ref="C409" r:id="rId73" xr:uid="{2662653A-DD6A-4A24-A16D-DDAB0A6760CC}"/>
+    <hyperlink ref="C412" r:id="rId74" xr:uid="{91607537-76ED-421C-9EF0-77F8A2D8304A}"/>
+    <hyperlink ref="C413" r:id="rId75" xr:uid="{6BEC13F7-BF8E-4B73-90E5-C53796CDA863}"/>
+    <hyperlink ref="C414" r:id="rId76" xr:uid="{7BB177D0-D2B7-45D6-BEB8-228A983C8172}"/>
+    <hyperlink ref="C415" r:id="rId77" xr:uid="{6B2F58DF-AA6C-4BA7-B7EA-D0B7ECE46279}"/>
+    <hyperlink ref="C416" r:id="rId78" xr:uid="{5E3FF262-1E26-47E6-A40F-8AEF03715EF3}"/>
+    <hyperlink ref="C417" r:id="rId79" xr:uid="{4827EC17-D5E3-4F7E-8621-AF1577399BAA}"/>
+    <hyperlink ref="C418" r:id="rId80" xr:uid="{2FB66B37-E01F-4CBC-B69F-EAA6F4466B06}"/>
+    <hyperlink ref="C419" r:id="rId81" xr:uid="{2DEBA2DE-4AE2-44EE-9A0C-4BE62E8161CA}"/>
+    <hyperlink ref="C420" r:id="rId82" xr:uid="{9F336295-81C0-40F2-93DB-BCFC172F1706}"/>
+    <hyperlink ref="C424" r:id="rId83" xr:uid="{373CB7F6-BCED-430A-8FB7-4106FA77A5CE}"/>
+    <hyperlink ref="C425" r:id="rId84" xr:uid="{49DEADCC-DD9B-40F4-93C8-AB8B5B5D8C85}"/>
+    <hyperlink ref="C431" r:id="rId85" xr:uid="{27435455-E4D7-46FE-9979-76D8D5E45A7C}"/>
+    <hyperlink ref="C463" r:id="rId86" xr:uid="{CB445ED1-986D-49AA-B92A-D152D2EE26D7}"/>
+    <hyperlink ref="C464" r:id="rId87" xr:uid="{AC452A0B-C5A2-4ED3-9EB9-C8AF832ADF22}"/>
+    <hyperlink ref="C483" r:id="rId88" xr:uid="{008F7E1C-3DD9-488D-B92E-B47478E6257E}"/>
+    <hyperlink ref="C484" r:id="rId89" xr:uid="{DFD1AAE1-7763-43BA-B64B-50D8EF3A8FA4}"/>
+    <hyperlink ref="C492" r:id="rId90" xr:uid="{FE93D868-FB33-4933-869F-7E1364946E29}"/>
+    <hyperlink ref="C493" r:id="rId91" xr:uid="{3232589B-AD34-44A2-A894-DD86D94FFEB5}"/>
+    <hyperlink ref="C498" r:id="rId92" xr:uid="{C887C4B4-9C80-45CB-A0BD-5EEFCB9C6A5D}"/>
+    <hyperlink ref="C504" r:id="rId93" xr:uid="{922FF8E9-2048-495F-AECF-0934A9EDBBFD}"/>
+    <hyperlink ref="C505" r:id="rId94" xr:uid="{6BA9828B-BD89-4F94-9410-5284C9B221E4}"/>
+    <hyperlink ref="C506" r:id="rId95" xr:uid="{FF8A8CBB-337D-4C36-8DEA-88B26CA6FE1D}"/>
+    <hyperlink ref="C509" r:id="rId96" xr:uid="{BC87A924-52A1-4F62-B96D-D7768848AFD3}"/>
+    <hyperlink ref="C515" r:id="rId97" xr:uid="{801CB12B-C855-4D47-A845-0F2BBE148A2A}"/>
+    <hyperlink ref="C522" r:id="rId98" xr:uid="{6739B732-0245-4ADC-9A2D-3A23EAF29A45}"/>
+    <hyperlink ref="C523" r:id="rId99" xr:uid="{45825CC5-5E1E-45FD-9E2D-C8E45A0FD0DB}"/>
+    <hyperlink ref="C525" r:id="rId100" xr:uid="{EC3D4157-1CAE-4C13-954B-0DFF53D3DDB9}"/>
+    <hyperlink ref="C529" r:id="rId101" xr:uid="{E990EB42-0515-4430-A365-67BACA2D48CE}"/>
+    <hyperlink ref="C530" r:id="rId102" xr:uid="{FC673107-5C8A-4E1B-8C38-55F35E559ECB}"/>
+    <hyperlink ref="C531" r:id="rId103" xr:uid="{716AF2A5-F40B-4FCE-B0B8-1A836CBE6D26}"/>
+    <hyperlink ref="C532" r:id="rId104" xr:uid="{3A4F84A5-7A7C-4B23-AAB1-07FF7291F07B}"/>
+    <hyperlink ref="C534" r:id="rId105" xr:uid="{DBB07998-0CD2-41A8-B9C7-111A698C04D4}"/>
+    <hyperlink ref="C535" r:id="rId106" xr:uid="{A72954A2-4BE8-4E5B-A403-B1D9F9DAC964}"/>
+    <hyperlink ref="C536" r:id="rId107" xr:uid="{F77C3477-6D7E-45FF-9BC2-E21C6DA8DFDC}"/>
+    <hyperlink ref="C537" r:id="rId108" xr:uid="{3EAE3DE2-87FE-448A-8D9B-20D3C4D5400C}"/>
+    <hyperlink ref="C538" r:id="rId109" xr:uid="{C9D581BB-76F4-4C1D-8FCE-450FED677B68}"/>
+    <hyperlink ref="C539" r:id="rId110" xr:uid="{BE571891-8E35-469F-9FE6-1E8C6D264793}"/>
+    <hyperlink ref="C540" r:id="rId111" xr:uid="{64A3CE78-7C62-474D-86F4-CD2B0CD3764E}"/>
+    <hyperlink ref="C562" r:id="rId112" xr:uid="{6756F5E3-A910-40AF-B2FB-FA2896AEA41B}"/>
+    <hyperlink ref="C580" r:id="rId113" xr:uid="{799435F4-7649-46B9-9669-5C3B9E72D41A}"/>
+    <hyperlink ref="C579" r:id="rId114" xr:uid="{4E065C65-24D3-4F9B-97F2-39C3D2EA30F1}"/>
+    <hyperlink ref="C583" r:id="rId115" xr:uid="{4D5DAB33-F966-4485-9423-DF4F732554FC}"/>
+    <hyperlink ref="C586" r:id="rId116" xr:uid="{23E1B7C6-9D92-448C-9364-59F7D53F222B}"/>
+    <hyperlink ref="C587" r:id="rId117" xr:uid="{5A4CD2B6-0BED-4566-B9FC-BBE8FF1BB536}"/>
+    <hyperlink ref="C588" r:id="rId118" xr:uid="{E62F34BE-AD16-4697-AE3E-9E661A24148A}"/>
+    <hyperlink ref="C589" r:id="rId119" xr:uid="{121A711F-95BB-4538-B243-D3464240F575}"/>
+    <hyperlink ref="C590" r:id="rId120" xr:uid="{CD5D138F-1EF3-4FD4-9363-CE2F9579D4A0}"/>
+    <hyperlink ref="C591" r:id="rId121" xr:uid="{E0B3A71E-1BF1-43DD-A8B4-4F31545C0449}"/>
+    <hyperlink ref="C592" r:id="rId122" xr:uid="{26AE98E3-17E4-4C62-926F-5533DA8DDA54}"/>
+    <hyperlink ref="C593" r:id="rId123" xr:uid="{C86EF7AB-FDFC-41F5-8CFC-E1B8122AD848}"/>
+    <hyperlink ref="C594" r:id="rId124" xr:uid="{DEB8CDD4-F974-4551-9A88-9D3F031FAF61}"/>
+    <hyperlink ref="C595" r:id="rId125" xr:uid="{26A26117-6F55-41B0-B595-FB655A623076}"/>
+    <hyperlink ref="C596" r:id="rId126" xr:uid="{72A32827-9D20-4D73-B3C0-C324089DD165}"/>
+    <hyperlink ref="C597" r:id="rId127" xr:uid="{EC81D2F1-46AB-42B8-8F4C-04751200BFF4}"/>
+    <hyperlink ref="C598" r:id="rId128" xr:uid="{F6C7F9A4-D91A-402B-8A19-824CB5932DF9}"/>
+    <hyperlink ref="C599" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
+    <hyperlink ref="C605" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
+    <hyperlink ref="C606" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
+    <hyperlink ref="C616" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
+    <hyperlink ref="C617" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
+    <hyperlink ref="C618" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
+    <hyperlink ref="C619" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
+    <hyperlink ref="C631" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
+    <hyperlink ref="C632" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
+    <hyperlink ref="C633" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
+    <hyperlink ref="C634" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
+    <hyperlink ref="C635" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
+    <hyperlink ref="C636" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
+    <hyperlink ref="C645" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
+    <hyperlink ref="C646" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
+    <hyperlink ref="C647" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
+    <hyperlink ref="C461" r:id="rId145" xr:uid="{377CD652-368C-4314-A164-D49B86A5008D}"/>
+    <hyperlink ref="C460" r:id="rId146" xr:uid="{C951C838-B3A0-47F2-ADAE-652F18C58DC1}"/>
+    <hyperlink ref="C458" r:id="rId147" xr:uid="{888616A4-9F6D-45D1-8BF2-E426AFB16F80}"/>
+    <hyperlink ref="C459" r:id="rId148" xr:uid="{0B3F2A4A-91C2-4D5A-B29A-4D5117BFEFE3}"/>
+    <hyperlink ref="C659" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
+    <hyperlink ref="C662" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
+    <hyperlink ref="C663" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
+    <hyperlink ref="C664" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
+    <hyperlink ref="C665" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
+    <hyperlink ref="C666" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
+    <hyperlink ref="C668" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
+    <hyperlink ref="C669" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
+    <hyperlink ref="C670" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
+    <hyperlink ref="C728" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
+    <hyperlink ref="C729" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
+    <hyperlink ref="C730" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
+    <hyperlink ref="C731" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
+    <hyperlink ref="C732" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
+    <hyperlink ref="C733" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
+    <hyperlink ref="C734" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
+    <hyperlink ref="C735" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
+    <hyperlink ref="C736" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
+    <hyperlink ref="C742" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
+    <hyperlink ref="C746" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
+    <hyperlink ref="C747" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
+    <hyperlink ref="C748" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
+    <hyperlink ref="C749" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
+    <hyperlink ref="C135" r:id="rId172" xr:uid="{0EBD26DB-323F-422E-91F1-A6E9B3505678}"/>
+    <hyperlink ref="C151" r:id="rId173" xr:uid="{1E2FFDE3-C017-4939-9259-2985E718AAE3}"/>
+    <hyperlink ref="C432" r:id="rId174" xr:uid="{0146A258-4649-4022-9C92-DFFB658BE508}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId175"/>
 </worksheet>
 </file>
--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9DBBD-BC68-4301-8E48-9B8F33D3211D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE7D746-13B0-4C42-837C-13CE1AB84E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1325">
   <si>
     <t>LiveryId</t>
   </si>
@@ -3991,6 +3991,15 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/NWS.png</t>
+  </si>
+  <si>
+    <t>e258f6d4-4503-4dde-b25c-1fb9067061e2</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/KAC.png</t>
+  </si>
+  <si>
+    <t>Kuwait Airways</t>
   </si>
 </sst>
 </file>
@@ -4389,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C753"/>
+  <dimension ref="A1:C754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H753" sqref="H753"/>
+    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="B754" sqref="B754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12683,6 +12692,17 @@
       </c>
       <c r="C753" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1323</v>
       </c>
     </row>
   </sheetData>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE7D746-13B0-4C42-837C-13CE1AB84E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DDA20-3659-4B55-BB57-A88BA1BE941A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -3993,13 +3993,13 @@
     <t>https://cdn.radarbox.com/airlines/sq/NWS.png</t>
   </si>
   <si>
-    <t>e258f6d4-4503-4dde-b25c-1fb9067061e2</t>
-  </si>
-  <si>
     <t>https://cdn.radarbox.com/airlines/sq/KAC.png</t>
   </si>
   <si>
     <t>Kuwait Airways</t>
+  </si>
+  <si>
+    <t>fb704ebc-d34d-448c-b996-5d1df46a9246</t>
   </si>
 </sst>
 </file>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:C754"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="B754" sqref="B754"/>
+      <selection activeCell="A754" sqref="A754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12696,13 +12696,13 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C754" t="s">
         <v>1322</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1323</v>
       </c>
     </row>
   </sheetData>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DDA20-3659-4B55-BB57-A88BA1BE941A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C6F0E-477E-4D9A-B5D4-6B67C275CE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1327">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4000,13 +4000,19 @@
   </si>
   <si>
     <t>fb704ebc-d34d-448c-b996-5d1df46a9246</t>
+  </si>
+  <si>
+    <t>78860e9f-6031-4eed-8936-df7d9afb238e</t>
+  </si>
+  <si>
+    <t>DHL Aero Expresso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4050,6 +4056,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B4442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4073,7 +4085,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4082,6 +4094,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -4398,10 +4411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C754"/>
+  <dimension ref="A1:C755"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="A754" sqref="A754"/>
+      <selection activeCell="C755" sqref="C755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12703,6 +12716,17 @@
       </c>
       <c r="C754" t="s">
         <v>1322</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B755" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C755" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C6F0E-477E-4D9A-B5D4-6B67C275CE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E5E50-E6A1-4F99-AEDB-6A420AC504D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1328">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4006,6 +4006,9 @@
   </si>
   <si>
     <t>DHL Aero Expresso</t>
+  </si>
+  <si>
+    <t>38fd7fe0-9ec3-4fda-94e8-f1d94cf2d01d</t>
   </si>
 </sst>
 </file>
@@ -4411,10 +4414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C755"/>
+  <dimension ref="A1:C756"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="C755" sqref="C755"/>
+      <selection activeCell="C756" sqref="C756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12727,6 +12730,17 @@
       </c>
       <c r="C755" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B756" t="s">
+        <v>143</v>
+      </c>
+      <c r="C756" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E5E50-E6A1-4F99-AEDB-6A420AC504D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A063B91-0F66-44AA-A540-50853980EF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="1329">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4009,6 +4009,9 @@
   </si>
   <si>
     <t>38fd7fe0-9ec3-4fda-94e8-f1d94cf2d01d</t>
+  </si>
+  <si>
+    <t>3f65a6dc-ff73-43ad-b9c5-a97d7aef09e1</t>
   </si>
 </sst>
 </file>
@@ -4414,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C756"/>
+  <dimension ref="A1:C757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="C756" sqref="C756"/>
+      <selection activeCell="B757" sqref="B757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12741,6 +12744,17 @@
       </c>
       <c r="C756" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B757" t="s">
+        <v>504</v>
+      </c>
+      <c r="C757" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A063B91-0F66-44AA-A540-50853980EF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFCB063-B19A-4C67-A4B3-358A483F8287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="1330">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4012,6 +4012,9 @@
   </si>
   <si>
     <t>3f65a6dc-ff73-43ad-b9c5-a97d7aef09e1</t>
+  </si>
+  <si>
+    <t>41808dcd-40e8-409b-9800-ca5e8c90489d</t>
   </si>
 </sst>
 </file>
@@ -4417,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C757"/>
+  <dimension ref="A1:C758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="B757" sqref="B757"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,29 +5359,29 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>1327</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
         <v>152</v>
@@ -5389,7 +5392,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
         <v>152</v>
@@ -5400,7 +5403,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
         <v>152</v>
@@ -5411,10 +5414,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>153</v>
@@ -5422,40 +5425,40 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>5</v>
+        <v>163</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
         <v>166</v>
@@ -5466,10 +5469,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>5</v>
@@ -5477,10 +5480,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>5</v>
@@ -5488,10 +5491,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>5</v>
@@ -5499,10 +5502,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>5</v>
@@ -5510,10 +5513,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>5</v>
@@ -5521,10 +5524,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>5</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
         <v>179</v>
@@ -5543,10 +5546,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>5</v>
@@ -5554,18 +5557,18 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
         <v>184</v>
@@ -5576,7 +5579,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
         <v>184</v>
@@ -5587,7 +5590,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
         <v>184</v>
@@ -5598,10 +5601,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>185</v>
@@ -5609,10 +5612,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>185</v>
@@ -5620,18 +5623,18 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B110" t="s">
         <v>194</v>
@@ -5642,7 +5645,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B111" t="s">
         <v>194</v>
@@ -5653,7 +5656,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
         <v>194</v>
@@ -5664,18 +5667,18 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B114" t="s">
         <v>200</v>
@@ -5686,18 +5689,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
         <v>204</v>
@@ -5708,7 +5711,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
         <v>204</v>
@@ -5719,7 +5722,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B118" t="s">
         <v>204</v>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B119" t="s">
         <v>204</v>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B120" t="s">
         <v>204</v>
@@ -5752,7 +5755,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B121" t="s">
         <v>204</v>
@@ -5763,7 +5766,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B122" t="s">
         <v>204</v>
@@ -5774,7 +5777,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1311</v>
+        <v>212</v>
       </c>
       <c r="B123" t="s">
         <v>204</v>
@@ -5785,7 +5788,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>1311</v>
       </c>
       <c r="B124" t="s">
         <v>204</v>
@@ -5796,10 +5799,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>205</v>
@@ -5807,10 +5810,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>205</v>
@@ -5818,10 +5821,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>205</v>
@@ -5829,7 +5832,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B128" t="s">
         <v>218</v>
@@ -5840,10 +5843,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>205</v>
@@ -5851,10 +5854,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>205</v>
@@ -5862,10 +5865,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>205</v>
@@ -5873,7 +5876,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B132" t="s">
         <v>225</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B133" t="s">
         <v>225</v>
@@ -5895,40 +5898,40 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B134" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B135" t="s">
         <v>229</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B136" t="s">
         <v>229</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B137" t="s">
         <v>229</v>
@@ -5939,29 +5942,29 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>5</v>
+        <v>229</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B139" t="s">
-        <v>237</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B140" t="s">
         <v>237</v>
@@ -5972,21 +5975,21 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>5</v>
+        <v>237</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>5</v>
@@ -5994,10 +5997,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>5</v>
@@ -6005,18 +6008,18 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
-        <v>247</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>247</v>
@@ -6027,10 +6030,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B146" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>248</v>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B147" t="s">
         <v>251</v>
@@ -6049,7 +6052,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B148" t="s">
         <v>251</v>
@@ -6060,29 +6063,29 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B149" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B150" t="s">
-        <v>258</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1312</v>
+        <v>257</v>
       </c>
       <c r="B151" t="s">
         <v>258</v>
@@ -6093,10 +6096,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>260</v>
+        <v>1312</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>259</v>
@@ -6104,29 +6107,29 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>5</v>
+        <v>261</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B155" t="s">
         <v>265</v>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B156" t="s">
         <v>265</v>
@@ -6148,29 +6151,29 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B157" t="s">
-        <v>270</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>5</v>
+        <v>265</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B158" t="s">
-        <v>272</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B159" t="s">
         <v>272</v>
@@ -6181,18 +6184,18 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B160" t="s">
-        <v>276</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B161" t="s">
         <v>276</v>
@@ -6203,43 +6206,43 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B163" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>5</v>
+        <v>283</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>5</v>
@@ -6247,54 +6250,54 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B166" t="s">
-        <v>290</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>5</v>
+        <v>290</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B168" t="s">
-        <v>295</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>5</v>
+        <v>295</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>5</v>
@@ -6302,10 +6305,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>5</v>
@@ -6313,10 +6316,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>5</v>
@@ -6324,10 +6327,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>5</v>
@@ -6335,10 +6338,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B174" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>5</v>
@@ -6346,7 +6349,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B175" t="s">
         <v>308</v>
@@ -6357,10 +6360,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B176" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>5</v>
@@ -6368,10 +6371,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B177" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>5</v>
@@ -6379,10 +6382,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>5</v>
@@ -6390,7 +6393,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B179" t="s">
         <v>315</v>
@@ -6401,7 +6404,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B180" t="s">
         <v>315</v>
@@ -6412,18 +6415,18 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B181" t="s">
-        <v>319</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B182" t="s">
         <v>319</v>
@@ -6434,7 +6437,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B183" t="s">
         <v>319</v>
@@ -6445,7 +6448,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B184" t="s">
         <v>319</v>
@@ -6456,7 +6459,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B185" t="s">
         <v>319</v>
@@ -6467,7 +6470,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B186" t="s">
         <v>319</v>
@@ -6478,7 +6481,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B187" t="s">
         <v>319</v>
@@ -6489,7 +6492,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B188" t="s">
         <v>319</v>
@@ -6500,7 +6503,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B189" t="s">
         <v>319</v>
@@ -6511,7 +6514,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B190" t="s">
         <v>319</v>
@@ -6522,7 +6525,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B191" t="s">
         <v>319</v>
@@ -6533,7 +6536,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B192" t="s">
         <v>319</v>
@@ -6544,7 +6547,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B193" t="s">
         <v>319</v>
@@ -6555,7 +6558,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B194" t="s">
         <v>319</v>
@@ -6566,7 +6569,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B195" t="s">
         <v>319</v>
@@ -6577,10 +6580,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B196" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>320</v>
@@ -6588,84 +6591,84 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>338</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>5</v>
+        <v>336</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B198" t="s">
-        <v>340</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B199" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>93</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B200" t="s">
-        <v>345</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B202" t="s">
-        <v>351</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>5</v>
+        <v>348</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B203" t="s">
-        <v>353</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B204" t="s">
         <v>353</v>
@@ -6676,7 +6679,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B205" t="s">
         <v>353</v>
@@ -6687,7 +6690,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B206" t="s">
         <v>353</v>
@@ -6698,10 +6701,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B207" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>354</v>
@@ -6709,18 +6712,18 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B208" t="s">
-        <v>361</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B209" t="s">
         <v>361</v>
@@ -6731,51 +6734,51 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B211" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B212" t="s">
-        <v>371</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>5</v>
+        <v>368</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B213" t="s">
-        <v>373</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B214" t="s">
         <v>373</v>
@@ -6786,7 +6789,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B215" t="s">
         <v>373</v>
@@ -6797,7 +6800,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B216" t="s">
         <v>373</v>
@@ -6808,7 +6811,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B217" t="s">
         <v>373</v>
@@ -6819,51 +6822,51 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B218" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1309</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B219" t="s">
-        <v>382</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B220" t="s">
-        <v>385</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>1310</v>
+        <v>382</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B221" t="s">
-        <v>387</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B222" t="s">
         <v>387</v>
@@ -6874,21 +6877,21 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B223" t="s">
-        <v>391</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>5</v>
+        <v>387</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B224" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>5</v>
@@ -6896,51 +6899,51 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B225" t="s">
-        <v>395</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B226" t="s">
-        <v>398</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>5</v>
+        <v>395</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B227" t="s">
-        <v>400</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B228" t="s">
-        <v>403</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B229" t="s">
         <v>403</v>
@@ -6951,21 +6954,21 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B230" t="s">
-        <v>407</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>5</v>
+        <v>403</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B231" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>5</v>
@@ -6973,7 +6976,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B232" t="s">
         <v>409</v>
@@ -6983,19 +6986,19 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
+        <v>410</v>
+      </c>
+      <c r="B233" t="s">
+        <v>409</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B233" t="s">
-        <v>412</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>414</v>
       </c>
       <c r="B234" t="s">
         <v>412</v>
@@ -7006,7 +7009,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B235" t="s">
         <v>412</v>
@@ -7017,7 +7020,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B236" t="s">
         <v>412</v>
@@ -7028,7 +7031,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B237" t="s">
         <v>412</v>
@@ -7039,7 +7042,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B238" t="s">
         <v>412</v>
@@ -7050,7 +7053,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B239" t="s">
         <v>412</v>
@@ -7060,8 +7063,8 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>420</v>
+      <c r="A240" t="s">
+        <v>419</v>
       </c>
       <c r="B240" t="s">
         <v>412</v>
@@ -7071,8 +7074,8 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>421</v>
+      <c r="A241" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="B241" t="s">
         <v>412</v>
@@ -7083,7 +7086,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B242" t="s">
         <v>412</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B243" t="s">
         <v>412</v>
@@ -7105,7 +7108,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B244" t="s">
         <v>412</v>
@@ -7116,7 +7119,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B245" t="s">
         <v>412</v>
@@ -7127,7 +7130,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B246" t="s">
         <v>412</v>
@@ -7138,7 +7141,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B247" t="s">
         <v>412</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B248" t="s">
         <v>412</v>
@@ -7160,7 +7163,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B249" t="s">
         <v>412</v>
@@ -7171,7 +7174,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B250" t="s">
         <v>412</v>
@@ -7182,18 +7185,18 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B251" t="s">
-        <v>432</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>433</v>
+        <v>412</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B252" t="s">
         <v>432</v>
@@ -7204,43 +7207,43 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B253" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>438</v>
-      </c>
-      <c r="B254" t="s">
-        <v>439</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>5</v>
+        <v>1325</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B255" t="s">
-        <v>441</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>5</v>
+        <v>436</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B256" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>5</v>
@@ -7248,54 +7251,54 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B257" t="s">
-        <v>444</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B258" t="s">
-        <v>444</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B259" t="s">
-        <v>448</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>5</v>
+        <v>444</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B260" t="s">
-        <v>450</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>5</v>
+        <v>444</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B261" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>5</v>
@@ -7303,73 +7306,73 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B262" t="s">
-        <v>454</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B263" t="s">
-        <v>457</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B264" t="s">
-        <v>459</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>5</v>
+        <v>454</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B265" t="s">
-        <v>461</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>5</v>
+        <v>457</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B266" t="s">
-        <v>463</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B267" t="s">
-        <v>463</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B268" t="s">
         <v>463</v>
@@ -7380,7 +7383,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B269" t="s">
         <v>463</v>
@@ -7391,10 +7394,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B270" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>464</v>
@@ -7402,32 +7405,32 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B271" t="s">
-        <v>471</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B272" t="s">
-        <v>471</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B273" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>472</v>
@@ -7435,51 +7438,51 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>475</v>
-      </c>
-      <c r="C274" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C274" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B275" t="s">
         <v>475</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="C275" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B276" t="s">
-        <v>479</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B277" t="s">
-        <v>479</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B278" t="s">
         <v>479</v>
@@ -7490,10 +7493,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B279" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>480</v>
@@ -7501,10 +7504,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B280" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>480</v>
@@ -7512,10 +7515,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B281" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>480</v>
@@ -7523,10 +7526,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B282" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>480</v>
@@ -7534,21 +7537,21 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B283" t="s">
-        <v>491</v>
-      </c>
-      <c r="C283" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C283" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B284" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>480</v>
@@ -7556,40 +7559,40 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B285" t="s">
-        <v>493</v>
-      </c>
-      <c r="C285" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C285" s="5" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B286" t="s">
-        <v>496</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B287" t="s">
-        <v>496</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B288" t="s">
         <v>496</v>
@@ -7600,95 +7603,95 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B289" t="s">
-        <v>501</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B290" t="s">
-        <v>504</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B291" t="s">
-        <v>506</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>5</v>
+        <v>501</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B292" t="s">
-        <v>508</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>5</v>
+        <v>504</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>509</v>
+        <v>1328</v>
       </c>
       <c r="B293" t="s">
-        <v>508</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>5</v>
+        <v>504</v>
+      </c>
+      <c r="C293" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B294" t="s">
-        <v>511</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>512</v>
+        <v>506</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B295" t="s">
-        <v>514</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B296" t="s">
-        <v>511</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B297" t="s">
         <v>511</v>
@@ -7699,164 +7702,164 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B298" t="s">
-        <v>518</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>5</v>
+        <v>514</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B299" t="s">
-        <v>520</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B300" t="s">
-        <v>523</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B301" t="s">
-        <v>523</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B302" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B303" t="s">
-        <v>528</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>5</v>
+        <v>523</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>529</v>
+      <c r="A304" t="s">
+        <v>525</v>
       </c>
       <c r="B304" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B305" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B306" t="s">
-        <v>534</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>536</v>
+      <c r="A307" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="B307" t="s">
-        <v>537</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>5</v>
+        <v>530</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B308" t="s">
-        <v>539</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>5</v>
+        <v>530</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B309" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B310" t="s">
-        <v>541</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B311" t="s">
-        <v>545</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B312" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>542</v>
@@ -7864,10 +7867,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B313" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>542</v>
@@ -7875,10 +7878,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B314" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>542</v>
@@ -7886,10 +7889,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B315" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>542</v>
@@ -7897,10 +7900,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B316" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>542</v>
@@ -7908,40 +7911,40 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B317" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B318" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B319" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B320" t="s">
         <v>557</v>
@@ -7952,7 +7955,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B321" t="s">
         <v>557</v>
@@ -7963,10 +7966,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B322" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>558</v>
@@ -7974,43 +7977,43 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B323" t="s">
-        <v>566</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>5</v>
+        <v>557</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B324" t="s">
-        <v>568</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>5</v>
+        <v>557</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B325" t="s">
-        <v>568</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>5</v>
+        <v>564</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>5</v>
@@ -8018,7 +8021,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B327" t="s">
         <v>568</v>
@@ -8029,7 +8032,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B328" t="s">
         <v>568</v>
@@ -8040,7 +8043,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B329" t="s">
         <v>568</v>
@@ -8051,7 +8054,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B330" t="s">
         <v>568</v>
@@ -8062,7 +8065,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B331" t="s">
         <v>568</v>
@@ -8073,7 +8076,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B332" t="s">
         <v>568</v>
@@ -8084,7 +8087,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B333" t="s">
         <v>568</v>
@@ -8095,7 +8098,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B334" t="s">
         <v>568</v>
@@ -8106,7 +8109,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B335" t="s">
         <v>568</v>
@@ -8117,7 +8120,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B336" t="s">
         <v>568</v>
@@ -8128,7 +8131,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B337" t="s">
         <v>568</v>
@@ -8139,7 +8142,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B338" t="s">
         <v>568</v>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B339" t="s">
         <v>568</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B340" t="s">
         <v>568</v>
@@ -8172,7 +8175,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B341" t="s">
         <v>568</v>
@@ -8183,7 +8186,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B342" t="s">
         <v>568</v>
@@ -8194,7 +8197,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B343" t="s">
         <v>568</v>
@@ -8205,7 +8208,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B344" t="s">
         <v>568</v>
@@ -8216,7 +8219,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B345" t="s">
         <v>568</v>
@@ -8227,7 +8230,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B346" t="s">
         <v>568</v>
@@ -8238,7 +8241,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B347" t="s">
         <v>568</v>
@@ -8249,7 +8252,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B348" t="s">
         <v>568</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B349" t="s">
         <v>568</v>
@@ -8271,7 +8274,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B350" t="s">
         <v>568</v>
@@ -8282,7 +8285,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B351" t="s">
         <v>568</v>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B352" t="s">
         <v>568</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B353" t="s">
         <v>568</v>
@@ -8315,7 +8318,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B354" t="s">
         <v>568</v>
@@ -8326,7 +8329,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B355" t="s">
         <v>568</v>
@@ -8337,7 +8340,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B356" t="s">
         <v>568</v>
@@ -8348,7 +8351,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B357" t="s">
         <v>568</v>
@@ -8359,7 +8362,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B358" t="s">
         <v>568</v>
@@ -8370,7 +8373,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B359" t="s">
         <v>568</v>
@@ -8381,7 +8384,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B360" t="s">
         <v>568</v>
@@ -8392,7 +8395,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B361" t="s">
         <v>568</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B362" t="s">
         <v>568</v>
@@ -8414,7 +8417,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B363" t="s">
         <v>568</v>
@@ -8424,8 +8427,8 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>608</v>
+      <c r="A364" t="s">
+        <v>605</v>
       </c>
       <c r="B364" t="s">
         <v>568</v>
@@ -8436,7 +8439,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B365" t="s">
         <v>568</v>
@@ -8447,7 +8450,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B366" t="s">
         <v>568</v>
@@ -8457,8 +8460,8 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>611</v>
+      <c r="A367" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="B367" t="s">
         <v>568</v>
@@ -8469,7 +8472,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B368" t="s">
         <v>568</v>
@@ -8480,7 +8483,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B369" t="s">
         <v>568</v>
@@ -8491,7 +8494,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B370" t="s">
         <v>568</v>
@@ -8502,87 +8505,87 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>616</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>617</v>
+        <v>568</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B372" t="s">
-        <v>619</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>617</v>
+        <v>568</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B373" t="s">
-        <v>621</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>617</v>
+        <v>568</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B374" t="s">
-        <v>623</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>5</v>
+        <v>616</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B375" t="s">
-        <v>625</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>5</v>
+        <v>619</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B376" t="s">
-        <v>627</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>5</v>
+        <v>621</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B377" t="s">
-        <v>629</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B378" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>5</v>
@@ -8590,32 +8593,32 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B379" t="s">
-        <v>634</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B380" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B381" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>5</v>
@@ -8623,65 +8626,65 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B382" t="s">
-        <v>639</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>5</v>
+        <v>634</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B383" t="s">
-        <v>642</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>185</v>
+        <v>637</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B384" t="s">
-        <v>644</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B385" t="s">
-        <v>644</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B386" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>645</v>
+        <v>185</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B387" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>645</v>
@@ -8689,10 +8692,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B388" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>645</v>
@@ -8700,54 +8703,54 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B389" t="s">
-        <v>653</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B390" t="s">
-        <v>656</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>5</v>
+        <v>649</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B391" t="s">
-        <v>658</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B392" t="s">
-        <v>661</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>5</v>
+        <v>653</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B393" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>5</v>
@@ -8755,21 +8758,21 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B394" t="s">
-        <v>664</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>5</v>
+        <v>658</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B395" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>5</v>
@@ -8777,10 +8780,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B396" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>5</v>
@@ -8788,7 +8791,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B397" t="s">
         <v>664</v>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B398" t="s">
         <v>664</v>
@@ -8810,10 +8813,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B399" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>5</v>
@@ -8821,10 +8824,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B400" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>5</v>
@@ -8832,10 +8835,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B401" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>5</v>
@@ -8843,10 +8846,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B402" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>5</v>
@@ -8854,7 +8857,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B403" t="s">
         <v>672</v>
@@ -8865,10 +8868,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B404" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>5</v>
@@ -8876,10 +8879,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B405" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>5</v>
@@ -8887,10 +8890,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B406" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>5</v>
@@ -8898,10 +8901,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B407" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>5</v>
@@ -8909,32 +8912,32 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B408" t="s">
-        <v>685</v>
-      </c>
-      <c r="C408" s="5" t="s">
-        <v>686</v>
+        <v>679</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B409" t="s">
-        <v>688</v>
-      </c>
-      <c r="C409" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B410" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>5</v>
@@ -8942,54 +8945,54 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B411" t="s">
-        <v>693</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>5</v>
+        <v>685</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B412" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B413" t="s">
-        <v>698</v>
-      </c>
-      <c r="C413" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B414" t="s">
-        <v>700</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B415" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>696</v>
@@ -8997,10 +9000,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B416" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>696</v>
@@ -9008,7 +9011,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B417" t="s">
         <v>700</v>
@@ -9019,7 +9022,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B418" t="s">
         <v>700</v>
@@ -9030,120 +9033,120 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B419" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B420" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B421" t="s">
-        <v>712</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>713</v>
+        <v>700</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B422" t="s">
-        <v>712</v>
-      </c>
-      <c r="C422" s="5" t="s">
-        <v>713</v>
+        <v>706</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B423" t="s">
-        <v>712</v>
-      </c>
-      <c r="C423" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B424" t="s">
-        <v>717</v>
-      </c>
-      <c r="C424" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B425" t="s">
-        <v>717</v>
-      </c>
-      <c r="C425" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B426" t="s">
-        <v>721</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>5</v>
+        <v>712</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B427" t="s">
-        <v>723</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>5</v>
+        <v>717</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B428" t="s">
-        <v>725</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>5</v>
+        <v>717</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B429" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>5</v>
@@ -9151,10 +9154,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B430" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>5</v>
@@ -9162,62 +9165,62 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B431" t="s">
-        <v>731</v>
-      </c>
-      <c r="C431" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1320</v>
+        <v>726</v>
       </c>
       <c r="B432" t="s">
-        <v>731</v>
-      </c>
-      <c r="C432" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B433" t="s">
-        <v>734</v>
-      </c>
-      <c r="C433" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B434" t="s">
-        <v>734</v>
-      </c>
-      <c r="C434" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>737</v>
+        <v>1320</v>
       </c>
       <c r="B435" t="s">
-        <v>734</v>
-      </c>
-      <c r="C435" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B436" t="s">
         <v>734</v>
@@ -9228,7 +9231,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B437" t="s">
         <v>734</v>
@@ -9239,7 +9242,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B438" t="s">
         <v>734</v>
@@ -9250,7 +9253,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B439" t="s">
         <v>734</v>
@@ -9261,7 +9264,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B440" t="s">
         <v>734</v>
@@ -9272,7 +9275,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B441" t="s">
         <v>734</v>
@@ -9283,7 +9286,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B442" t="s">
         <v>734</v>
@@ -9294,7 +9297,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B443" t="s">
         <v>734</v>
@@ -9305,7 +9308,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B444" t="s">
         <v>734</v>
@@ -9316,10 +9319,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B445" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>735</v>
@@ -9327,10 +9330,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B446" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>735</v>
@@ -9338,10 +9341,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B447" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>735</v>
@@ -9349,43 +9352,43 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B448" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B449" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B450" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B451" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>754</v>
@@ -9393,10 +9396,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B452" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>754</v>
@@ -9404,10 +9407,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B453" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>754</v>
@@ -9415,205 +9418,205 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B454" t="s">
-        <v>764</v>
-      </c>
-      <c r="C454" s="3" t="s">
-        <v>5</v>
+        <v>760</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B455" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B456" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B457" t="s">
-        <v>770</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>771</v>
+        <v>1324</v>
       </c>
       <c r="B458" t="s">
-        <v>772</v>
-      </c>
-      <c r="C458" s="7" t="s">
-        <v>767</v>
+        <v>1323</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B459" t="s">
-        <v>772</v>
-      </c>
-      <c r="C459" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C459" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B460" t="s">
-        <v>772</v>
-      </c>
-      <c r="C460" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C460" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B461" t="s">
-        <v>772</v>
-      </c>
-      <c r="C461" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C461" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B462" t="s">
-        <v>777</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>5</v>
+        <v>772</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B463" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B464" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B465" t="s">
-        <v>785</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>786</v>
+        <v>772</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B466" t="s">
-        <v>785</v>
-      </c>
-      <c r="C466" s="5" t="s">
-        <v>786</v>
+        <v>777</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>788</v>
+      <c r="A467" t="s">
+        <v>778</v>
       </c>
       <c r="B467" t="s">
-        <v>785</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>786</v>
+        <v>779</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B468" t="s">
-        <v>790</v>
-      </c>
-      <c r="C468" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B469" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B470" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>794</v>
+      <c r="A471" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="B471" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B472" t="s">
         <v>790</v>
@@ -9623,8 +9626,8 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
-        <v>796</v>
+      <c r="A473" t="s">
+        <v>792</v>
       </c>
       <c r="B473" t="s">
         <v>790</v>
@@ -9635,18 +9638,18 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B474" t="s">
         <v>790</v>
       </c>
-      <c r="C474" s="6" t="s">
+      <c r="C474" s="5" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B475" t="s">
         <v>790</v>
@@ -9657,7 +9660,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B476" t="s">
         <v>790</v>
@@ -9667,11 +9670,11 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>800</v>
+      <c r="A477" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="B477" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>791</v>
@@ -9679,21 +9682,21 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B478" t="s">
-        <v>801</v>
-      </c>
-      <c r="C478" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C478" s="6" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B479" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>791</v>
@@ -9701,10 +9704,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B480" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>791</v>
@@ -9712,10 +9715,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B481" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>791</v>
@@ -9723,10 +9726,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B482" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>791</v>
@@ -9734,73 +9737,73 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B483" t="s">
-        <v>812</v>
-      </c>
-      <c r="C483" s="7" t="s">
-        <v>813</v>
+        <v>804</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B484" t="s">
-        <v>812</v>
-      </c>
-      <c r="C484" s="7" t="s">
-        <v>813</v>
+        <v>806</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B485" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B486" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B487" t="s">
-        <v>816</v>
-      </c>
-      <c r="C487" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B488" t="s">
-        <v>816</v>
-      </c>
-      <c r="C488" s="5" t="s">
-        <v>817</v>
+        <v>812</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>821</v>
+      <c r="A489" t="s">
+        <v>815</v>
       </c>
       <c r="B489" t="s">
         <v>816</v>
@@ -9811,7 +9814,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B490" t="s">
         <v>816</v>
@@ -9822,54 +9825,54 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B491" t="s">
-        <v>824</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>5</v>
+        <v>816</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B492" t="s">
-        <v>826</v>
-      </c>
-      <c r="C492" s="7" t="s">
-        <v>827</v>
+        <v>816</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>828</v>
+      <c r="A493" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="B493" t="s">
-        <v>829</v>
-      </c>
-      <c r="C493" s="7" t="s">
-        <v>830</v>
+        <v>816</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B494" t="s">
-        <v>832</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>5</v>
+        <v>816</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B495" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>5</v>
@@ -9877,43 +9880,43 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B496" t="s">
-        <v>836</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>5</v>
+        <v>826</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B497" t="s">
-        <v>838</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>5</v>
+        <v>829</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B498" t="s">
-        <v>840</v>
-      </c>
-      <c r="C498" s="7" t="s">
-        <v>841</v>
+        <v>832</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B499" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>5</v>
@@ -9921,10 +9924,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B500" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>5</v>
@@ -9932,10 +9935,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="B501" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>5</v>
@@ -9943,21 +9946,21 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="B502" t="s">
-        <v>849</v>
-      </c>
-      <c r="C502" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C502" s="7" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B503" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>5</v>
@@ -9965,43 +9968,43 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B504" t="s">
-        <v>853</v>
-      </c>
-      <c r="C504" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B505" t="s">
-        <v>856</v>
-      </c>
-      <c r="C505" s="7" t="s">
-        <v>854</v>
+        <v>847</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B506" t="s">
-        <v>858</v>
-      </c>
-      <c r="C506" s="7" t="s">
-        <v>859</v>
+        <v>849</v>
+      </c>
+      <c r="C506" s="6" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B507" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C507" s="3" t="s">
         <v>5</v>
@@ -10009,43 +10012,43 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B508" t="s">
-        <v>863</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>5</v>
+        <v>853</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B509" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
-        <v>867</v>
+      <c r="A510" t="s">
+        <v>857</v>
       </c>
       <c r="B510" t="s">
-        <v>868</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>5</v>
+        <v>858</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B511" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C511" s="3" t="s">
         <v>5</v>
@@ -10053,10 +10056,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B512" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C512" s="3" t="s">
         <v>5</v>
@@ -10064,43 +10067,43 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B513" t="s">
-        <v>874</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>5</v>
+        <v>865</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>1313</v>
+      <c r="A514" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="B514" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C514" t="s">
-        <v>1321</v>
+        <v>868</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B515" t="s">
-        <v>876</v>
-      </c>
-      <c r="C515" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C515" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B516" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C516" s="3" t="s">
         <v>5</v>
@@ -10108,10 +10111,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B517" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C517" s="3" t="s">
         <v>5</v>
@@ -10119,29 +10122,29 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>879</v>
+        <v>1313</v>
       </c>
       <c r="B518" t="s">
-        <v>876</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>5</v>
+        <v>1314</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B519" t="s">
         <v>876</v>
       </c>
-      <c r="C519" s="3" t="s">
+      <c r="C519" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B520" t="s">
         <v>876</v>
@@ -10152,7 +10155,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B521" t="s">
         <v>876</v>
@@ -10163,32 +10166,32 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B522" t="s">
-        <v>884</v>
-      </c>
-      <c r="C522" s="7" t="s">
-        <v>885</v>
+        <v>876</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B523" t="s">
-        <v>884</v>
-      </c>
-      <c r="C523" s="7" t="s">
-        <v>885</v>
+        <v>876</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B524" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="C524" s="3" t="s">
         <v>5</v>
@@ -10196,164 +10199,164 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B525" t="s">
-        <v>890</v>
-      </c>
-      <c r="C525" s="7" t="s">
-        <v>891</v>
+        <v>876</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B526" t="s">
-        <v>893</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>5</v>
+        <v>884</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B527" t="s">
-        <v>893</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>5</v>
+        <v>884</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B528" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C528" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
-        <v>897</v>
+      <c r="A529" t="s">
+        <v>889</v>
       </c>
       <c r="B529" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B530" t="s">
-        <v>901</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>899</v>
+        <v>893</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B531" t="s">
-        <v>901</v>
-      </c>
-      <c r="C531" s="7" t="s">
-        <v>899</v>
+        <v>893</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B532" t="s">
-        <v>904</v>
-      </c>
-      <c r="C532" s="7" t="s">
-        <v>905</v>
+        <v>896</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>906</v>
+      <c r="A533" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="B533" t="s">
-        <v>907</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>5</v>
+        <v>898</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B534" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B535" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B536" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B537" t="s">
-        <v>912</v>
-      </c>
-      <c r="C537" s="7" t="s">
-        <v>913</v>
+        <v>907</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B538" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B539" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>913</v>
@@ -10361,65 +10364,65 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B540" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B541" t="s">
-        <v>923</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>5</v>
+        <v>912</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B542" t="s">
-        <v>923</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>5</v>
+        <v>912</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B543" t="s">
-        <v>926</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>5</v>
+        <v>918</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B544" t="s">
-        <v>926</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>5</v>
+        <v>920</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B545" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C545" s="3" t="s">
         <v>5</v>
@@ -10427,10 +10430,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B546" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C546" s="3" t="s">
         <v>5</v>
@@ -10438,10 +10441,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B547" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C547" s="3" t="s">
         <v>5</v>
@@ -10449,10 +10452,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B548" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C548" s="3" t="s">
         <v>5</v>
@@ -10460,10 +10463,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B549" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C549" s="3" t="s">
         <v>5</v>
@@ -10471,10 +10474,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B550" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="C550" s="3" t="s">
         <v>5</v>
@@ -10482,10 +10485,10 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="B551" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="C551" s="3" t="s">
         <v>5</v>
@@ -10493,10 +10496,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B552" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="C552" s="3" t="s">
         <v>5</v>
@@ -10504,10 +10507,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B553" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C553" s="3" t="s">
         <v>5</v>
@@ -10515,51 +10518,51 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B554" t="s">
-        <v>946</v>
-      </c>
-      <c r="C554" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B555" t="s">
-        <v>946</v>
-      </c>
-      <c r="C555" s="5" t="s">
-        <v>947</v>
+        <v>940</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B556" t="s">
-        <v>946</v>
-      </c>
-      <c r="C556" s="5" t="s">
-        <v>947</v>
+        <v>942</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B557" t="s">
-        <v>946</v>
-      </c>
-      <c r="C557" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B558" t="s">
         <v>946</v>
@@ -10570,10 +10573,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B559" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>947</v>
@@ -10581,10 +10584,10 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B560" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>947</v>
@@ -10592,10 +10595,10 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B561" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C561" s="5" t="s">
         <v>947</v>
@@ -10603,62 +10606,62 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B562" t="s">
-        <v>957</v>
-      </c>
-      <c r="C562" s="7" t="s">
-        <v>958</v>
+        <v>946</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B563" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B564" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C564" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B565" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B566" t="s">
-        <v>960</v>
-      </c>
-      <c r="C566" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C566" s="7" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B567" t="s">
         <v>960</v>
@@ -10669,7 +10672,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B568" t="s">
         <v>960</v>
@@ -10680,7 +10683,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B569" t="s">
         <v>960</v>
@@ -10691,10 +10694,10 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B570" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="C570" s="5" t="s">
         <v>958</v>
@@ -10702,10 +10705,10 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B571" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C571" s="5" t="s">
         <v>958</v>
@@ -10713,54 +10716,54 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B572" t="s">
-        <v>972</v>
-      </c>
-      <c r="C572" s="3" t="s">
-        <v>5</v>
+        <v>960</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B573" t="s">
-        <v>974</v>
-      </c>
-      <c r="C573" s="3" t="s">
-        <v>5</v>
+        <v>960</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B574" t="s">
-        <v>976</v>
-      </c>
-      <c r="C574" s="3" t="s">
-        <v>5</v>
+        <v>968</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B575" t="s">
-        <v>978</v>
-      </c>
-      <c r="C575" s="3" t="s">
-        <v>5</v>
+        <v>970</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B576" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C576" s="3" t="s">
         <v>5</v>
@@ -10768,21 +10771,21 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B577" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C577" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
-        <v>982</v>
+      <c r="A578" t="s">
+        <v>975</v>
       </c>
       <c r="B578" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C578" s="3" t="s">
         <v>5</v>
@@ -10790,43 +10793,43 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B579" t="s">
-        <v>985</v>
-      </c>
-      <c r="C579" s="7" t="s">
-        <v>986</v>
+        <v>978</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B580" t="s">
-        <v>985</v>
-      </c>
-      <c r="C580" s="7" t="s">
-        <v>986</v>
+        <v>978</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B581" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="C581" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>990</v>
+      <c r="A582" s="1" t="s">
+        <v>982</v>
       </c>
       <c r="B582" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="C582" s="3" t="s">
         <v>5</v>
@@ -10834,106 +10837,106 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B583" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B584" t="s">
-        <v>996</v>
-      </c>
-      <c r="C584" s="3" t="s">
-        <v>5</v>
+        <v>985</v>
+      </c>
+      <c r="C584" s="7" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="B585" t="s">
-        <v>998</v>
-      </c>
-      <c r="C585" s="5" t="s">
-        <v>999</v>
+        <v>989</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="B586" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C586" s="7" t="s">
-        <v>1002</v>
+        <v>991</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="B587" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="B588" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C588" s="7" t="s">
-        <v>1008</v>
+        <v>996</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="B589" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C589" s="7" t="s">
-        <v>1008</v>
+        <v>998</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="B590" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B591" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
-        <v>1012</v>
+      <c r="A592" t="s">
+        <v>1006</v>
       </c>
       <c r="B592" t="s">
         <v>1007</v>
@@ -10944,7 +10947,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B593" t="s">
         <v>1007</v>
@@ -10955,7 +10958,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B594" t="s">
         <v>1007</v>
@@ -10965,110 +10968,110 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
-        <v>1015</v>
+      <c r="A595" t="s">
+        <v>1011</v>
       </c>
       <c r="B595" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C595" s="7" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>1017</v>
+      <c r="A596" s="1" t="s">
+        <v>1012</v>
       </c>
       <c r="B596" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B597" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B598" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>1022</v>
+      <c r="A599" s="1" t="s">
+        <v>1015</v>
       </c>
       <c r="B599" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B600" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C600" s="3" t="s">
-        <v>5</v>
+        <v>1018</v>
+      </c>
+      <c r="C600" s="7" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B601" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C601" s="3" t="s">
-        <v>5</v>
+        <v>1018</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B602" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C602" s="3" t="s">
-        <v>5</v>
+        <v>1018</v>
+      </c>
+      <c r="C602" s="7" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="B603" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C603" s="3" t="s">
-        <v>5</v>
+        <v>1023</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B604" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="C604" s="3" t="s">
         <v>5</v>
@@ -11076,73 +11079,73 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="B605" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C605" s="7" t="s">
-        <v>1037</v>
+        <v>1028</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="B606" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C606" s="7" t="s">
-        <v>1040</v>
+        <v>1030</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="B607" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C607" s="5" t="s">
-        <v>1040</v>
+        <v>1032</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="B608" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C608" s="5" t="s">
-        <v>1040</v>
+        <v>1034</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="B609" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C609" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
+      </c>
+      <c r="C609" s="7" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B610" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C610" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C610" s="7" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B611" t="s">
         <v>1042</v>
@@ -11153,175 +11156,175 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B612" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C612" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B613" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C613" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B614" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C614" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B615" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C615" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C615" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B616" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C616" s="7" t="s">
-        <v>1057</v>
+        <v>1048</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="B617" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C617" s="7" t="s">
-        <v>1057</v>
+        <v>1050</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="B618" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="B619" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C619" s="7" t="s">
-        <v>1057</v>
+        <v>1054</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B620" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C620" s="5" t="s">
-        <v>1005</v>
+        <v>1056</v>
+      </c>
+      <c r="C620" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B621" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C621" s="5" t="s">
-        <v>1005</v>
+        <v>1056</v>
+      </c>
+      <c r="C621" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B622" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C622" s="3" t="s">
-        <v>5</v>
+        <v>1056</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B623" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C623" s="5" t="s">
-        <v>1068</v>
+        <v>1056</v>
+      </c>
+      <c r="C623" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="B624" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C624" s="5" t="s">
-        <v>1068</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="B625" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>1068</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="B626" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C626" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="B627" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>1068</v>
@@ -11329,10 +11332,10 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="B628" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="C628" s="5" t="s">
         <v>1068</v>
@@ -11340,10 +11343,10 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B629" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>1068</v>
@@ -11351,139 +11354,139 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="B630" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C630" s="3" t="s">
-        <v>5</v>
+        <v>1073</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B631" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C631" s="7" t="s">
-        <v>1083</v>
+        <v>1073</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="B632" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C632" s="7" t="s">
-        <v>1083</v>
+        <v>1076</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="B633" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C633" s="7" t="s">
-        <v>1088</v>
+        <v>1078</v>
+      </c>
+      <c r="C633" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="B634" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C634" s="7" t="s">
-        <v>1088</v>
+        <v>1080</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="B635" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B636" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="B637" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C637" s="3" t="s">
-        <v>5</v>
+        <v>1087</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B638" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C638" s="5" t="s">
-        <v>1101</v>
+        <v>1090</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="B639" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C639" s="5" t="s">
-        <v>1101</v>
+        <v>1092</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="B640" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C640" s="5" t="s">
-        <v>1101</v>
+        <v>1095</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="B641" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C641" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="B642" t="s">
         <v>1100</v>
@@ -11494,120 +11497,120 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B643" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C643" s="5" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1315</v>
+        <v>1103</v>
       </c>
       <c r="B644" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C644" s="5" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B645" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C645" s="7" t="s">
-        <v>767</v>
+        <v>1100</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="B646" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C646" s="7" t="s">
-        <v>767</v>
+        <v>1100</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B647" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C647" s="7" t="s">
-        <v>767</v>
+        <v>1107</v>
+      </c>
+      <c r="C647" s="5" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1114</v>
+        <v>1315</v>
       </c>
       <c r="B648" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C648" s="3" t="s">
-        <v>5</v>
+        <v>1107</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B649" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C649" s="3" t="s">
-        <v>5</v>
+        <v>1110</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="B650" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C650" s="5" t="s">
-        <v>161</v>
+        <v>1110</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="B651" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C651" s="5" t="s">
-        <v>161</v>
+        <v>1113</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="B652" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>1123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="B653" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="C653" s="3" t="s">
         <v>5</v>
@@ -11615,51 +11618,51 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="B654" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>1128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="B655" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>1128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="B656" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C656" s="5" t="s">
-        <v>1128</v>
+        <v>1122</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="B657" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C657" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B658" t="s">
         <v>1127</v>
@@ -11670,21 +11673,21 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B659" t="s">
         <v>1127</v>
       </c>
-      <c r="C659" s="7" t="s">
+      <c r="C659" s="5" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B660" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>1128</v>
@@ -11692,10 +11695,10 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B661" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C661" s="5" t="s">
         <v>1128</v>
@@ -11703,175 +11706,175 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B662" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C662" s="7" t="s">
-        <v>1139</v>
+        <v>1127</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="B663" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="B664" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C664" s="7" t="s">
-        <v>1139</v>
+        <v>1135</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B665" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C665" s="7" t="s">
-        <v>1144</v>
+        <v>1135</v>
+      </c>
+      <c r="C665" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="B666" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="B667" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C667" s="3" t="s">
-        <v>5</v>
+        <v>1138</v>
+      </c>
+      <c r="C667" s="7" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="B668" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="B669" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="B670" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="B671" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C671" s="5" t="s">
-        <v>1158</v>
+        <v>1148</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B672" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C672" s="5" t="s">
-        <v>1158</v>
+        <v>1150</v>
+      </c>
+      <c r="C672" s="7" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="B673" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C673" s="5" t="s">
-        <v>1144</v>
+        <v>1153</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B674" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C674" s="5" t="s">
-        <v>1144</v>
+        <v>1153</v>
+      </c>
+      <c r="C674" s="7" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B675" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C675" s="5" t="s">
-        <v>5</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="B676" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C676" s="5" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B677" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C677" s="5" t="s">
         <v>1144</v>
@@ -11879,73 +11882,73 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="B678" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C678" s="3" t="s">
-        <v>5</v>
+        <v>1161</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B679" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C679" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C679" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B680" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C680" s="5" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="B681" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C681" s="5" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="B682" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C682" s="5" t="s">
-        <v>1173</v>
+        <v>1168</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B683" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C683" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B684" t="s">
         <v>1172</v>
@@ -11956,10 +11959,10 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B685" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C685" s="5" t="s">
         <v>1173</v>
@@ -11967,109 +11970,109 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B686" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="C686" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B687" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C687" s="3" t="s">
-        <v>5</v>
+        <v>1172</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B688" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1316</v>
+        <v>1329</v>
       </c>
       <c r="B689" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C689" s="3" t="s">
-        <v>5</v>
+        <v>1172</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="B690" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B691" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="B692" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C692" s="5" t="s">
-        <v>1190</v>
+        <v>1184</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B693" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C693" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1195</v>
+        <v>1316</v>
       </c>
       <c r="B694" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C694" s="5" t="s">
-        <v>1190</v>
+        <v>1317</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="B695" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C695" s="5" t="s">
         <v>1190</v>
@@ -12077,7 +12080,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B696" t="s">
         <v>1192</v>
@@ -12088,7 +12091,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B697" t="s">
         <v>1192</v>
@@ -12099,7 +12102,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B698" t="s">
         <v>1192</v>
@@ -12110,7 +12113,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B699" t="s">
         <v>1192</v>
@@ -12121,7 +12124,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B700" t="s">
         <v>1192</v>
@@ -12132,10 +12135,10 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B701" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C701" s="5" t="s">
         <v>1190</v>
@@ -12143,10 +12146,10 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B702" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="C702" s="5" t="s">
         <v>1190</v>
@@ -12154,10 +12157,10 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B703" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>1190</v>
@@ -12165,10 +12168,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="B704" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="C704" s="5" t="s">
         <v>1190</v>
@@ -12176,10 +12179,10 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="B705" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="C705" s="5" t="s">
         <v>1190</v>
@@ -12187,10 +12190,10 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B706" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>1190</v>
@@ -12198,10 +12201,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B707" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>1190</v>
@@ -12209,98 +12212,98 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="B708" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B709" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B710" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="B711" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C711" s="3" t="s">
-        <v>5</v>
+        <v>1210</v>
+      </c>
+      <c r="C711" s="5" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B712" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C712" s="3" t="s">
-        <v>5</v>
+        <v>1213</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="B713" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C713" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="B714" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C714" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="B715" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C715" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="B716" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="C716" s="3" t="s">
         <v>5</v>
@@ -12308,10 +12311,10 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="B717" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="C717" s="3" t="s">
         <v>5</v>
@@ -12319,10 +12322,10 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="B718" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="C718" s="3" t="s">
         <v>5</v>
@@ -12330,10 +12333,10 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="B719" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C719" s="3" t="s">
         <v>5</v>
@@ -12341,10 +12344,10 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="B720" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="C720" s="3" t="s">
         <v>5</v>
@@ -12352,10 +12355,10 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B721" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="C721" s="3" t="s">
         <v>5</v>
@@ -12363,10 +12366,10 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1318</v>
+        <v>1228</v>
       </c>
       <c r="B722" t="s">
-        <v>1319</v>
+        <v>1229</v>
       </c>
       <c r="C722" s="3" t="s">
         <v>5</v>
@@ -12374,10 +12377,10 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B723" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="C723" s="3" t="s">
         <v>5</v>
@@ -12385,10 +12388,10 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="B724" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="C724" s="3" t="s">
         <v>5</v>
@@ -12396,285 +12399,285 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="B725" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C725" s="5" t="s">
-        <v>1244</v>
+        <v>1235</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B726" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C726" s="5" t="s">
-        <v>1244</v>
+        <v>1237</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1246</v>
+        <v>1318</v>
       </c>
       <c r="B727" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C727" s="5" t="s">
-        <v>1244</v>
+        <v>1319</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="B728" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C728" s="7" t="s">
-        <v>1249</v>
+        <v>1239</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="B729" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C729" s="7" t="s">
-        <v>1252</v>
+        <v>1241</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="B730" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C730" s="7" t="s">
-        <v>1252</v>
+        <v>1243</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="B731" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C731" s="7" t="s">
-        <v>1252</v>
+        <v>1243</v>
+      </c>
+      <c r="C731" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="B732" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C732" s="7" t="s">
-        <v>1259</v>
+        <v>1243</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B733" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="B734" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="B735" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B736" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="B737" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C737" s="3" t="s">
-        <v>5</v>
+        <v>1258</v>
+      </c>
+      <c r="C737" s="7" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B738" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C738" s="5" t="s">
-        <v>1274</v>
+        <v>1258</v>
+      </c>
+      <c r="C738" s="7" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="B739" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C739" s="5" t="s">
-        <v>1274</v>
+        <v>1262</v>
+      </c>
+      <c r="C739" s="7" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="B740" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C740" s="5" t="s">
-        <v>1274</v>
+        <v>1265</v>
+      </c>
+      <c r="C740" s="7" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="B741" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C741" s="3" t="s">
-        <v>5</v>
+        <v>1268</v>
+      </c>
+      <c r="C741" s="7" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="B742" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C742" s="7" t="s">
-        <v>1283</v>
+        <v>1271</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="B743" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="B744" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="B745" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C745" s="3" t="s">
-        <v>5</v>
+        <v>1278</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="B746" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C746" s="7" t="s">
-        <v>1292</v>
+        <v>1280</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="B747" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="B748" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C748" s="7" t="s">
-        <v>1297</v>
+        <v>1285</v>
+      </c>
+      <c r="C748" s="5" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="B749" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C749" s="7" t="s">
-        <v>1300</v>
+        <v>1285</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="B750" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="C750" s="3" t="s">
         <v>5</v>
@@ -12682,260 +12685,271 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="B751" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C751" s="3" t="s">
-        <v>5</v>
+        <v>1291</v>
+      </c>
+      <c r="C751" s="7" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="B752" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C752" s="3" t="s">
-        <v>5</v>
+        <v>1294</v>
+      </c>
+      <c r="C752" s="7" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="B753" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C753" s="3" t="s">
-        <v>5</v>
+        <v>1296</v>
+      </c>
+      <c r="C753" s="7" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1324</v>
+        <v>1298</v>
       </c>
       <c r="B754" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1322</v>
+        <v>1299</v>
+      </c>
+      <c r="C754" s="7" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B755" s="8" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C755" t="s">
-        <v>433</v>
+        <v>1301</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1327</v>
+        <v>1303</v>
       </c>
       <c r="B756" t="s">
-        <v>143</v>
-      </c>
-      <c r="C756" t="s">
-        <v>144</v>
+        <v>1304</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1328</v>
+        <v>1305</v>
       </c>
       <c r="B757" t="s">
-        <v>504</v>
-      </c>
-      <c r="C757" t="s">
-        <v>502</v>
+        <v>1306</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C753">
-    <sortCondition ref="B740"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C758">
+    <sortCondition ref="B737"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C474" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
-    <hyperlink ref="C502" r:id="rId2" xr:uid="{1FFD7F10-30E1-431E-898A-7FE98CA9E75E}"/>
-    <hyperlink ref="C113" r:id="rId3" xr:uid="{5694FAF1-3C4D-41FD-9342-1F750914BD88}"/>
-    <hyperlink ref="C114" r:id="rId4" xr:uid="{DE929E58-0827-4DE7-89E8-7164CAB16A48}"/>
-    <hyperlink ref="C139" r:id="rId5" xr:uid="{F41125B7-D667-481B-B74B-B8CFB86E824E}"/>
-    <hyperlink ref="C140" r:id="rId6" xr:uid="{C2446C7E-5645-410D-9C05-D11C80F487A6}"/>
-    <hyperlink ref="C150" r:id="rId7" xr:uid="{C93E5BBB-1956-4333-A0C2-AEB27C909B82}"/>
-    <hyperlink ref="C152" r:id="rId8" xr:uid="{A11BBEAA-2057-4F39-BE07-2E07C1B7AE35}"/>
-    <hyperlink ref="C159" r:id="rId9" xr:uid="{31FAAE50-BEFA-43B5-B55C-91B97B365920}"/>
-    <hyperlink ref="C158" r:id="rId10" xr:uid="{307D70AE-C4F4-4ED2-A8A9-8D969AE983CE}"/>
-    <hyperlink ref="C162" r:id="rId11" xr:uid="{1FCFAE34-56BD-49FA-AB6E-C46A06A7B47D}"/>
-    <hyperlink ref="C163" r:id="rId12" xr:uid="{865F5313-214F-47F5-9B1B-A14692FC1927}"/>
-    <hyperlink ref="C168" r:id="rId13" xr:uid="{D95CFC15-DE0B-4697-8208-EE57D4FF0102}"/>
-    <hyperlink ref="C198" r:id="rId14" xr:uid="{F08DD734-A9B1-47D3-AC2B-03A743A1B2A8}"/>
-    <hyperlink ref="C199" r:id="rId15" xr:uid="{BDFB4DA0-A56B-4A59-BC2D-8F73C733D79A}"/>
-    <hyperlink ref="C201" r:id="rId16" xr:uid="{058EF08E-6A77-448A-8D18-B6DC91CC902E}"/>
-    <hyperlink ref="C208" r:id="rId17" xr:uid="{4706EEFA-A1AB-4625-A7EF-F0221B98CB1D}"/>
-    <hyperlink ref="C209" r:id="rId18" xr:uid="{F3A739B8-8873-4E71-9EED-8C6CB09879E4}"/>
-    <hyperlink ref="C210" r:id="rId19" xr:uid="{02A1ADE3-F608-4EF7-8AB4-3FEC81E75A0E}"/>
-    <hyperlink ref="C211" r:id="rId20" xr:uid="{D6B0FD9B-5308-47D8-9BF9-377CAA3414E4}"/>
-    <hyperlink ref="C219" r:id="rId21" xr:uid="{B979763C-A57B-4A25-96F1-71D15E63977C}"/>
-    <hyperlink ref="C221" r:id="rId22" xr:uid="{76A1E6E6-903B-4543-9AFE-7FFD16AFF685}"/>
-    <hyperlink ref="C222" r:id="rId23" xr:uid="{31E1C69A-49DA-4906-B12F-CCC0168EC9FE}"/>
-    <hyperlink ref="C225" r:id="rId24" xr:uid="{3521175F-AC2B-43DD-BDA3-4211EE90B588}"/>
-    <hyperlink ref="C228" r:id="rId25" xr:uid="{58B2B766-2ED9-4F2A-926F-7CE5876202AE}"/>
-    <hyperlink ref="C229" r:id="rId26" xr:uid="{E0821DBA-5193-4E9B-BC50-7CB9E2655589}"/>
-    <hyperlink ref="C251" r:id="rId27" xr:uid="{DCF379A6-68B2-496C-B7B3-19BEA96F2204}"/>
-    <hyperlink ref="C252" r:id="rId28" xr:uid="{C0CD2576-3FC2-4AE0-BE27-ED5A9990B3E9}"/>
-    <hyperlink ref="C253" r:id="rId29" xr:uid="{73CFADC2-AA5F-451E-BDDE-C5D0C08C22E0}"/>
-    <hyperlink ref="C257" r:id="rId30" xr:uid="{06603856-CABA-41CC-8B3B-F3215E576EC9}"/>
-    <hyperlink ref="C258" r:id="rId31" xr:uid="{55007813-6CB6-43CD-876C-FE838DE94AF9}"/>
-    <hyperlink ref="C262" r:id="rId32" xr:uid="{2D8EC933-1BE9-4DFB-A220-A681BE615921}"/>
-    <hyperlink ref="C273" r:id="rId33" xr:uid="{761AE8F5-6CE5-45F1-B281-1C3F85C3AF27}"/>
-    <hyperlink ref="C272" r:id="rId34" xr:uid="{A4A2AF16-F107-4EA3-87D5-2E4889CFED26}"/>
-    <hyperlink ref="C271" r:id="rId35" xr:uid="{636F97C2-A40D-4730-AD86-49EC8390577C}"/>
-    <hyperlink ref="C276" r:id="rId36" xr:uid="{A1825094-8361-41CF-A0DE-4A84AC5EB13E}"/>
-    <hyperlink ref="C277" r:id="rId37" xr:uid="{E0E4A481-A30C-4846-9C0B-86548B33EC38}"/>
-    <hyperlink ref="C278" r:id="rId38" xr:uid="{3A2E3784-72FD-4311-A9DD-EF8AF7B78089}"/>
-    <hyperlink ref="C279" r:id="rId39" xr:uid="{D115A1B5-B1D9-409C-BB9E-667F49A6C083}"/>
-    <hyperlink ref="C280" r:id="rId40" xr:uid="{10889A01-4559-4097-B267-1E6068B2EDD9}"/>
-    <hyperlink ref="C281" r:id="rId41" xr:uid="{BF493C2D-9194-4A43-BA82-B718205F57E5}"/>
-    <hyperlink ref="C282" r:id="rId42" xr:uid="{00375E0A-C35B-4E75-B31F-A82AC7A9B931}"/>
-    <hyperlink ref="C284" r:id="rId43" xr:uid="{7CECD78A-F0DD-4021-80A9-50DF2B814A4F}"/>
-    <hyperlink ref="C285" r:id="rId44" xr:uid="{487B22D0-57BA-4B40-877E-1FEC4051FE7C}"/>
-    <hyperlink ref="C289" r:id="rId45" xr:uid="{6E8C69AA-192A-4154-8C85-5C713441D938}"/>
-    <hyperlink ref="C290" r:id="rId46" xr:uid="{0F8F4654-49B4-430A-9560-018D6E62BA04}"/>
-    <hyperlink ref="C299" r:id="rId47" xr:uid="{385A0A0C-BDA8-4951-A24D-A5F4685BC65B}"/>
-    <hyperlink ref="C300" r:id="rId48" xr:uid="{D89BE6C8-8469-4F2C-9FC6-9FE6BD571CE1}"/>
-    <hyperlink ref="C301" r:id="rId49" xr:uid="{DC995FC6-4B24-4F0B-9645-C1C953BB9075}"/>
-    <hyperlink ref="C302" r:id="rId50" xr:uid="{E2AE46AD-3F70-45DB-8515-9BCD53AABC7D}"/>
-    <hyperlink ref="C304" r:id="rId51" xr:uid="{C06C8A75-5A3D-421C-9098-23D59F26FF3B}"/>
-    <hyperlink ref="C305" r:id="rId52" xr:uid="{154CCA85-9370-47F2-9CA1-AD3D91019655}"/>
-    <hyperlink ref="C306" r:id="rId53" xr:uid="{BDE4EA5B-E212-43AF-9F2D-E0D13DC21DFF}"/>
-    <hyperlink ref="C309" r:id="rId54" xr:uid="{459C73A2-5837-420A-9041-BA13EF27B907}"/>
-    <hyperlink ref="C310" r:id="rId55" xr:uid="{64087C42-A7E5-4954-A4CA-6FCD3AFC9F54}"/>
-    <hyperlink ref="C311" r:id="rId56" xr:uid="{F29AE44F-4E3D-48B1-91DA-EDE94508D8C4}"/>
-    <hyperlink ref="C312" r:id="rId57" xr:uid="{6501AA8B-F65E-4E03-B2DF-0B3378B03E48}"/>
-    <hyperlink ref="C313" r:id="rId58" xr:uid="{A8939077-23AF-4587-AE24-0E324533AAC6}"/>
-    <hyperlink ref="C314" r:id="rId59" xr:uid="{4FE90C1E-698A-4BCC-92F8-7707B6ACC42B}"/>
-    <hyperlink ref="C315" r:id="rId60" xr:uid="{E545AA3D-E166-49A7-9E84-8FE2AE6230A3}"/>
-    <hyperlink ref="C316" r:id="rId61" xr:uid="{D7524563-2549-4EDA-9AB4-4A578B02C796}"/>
-    <hyperlink ref="C317" r:id="rId62" xr:uid="{DF4E4437-78B1-4902-AFA1-5395FEB03076}"/>
-    <hyperlink ref="C318" r:id="rId63" xr:uid="{AD3F5082-2B66-4261-9EB2-CD2B2ACA7A7E}"/>
-    <hyperlink ref="C319" r:id="rId64" xr:uid="{DCACB595-564E-45B7-812F-95F2BFE2869D}"/>
-    <hyperlink ref="C320" r:id="rId65" xr:uid="{1D53DCDD-A90E-47F0-85E4-D7F1F7A4A0AC}"/>
-    <hyperlink ref="C321" r:id="rId66" xr:uid="{EC1FFFD2-3999-487A-8CA8-2314FA16DBBB}"/>
-    <hyperlink ref="C322" r:id="rId67" xr:uid="{B5CEE578-DD01-4EC9-93D7-01DDE211FE35}"/>
-    <hyperlink ref="C377" r:id="rId68" xr:uid="{1D3AC609-2E4B-40B6-AD33-7BA034F6183B}"/>
-    <hyperlink ref="C379" r:id="rId69" xr:uid="{5C77D951-3C85-4C4E-A8D9-F6AF0D5843DE}"/>
-    <hyperlink ref="C380" r:id="rId70" xr:uid="{15A99EDB-D519-4239-80CB-C53A72CE2619}"/>
-    <hyperlink ref="C389" r:id="rId71" xr:uid="{92EF42C3-7729-4CD5-8DA1-307456AC5A86}"/>
-    <hyperlink ref="C391" r:id="rId72" xr:uid="{85D1F75B-83E1-4CB7-956E-2C1DEB380C90}"/>
-    <hyperlink ref="C409" r:id="rId73" xr:uid="{2662653A-DD6A-4A24-A16D-DDAB0A6760CC}"/>
-    <hyperlink ref="C412" r:id="rId74" xr:uid="{91607537-76ED-421C-9EF0-77F8A2D8304A}"/>
-    <hyperlink ref="C413" r:id="rId75" xr:uid="{6BEC13F7-BF8E-4B73-90E5-C53796CDA863}"/>
-    <hyperlink ref="C414" r:id="rId76" xr:uid="{7BB177D0-D2B7-45D6-BEB8-228A983C8172}"/>
-    <hyperlink ref="C415" r:id="rId77" xr:uid="{6B2F58DF-AA6C-4BA7-B7EA-D0B7ECE46279}"/>
-    <hyperlink ref="C416" r:id="rId78" xr:uid="{5E3FF262-1E26-47E6-A40F-8AEF03715EF3}"/>
-    <hyperlink ref="C417" r:id="rId79" xr:uid="{4827EC17-D5E3-4F7E-8621-AF1577399BAA}"/>
-    <hyperlink ref="C418" r:id="rId80" xr:uid="{2FB66B37-E01F-4CBC-B69F-EAA6F4466B06}"/>
-    <hyperlink ref="C419" r:id="rId81" xr:uid="{2DEBA2DE-4AE2-44EE-9A0C-4BE62E8161CA}"/>
-    <hyperlink ref="C420" r:id="rId82" xr:uid="{9F336295-81C0-40F2-93DB-BCFC172F1706}"/>
-    <hyperlink ref="C424" r:id="rId83" xr:uid="{373CB7F6-BCED-430A-8FB7-4106FA77A5CE}"/>
-    <hyperlink ref="C425" r:id="rId84" xr:uid="{49DEADCC-DD9B-40F4-93C8-AB8B5B5D8C85}"/>
-    <hyperlink ref="C431" r:id="rId85" xr:uid="{27435455-E4D7-46FE-9979-76D8D5E45A7C}"/>
-    <hyperlink ref="C463" r:id="rId86" xr:uid="{CB445ED1-986D-49AA-B92A-D152D2EE26D7}"/>
-    <hyperlink ref="C464" r:id="rId87" xr:uid="{AC452A0B-C5A2-4ED3-9EB9-C8AF832ADF22}"/>
-    <hyperlink ref="C483" r:id="rId88" xr:uid="{008F7E1C-3DD9-488D-B92E-B47478E6257E}"/>
-    <hyperlink ref="C484" r:id="rId89" xr:uid="{DFD1AAE1-7763-43BA-B64B-50D8EF3A8FA4}"/>
-    <hyperlink ref="C492" r:id="rId90" xr:uid="{FE93D868-FB33-4933-869F-7E1364946E29}"/>
-    <hyperlink ref="C493" r:id="rId91" xr:uid="{3232589B-AD34-44A2-A894-DD86D94FFEB5}"/>
-    <hyperlink ref="C498" r:id="rId92" xr:uid="{C887C4B4-9C80-45CB-A0BD-5EEFCB9C6A5D}"/>
-    <hyperlink ref="C504" r:id="rId93" xr:uid="{922FF8E9-2048-495F-AECF-0934A9EDBBFD}"/>
-    <hyperlink ref="C505" r:id="rId94" xr:uid="{6BA9828B-BD89-4F94-9410-5284C9B221E4}"/>
-    <hyperlink ref="C506" r:id="rId95" xr:uid="{FF8A8CBB-337D-4C36-8DEA-88B26CA6FE1D}"/>
-    <hyperlink ref="C509" r:id="rId96" xr:uid="{BC87A924-52A1-4F62-B96D-D7768848AFD3}"/>
-    <hyperlink ref="C515" r:id="rId97" xr:uid="{801CB12B-C855-4D47-A845-0F2BBE148A2A}"/>
-    <hyperlink ref="C522" r:id="rId98" xr:uid="{6739B732-0245-4ADC-9A2D-3A23EAF29A45}"/>
-    <hyperlink ref="C523" r:id="rId99" xr:uid="{45825CC5-5E1E-45FD-9E2D-C8E45A0FD0DB}"/>
-    <hyperlink ref="C525" r:id="rId100" xr:uid="{EC3D4157-1CAE-4C13-954B-0DFF53D3DDB9}"/>
-    <hyperlink ref="C529" r:id="rId101" xr:uid="{E990EB42-0515-4430-A365-67BACA2D48CE}"/>
-    <hyperlink ref="C530" r:id="rId102" xr:uid="{FC673107-5C8A-4E1B-8C38-55F35E559ECB}"/>
-    <hyperlink ref="C531" r:id="rId103" xr:uid="{716AF2A5-F40B-4FCE-B0B8-1A836CBE6D26}"/>
-    <hyperlink ref="C532" r:id="rId104" xr:uid="{3A4F84A5-7A7C-4B23-AAB1-07FF7291F07B}"/>
-    <hyperlink ref="C534" r:id="rId105" xr:uid="{DBB07998-0CD2-41A8-B9C7-111A698C04D4}"/>
-    <hyperlink ref="C535" r:id="rId106" xr:uid="{A72954A2-4BE8-4E5B-A403-B1D9F9DAC964}"/>
-    <hyperlink ref="C536" r:id="rId107" xr:uid="{F77C3477-6D7E-45FF-9BC2-E21C6DA8DFDC}"/>
-    <hyperlink ref="C537" r:id="rId108" xr:uid="{3EAE3DE2-87FE-448A-8D9B-20D3C4D5400C}"/>
-    <hyperlink ref="C538" r:id="rId109" xr:uid="{C9D581BB-76F4-4C1D-8FCE-450FED677B68}"/>
-    <hyperlink ref="C539" r:id="rId110" xr:uid="{BE571891-8E35-469F-9FE6-1E8C6D264793}"/>
-    <hyperlink ref="C540" r:id="rId111" xr:uid="{64A3CE78-7C62-474D-86F4-CD2B0CD3764E}"/>
-    <hyperlink ref="C562" r:id="rId112" xr:uid="{6756F5E3-A910-40AF-B2FB-FA2896AEA41B}"/>
-    <hyperlink ref="C580" r:id="rId113" xr:uid="{799435F4-7649-46B9-9669-5C3B9E72D41A}"/>
-    <hyperlink ref="C579" r:id="rId114" xr:uid="{4E065C65-24D3-4F9B-97F2-39C3D2EA30F1}"/>
-    <hyperlink ref="C583" r:id="rId115" xr:uid="{4D5DAB33-F966-4485-9423-DF4F732554FC}"/>
-    <hyperlink ref="C586" r:id="rId116" xr:uid="{23E1B7C6-9D92-448C-9364-59F7D53F222B}"/>
-    <hyperlink ref="C587" r:id="rId117" xr:uid="{5A4CD2B6-0BED-4566-B9FC-BBE8FF1BB536}"/>
-    <hyperlink ref="C588" r:id="rId118" xr:uid="{E62F34BE-AD16-4697-AE3E-9E661A24148A}"/>
-    <hyperlink ref="C589" r:id="rId119" xr:uid="{121A711F-95BB-4538-B243-D3464240F575}"/>
-    <hyperlink ref="C590" r:id="rId120" xr:uid="{CD5D138F-1EF3-4FD4-9363-CE2F9579D4A0}"/>
-    <hyperlink ref="C591" r:id="rId121" xr:uid="{E0B3A71E-1BF1-43DD-A8B4-4F31545C0449}"/>
-    <hyperlink ref="C592" r:id="rId122" xr:uid="{26AE98E3-17E4-4C62-926F-5533DA8DDA54}"/>
-    <hyperlink ref="C593" r:id="rId123" xr:uid="{C86EF7AB-FDFC-41F5-8CFC-E1B8122AD848}"/>
-    <hyperlink ref="C594" r:id="rId124" xr:uid="{DEB8CDD4-F974-4551-9A88-9D3F031FAF61}"/>
-    <hyperlink ref="C595" r:id="rId125" xr:uid="{26A26117-6F55-41B0-B595-FB655A623076}"/>
-    <hyperlink ref="C596" r:id="rId126" xr:uid="{72A32827-9D20-4D73-B3C0-C324089DD165}"/>
-    <hyperlink ref="C597" r:id="rId127" xr:uid="{EC81D2F1-46AB-42B8-8F4C-04751200BFF4}"/>
-    <hyperlink ref="C598" r:id="rId128" xr:uid="{F6C7F9A4-D91A-402B-8A19-824CB5932DF9}"/>
-    <hyperlink ref="C599" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
-    <hyperlink ref="C605" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
-    <hyperlink ref="C606" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
-    <hyperlink ref="C616" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
-    <hyperlink ref="C617" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
-    <hyperlink ref="C618" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
-    <hyperlink ref="C619" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
-    <hyperlink ref="C631" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
-    <hyperlink ref="C632" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
-    <hyperlink ref="C633" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
-    <hyperlink ref="C634" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
-    <hyperlink ref="C635" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
-    <hyperlink ref="C636" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
-    <hyperlink ref="C645" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
-    <hyperlink ref="C646" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
-    <hyperlink ref="C647" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
-    <hyperlink ref="C461" r:id="rId145" xr:uid="{377CD652-368C-4314-A164-D49B86A5008D}"/>
-    <hyperlink ref="C460" r:id="rId146" xr:uid="{C951C838-B3A0-47F2-ADAE-652F18C58DC1}"/>
-    <hyperlink ref="C458" r:id="rId147" xr:uid="{888616A4-9F6D-45D1-8BF2-E426AFB16F80}"/>
-    <hyperlink ref="C459" r:id="rId148" xr:uid="{0B3F2A4A-91C2-4D5A-B29A-4D5117BFEFE3}"/>
-    <hyperlink ref="C659" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
-    <hyperlink ref="C662" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
-    <hyperlink ref="C663" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
-    <hyperlink ref="C664" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
-    <hyperlink ref="C665" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
-    <hyperlink ref="C666" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
-    <hyperlink ref="C668" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
-    <hyperlink ref="C669" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
-    <hyperlink ref="C670" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
-    <hyperlink ref="C728" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
-    <hyperlink ref="C729" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
-    <hyperlink ref="C730" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
-    <hyperlink ref="C731" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
-    <hyperlink ref="C732" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
-    <hyperlink ref="C733" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
-    <hyperlink ref="C734" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
-    <hyperlink ref="C735" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
-    <hyperlink ref="C736" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
-    <hyperlink ref="C742" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
-    <hyperlink ref="C746" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
-    <hyperlink ref="C747" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
-    <hyperlink ref="C748" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
-    <hyperlink ref="C749" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
-    <hyperlink ref="C135" r:id="rId172" xr:uid="{0EBD26DB-323F-422E-91F1-A6E9B3505678}"/>
-    <hyperlink ref="C151" r:id="rId173" xr:uid="{1E2FFDE3-C017-4939-9259-2985E718AAE3}"/>
-    <hyperlink ref="C432" r:id="rId174" xr:uid="{0146A258-4649-4022-9C92-DFFB658BE508}"/>
+    <hyperlink ref="C478" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
+    <hyperlink ref="C506" r:id="rId2" xr:uid="{1FFD7F10-30E1-431E-898A-7FE98CA9E75E}"/>
+    <hyperlink ref="C114" r:id="rId3" xr:uid="{5694FAF1-3C4D-41FD-9342-1F750914BD88}"/>
+    <hyperlink ref="C115" r:id="rId4" xr:uid="{DE929E58-0827-4DE7-89E8-7164CAB16A48}"/>
+    <hyperlink ref="C140" r:id="rId5" xr:uid="{F41125B7-D667-481B-B74B-B8CFB86E824E}"/>
+    <hyperlink ref="C141" r:id="rId6" xr:uid="{C2446C7E-5645-410D-9C05-D11C80F487A6}"/>
+    <hyperlink ref="C151" r:id="rId7" xr:uid="{C93E5BBB-1956-4333-A0C2-AEB27C909B82}"/>
+    <hyperlink ref="C153" r:id="rId8" xr:uid="{A11BBEAA-2057-4F39-BE07-2E07C1B7AE35}"/>
+    <hyperlink ref="C160" r:id="rId9" xr:uid="{31FAAE50-BEFA-43B5-B55C-91B97B365920}"/>
+    <hyperlink ref="C159" r:id="rId10" xr:uid="{307D70AE-C4F4-4ED2-A8A9-8D969AE983CE}"/>
+    <hyperlink ref="C163" r:id="rId11" xr:uid="{1FCFAE34-56BD-49FA-AB6E-C46A06A7B47D}"/>
+    <hyperlink ref="C164" r:id="rId12" xr:uid="{865F5313-214F-47F5-9B1B-A14692FC1927}"/>
+    <hyperlink ref="C169" r:id="rId13" xr:uid="{D95CFC15-DE0B-4697-8208-EE57D4FF0102}"/>
+    <hyperlink ref="C199" r:id="rId14" xr:uid="{F08DD734-A9B1-47D3-AC2B-03A743A1B2A8}"/>
+    <hyperlink ref="C200" r:id="rId15" xr:uid="{BDFB4DA0-A56B-4A59-BC2D-8F73C733D79A}"/>
+    <hyperlink ref="C202" r:id="rId16" xr:uid="{058EF08E-6A77-448A-8D18-B6DC91CC902E}"/>
+    <hyperlink ref="C209" r:id="rId17" xr:uid="{4706EEFA-A1AB-4625-A7EF-F0221B98CB1D}"/>
+    <hyperlink ref="C210" r:id="rId18" xr:uid="{F3A739B8-8873-4E71-9EED-8C6CB09879E4}"/>
+    <hyperlink ref="C211" r:id="rId19" xr:uid="{02A1ADE3-F608-4EF7-8AB4-3FEC81E75A0E}"/>
+    <hyperlink ref="C212" r:id="rId20" xr:uid="{D6B0FD9B-5308-47D8-9BF9-377CAA3414E4}"/>
+    <hyperlink ref="C220" r:id="rId21" xr:uid="{B979763C-A57B-4A25-96F1-71D15E63977C}"/>
+    <hyperlink ref="C222" r:id="rId22" xr:uid="{76A1E6E6-903B-4543-9AFE-7FFD16AFF685}"/>
+    <hyperlink ref="C223" r:id="rId23" xr:uid="{31E1C69A-49DA-4906-B12F-CCC0168EC9FE}"/>
+    <hyperlink ref="C226" r:id="rId24" xr:uid="{3521175F-AC2B-43DD-BDA3-4211EE90B588}"/>
+    <hyperlink ref="C229" r:id="rId25" xr:uid="{58B2B766-2ED9-4F2A-926F-7CE5876202AE}"/>
+    <hyperlink ref="C230" r:id="rId26" xr:uid="{E0821DBA-5193-4E9B-BC50-7CB9E2655589}"/>
+    <hyperlink ref="C252" r:id="rId27" xr:uid="{DCF379A6-68B2-496C-B7B3-19BEA96F2204}"/>
+    <hyperlink ref="C253" r:id="rId28" xr:uid="{C0CD2576-3FC2-4AE0-BE27-ED5A9990B3E9}"/>
+    <hyperlink ref="C255" r:id="rId29" xr:uid="{73CFADC2-AA5F-451E-BDDE-C5D0C08C22E0}"/>
+    <hyperlink ref="C259" r:id="rId30" xr:uid="{06603856-CABA-41CC-8B3B-F3215E576EC9}"/>
+    <hyperlink ref="C260" r:id="rId31" xr:uid="{55007813-6CB6-43CD-876C-FE838DE94AF9}"/>
+    <hyperlink ref="C264" r:id="rId32" xr:uid="{2D8EC933-1BE9-4DFB-A220-A681BE615921}"/>
+    <hyperlink ref="C275" r:id="rId33" xr:uid="{761AE8F5-6CE5-45F1-B281-1C3F85C3AF27}"/>
+    <hyperlink ref="C274" r:id="rId34" xr:uid="{A4A2AF16-F107-4EA3-87D5-2E4889CFED26}"/>
+    <hyperlink ref="C273" r:id="rId35" xr:uid="{636F97C2-A40D-4730-AD86-49EC8390577C}"/>
+    <hyperlink ref="C278" r:id="rId36" xr:uid="{A1825094-8361-41CF-A0DE-4A84AC5EB13E}"/>
+    <hyperlink ref="C279" r:id="rId37" xr:uid="{E0E4A481-A30C-4846-9C0B-86548B33EC38}"/>
+    <hyperlink ref="C280" r:id="rId38" xr:uid="{3A2E3784-72FD-4311-A9DD-EF8AF7B78089}"/>
+    <hyperlink ref="C281" r:id="rId39" xr:uid="{D115A1B5-B1D9-409C-BB9E-667F49A6C083}"/>
+    <hyperlink ref="C282" r:id="rId40" xr:uid="{10889A01-4559-4097-B267-1E6068B2EDD9}"/>
+    <hyperlink ref="C283" r:id="rId41" xr:uid="{BF493C2D-9194-4A43-BA82-B718205F57E5}"/>
+    <hyperlink ref="C284" r:id="rId42" xr:uid="{00375E0A-C35B-4E75-B31F-A82AC7A9B931}"/>
+    <hyperlink ref="C286" r:id="rId43" xr:uid="{7CECD78A-F0DD-4021-80A9-50DF2B814A4F}"/>
+    <hyperlink ref="C287" r:id="rId44" xr:uid="{487B22D0-57BA-4B40-877E-1FEC4051FE7C}"/>
+    <hyperlink ref="C291" r:id="rId45" xr:uid="{6E8C69AA-192A-4154-8C85-5C713441D938}"/>
+    <hyperlink ref="C292" r:id="rId46" xr:uid="{0F8F4654-49B4-430A-9560-018D6E62BA04}"/>
+    <hyperlink ref="C302" r:id="rId47" xr:uid="{385A0A0C-BDA8-4951-A24D-A5F4685BC65B}"/>
+    <hyperlink ref="C303" r:id="rId48" xr:uid="{D89BE6C8-8469-4F2C-9FC6-9FE6BD571CE1}"/>
+    <hyperlink ref="C304" r:id="rId49" xr:uid="{DC995FC6-4B24-4F0B-9645-C1C953BB9075}"/>
+    <hyperlink ref="C305" r:id="rId50" xr:uid="{E2AE46AD-3F70-45DB-8515-9BCD53AABC7D}"/>
+    <hyperlink ref="C307" r:id="rId51" xr:uid="{C06C8A75-5A3D-421C-9098-23D59F26FF3B}"/>
+    <hyperlink ref="C308" r:id="rId52" xr:uid="{154CCA85-9370-47F2-9CA1-AD3D91019655}"/>
+    <hyperlink ref="C309" r:id="rId53" xr:uid="{BDE4EA5B-E212-43AF-9F2D-E0D13DC21DFF}"/>
+    <hyperlink ref="C312" r:id="rId54" xr:uid="{459C73A2-5837-420A-9041-BA13EF27B907}"/>
+    <hyperlink ref="C313" r:id="rId55" xr:uid="{64087C42-A7E5-4954-A4CA-6FCD3AFC9F54}"/>
+    <hyperlink ref="C314" r:id="rId56" xr:uid="{F29AE44F-4E3D-48B1-91DA-EDE94508D8C4}"/>
+    <hyperlink ref="C315" r:id="rId57" xr:uid="{6501AA8B-F65E-4E03-B2DF-0B3378B03E48}"/>
+    <hyperlink ref="C316" r:id="rId58" xr:uid="{A8939077-23AF-4587-AE24-0E324533AAC6}"/>
+    <hyperlink ref="C317" r:id="rId59" xr:uid="{4FE90C1E-698A-4BCC-92F8-7707B6ACC42B}"/>
+    <hyperlink ref="C318" r:id="rId60" xr:uid="{E545AA3D-E166-49A7-9E84-8FE2AE6230A3}"/>
+    <hyperlink ref="C319" r:id="rId61" xr:uid="{D7524563-2549-4EDA-9AB4-4A578B02C796}"/>
+    <hyperlink ref="C320" r:id="rId62" xr:uid="{DF4E4437-78B1-4902-AFA1-5395FEB03076}"/>
+    <hyperlink ref="C321" r:id="rId63" xr:uid="{AD3F5082-2B66-4261-9EB2-CD2B2ACA7A7E}"/>
+    <hyperlink ref="C322" r:id="rId64" xr:uid="{DCACB595-564E-45B7-812F-95F2BFE2869D}"/>
+    <hyperlink ref="C323" r:id="rId65" xr:uid="{1D53DCDD-A90E-47F0-85E4-D7F1F7A4A0AC}"/>
+    <hyperlink ref="C324" r:id="rId66" xr:uid="{EC1FFFD2-3999-487A-8CA8-2314FA16DBBB}"/>
+    <hyperlink ref="C325" r:id="rId67" xr:uid="{B5CEE578-DD01-4EC9-93D7-01DDE211FE35}"/>
+    <hyperlink ref="C380" r:id="rId68" xr:uid="{1D3AC609-2E4B-40B6-AD33-7BA034F6183B}"/>
+    <hyperlink ref="C382" r:id="rId69" xr:uid="{5C77D951-3C85-4C4E-A8D9-F6AF0D5843DE}"/>
+    <hyperlink ref="C383" r:id="rId70" xr:uid="{15A99EDB-D519-4239-80CB-C53A72CE2619}"/>
+    <hyperlink ref="C392" r:id="rId71" xr:uid="{92EF42C3-7729-4CD5-8DA1-307456AC5A86}"/>
+    <hyperlink ref="C394" r:id="rId72" xr:uid="{85D1F75B-83E1-4CB7-956E-2C1DEB380C90}"/>
+    <hyperlink ref="C412" r:id="rId73" xr:uid="{2662653A-DD6A-4A24-A16D-DDAB0A6760CC}"/>
+    <hyperlink ref="C415" r:id="rId74" xr:uid="{91607537-76ED-421C-9EF0-77F8A2D8304A}"/>
+    <hyperlink ref="C416" r:id="rId75" xr:uid="{6BEC13F7-BF8E-4B73-90E5-C53796CDA863}"/>
+    <hyperlink ref="C417" r:id="rId76" xr:uid="{7BB177D0-D2B7-45D6-BEB8-228A983C8172}"/>
+    <hyperlink ref="C418" r:id="rId77" xr:uid="{6B2F58DF-AA6C-4BA7-B7EA-D0B7ECE46279}"/>
+    <hyperlink ref="C419" r:id="rId78" xr:uid="{5E3FF262-1E26-47E6-A40F-8AEF03715EF3}"/>
+    <hyperlink ref="C420" r:id="rId79" xr:uid="{4827EC17-D5E3-4F7E-8621-AF1577399BAA}"/>
+    <hyperlink ref="C421" r:id="rId80" xr:uid="{2FB66B37-E01F-4CBC-B69F-EAA6F4466B06}"/>
+    <hyperlink ref="C422" r:id="rId81" xr:uid="{2DEBA2DE-4AE2-44EE-9A0C-4BE62E8161CA}"/>
+    <hyperlink ref="C423" r:id="rId82" xr:uid="{9F336295-81C0-40F2-93DB-BCFC172F1706}"/>
+    <hyperlink ref="C427" r:id="rId83" xr:uid="{373CB7F6-BCED-430A-8FB7-4106FA77A5CE}"/>
+    <hyperlink ref="C428" r:id="rId84" xr:uid="{49DEADCC-DD9B-40F4-93C8-AB8B5B5D8C85}"/>
+    <hyperlink ref="C434" r:id="rId85" xr:uid="{27435455-E4D7-46FE-9979-76D8D5E45A7C}"/>
+    <hyperlink ref="C467" r:id="rId86" xr:uid="{CB445ED1-986D-49AA-B92A-D152D2EE26D7}"/>
+    <hyperlink ref="C468" r:id="rId87" xr:uid="{AC452A0B-C5A2-4ED3-9EB9-C8AF832ADF22}"/>
+    <hyperlink ref="C487" r:id="rId88" xr:uid="{008F7E1C-3DD9-488D-B92E-B47478E6257E}"/>
+    <hyperlink ref="C488" r:id="rId89" xr:uid="{DFD1AAE1-7763-43BA-B64B-50D8EF3A8FA4}"/>
+    <hyperlink ref="C496" r:id="rId90" xr:uid="{FE93D868-FB33-4933-869F-7E1364946E29}"/>
+    <hyperlink ref="C497" r:id="rId91" xr:uid="{3232589B-AD34-44A2-A894-DD86D94FFEB5}"/>
+    <hyperlink ref="C502" r:id="rId92" xr:uid="{C887C4B4-9C80-45CB-A0BD-5EEFCB9C6A5D}"/>
+    <hyperlink ref="C508" r:id="rId93" xr:uid="{922FF8E9-2048-495F-AECF-0934A9EDBBFD}"/>
+    <hyperlink ref="C509" r:id="rId94" xr:uid="{6BA9828B-BD89-4F94-9410-5284C9B221E4}"/>
+    <hyperlink ref="C510" r:id="rId95" xr:uid="{FF8A8CBB-337D-4C36-8DEA-88B26CA6FE1D}"/>
+    <hyperlink ref="C513" r:id="rId96" xr:uid="{BC87A924-52A1-4F62-B96D-D7768848AFD3}"/>
+    <hyperlink ref="C519" r:id="rId97" xr:uid="{801CB12B-C855-4D47-A845-0F2BBE148A2A}"/>
+    <hyperlink ref="C526" r:id="rId98" xr:uid="{6739B732-0245-4ADC-9A2D-3A23EAF29A45}"/>
+    <hyperlink ref="C527" r:id="rId99" xr:uid="{45825CC5-5E1E-45FD-9E2D-C8E45A0FD0DB}"/>
+    <hyperlink ref="C529" r:id="rId100" xr:uid="{EC3D4157-1CAE-4C13-954B-0DFF53D3DDB9}"/>
+    <hyperlink ref="C533" r:id="rId101" xr:uid="{E990EB42-0515-4430-A365-67BACA2D48CE}"/>
+    <hyperlink ref="C534" r:id="rId102" xr:uid="{FC673107-5C8A-4E1B-8C38-55F35E559ECB}"/>
+    <hyperlink ref="C535" r:id="rId103" xr:uid="{716AF2A5-F40B-4FCE-B0B8-1A836CBE6D26}"/>
+    <hyperlink ref="C536" r:id="rId104" xr:uid="{3A4F84A5-7A7C-4B23-AAB1-07FF7291F07B}"/>
+    <hyperlink ref="C538" r:id="rId105" xr:uid="{DBB07998-0CD2-41A8-B9C7-111A698C04D4}"/>
+    <hyperlink ref="C539" r:id="rId106" xr:uid="{A72954A2-4BE8-4E5B-A403-B1D9F9DAC964}"/>
+    <hyperlink ref="C540" r:id="rId107" xr:uid="{F77C3477-6D7E-45FF-9BC2-E21C6DA8DFDC}"/>
+    <hyperlink ref="C541" r:id="rId108" xr:uid="{3EAE3DE2-87FE-448A-8D9B-20D3C4D5400C}"/>
+    <hyperlink ref="C542" r:id="rId109" xr:uid="{C9D581BB-76F4-4C1D-8FCE-450FED677B68}"/>
+    <hyperlink ref="C543" r:id="rId110" xr:uid="{BE571891-8E35-469F-9FE6-1E8C6D264793}"/>
+    <hyperlink ref="C544" r:id="rId111" xr:uid="{64A3CE78-7C62-474D-86F4-CD2B0CD3764E}"/>
+    <hyperlink ref="C566" r:id="rId112" xr:uid="{6756F5E3-A910-40AF-B2FB-FA2896AEA41B}"/>
+    <hyperlink ref="C584" r:id="rId113" xr:uid="{799435F4-7649-46B9-9669-5C3B9E72D41A}"/>
+    <hyperlink ref="C583" r:id="rId114" xr:uid="{4E065C65-24D3-4F9B-97F2-39C3D2EA30F1}"/>
+    <hyperlink ref="C587" r:id="rId115" xr:uid="{4D5DAB33-F966-4485-9423-DF4F732554FC}"/>
+    <hyperlink ref="C590" r:id="rId116" xr:uid="{23E1B7C6-9D92-448C-9364-59F7D53F222B}"/>
+    <hyperlink ref="C591" r:id="rId117" xr:uid="{5A4CD2B6-0BED-4566-B9FC-BBE8FF1BB536}"/>
+    <hyperlink ref="C592" r:id="rId118" xr:uid="{E62F34BE-AD16-4697-AE3E-9E661A24148A}"/>
+    <hyperlink ref="C593" r:id="rId119" xr:uid="{121A711F-95BB-4538-B243-D3464240F575}"/>
+    <hyperlink ref="C594" r:id="rId120" xr:uid="{CD5D138F-1EF3-4FD4-9363-CE2F9579D4A0}"/>
+    <hyperlink ref="C595" r:id="rId121" xr:uid="{E0B3A71E-1BF1-43DD-A8B4-4F31545C0449}"/>
+    <hyperlink ref="C596" r:id="rId122" xr:uid="{26AE98E3-17E4-4C62-926F-5533DA8DDA54}"/>
+    <hyperlink ref="C597" r:id="rId123" xr:uid="{C86EF7AB-FDFC-41F5-8CFC-E1B8122AD848}"/>
+    <hyperlink ref="C598" r:id="rId124" xr:uid="{DEB8CDD4-F974-4551-9A88-9D3F031FAF61}"/>
+    <hyperlink ref="C599" r:id="rId125" xr:uid="{26A26117-6F55-41B0-B595-FB655A623076}"/>
+    <hyperlink ref="C600" r:id="rId126" xr:uid="{72A32827-9D20-4D73-B3C0-C324089DD165}"/>
+    <hyperlink ref="C601" r:id="rId127" xr:uid="{EC81D2F1-46AB-42B8-8F4C-04751200BFF4}"/>
+    <hyperlink ref="C602" r:id="rId128" xr:uid="{F6C7F9A4-D91A-402B-8A19-824CB5932DF9}"/>
+    <hyperlink ref="C603" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
+    <hyperlink ref="C609" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
+    <hyperlink ref="C610" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
+    <hyperlink ref="C620" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
+    <hyperlink ref="C621" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
+    <hyperlink ref="C622" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
+    <hyperlink ref="C623" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
+    <hyperlink ref="C635" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
+    <hyperlink ref="C636" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
+    <hyperlink ref="C637" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
+    <hyperlink ref="C638" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
+    <hyperlink ref="C639" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
+    <hyperlink ref="C640" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
+    <hyperlink ref="C649" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
+    <hyperlink ref="C650" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
+    <hyperlink ref="C651" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
+    <hyperlink ref="C465" r:id="rId145" xr:uid="{377CD652-368C-4314-A164-D49B86A5008D}"/>
+    <hyperlink ref="C464" r:id="rId146" xr:uid="{C951C838-B3A0-47F2-ADAE-652F18C58DC1}"/>
+    <hyperlink ref="C462" r:id="rId147" xr:uid="{888616A4-9F6D-45D1-8BF2-E426AFB16F80}"/>
+    <hyperlink ref="C463" r:id="rId148" xr:uid="{0B3F2A4A-91C2-4D5A-B29A-4D5117BFEFE3}"/>
+    <hyperlink ref="C663" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
+    <hyperlink ref="C666" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
+    <hyperlink ref="C667" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
+    <hyperlink ref="C668" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
+    <hyperlink ref="C669" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
+    <hyperlink ref="C670" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
+    <hyperlink ref="C672" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
+    <hyperlink ref="C673" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
+    <hyperlink ref="C674" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
+    <hyperlink ref="C733" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
+    <hyperlink ref="C734" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
+    <hyperlink ref="C735" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
+    <hyperlink ref="C736" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
+    <hyperlink ref="C737" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
+    <hyperlink ref="C738" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
+    <hyperlink ref="C739" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
+    <hyperlink ref="C740" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
+    <hyperlink ref="C741" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
+    <hyperlink ref="C747" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
+    <hyperlink ref="C751" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
+    <hyperlink ref="C752" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
+    <hyperlink ref="C753" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
+    <hyperlink ref="C754" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
+    <hyperlink ref="C136" r:id="rId172" xr:uid="{0EBD26DB-323F-422E-91F1-A6E9B3505678}"/>
+    <hyperlink ref="C152" r:id="rId173" xr:uid="{1E2FFDE3-C017-4939-9259-2985E718AAE3}"/>
+    <hyperlink ref="C435" r:id="rId174" xr:uid="{0146A258-4649-4022-9C92-DFFB658BE508}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId175"/>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFCB063-B19A-4C67-A4B3-358A483F8287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA3399-FEAD-4DE5-9F01-80C208E2FE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1331">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4015,6 +4015,9 @@
   </si>
   <si>
     <t>41808dcd-40e8-409b-9800-ca5e8c90489d</t>
+  </si>
+  <si>
+    <t>93761aaf-9406-41f1-9b0c-ffe8f4bee6cf</t>
   </si>
 </sst>
 </file>
@@ -4420,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C758"/>
+  <dimension ref="A1:C759"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
+      <selection activeCell="C762" sqref="C762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11057,32 +11060,32 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1022</v>
+        <v>1330</v>
       </c>
       <c r="B603" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C603" s="7" t="s">
-        <v>1024</v>
+        <v>1018</v>
+      </c>
+      <c r="C603" s="5" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B604" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C604" s="3" t="s">
-        <v>5</v>
+        <v>1023</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B605" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C605" s="3" t="s">
         <v>5</v>
@@ -11090,10 +11093,10 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B606" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C606" s="3" t="s">
         <v>5</v>
@@ -11101,10 +11104,10 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B607" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C607" s="3" t="s">
         <v>5</v>
@@ -11112,10 +11115,10 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B608" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C608" s="3" t="s">
         <v>5</v>
@@ -11123,40 +11126,40 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B609" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C609" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B610" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B611" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C611" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C611" s="7" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B612" t="s">
         <v>1042</v>
@@ -11167,7 +11170,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B613" t="s">
         <v>1042</v>
@@ -11178,7 +11181,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B614" t="s">
         <v>1042</v>
@@ -11189,7 +11192,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B615" t="s">
         <v>1042</v>
@@ -11200,21 +11203,21 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B616" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C616" s="3" t="s">
-        <v>5</v>
+        <v>1042</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B617" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C617" s="3" t="s">
         <v>5</v>
@@ -11222,10 +11225,10 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B618" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C618" s="3" t="s">
         <v>5</v>
@@ -11233,10 +11236,10 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B619" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C619" s="3" t="s">
         <v>5</v>
@@ -11244,18 +11247,18 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B620" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C620" s="7" t="s">
-        <v>1057</v>
+        <v>1054</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B621" t="s">
         <v>1056</v>
@@ -11266,7 +11269,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B622" t="s">
         <v>1056</v>
@@ -11277,7 +11280,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B623" t="s">
         <v>1056</v>
@@ -11288,18 +11291,18 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B624" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C624" s="5" t="s">
-        <v>1005</v>
+        <v>1056</v>
+      </c>
+      <c r="C624" s="7" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B625" t="s">
         <v>1062</v>
@@ -11310,29 +11313,29 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B626" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C626" s="3" t="s">
-        <v>5</v>
+        <v>1062</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B627" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C627" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B628" t="s">
         <v>1067</v>
@@ -11343,10 +11346,10 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B629" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C629" s="5" t="s">
         <v>1068</v>
@@ -11354,10 +11357,10 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B630" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C630" s="5" t="s">
         <v>1068</v>
@@ -11365,7 +11368,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B631" t="s">
         <v>1073</v>
@@ -11376,10 +11379,10 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B632" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>1068</v>
@@ -11387,10 +11390,10 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B633" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C633" s="5" t="s">
         <v>1068</v>
@@ -11398,32 +11401,32 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B634" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C634" s="3" t="s">
-        <v>5</v>
+        <v>1078</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B635" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C635" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B636" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>1083</v>
@@ -11431,21 +11434,21 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B637" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B638" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C638" s="7" t="s">
         <v>1088</v>
@@ -11453,51 +11456,51 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B639" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B640" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B641" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C641" s="3" t="s">
-        <v>5</v>
+        <v>1095</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B642" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C642" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B643" t="s">
         <v>1100</v>
@@ -11508,7 +11511,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B644" t="s">
         <v>1100</v>
@@ -11519,7 +11522,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B645" t="s">
         <v>1100</v>
@@ -11530,7 +11533,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B646" t="s">
         <v>1100</v>
@@ -11541,18 +11544,18 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B647" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="C647" s="5" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1315</v>
+        <v>1106</v>
       </c>
       <c r="B648" t="s">
         <v>1107</v>
@@ -11563,18 +11566,18 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1109</v>
+        <v>1315</v>
       </c>
       <c r="B649" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C649" s="7" t="s">
-        <v>767</v>
+        <v>1107</v>
+      </c>
+      <c r="C649" s="5" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B650" t="s">
         <v>1110</v>
@@ -11585,10 +11588,10 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B651" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C651" s="7" t="s">
         <v>767</v>
@@ -11596,21 +11599,21 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B652" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C652" s="3" t="s">
-        <v>5</v>
+        <v>1113</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B653" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C653" s="3" t="s">
         <v>5</v>
@@ -11618,18 +11621,18 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B654" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C654" s="5" t="s">
-        <v>161</v>
+        <v>1117</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B655" t="s">
         <v>1119</v>
@@ -11640,40 +11643,40 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B656" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C656" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B657" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>5</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B658" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C658" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B659" t="s">
         <v>1127</v>
@@ -11684,7 +11687,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B660" t="s">
         <v>1127</v>
@@ -11695,7 +11698,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B661" t="s">
         <v>1127</v>
@@ -11706,7 +11709,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B662" t="s">
         <v>1127</v>
@@ -11717,29 +11720,29 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B663" t="s">
         <v>1127</v>
       </c>
-      <c r="C663" s="7" t="s">
+      <c r="C663" s="5" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B664" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C664" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C664" s="7" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B665" t="s">
         <v>1135</v>
@@ -11750,18 +11753,18 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B666" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C666" s="7" t="s">
-        <v>1139</v>
+        <v>1135</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B667" t="s">
         <v>1138</v>
@@ -11772,7 +11775,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B668" t="s">
         <v>1138</v>
@@ -11783,21 +11786,21 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B669" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B670" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C670" s="7" t="s">
         <v>1144</v>
@@ -11805,40 +11808,40 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B671" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C671" s="3" t="s">
-        <v>5</v>
+        <v>1146</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B672" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C672" s="7" t="s">
-        <v>1151</v>
+        <v>1148</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B673" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B674" t="s">
         <v>1153</v>
@@ -11849,18 +11852,18 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B675" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C675" s="5" t="s">
-        <v>1158</v>
+        <v>1153</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B676" t="s">
         <v>1157</v>
@@ -11871,18 +11874,18 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B677" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C677" s="5" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B678" t="s">
         <v>1161</v>
@@ -11893,29 +11896,29 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B679" t="s">
         <v>1161</v>
       </c>
       <c r="C679" s="5" t="s">
-        <v>5</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B680" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C680" s="5" t="s">
-        <v>1144</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B681" t="s">
         <v>1165</v>
@@ -11926,21 +11929,21 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B682" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C682" s="3" t="s">
-        <v>5</v>
+        <v>1165</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B683" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C683" s="3" t="s">
         <v>5</v>
@@ -11948,18 +11951,18 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B684" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C684" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B685" t="s">
         <v>1172</v>
@@ -11970,7 +11973,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B686" t="s">
         <v>1172</v>
@@ -11981,7 +11984,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B687" t="s">
         <v>1172</v>
@@ -11992,7 +11995,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B688" t="s">
         <v>1172</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1329</v>
+        <v>1177</v>
       </c>
       <c r="B689" t="s">
         <v>1172</v>
@@ -12014,10 +12017,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1178</v>
+        <v>1329</v>
       </c>
       <c r="B690" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C690" s="5" t="s">
         <v>1173</v>
@@ -12025,65 +12028,65 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B691" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B692" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C692" s="3" t="s">
-        <v>5</v>
+        <v>1181</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B693" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C693" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1316</v>
+        <v>1185</v>
       </c>
       <c r="B694" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C694" s="3" t="s">
-        <v>5</v>
+        <v>1186</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1188</v>
+        <v>1316</v>
       </c>
       <c r="B695" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C695" s="5" t="s">
-        <v>1190</v>
+        <v>1317</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B696" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C696" s="5" t="s">
         <v>1190</v>
@@ -12091,7 +12094,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B697" t="s">
         <v>1192</v>
@@ -12102,7 +12105,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B698" t="s">
         <v>1192</v>
@@ -12113,7 +12116,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B699" t="s">
         <v>1192</v>
@@ -12124,7 +12127,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B700" t="s">
         <v>1192</v>
@@ -12135,7 +12138,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B701" t="s">
         <v>1192</v>
@@ -12146,7 +12149,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B702" t="s">
         <v>1192</v>
@@ -12157,7 +12160,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B703" t="s">
         <v>1192</v>
@@ -12168,7 +12171,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B704" t="s">
         <v>1192</v>
@@ -12179,7 +12182,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B705" t="s">
         <v>1192</v>
@@ -12190,10 +12193,10 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B706" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>1190</v>
@@ -12201,10 +12204,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B707" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>1190</v>
@@ -12212,10 +12215,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B708" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>1190</v>
@@ -12223,7 +12226,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B709" t="s">
         <v>1207</v>
@@ -12234,10 +12237,10 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B710" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>1190</v>
@@ -12245,7 +12248,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B711" t="s">
         <v>1210</v>
@@ -12256,10 +12259,10 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B712" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C712" s="5" t="s">
         <v>1190</v>
@@ -12267,18 +12270,18 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B713" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B714" t="s">
         <v>1215</v>
@@ -12289,7 +12292,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B715" t="s">
         <v>1215</v>
@@ -12300,18 +12303,18 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B716" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C716" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B717" t="s">
         <v>1220</v>
@@ -12322,10 +12325,10 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B718" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C718" s="3" t="s">
         <v>5</v>
@@ -12333,7 +12336,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B719" t="s">
         <v>1223</v>
@@ -12344,7 +12347,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B720" t="s">
         <v>1223</v>
@@ -12355,10 +12358,10 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B721" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C721" s="3" t="s">
         <v>5</v>
@@ -12366,10 +12369,10 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B722" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C722" s="3" t="s">
         <v>5</v>
@@ -12377,10 +12380,10 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B723" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C723" s="3" t="s">
         <v>5</v>
@@ -12388,10 +12391,10 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B724" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C724" s="3" t="s">
         <v>5</v>
@@ -12399,10 +12402,10 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B725" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C725" s="3" t="s">
         <v>5</v>
@@ -12410,10 +12413,10 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B726" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C726" s="3" t="s">
         <v>5</v>
@@ -12421,10 +12424,10 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1318</v>
+        <v>1236</v>
       </c>
       <c r="B727" t="s">
-        <v>1319</v>
+        <v>1237</v>
       </c>
       <c r="C727" s="3" t="s">
         <v>5</v>
@@ -12432,10 +12435,10 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1238</v>
+        <v>1318</v>
       </c>
       <c r="B728" t="s">
-        <v>1239</v>
+        <v>1319</v>
       </c>
       <c r="C728" s="3" t="s">
         <v>5</v>
@@ -12443,10 +12446,10 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B729" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C729" s="3" t="s">
         <v>5</v>
@@ -12454,18 +12457,18 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B730" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C730" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B731" t="s">
         <v>1243</v>
@@ -12476,7 +12479,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B732" t="s">
         <v>1243</v>
@@ -12487,32 +12490,32 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B733" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C733" s="7" t="s">
-        <v>1249</v>
+        <v>1243</v>
+      </c>
+      <c r="C733" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B734" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B735" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C735" s="7" t="s">
         <v>1252</v>
@@ -12520,10 +12523,10 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B736" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C736" s="7" t="s">
         <v>1252</v>
@@ -12531,18 +12534,18 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B737" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B738" t="s">
         <v>1258</v>
@@ -12553,65 +12556,65 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B739" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B740" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B741" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B742" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C742" s="3" t="s">
-        <v>5</v>
+        <v>1268</v>
+      </c>
+      <c r="C742" s="7" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B743" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C743" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B744" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C744" s="5" t="s">
         <v>1274</v>
@@ -12619,10 +12622,10 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B745" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C745" s="5" t="s">
         <v>1274</v>
@@ -12630,40 +12633,40 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B746" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C746" s="3" t="s">
-        <v>5</v>
+        <v>1278</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B747" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C747" s="7" t="s">
-        <v>1283</v>
+        <v>1280</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B748" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C748" s="5" t="s">
-        <v>1286</v>
+        <v>1282</v>
+      </c>
+      <c r="C748" s="7" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B749" t="s">
         <v>1285</v>
@@ -12674,32 +12677,32 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B750" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C750" s="3" t="s">
-        <v>5</v>
+        <v>1285</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B751" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C751" s="7" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B752" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C752" s="7" t="s">
         <v>1292</v>
@@ -12707,43 +12710,43 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B753" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B754" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B755" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C755" s="3" t="s">
-        <v>5</v>
+        <v>1299</v>
+      </c>
+      <c r="C755" s="7" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B756" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C756" s="3" t="s">
         <v>5</v>
@@ -12751,10 +12754,10 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B757" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C757" s="3" t="s">
         <v>5</v>
@@ -12762,18 +12765,29 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
         <v>1307</v>
       </c>
-      <c r="B758" t="s">
+      <c r="B759" t="s">
         <v>1308</v>
       </c>
-      <c r="C758" s="3" t="s">
+      <c r="C759" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C758">
-    <sortCondition ref="B737"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C759">
+    <sortCondition ref="B748"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C478" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
@@ -12904,49 +12918,49 @@
     <hyperlink ref="C600" r:id="rId126" xr:uid="{72A32827-9D20-4D73-B3C0-C324089DD165}"/>
     <hyperlink ref="C601" r:id="rId127" xr:uid="{EC81D2F1-46AB-42B8-8F4C-04751200BFF4}"/>
     <hyperlink ref="C602" r:id="rId128" xr:uid="{F6C7F9A4-D91A-402B-8A19-824CB5932DF9}"/>
-    <hyperlink ref="C603" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
-    <hyperlink ref="C609" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
-    <hyperlink ref="C610" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
-    <hyperlink ref="C620" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
-    <hyperlink ref="C621" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
-    <hyperlink ref="C622" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
-    <hyperlink ref="C623" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
-    <hyperlink ref="C635" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
-    <hyperlink ref="C636" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
-    <hyperlink ref="C637" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
-    <hyperlink ref="C638" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
-    <hyperlink ref="C639" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
-    <hyperlink ref="C640" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
-    <hyperlink ref="C649" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
-    <hyperlink ref="C650" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
-    <hyperlink ref="C651" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
+    <hyperlink ref="C604" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
+    <hyperlink ref="C610" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
+    <hyperlink ref="C611" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
+    <hyperlink ref="C621" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
+    <hyperlink ref="C622" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
+    <hyperlink ref="C623" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
+    <hyperlink ref="C624" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
+    <hyperlink ref="C636" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
+    <hyperlink ref="C637" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
+    <hyperlink ref="C638" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
+    <hyperlink ref="C639" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
+    <hyperlink ref="C640" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
+    <hyperlink ref="C641" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
+    <hyperlink ref="C650" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
+    <hyperlink ref="C651" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
+    <hyperlink ref="C652" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
     <hyperlink ref="C465" r:id="rId145" xr:uid="{377CD652-368C-4314-A164-D49B86A5008D}"/>
     <hyperlink ref="C464" r:id="rId146" xr:uid="{C951C838-B3A0-47F2-ADAE-652F18C58DC1}"/>
     <hyperlink ref="C462" r:id="rId147" xr:uid="{888616A4-9F6D-45D1-8BF2-E426AFB16F80}"/>
     <hyperlink ref="C463" r:id="rId148" xr:uid="{0B3F2A4A-91C2-4D5A-B29A-4D5117BFEFE3}"/>
-    <hyperlink ref="C663" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
-    <hyperlink ref="C666" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
-    <hyperlink ref="C667" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
-    <hyperlink ref="C668" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
-    <hyperlink ref="C669" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
-    <hyperlink ref="C670" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
-    <hyperlink ref="C672" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
-    <hyperlink ref="C673" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
-    <hyperlink ref="C674" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
-    <hyperlink ref="C733" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
-    <hyperlink ref="C734" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
-    <hyperlink ref="C735" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
-    <hyperlink ref="C736" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
-    <hyperlink ref="C737" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
-    <hyperlink ref="C738" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
-    <hyperlink ref="C739" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
-    <hyperlink ref="C740" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
-    <hyperlink ref="C741" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
-    <hyperlink ref="C747" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
-    <hyperlink ref="C751" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
-    <hyperlink ref="C752" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
-    <hyperlink ref="C753" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
-    <hyperlink ref="C754" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
+    <hyperlink ref="C664" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
+    <hyperlink ref="C667" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
+    <hyperlink ref="C668" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
+    <hyperlink ref="C669" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
+    <hyperlink ref="C670" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
+    <hyperlink ref="C671" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
+    <hyperlink ref="C673" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
+    <hyperlink ref="C674" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
+    <hyperlink ref="C675" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
+    <hyperlink ref="C734" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
+    <hyperlink ref="C735" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
+    <hyperlink ref="C736" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
+    <hyperlink ref="C737" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
+    <hyperlink ref="C738" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
+    <hyperlink ref="C739" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
+    <hyperlink ref="C740" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
+    <hyperlink ref="C741" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
+    <hyperlink ref="C742" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
+    <hyperlink ref="C748" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
+    <hyperlink ref="C752" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
+    <hyperlink ref="C753" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
+    <hyperlink ref="C754" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
+    <hyperlink ref="C755" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
     <hyperlink ref="C136" r:id="rId172" xr:uid="{0EBD26DB-323F-422E-91F1-A6E9B3505678}"/>
     <hyperlink ref="C152" r:id="rId173" xr:uid="{1E2FFDE3-C017-4939-9259-2985E718AAE3}"/>
     <hyperlink ref="C435" r:id="rId174" xr:uid="{0146A258-4649-4022-9C92-DFFB658BE508}"/>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA3399-FEAD-4DE5-9F01-80C208E2FE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269E9CA-6885-4E62-87B9-E7E60BF41C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1332">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4018,6 +4018,9 @@
   </si>
   <si>
     <t>93761aaf-9406-41f1-9b0c-ffe8f4bee6cf</t>
+  </si>
+  <si>
+    <t>fe7f0ccd-c180-42b4-923f-79c5818cd733</t>
   </si>
 </sst>
 </file>
@@ -4423,10 +4426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:C759"/>
+  <dimension ref="A1:C760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
-      <selection activeCell="C762" sqref="C762"/>
+    <sheetView tabSelected="1" topLeftCell="A739" workbookViewId="0">
+      <selection activeCell="B739" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12204,10 +12207,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1202</v>
+        <v>1331</v>
       </c>
       <c r="B707" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>1190</v>
@@ -12215,10 +12218,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B708" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>1190</v>
@@ -12226,10 +12229,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B709" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>1190</v>
@@ -12237,7 +12240,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B710" t="s">
         <v>1207</v>
@@ -12248,10 +12251,10 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B711" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C711" s="5" t="s">
         <v>1190</v>
@@ -12259,7 +12262,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B712" t="s">
         <v>1210</v>
@@ -12270,10 +12273,10 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B713" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>1190</v>
@@ -12281,18 +12284,18 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B714" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C714" s="5" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B715" t="s">
         <v>1215</v>
@@ -12303,7 +12306,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B716" t="s">
         <v>1215</v>
@@ -12314,18 +12317,18 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B717" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C717" s="3" t="s">
-        <v>5</v>
+        <v>1215</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B718" t="s">
         <v>1220</v>
@@ -12336,10 +12339,10 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B719" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C719" s="3" t="s">
         <v>5</v>
@@ -12347,7 +12350,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B720" t="s">
         <v>1223</v>
@@ -12358,7 +12361,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B721" t="s">
         <v>1223</v>
@@ -12369,10 +12372,10 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B722" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C722" s="3" t="s">
         <v>5</v>
@@ -12380,10 +12383,10 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B723" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C723" s="3" t="s">
         <v>5</v>
@@ -12391,10 +12394,10 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B724" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C724" s="3" t="s">
         <v>5</v>
@@ -12402,10 +12405,10 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B725" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C725" s="3" t="s">
         <v>5</v>
@@ -12413,10 +12416,10 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B726" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C726" s="3" t="s">
         <v>5</v>
@@ -12424,10 +12427,10 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B727" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C727" s="3" t="s">
         <v>5</v>
@@ -12435,10 +12438,10 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1318</v>
+        <v>1236</v>
       </c>
       <c r="B728" t="s">
-        <v>1319</v>
+        <v>1237</v>
       </c>
       <c r="C728" s="3" t="s">
         <v>5</v>
@@ -12446,10 +12449,10 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1238</v>
+        <v>1318</v>
       </c>
       <c r="B729" t="s">
-        <v>1239</v>
+        <v>1319</v>
       </c>
       <c r="C729" s="3" t="s">
         <v>5</v>
@@ -12457,10 +12460,10 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B730" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C730" s="3" t="s">
         <v>5</v>
@@ -12468,18 +12471,18 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B731" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C731" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B732" t="s">
         <v>1243</v>
@@ -12490,7 +12493,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B733" t="s">
         <v>1243</v>
@@ -12501,32 +12504,32 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B734" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C734" s="7" t="s">
-        <v>1249</v>
+        <v>1243</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B735" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B736" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C736" s="7" t="s">
         <v>1252</v>
@@ -12534,10 +12537,10 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B737" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C737" s="7" t="s">
         <v>1252</v>
@@ -12545,18 +12548,18 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B738" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B739" t="s">
         <v>1258</v>
@@ -12567,65 +12570,65 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B740" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B741" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B742" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B743" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C743" s="3" t="s">
-        <v>5</v>
+        <v>1268</v>
+      </c>
+      <c r="C743" s="7" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B744" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C744" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B745" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C745" s="5" t="s">
         <v>1274</v>
@@ -12633,10 +12636,10 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B746" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C746" s="5" t="s">
         <v>1274</v>
@@ -12644,40 +12647,40 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B747" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C747" s="3" t="s">
-        <v>5</v>
+        <v>1278</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B748" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C748" s="7" t="s">
-        <v>1283</v>
+        <v>1280</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B749" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C749" s="5" t="s">
-        <v>1286</v>
+        <v>1282</v>
+      </c>
+      <c r="C749" s="7" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B750" t="s">
         <v>1285</v>
@@ -12688,32 +12691,32 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B751" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C751" s="3" t="s">
-        <v>5</v>
+        <v>1285</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B752" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C752" s="7" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B753" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C753" s="7" t="s">
         <v>1292</v>
@@ -12721,43 +12724,43 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B754" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B755" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B756" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C756" s="3" t="s">
-        <v>5</v>
+        <v>1299</v>
+      </c>
+      <c r="C756" s="7" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B757" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C757" s="3" t="s">
         <v>5</v>
@@ -12765,10 +12768,10 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B758" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C758" s="3" t="s">
         <v>5</v>
@@ -12776,18 +12779,29 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
         <v>1307</v>
       </c>
-      <c r="B759" t="s">
+      <c r="B760" t="s">
         <v>1308</v>
       </c>
-      <c r="C759" s="3" t="s">
+      <c r="C760" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C759">
-    <sortCondition ref="B748"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C760">
+    <sortCondition ref="B739"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C478" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
@@ -12947,20 +12961,20 @@
     <hyperlink ref="C673" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
     <hyperlink ref="C674" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
     <hyperlink ref="C675" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
-    <hyperlink ref="C734" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
-    <hyperlink ref="C735" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
-    <hyperlink ref="C736" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
-    <hyperlink ref="C737" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
-    <hyperlink ref="C738" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
-    <hyperlink ref="C739" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
-    <hyperlink ref="C740" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
-    <hyperlink ref="C741" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
-    <hyperlink ref="C742" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
-    <hyperlink ref="C748" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
-    <hyperlink ref="C752" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
-    <hyperlink ref="C753" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
-    <hyperlink ref="C754" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
-    <hyperlink ref="C755" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
+    <hyperlink ref="C735" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
+    <hyperlink ref="C736" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
+    <hyperlink ref="C737" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
+    <hyperlink ref="C738" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
+    <hyperlink ref="C739" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
+    <hyperlink ref="C740" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
+    <hyperlink ref="C741" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
+    <hyperlink ref="C742" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
+    <hyperlink ref="C743" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
+    <hyperlink ref="C749" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
+    <hyperlink ref="C753" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
+    <hyperlink ref="C754" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
+    <hyperlink ref="C755" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
+    <hyperlink ref="C756" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
     <hyperlink ref="C136" r:id="rId172" xr:uid="{0EBD26DB-323F-422E-91F1-A6E9B3505678}"/>
     <hyperlink ref="C152" r:id="rId173" xr:uid="{1E2FFDE3-C017-4939-9259-2985E718AAE3}"/>
     <hyperlink ref="C435" r:id="rId174" xr:uid="{0146A258-4649-4022-9C92-DFFB658BE508}"/>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{BEBA67C4-D56C-4D54-86A8-2221D1F2452B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4FED25EA-5948-4910-8DA9-911D90E65141}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B9CBB0-267A-4677-8627-7D8DCAE53F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1542">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4666,7 +4666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4837,7 +4837,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5135,11 +5135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:D795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="D270" sqref="D270"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
@@ -5147,7 +5147,7 @@
     <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>87</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>100</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>134</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>140</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>142</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>185</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>198</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>201</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>207</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>211</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>213</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>220</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>231</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>239</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>246</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>247</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>248</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>253</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1">
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>254</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>256</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>258</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>260</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>261</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>263</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>265</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>267</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>272</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>274</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>275</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>277</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>282</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>284</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>286</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>288</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>296</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>297</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>301</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>305</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>306</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>308</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>310</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>314</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>315</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>316</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>318</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>322</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>323</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>327</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>328</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>345</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>347</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>351</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>353</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>357</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>361</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>363</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>364</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>366</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>368</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>370</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>371</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>372</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>376</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>377</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>378</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>381</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>383</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>384</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>385</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>386</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>387</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>388</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>389</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>390</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>392</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>394</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>398</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>401</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>403</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>407</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>411</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>413</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>417</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>419</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>420</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>422</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>427</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>431</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>441</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>442</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>443</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>445</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>453</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>457</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>461</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>462</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>463</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>465</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>467</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>471</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>473</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>477</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>481</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>482</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>484</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>486</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>487</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>491</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>492</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>494</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>495</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>496</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>497</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>498</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>499</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>500</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>503</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>506</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>507</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>508</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>512</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>513</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>515</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>519</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>521</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>523</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>524</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>529</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>536</v>
       </c>
@@ -8853,10 +8853,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>538</v>
       </c>
+      <c r="B270" s="15" t="s">
+        <v>533</v>
+      </c>
       <c r="C270" t="s">
         <v>534</v>
       </c>
@@ -8864,7 +8867,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>539</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>541</v>
       </c>
@@ -8892,7 +8895,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>545</v>
       </c>
@@ -8906,7 +8909,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>547</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>549</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>551</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>555</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>556</v>
       </c>
@@ -8976,7 +8979,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>557</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>558</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>560</v>
       </c>
@@ -9018,7 +9021,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>564</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>565</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>567</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -9074,7 +9077,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>569</v>
       </c>
@@ -9088,7 +9091,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>573</v>
       </c>
@@ -9102,7 +9105,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>575</v>
       </c>
@@ -9130,7 +9133,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>577</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>579</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -9186,7 +9189,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>587</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>591</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -9256,7 +9259,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>593</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>599</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>603</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>605</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>610</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>612</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>613</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>620</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>624</v>
       </c>
@@ -9452,7 +9455,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>625</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>626</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>628</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>632</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>633</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>637</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>639</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>643</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>647</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>648</v>
       </c>
@@ -9592,7 +9595,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>650</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>652</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>654</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>656</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>658</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>660</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>664</v>
       </c>
@@ -9690,7 +9693,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>665</v>
       </c>
@@ -9704,7 +9707,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>666</v>
       </c>
@@ -9718,7 +9721,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>667</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>668</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>670</v>
       </c>
@@ -9760,7 +9763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>672</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>674</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>675</v>
       </c>
@@ -9802,7 +9805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>676</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>677</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>678</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>679</v>
       </c>
@@ -9858,7 +9861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>680</v>
       </c>
@@ -9872,7 +9875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>681</v>
       </c>
@@ -9886,7 +9889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>682</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>683</v>
       </c>
@@ -9914,7 +9917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>684</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>685</v>
       </c>
@@ -9942,7 +9945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>686</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>687</v>
       </c>
@@ -9970,7 +9973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>688</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>689</v>
       </c>
@@ -9998,7 +10001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>690</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>691</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>692</v>
       </c>
@@ -10040,7 +10043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>693</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>694</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>695</v>
       </c>
@@ -10082,7 +10085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>696</v>
       </c>
@@ -10096,7 +10099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>697</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>698</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>699</v>
       </c>
@@ -10138,7 +10141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>700</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>701</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>702</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>703</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>704</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>705</v>
       </c>
@@ -10222,7 +10225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>706</v>
       </c>
@@ -10236,7 +10239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>707</v>
       </c>
@@ -10250,7 +10253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>708</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>709</v>
       </c>
@@ -10278,7 +10281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>710</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>711</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>712</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>713</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>714</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>715</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>716</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>717</v>
       </c>
@@ -10390,7 +10393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>718</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>719</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>720</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>722</v>
       </c>
@@ -10443,7 +10446,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>725</v>
       </c>
@@ -10457,7 +10460,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>727</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>729</v>
       </c>
@@ -10485,7 +10488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>731</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>733</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>735</v>
       </c>
@@ -10527,7 +10530,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>739</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>741</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>743</v>
       </c>
@@ -10566,7 +10569,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>747</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>749</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>751</v>
       </c>
@@ -10608,7 +10611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>752</v>
       </c>
@@ -10622,7 +10625,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>754</v>
       </c>
@@ -10636,7 +10639,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>758</v>
       </c>
@@ -10650,7 +10653,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>759</v>
       </c>
@@ -10664,7 +10667,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>760</v>
       </c>
@@ -10678,7 +10681,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>762</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>764</v>
       </c>
@@ -10706,7 +10709,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>768</v>
       </c>
@@ -10720,7 +10723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>770</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>774</v>
       </c>
@@ -10745,7 +10748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>776</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>778</v>
       </c>
@@ -10773,7 +10776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>779</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>781</v>
       </c>
@@ -10801,7 +10804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>782</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>783</v>
       </c>
@@ -10829,7 +10832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>784</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>785</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>787</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>789</v>
       </c>
@@ -10885,7 +10888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>790</v>
       </c>
@@ -10899,7 +10902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>791</v>
       </c>
@@ -10913,7 +10916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>792</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>794</v>
       </c>
@@ -10941,7 +10944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>796</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>798</v>
       </c>
@@ -10969,7 +10972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>800</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>804</v>
       </c>
@@ -10997,7 +11000,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>808</v>
       </c>
@@ -11011,7 +11014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>810</v>
       </c>
@@ -11025,7 +11028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>812</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>816</v>
       </c>
@@ -11053,7 +11056,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>818</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>820</v>
       </c>
@@ -11081,7 +11084,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>821</v>
       </c>
@@ -11095,7 +11098,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>822</v>
       </c>
@@ -11109,7 +11112,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>823</v>
       </c>
@@ -11123,7 +11126,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>824</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>828</v>
       </c>
@@ -11151,7 +11154,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>832</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>833</v>
       </c>
@@ -11179,7 +11182,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>837</v>
       </c>
@@ -11193,7 +11196,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>838</v>
       </c>
@@ -11207,7 +11210,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>839</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>843</v>
       </c>
@@ -11235,7 +11238,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>844</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>846</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>848</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>850</v>
       </c>
@@ -11291,7 +11294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>852</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>854</v>
       </c>
@@ -11319,7 +11322,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>858</v>
       </c>
@@ -11333,7 +11336,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>859</v>
       </c>
@@ -11347,7 +11350,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>862</v>
       </c>
@@ -11361,7 +11364,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>863</v>
       </c>
@@ -11375,7 +11378,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>864</v>
       </c>
@@ -11389,7 +11392,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>865</v>
       </c>
@@ -11403,7 +11406,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>866</v>
       </c>
@@ -11417,7 +11420,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>867</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>868</v>
       </c>
@@ -11445,7 +11448,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>869</v>
       </c>
@@ -11459,7 +11462,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>870</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>871</v>
       </c>
@@ -11487,7 +11490,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>872</v>
       </c>
@@ -11501,7 +11504,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>873</v>
       </c>
@@ -11515,7 +11518,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>875</v>
       </c>
@@ -11529,7 +11532,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>876</v>
       </c>
@@ -11543,7 +11546,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>878</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>882</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>884</v>
       </c>
@@ -11585,7 +11588,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>886</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>888</v>
       </c>
@@ -11613,7 +11616,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>889</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>890</v>
       </c>
@@ -11641,7 +11644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>892</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>896</v>
       </c>
@@ -11669,7 +11672,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>900</v>
       </c>
@@ -11683,7 +11686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>903</v>
       </c>
@@ -11697,7 +11700,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>906</v>
       </c>
@@ -11711,7 +11714,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>907</v>
       </c>
@@ -11725,7 +11728,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
         <v>909</v>
       </c>
@@ -11736,7 +11739,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>912</v>
       </c>
@@ -11750,7 +11753,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>914</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>915</v>
       </c>
@@ -11778,7 +11781,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>916</v>
       </c>
@@ -11792,7 +11795,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>917</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>919</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>923</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>927</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>931</v>
       </c>
@@ -11862,7 +11865,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>932</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>933</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>937</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>938</v>
       </c>
@@ -11918,7 +11921,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>939</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>940</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>941</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>942</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>943</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>944</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>945</v>
       </c>
@@ -12016,7 +12019,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>947</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>948</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>950</v>
       </c>
@@ -12058,7 +12061,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>952</v>
       </c>
@@ -12072,7 +12075,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>954</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>956</v>
       </c>
@@ -12100,7 +12103,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>960</v>
       </c>
@@ -12114,7 +12117,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>961</v>
       </c>
@@ -12128,7 +12131,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>965</v>
       </c>
@@ -12142,7 +12145,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>966</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>967</v>
       </c>
@@ -12170,7 +12173,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>968</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>969</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>970</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>972</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>976</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>980</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>982</v>
       </c>
@@ -12268,7 +12271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>984</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>986</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>988</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>992</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>994</v>
       </c>
@@ -12338,7 +12341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>996</v>
       </c>
@@ -12352,7 +12355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>998</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1000</v>
       </c>
@@ -12380,7 +12383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1002</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1006</v>
       </c>
@@ -12408,7 +12411,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1008</v>
       </c>
@@ -12422,7 +12425,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1012</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1014</v>
       </c>
@@ -12450,7 +12453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1016</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1020</v>
       </c>
@@ -12478,7 +12481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1022</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1024</v>
       </c>
@@ -12506,7 +12509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1026</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1028</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1032</v>
       </c>
@@ -12548,7 +12551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1034</v>
       </c>
@@ -12562,7 +12565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1035</v>
       </c>
@@ -12576,7 +12579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1036</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1037</v>
       </c>
@@ -12604,7 +12607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1038</v>
       </c>
@@ -12618,7 +12621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1039</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1040</v>
       </c>
@@ -12646,7 +12649,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1044</v>
       </c>
@@ -12660,7 +12663,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1045</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1048</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1052</v>
       </c>
@@ -12702,7 +12705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1054</v>
       </c>
@@ -12716,7 +12719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1055</v>
       </c>
@@ -12730,7 +12733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>1057</v>
       </c>
@@ -12744,7 +12747,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1061</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1063</v>
       </c>
@@ -12772,7 +12775,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1064</v>
       </c>
@@ -12786,7 +12789,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1068</v>
       </c>
@@ -12800,7 +12803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1070</v>
       </c>
@@ -12814,7 +12817,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1074</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1078</v>
       </c>
@@ -12842,7 +12845,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1079</v>
       </c>
@@ -12856,7 +12859,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1080</v>
       </c>
@@ -12870,7 +12873,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1081</v>
       </c>
@@ -12884,7 +12887,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1083</v>
       </c>
@@ -12898,7 +12901,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1087</v>
       </c>
@@ -12912,7 +12915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1089</v>
       </c>
@@ -12926,7 +12929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1090</v>
       </c>
@@ -12940,7 +12943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1092</v>
       </c>
@@ -12954,7 +12957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1093</v>
       </c>
@@ -12968,7 +12971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1095</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1096</v>
       </c>
@@ -12996,7 +12999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1098</v>
       </c>
@@ -13010,7 +13013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1100</v>
       </c>
@@ -13024,7 +13027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1102</v>
       </c>
@@ -13038,7 +13041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1104</v>
       </c>
@@ -13052,7 +13055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1106</v>
       </c>
@@ -13066,7 +13069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1108</v>
       </c>
@@ -13080,7 +13083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1110</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1114</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1115</v>
       </c>
@@ -13122,7 +13125,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1116</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1117</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1118</v>
       </c>
@@ -13164,7 +13167,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1120</v>
       </c>
@@ -13178,7 +13181,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1121</v>
       </c>
@@ -13192,7 +13195,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1122</v>
       </c>
@@ -13206,7 +13209,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1126</v>
       </c>
@@ -13220,7 +13223,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1128</v>
       </c>
@@ -13234,7 +13237,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1129</v>
       </c>
@@ -13248,7 +13251,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1130</v>
       </c>
@@ -13262,7 +13265,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1131</v>
       </c>
@@ -13276,7 +13279,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1132</v>
       </c>
@@ -13290,7 +13293,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1133</v>
       </c>
@@ -13304,7 +13307,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1134</v>
       </c>
@@ -13318,7 +13321,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1136</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1138</v>
       </c>
@@ -13346,7 +13349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1140</v>
       </c>
@@ -13360,7 +13363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1142</v>
       </c>
@@ -13374,7 +13377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1144</v>
       </c>
@@ -13388,7 +13391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1146</v>
       </c>
@@ -13402,7 +13405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1147</v>
       </c>
@@ -13416,7 +13419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1149</v>
       </c>
@@ -13430,7 +13433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1151</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1155</v>
       </c>
@@ -13458,7 +13461,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1156</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1158</v>
       </c>
@@ -13486,7 +13489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1160</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="10" t="s">
         <v>1164</v>
       </c>
@@ -13511,7 +13514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1166</v>
       </c>
@@ -13525,7 +13528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1168</v>
       </c>
@@ -13539,7 +13542,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1172</v>
       </c>
@@ -13553,7 +13556,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1176</v>
       </c>
@@ -13567,7 +13570,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1180</v>
       </c>
@@ -13581,7 +13584,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1183</v>
       </c>
@@ -13595,7 +13598,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1184</v>
       </c>
@@ -13609,7 +13612,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1185</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1186</v>
       </c>
@@ -13637,7 +13640,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1187</v>
       </c>
@@ -13651,7 +13654,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1188</v>
       </c>
@@ -13665,7 +13668,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1189</v>
       </c>
@@ -13679,7 +13682,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1191</v>
       </c>
@@ -13693,7 +13696,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1195</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1196</v>
       </c>
@@ -13721,7 +13724,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1197</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1198</v>
       </c>
@@ -13749,7 +13752,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1202</v>
       </c>
@@ -13763,7 +13766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1204</v>
       </c>
@@ -13777,7 +13780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1206</v>
       </c>
@@ -13791,7 +13794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1208</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1210</v>
       </c>
@@ -13819,7 +13822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1212</v>
       </c>
@@ -13833,7 +13836,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1216</v>
       </c>
@@ -13847,7 +13850,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1220</v>
       </c>
@@ -13861,7 +13864,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1222</v>
       </c>
@@ -13875,7 +13878,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1223</v>
       </c>
@@ -13889,7 +13892,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1224</v>
       </c>
@@ -13903,7 +13906,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1225</v>
       </c>
@@ -13917,7 +13920,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1226</v>
       </c>
@@ -13931,7 +13934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1228</v>
       </c>
@@ -13945,7 +13948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1230</v>
       </c>
@@ -13959,7 +13962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1232</v>
       </c>
@@ -13973,7 +13976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1234</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1238</v>
       </c>
@@ -14001,7 +14004,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1239</v>
       </c>
@@ -14015,7 +14018,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1240</v>
       </c>
@@ -14029,7 +14032,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1241</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1243</v>
       </c>
@@ -14057,7 +14060,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1244</v>
       </c>
@@ -14071,7 +14074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1246</v>
       </c>
@@ -14085,7 +14088,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1250</v>
       </c>
@@ -14099,7 +14102,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1251</v>
       </c>
@@ -14113,7 +14116,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1253</v>
       </c>
@@ -14127,7 +14130,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1255</v>
       </c>
@@ -14141,7 +14144,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1256</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1258</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1260</v>
       </c>
@@ -14183,7 +14186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1262</v>
       </c>
@@ -14197,7 +14200,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1266</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1268</v>
       </c>
@@ -14225,7 +14228,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1272</v>
       </c>
@@ -14239,7 +14242,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1274</v>
       </c>
@@ -14253,7 +14256,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1278</v>
       </c>
@@ -14267,7 +14270,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1282</v>
       </c>
@@ -14281,7 +14284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="10" t="s">
         <v>1284</v>
       </c>
@@ -14292,7 +14295,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1287</v>
       </c>
@@ -14306,7 +14309,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1291</v>
       </c>
@@ -14320,7 +14323,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1292</v>
       </c>
@@ -14334,7 +14337,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1293</v>
       </c>
@@ -14348,7 +14351,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1294</v>
       </c>
@@ -14362,7 +14365,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1295</v>
       </c>
@@ -14376,7 +14379,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1299</v>
       </c>
@@ -14390,7 +14393,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1300</v>
       </c>
@@ -14404,7 +14407,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1302</v>
       </c>
@@ -14418,7 +14421,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1303</v>
       </c>
@@ -14432,7 +14435,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1305</v>
       </c>
@@ -14446,7 +14449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1307</v>
       </c>
@@ -14460,7 +14463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1309</v>
       </c>
@@ -14474,7 +14477,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1310</v>
       </c>
@@ -14488,7 +14491,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1311</v>
       </c>
@@ -14502,7 +14505,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1315</v>
       </c>
@@ -14516,7 +14519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1317</v>
       </c>
@@ -14530,7 +14533,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1321</v>
       </c>
@@ -14544,7 +14547,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1322</v>
       </c>
@@ -14558,7 +14561,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1323</v>
       </c>
@@ -14572,7 +14575,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1324</v>
       </c>
@@ -14586,7 +14589,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1325</v>
       </c>
@@ -14600,7 +14603,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1326</v>
       </c>
@@ -14614,7 +14617,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1328</v>
       </c>
@@ -14628,7 +14631,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1329</v>
       </c>
@@ -14642,7 +14645,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1333</v>
       </c>
@@ -14656,7 +14659,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1334</v>
       </c>
@@ -14670,7 +14673,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1335</v>
       </c>
@@ -14684,7 +14687,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1339</v>
       </c>
@@ -14698,7 +14701,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1341</v>
       </c>
@@ -14712,7 +14715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1343</v>
       </c>
@@ -14726,7 +14729,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1347</v>
       </c>
@@ -14740,7 +14743,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1351</v>
       </c>
@@ -14754,7 +14757,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1352</v>
       </c>
@@ -14768,7 +14771,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1356</v>
       </c>
@@ -14782,7 +14785,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1357</v>
       </c>
@@ -14796,7 +14799,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1359</v>
       </c>
@@ -14810,7 +14813,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1360</v>
       </c>
@@ -14824,7 +14827,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="9" t="s">
         <v>1361</v>
       </c>
@@ -14835,7 +14838,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1362</v>
       </c>
@@ -14849,7 +14852,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1364</v>
       </c>
@@ -14863,7 +14866,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1365</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1367</v>
       </c>
@@ -14891,7 +14894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1369</v>
       </c>
@@ -14905,7 +14908,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1373</v>
       </c>
@@ -14919,7 +14922,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1374</v>
       </c>
@@ -14933,7 +14936,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1375</v>
       </c>
@@ -14947,7 +14950,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1376</v>
       </c>
@@ -14961,7 +14964,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1377</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1378</v>
       </c>
@@ -14989,7 +14992,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1380</v>
       </c>
@@ -15003,7 +15006,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1384</v>
       </c>
@@ -15017,7 +15020,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1388</v>
       </c>
@@ -15031,7 +15034,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1392</v>
       </c>
@@ -15045,7 +15048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1394</v>
       </c>
@@ -15059,7 +15062,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1398</v>
       </c>
@@ -15073,7 +15076,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1400</v>
       </c>
@@ -15087,7 +15090,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1401</v>
       </c>
@@ -15101,7 +15104,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1402</v>
       </c>
@@ -15115,7 +15118,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1403</v>
       </c>
@@ -15129,7 +15132,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1404</v>
       </c>
@@ -15143,7 +15146,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1405</v>
       </c>
@@ -15157,7 +15160,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1406</v>
       </c>
@@ -15171,7 +15174,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1407</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1408</v>
       </c>
@@ -15199,7 +15202,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1409</v>
       </c>
@@ -15213,7 +15216,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="9" t="s">
         <v>1410</v>
       </c>
@@ -15227,7 +15230,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1411</v>
       </c>
@@ -15241,7 +15244,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1413</v>
       </c>
@@ -15255,7 +15258,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1415</v>
       </c>
@@ -15269,7 +15272,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1417</v>
       </c>
@@ -15283,7 +15286,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1418</v>
       </c>
@@ -15297,7 +15300,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1420</v>
       </c>
@@ -15311,7 +15314,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1421</v>
       </c>
@@ -15325,7 +15328,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1423</v>
       </c>
@@ -15339,7 +15342,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1426</v>
       </c>
@@ -15353,7 +15356,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1427</v>
       </c>
@@ -15367,7 +15370,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1428</v>
       </c>
@@ -15381,7 +15384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1430</v>
       </c>
@@ -15395,7 +15398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1431</v>
       </c>
@@ -15409,7 +15412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1433</v>
       </c>
@@ -15423,7 +15426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1434</v>
       </c>
@@ -15437,7 +15440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1436</v>
       </c>
@@ -15451,7 +15454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1438</v>
       </c>
@@ -15465,7 +15468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1440</v>
       </c>
@@ -15479,7 +15482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1442</v>
       </c>
@@ -15493,7 +15496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1444</v>
       </c>
@@ -15507,7 +15510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="9" t="s">
         <v>1446</v>
       </c>
@@ -15521,7 +15524,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1450</v>
       </c>
@@ -15535,7 +15538,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1454</v>
       </c>
@@ -15549,7 +15552,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1458</v>
       </c>
@@ -15563,7 +15566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1460</v>
       </c>
@@ -15577,7 +15580,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1464</v>
       </c>
@@ -15591,7 +15594,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1465</v>
       </c>
@@ -15605,7 +15608,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1466</v>
       </c>
@@ -15619,7 +15622,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1470</v>
       </c>
@@ -15633,7 +15636,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1474</v>
       </c>
@@ -15647,7 +15650,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1476</v>
       </c>
@@ -15661,7 +15664,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1478</v>
       </c>
@@ -15675,7 +15678,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1482</v>
       </c>
@@ -15689,7 +15692,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1483</v>
       </c>
@@ -15703,7 +15706,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1487</v>
       </c>
@@ -15717,7 +15720,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1491</v>
       </c>
@@ -15731,7 +15734,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1495</v>
       </c>
@@ -15745,7 +15748,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1499</v>
       </c>
@@ -15759,7 +15762,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1503</v>
       </c>
@@ -15773,7 +15776,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1505</v>
       </c>
@@ -15787,7 +15790,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1507</v>
       </c>
@@ -15801,7 +15804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1509</v>
       </c>
@@ -15815,7 +15818,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1513</v>
       </c>
@@ -15829,7 +15832,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1517</v>
       </c>
@@ -15843,7 +15846,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1518</v>
       </c>
@@ -15857,7 +15860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1520</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1524</v>
       </c>
@@ -15885,7 +15888,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1526</v>
       </c>
@@ -15899,7 +15902,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1530</v>
       </c>
@@ -15913,7 +15916,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1534</v>
       </c>
@@ -15927,7 +15930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1536</v>
       </c>
@@ -15941,7 +15944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1538</v>
       </c>
@@ -15955,7 +15958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1540</v>
       </c>
@@ -15969,7 +15972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="795" spans="4:4">
+    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D795" s="15"/>
     </row>
   </sheetData>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B9CBB0-267A-4677-8627-7D8DCAE53F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841630A9-1FB9-4F4E-BAAC-E21ECF654DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1650,9 +1641,6 @@
     <t>Egypt Air Force</t>
   </si>
   <si>
-    <t xml:space="preserve">1d7f7721-6932-46a7-abdc-b74816da4ab0	</t>
-  </si>
-  <si>
     <t>46d3f77b-b8f9-4aa1-83e2-344d3ad55a34</t>
   </si>
   <si>
@@ -4660,6 +4648,9 @@
   </si>
   <si>
     <t>Zan Air</t>
+  </si>
+  <si>
+    <t>1d7f7721-6932-46a7-abdc-b74816da4ab0</t>
   </si>
 </sst>
 </file>
@@ -4812,7 +4803,27 @@
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5135,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:D795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,7 +8866,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>538</v>
+        <v>1541</v>
       </c>
       <c r="B270" s="15" t="s">
         <v>533</v>
@@ -8869,10 +8880,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>538</v>
+      </c>
+      <c r="B271" t="s">
         <v>539</v>
-      </c>
-      <c r="B271" t="s">
-        <v>540</v>
       </c>
       <c r="C271" t="s">
         <v>534</v>
@@ -8883,38 +8894,38 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>540</v>
+      </c>
+      <c r="B272" t="s">
         <v>541</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>542</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" t="s">
         <v>545</v>
       </c>
-      <c r="B273" t="s">
-        <v>546</v>
-      </c>
       <c r="C273" t="s">
+        <v>542</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" t="s">
         <v>547</v>
-      </c>
-      <c r="B274" t="s">
-        <v>548</v>
       </c>
       <c r="C274" t="s">
         <v>150</v>
@@ -8925,10 +8936,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" t="s">
         <v>549</v>
-      </c>
-      <c r="B275" t="s">
-        <v>550</v>
       </c>
       <c r="C275" t="s">
         <v>150</v>
@@ -8939,388 +8950,388 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" t="s">
         <v>551</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>552</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B277" t="s">
+        <v>551</v>
+      </c>
+      <c r="C277" t="s">
         <v>552</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B278" t="s">
+        <v>551</v>
+      </c>
+      <c r="C278" t="s">
         <v>552</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B279" t="s">
+        <v>551</v>
+      </c>
+      <c r="C279" t="s">
         <v>552</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>557</v>
+      </c>
+      <c r="B280" t="s">
         <v>558</v>
       </c>
-      <c r="B280" t="s">
-        <v>559</v>
-      </c>
       <c r="C280" t="s">
+        <v>552</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>559</v>
+      </c>
+      <c r="B281" t="s">
         <v>560</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>561</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B282" t="s">
+        <v>560</v>
+      </c>
+      <c r="C282" t="s">
         <v>561</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" t="s">
         <v>565</v>
       </c>
-      <c r="B283" t="s">
-        <v>566</v>
-      </c>
       <c r="C283" t="s">
+        <v>561</v>
+      </c>
+      <c r="D283" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B284" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C284" t="s">
+        <v>561</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B285" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C285" t="s">
+        <v>561</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" t="s">
         <v>569</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>570</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B287" t="s">
+        <v>569</v>
+      </c>
+      <c r="C287" t="s">
         <v>570</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B288" t="s">
+        <v>569</v>
+      </c>
+      <c r="C288" t="s">
         <v>570</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>574</v>
+      </c>
+      <c r="B289" t="s">
         <v>575</v>
       </c>
-      <c r="B289" t="s">
-        <v>576</v>
-      </c>
       <c r="C289" t="s">
+        <v>570</v>
+      </c>
+      <c r="D289" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>576</v>
+      </c>
+      <c r="B290" t="s">
         <v>577</v>
       </c>
-      <c r="B290" t="s">
-        <v>578</v>
-      </c>
       <c r="C290" t="s">
+        <v>570</v>
+      </c>
+      <c r="D290" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D290" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B291" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C291" t="s">
+        <v>570</v>
+      </c>
+      <c r="D291" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" t="s">
         <v>580</v>
       </c>
-      <c r="B292" t="s">
-        <v>581</v>
-      </c>
       <c r="C292" t="s">
+        <v>570</v>
+      </c>
+      <c r="D292" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" t="s">
         <v>582</v>
       </c>
-      <c r="B293" t="s">
-        <v>583</v>
-      </c>
       <c r="C293" t="s">
+        <v>570</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>583</v>
+      </c>
+      <c r="B294" t="s">
         <v>584</v>
       </c>
-      <c r="B294" t="s">
-        <v>585</v>
-      </c>
       <c r="C294" t="s">
+        <v>570</v>
+      </c>
+      <c r="D294" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D294" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B295" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C295" t="s">
+        <v>570</v>
+      </c>
+      <c r="D295" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="D295" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>586</v>
+      </c>
+      <c r="B296" t="s">
         <v>587</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>588</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B297" t="s">
+        <v>587</v>
+      </c>
+      <c r="C297" t="s">
         <v>588</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B298" t="s">
+        <v>587</v>
+      </c>
+      <c r="C298" t="s">
         <v>588</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>592</v>
+      </c>
+      <c r="B299" t="s">
         <v>593</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
+        <v>593</v>
+      </c>
+      <c r="D299" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="C299" t="s">
-        <v>594</v>
-      </c>
-      <c r="D299" s="5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>595</v>
+      </c>
+      <c r="B300" t="s">
         <v>596</v>
       </c>
-      <c r="B300" t="s">
-        <v>597</v>
-      </c>
       <c r="C300" t="s">
+        <v>593</v>
+      </c>
+      <c r="D300" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="D300" s="5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B301" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C301" t="s">
+        <v>593</v>
+      </c>
+      <c r="D301" t="s">
         <v>594</v>
-      </c>
-      <c r="D301" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>598</v>
+      </c>
+      <c r="B302" t="s">
         <v>599</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>600</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>602</v>
+      </c>
+      <c r="B303" t="s">
         <v>603</v>
-      </c>
-      <c r="B303" t="s">
-        <v>604</v>
       </c>
       <c r="C303" t="s">
         <v>150</v>
@@ -9331,10 +9342,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B304" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C304" t="s">
         <v>150</v>
@@ -9345,66 +9356,66 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>605</v>
+      </c>
+      <c r="B305" t="s">
         <v>606</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>607</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>609</v>
+      </c>
+      <c r="B306" t="s">
         <v>610</v>
       </c>
-      <c r="B306" t="s">
-        <v>611</v>
-      </c>
       <c r="C306" t="s">
+        <v>607</v>
+      </c>
+      <c r="D306" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B307" t="s">
+        <v>606</v>
+      </c>
+      <c r="C307" t="s">
         <v>607</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B308" t="s">
+        <v>606</v>
+      </c>
+      <c r="C308" t="s">
         <v>607</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>613</v>
+      </c>
+      <c r="B309" t="s">
         <v>614</v>
-      </c>
-      <c r="B309" t="s">
-        <v>615</v>
       </c>
       <c r="C309" t="s">
         <v>150</v>
@@ -9415,66 +9426,66 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>615</v>
+      </c>
+      <c r="B310" t="s">
         <v>616</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>617</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>619</v>
+      </c>
+      <c r="B311" t="s">
         <v>620</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>621</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="D311" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B312" t="s">
+        <v>620</v>
+      </c>
+      <c r="C312" t="s">
         <v>621</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="D312" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B313" t="s">
+        <v>620</v>
+      </c>
+      <c r="C313" t="s">
         <v>621</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>625</v>
+      </c>
+      <c r="B314" t="s">
         <v>626</v>
-      </c>
-      <c r="B314" t="s">
-        <v>627</v>
       </c>
       <c r="C314" t="s">
         <v>150</v>
@@ -9485,52 +9496,52 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B315" t="s">
         <v>628</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>629</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B316" t="s">
+        <v>628</v>
+      </c>
+      <c r="C316" t="s">
         <v>629</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" t="s">
         <v>633</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>634</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="D317" s="5" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>636</v>
+      </c>
+      <c r="B318" t="s">
         <v>637</v>
-      </c>
-      <c r="B318" t="s">
-        <v>638</v>
       </c>
       <c r="C318" t="s">
         <v>150</v>
@@ -9541,220 +9552,220 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>638</v>
+      </c>
+      <c r="B319" t="s">
         <v>639</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>640</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="D319" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320" t="s">
         <v>643</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>644</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B321" t="s">
+        <v>643</v>
+      </c>
+      <c r="C321" t="s">
         <v>644</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>647</v>
+      </c>
+      <c r="B322" t="s">
         <v>648</v>
       </c>
-      <c r="B322" t="s">
-        <v>649</v>
-      </c>
       <c r="C322" t="s">
+        <v>644</v>
+      </c>
+      <c r="D322" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D322" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>649</v>
+      </c>
+      <c r="B323" t="s">
         <v>650</v>
       </c>
-      <c r="B323" t="s">
-        <v>651</v>
-      </c>
       <c r="C323" t="s">
+        <v>644</v>
+      </c>
+      <c r="D323" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>651</v>
+      </c>
+      <c r="B324" t="s">
         <v>652</v>
       </c>
-      <c r="B324" t="s">
-        <v>653</v>
-      </c>
       <c r="C324" t="s">
+        <v>644</v>
+      </c>
+      <c r="D324" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D324" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>653</v>
+      </c>
+      <c r="B325" t="s">
         <v>654</v>
       </c>
-      <c r="B325" t="s">
-        <v>655</v>
-      </c>
       <c r="C325" t="s">
+        <v>644</v>
+      </c>
+      <c r="D325" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>655</v>
+      </c>
+      <c r="B326" t="s">
         <v>656</v>
       </c>
-      <c r="B326" t="s">
-        <v>657</v>
-      </c>
       <c r="C326" t="s">
+        <v>644</v>
+      </c>
+      <c r="D326" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>657</v>
+      </c>
+      <c r="B327" t="s">
         <v>658</v>
       </c>
-      <c r="B327" t="s">
-        <v>659</v>
-      </c>
       <c r="C327" t="s">
+        <v>644</v>
+      </c>
+      <c r="D327" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D327" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>659</v>
+      </c>
+      <c r="B328" t="s">
         <v>660</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>661</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B329" t="s">
+        <v>660</v>
+      </c>
+      <c r="C329" t="s">
         <v>661</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D329" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B330" t="s">
+        <v>660</v>
+      </c>
+      <c r="C330" t="s">
         <v>661</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B331" t="s">
+        <v>660</v>
+      </c>
+      <c r="C331" t="s">
         <v>661</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D331" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B332" t="s">
+        <v>660</v>
+      </c>
+      <c r="C332" t="s">
         <v>661</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D332" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>667</v>
+      </c>
+      <c r="B333" t="s">
         <v>668</v>
       </c>
-      <c r="B333" t="s">
-        <v>669</v>
-      </c>
       <c r="C333" t="s">
+        <v>661</v>
+      </c>
+      <c r="D333" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="D333" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>669</v>
+      </c>
+      <c r="B334" t="s">
         <v>670</v>
-      </c>
-      <c r="B334" t="s">
-        <v>671</v>
       </c>
       <c r="C334" t="s">
         <v>150</v>
@@ -9765,10 +9776,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>671</v>
+      </c>
+      <c r="B335" t="s">
         <v>672</v>
-      </c>
-      <c r="B335" t="s">
-        <v>673</v>
       </c>
       <c r="C335" t="s">
         <v>150</v>
@@ -9779,10 +9790,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B336" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C336" t="s">
         <v>150</v>
@@ -9793,10 +9804,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B337" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C337" t="s">
         <v>150</v>
@@ -9807,10 +9818,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B338" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C338" t="s">
         <v>150</v>
@@ -9821,10 +9832,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B339" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C339" t="s">
         <v>150</v>
@@ -9835,10 +9846,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B340" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C340" t="s">
         <v>150</v>
@@ -9849,10 +9860,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B341" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C341" t="s">
         <v>150</v>
@@ -9863,10 +9874,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B342" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C342" t="s">
         <v>150</v>
@@ -9877,10 +9888,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B343" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C343" t="s">
         <v>150</v>
@@ -9891,10 +9902,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B344" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C344" t="s">
         <v>150</v>
@@ -9905,10 +9916,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B345" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C345" t="s">
         <v>150</v>
@@ -9919,10 +9930,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B346" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C346" t="s">
         <v>150</v>
@@ -9933,10 +9944,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B347" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C347" t="s">
         <v>150</v>
@@ -9947,10 +9958,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B348" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C348" t="s">
         <v>150</v>
@@ -9961,10 +9972,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B349" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C349" t="s">
         <v>150</v>
@@ -9975,10 +9986,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B350" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C350" t="s">
         <v>150</v>
@@ -9989,10 +10000,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B351" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C351" t="s">
         <v>150</v>
@@ -10003,10 +10014,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B352" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C352" t="s">
         <v>150</v>
@@ -10017,10 +10028,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B353" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C353" t="s">
         <v>150</v>
@@ -10031,10 +10042,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B354" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C354" t="s">
         <v>150</v>
@@ -10045,10 +10056,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B355" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C355" t="s">
         <v>150</v>
@@ -10059,10 +10070,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B356" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C356" t="s">
         <v>150</v>
@@ -10073,10 +10084,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B357" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C357" t="s">
         <v>150</v>
@@ -10087,10 +10098,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B358" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C358" t="s">
         <v>150</v>
@@ -10101,10 +10112,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B359" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C359" t="s">
         <v>150</v>
@@ -10115,10 +10126,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B360" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C360" t="s">
         <v>150</v>
@@ -10129,10 +10140,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B361" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C361" t="s">
         <v>150</v>
@@ -10143,10 +10154,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B362" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C362" t="s">
         <v>150</v>
@@ -10157,10 +10168,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B363" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C363" t="s">
         <v>150</v>
@@ -10171,10 +10182,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B364" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C364" t="s">
         <v>150</v>
@@ -10185,10 +10196,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B365" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C365" t="s">
         <v>150</v>
@@ -10199,10 +10210,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B366" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C366" t="s">
         <v>150</v>
@@ -10213,10 +10224,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B367" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C367" t="s">
         <v>150</v>
@@ -10227,10 +10238,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B368" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C368" t="s">
         <v>150</v>
@@ -10241,10 +10252,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B369" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C369" t="s">
         <v>150</v>
@@ -10255,10 +10266,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B370" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C370" t="s">
         <v>150</v>
@@ -10269,10 +10280,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B371" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C371" t="s">
         <v>150</v>
@@ -10283,10 +10294,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B372" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C372" t="s">
         <v>150</v>
@@ -10297,10 +10308,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B373" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C373" t="s">
         <v>150</v>
@@ -10311,10 +10322,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B374" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C374" t="s">
         <v>150</v>
@@ -10325,10 +10336,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B375" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C375" t="s">
         <v>150</v>
@@ -10339,10 +10350,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B376" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C376" t="s">
         <v>150</v>
@@ -10353,10 +10364,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B377" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C377" t="s">
         <v>150</v>
@@ -10367,10 +10378,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B378" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C378" t="s">
         <v>150</v>
@@ -10381,10 +10392,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B379" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C379" t="s">
         <v>150</v>
@@ -10395,10 +10406,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B380" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C380" t="s">
         <v>150</v>
@@ -10409,10 +10420,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B381" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C381" t="s">
         <v>150</v>
@@ -10423,10 +10434,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B382" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>721</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>6</v>
@@ -10434,52 +10445,52 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>721</v>
+      </c>
+      <c r="B383" t="s">
         <v>722</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
+        <v>722</v>
+      </c>
+      <c r="D383" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="C383" t="s">
-        <v>723</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>724</v>
+      </c>
+      <c r="B384" t="s">
         <v>725</v>
       </c>
-      <c r="B384" t="s">
-        <v>726</v>
-      </c>
       <c r="C384" t="s">
+        <v>722</v>
+      </c>
+      <c r="D384" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>726</v>
+      </c>
+      <c r="B385" t="s">
         <v>727</v>
       </c>
-      <c r="B385" t="s">
-        <v>728</v>
-      </c>
       <c r="C385" t="s">
+        <v>722</v>
+      </c>
+      <c r="D385" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>728</v>
+      </c>
+      <c r="B386" t="s">
         <v>729</v>
-      </c>
-      <c r="B386" t="s">
-        <v>730</v>
       </c>
       <c r="C386" t="s">
         <v>150</v>
@@ -10490,10 +10501,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>730</v>
+      </c>
+      <c r="B387" t="s">
         <v>731</v>
-      </c>
-      <c r="B387" t="s">
-        <v>732</v>
       </c>
       <c r="C387" t="s">
         <v>150</v>
@@ -10504,10 +10515,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>732</v>
+      </c>
+      <c r="B388" t="s">
         <v>733</v>
-      </c>
-      <c r="B388" t="s">
-        <v>734</v>
       </c>
       <c r="C388" t="s">
         <v>150</v>
@@ -10518,24 +10529,24 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>734</v>
+      </c>
+      <c r="B389" t="s">
         <v>735</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>736</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="D389" s="5" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>738</v>
+      </c>
+      <c r="B390" t="s">
         <v>739</v>
-      </c>
-      <c r="B390" t="s">
-        <v>740</v>
       </c>
       <c r="C390" t="s">
         <v>150</v>
@@ -10546,10 +10557,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B391" s="9" t="s">
         <v>741</v>
-      </c>
-      <c r="B391" s="9" t="s">
-        <v>742</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>6</v>
@@ -10557,38 +10568,38 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>742</v>
+      </c>
+      <c r="B392" t="s">
         <v>743</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C392" t="s">
         <v>744</v>
       </c>
-      <c r="C392" t="s">
+      <c r="D392" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="D392" s="5" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>746</v>
+      </c>
+      <c r="B393" t="s">
         <v>747</v>
       </c>
-      <c r="B393" t="s">
-        <v>748</v>
-      </c>
       <c r="C393" t="s">
+        <v>744</v>
+      </c>
+      <c r="D393" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="D393" s="5" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>748</v>
+      </c>
+      <c r="B394" t="s">
         <v>749</v>
-      </c>
-      <c r="B394" t="s">
-        <v>750</v>
       </c>
       <c r="C394" t="s">
         <v>150</v>
@@ -10599,10 +10610,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B395" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C395" t="s">
         <v>150</v>
@@ -10613,10 +10624,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>751</v>
+      </c>
+      <c r="B396" t="s">
         <v>752</v>
-      </c>
-      <c r="B396" t="s">
-        <v>753</v>
       </c>
       <c r="C396" t="s">
         <v>218</v>
@@ -10627,94 +10638,94 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>753</v>
+      </c>
+      <c r="B397" t="s">
         <v>754</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C397" t="s">
         <v>755</v>
       </c>
-      <c r="C397" t="s">
+      <c r="D397" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B398" t="s">
+        <v>754</v>
+      </c>
+      <c r="C398" t="s">
         <v>755</v>
       </c>
-      <c r="C398" t="s">
+      <c r="D398" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B399" t="s">
+        <v>754</v>
+      </c>
+      <c r="C399" t="s">
         <v>755</v>
       </c>
-      <c r="C399" t="s">
+      <c r="D399" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>759</v>
+      </c>
+      <c r="B400" t="s">
         <v>760</v>
       </c>
-      <c r="B400" t="s">
-        <v>761</v>
-      </c>
       <c r="C400" t="s">
+        <v>755</v>
+      </c>
+      <c r="D400" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>761</v>
+      </c>
+      <c r="B401" t="s">
         <v>762</v>
       </c>
-      <c r="B401" t="s">
-        <v>763</v>
-      </c>
       <c r="C401" t="s">
+        <v>755</v>
+      </c>
+      <c r="D401" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>763</v>
+      </c>
+      <c r="B402" t="s">
         <v>764</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>765</v>
       </c>
-      <c r="C402" t="s">
+      <c r="D402" s="5" t="s">
         <v>766</v>
-      </c>
-      <c r="D402" s="5" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>767</v>
+      </c>
+      <c r="B403" t="s">
         <v>768</v>
-      </c>
-      <c r="B403" t="s">
-        <v>769</v>
       </c>
       <c r="C403" t="s">
         <v>150</v>
@@ -10725,24 +10736,24 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>769</v>
+      </c>
+      <c r="B404" t="s">
         <v>770</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
         <v>771</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B405" s="9" t="s">
         <v>774</v>
-      </c>
-      <c r="B405" s="9" t="s">
-        <v>775</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>6</v>
@@ -10750,10 +10761,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>775</v>
+      </c>
+      <c r="B406" t="s">
         <v>776</v>
-      </c>
-      <c r="B406" t="s">
-        <v>777</v>
       </c>
       <c r="C406" t="s">
         <v>150</v>
@@ -10764,10 +10775,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B407" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C407" t="s">
         <v>150</v>
@@ -10778,10 +10789,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>778</v>
+      </c>
+      <c r="B408" t="s">
         <v>779</v>
-      </c>
-      <c r="B408" t="s">
-        <v>780</v>
       </c>
       <c r="C408" t="s">
         <v>150</v>
@@ -10792,10 +10803,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B409" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C409" t="s">
         <v>150</v>
@@ -10806,10 +10817,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B410" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C410" t="s">
         <v>150</v>
@@ -10820,10 +10831,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B411" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C411" t="s">
         <v>150</v>
@@ -10834,10 +10845,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B412" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C412" t="s">
         <v>150</v>
@@ -10848,10 +10859,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>784</v>
+      </c>
+      <c r="B413" t="s">
         <v>785</v>
-      </c>
-      <c r="B413" t="s">
-        <v>786</v>
       </c>
       <c r="C413" t="s">
         <v>150</v>
@@ -10862,10 +10873,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>786</v>
+      </c>
+      <c r="B414" t="s">
         <v>787</v>
-      </c>
-      <c r="B414" t="s">
-        <v>788</v>
       </c>
       <c r="C414" t="s">
         <v>150</v>
@@ -10876,10 +10887,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B415" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C415" t="s">
         <v>150</v>
@@ -10890,10 +10901,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B416" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C416" t="s">
         <v>150</v>
@@ -10904,10 +10915,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B417" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C417" t="s">
         <v>150</v>
@@ -10918,10 +10929,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>791</v>
+      </c>
+      <c r="B418" t="s">
         <v>792</v>
-      </c>
-      <c r="B418" t="s">
-        <v>793</v>
       </c>
       <c r="C418" t="s">
         <v>150</v>
@@ -10932,10 +10943,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>793</v>
+      </c>
+      <c r="B419" t="s">
         <v>794</v>
-      </c>
-      <c r="B419" t="s">
-        <v>795</v>
       </c>
       <c r="C419" t="s">
         <v>150</v>
@@ -10946,10 +10957,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>795</v>
+      </c>
+      <c r="B420" t="s">
         <v>796</v>
-      </c>
-      <c r="B420" t="s">
-        <v>797</v>
       </c>
       <c r="C420" t="s">
         <v>150</v>
@@ -10960,10 +10971,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>797</v>
+      </c>
+      <c r="B421" t="s">
         <v>798</v>
-      </c>
-      <c r="B421" t="s">
-        <v>799</v>
       </c>
       <c r="C421" t="s">
         <v>150</v>
@@ -10974,38 +10985,38 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>799</v>
+      </c>
+      <c r="B422" t="s">
         <v>800</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
         <v>801</v>
       </c>
-      <c r="C422" t="s">
+      <c r="D422" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>803</v>
+      </c>
+      <c r="B423" t="s">
         <v>804</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>805</v>
       </c>
-      <c r="C423" t="s">
+      <c r="D423" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="D423" s="5" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>807</v>
+      </c>
+      <c r="B424" t="s">
         <v>808</v>
-      </c>
-      <c r="B424" t="s">
-        <v>809</v>
       </c>
       <c r="C424" t="s">
         <v>150</v>
@@ -11016,10 +11027,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>809</v>
+      </c>
+      <c r="B425" t="s">
         <v>810</v>
-      </c>
-      <c r="B425" t="s">
-        <v>811</v>
       </c>
       <c r="C425" t="s">
         <v>150</v>
@@ -11030,220 +11041,220 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>811</v>
+      </c>
+      <c r="B426" t="s">
         <v>812</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>813</v>
       </c>
-      <c r="C426" t="s">
+      <c r="D426" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D426" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>815</v>
+      </c>
+      <c r="B427" t="s">
         <v>816</v>
       </c>
-      <c r="B427" t="s">
-        <v>817</v>
-      </c>
       <c r="C427" t="s">
+        <v>813</v>
+      </c>
+      <c r="D427" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D427" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>817</v>
+      </c>
+      <c r="B428" t="s">
         <v>818</v>
       </c>
-      <c r="B428" t="s">
-        <v>819</v>
-      </c>
       <c r="C428" t="s">
+        <v>813</v>
+      </c>
+      <c r="D428" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D428" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B429" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C429" t="s">
+        <v>813</v>
+      </c>
+      <c r="D429" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D429" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B430" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C430" t="s">
+        <v>813</v>
+      </c>
+      <c r="D430" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D430" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B431" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C431" t="s">
+        <v>813</v>
+      </c>
+      <c r="D431" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D431" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B432" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C432" t="s">
+        <v>813</v>
+      </c>
+      <c r="D432" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D432" s="5" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>823</v>
+      </c>
+      <c r="B433" t="s">
         <v>824</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>825</v>
       </c>
-      <c r="C433" t="s">
+      <c r="D433" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="D433" s="5" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>827</v>
+      </c>
+      <c r="B434" t="s">
         <v>828</v>
       </c>
-      <c r="B434" t="s">
+      <c r="C434" t="s">
         <v>829</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="D434" s="5" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B435" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C435" t="s">
         <v>829</v>
       </c>
-      <c r="C435" t="s">
+      <c r="D435" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="D435" s="5" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>832</v>
+      </c>
+      <c r="B436" t="s">
         <v>833</v>
       </c>
-      <c r="B436" t="s">
+      <c r="C436" t="s">
         <v>834</v>
       </c>
-      <c r="C436" t="s">
+      <c r="D436" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B437" t="s">
+        <v>833</v>
+      </c>
+      <c r="C437" t="s">
         <v>834</v>
       </c>
-      <c r="C437" t="s">
+      <c r="D437" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B438" t="s">
+        <v>833</v>
+      </c>
+      <c r="C438" t="s">
         <v>834</v>
       </c>
-      <c r="C438" t="s">
+      <c r="D438" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>838</v>
+      </c>
+      <c r="B439" t="s">
         <v>839</v>
       </c>
-      <c r="B439" t="s">
+      <c r="C439" t="s">
         <v>840</v>
       </c>
-      <c r="C439" t="s">
+      <c r="D439" s="5" t="s">
         <v>841</v>
-      </c>
-      <c r="D439" s="5" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B440" t="s">
+        <v>839</v>
+      </c>
+      <c r="C440" t="s">
         <v>840</v>
       </c>
-      <c r="C440" t="s">
+      <c r="D440" s="5" t="s">
         <v>841</v>
-      </c>
-      <c r="D440" s="5" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>843</v>
+      </c>
+      <c r="B441" t="s">
         <v>844</v>
-      </c>
-      <c r="B441" t="s">
-        <v>845</v>
       </c>
       <c r="C441" t="s">
         <v>150</v>
@@ -11254,10 +11265,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>845</v>
+      </c>
+      <c r="B442" t="s">
         <v>846</v>
-      </c>
-      <c r="B442" t="s">
-        <v>847</v>
       </c>
       <c r="C442" t="s">
         <v>150</v>
@@ -11268,10 +11279,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>847</v>
+      </c>
+      <c r="B443" t="s">
         <v>848</v>
-      </c>
-      <c r="B443" t="s">
-        <v>849</v>
       </c>
       <c r="C443" t="s">
         <v>150</v>
@@ -11282,10 +11293,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>849</v>
+      </c>
+      <c r="B444" t="s">
         <v>850</v>
-      </c>
-      <c r="B444" t="s">
-        <v>851</v>
       </c>
       <c r="C444" t="s">
         <v>150</v>
@@ -11296,10 +11307,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>851</v>
+      </c>
+      <c r="B445" t="s">
         <v>852</v>
-      </c>
-      <c r="B445" t="s">
-        <v>853</v>
       </c>
       <c r="C445" t="s">
         <v>150</v>
@@ -11310,332 +11321,332 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>853</v>
+      </c>
+      <c r="B446" t="s">
         <v>854</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
         <v>855</v>
       </c>
-      <c r="C446" t="s">
+      <c r="D446" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="D446" s="5" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B447" t="s">
+        <v>854</v>
+      </c>
+      <c r="C447" t="s">
         <v>855</v>
       </c>
-      <c r="C447" t="s">
+      <c r="D447" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="D447" s="5" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>858</v>
+      </c>
+      <c r="B448" t="s">
         <v>859</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
+        <v>859</v>
+      </c>
+      <c r="D448" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C448" t="s">
-        <v>860</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B449" t="s">
+        <v>859</v>
+      </c>
+      <c r="C449" t="s">
+        <v>859</v>
+      </c>
+      <c r="D449" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C449" t="s">
-        <v>860</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B450" t="s">
+        <v>859</v>
+      </c>
+      <c r="C450" t="s">
+        <v>859</v>
+      </c>
+      <c r="D450" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C450" t="s">
-        <v>860</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B451" t="s">
+        <v>859</v>
+      </c>
+      <c r="C451" t="s">
+        <v>859</v>
+      </c>
+      <c r="D451" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C451" t="s">
-        <v>860</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B452" t="s">
+        <v>859</v>
+      </c>
+      <c r="C452" t="s">
+        <v>859</v>
+      </c>
+      <c r="D452" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C452" t="s">
-        <v>860</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B453" t="s">
+        <v>859</v>
+      </c>
+      <c r="C453" t="s">
+        <v>859</v>
+      </c>
+      <c r="D453" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C453" t="s">
-        <v>860</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B454" t="s">
+        <v>859</v>
+      </c>
+      <c r="C454" t="s">
+        <v>859</v>
+      </c>
+      <c r="D454" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C454" t="s">
-        <v>860</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B455" t="s">
+        <v>859</v>
+      </c>
+      <c r="C455" t="s">
+        <v>859</v>
+      </c>
+      <c r="D455" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C455" t="s">
-        <v>860</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B456" t="s">
+        <v>859</v>
+      </c>
+      <c r="C456" t="s">
+        <v>859</v>
+      </c>
+      <c r="D456" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C456" t="s">
-        <v>860</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B457" t="s">
+        <v>859</v>
+      </c>
+      <c r="C457" t="s">
+        <v>859</v>
+      </c>
+      <c r="D457" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C457" t="s">
-        <v>860</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B458" t="s">
+        <v>859</v>
+      </c>
+      <c r="C458" t="s">
+        <v>859</v>
+      </c>
+      <c r="D458" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C458" t="s">
-        <v>860</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B459" t="s">
+        <v>859</v>
+      </c>
+      <c r="C459" t="s">
+        <v>859</v>
+      </c>
+      <c r="D459" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="C459" t="s">
-        <v>860</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>872</v>
+      </c>
+      <c r="B460" t="s">
         <v>873</v>
       </c>
-      <c r="B460" t="s">
-        <v>874</v>
-      </c>
       <c r="C460" t="s">
+        <v>859</v>
+      </c>
+      <c r="D460" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B461" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C461" t="s">
+        <v>859</v>
+      </c>
+      <c r="D461" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>875</v>
+      </c>
+      <c r="B462" t="s">
         <v>876</v>
       </c>
-      <c r="B462" t="s">
-        <v>877</v>
-      </c>
       <c r="C462" t="s">
+        <v>859</v>
+      </c>
+      <c r="D462" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>877</v>
+      </c>
+      <c r="B463" t="s">
         <v>878</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>879</v>
       </c>
-      <c r="C463" t="s">
+      <c r="D463" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>881</v>
+      </c>
+      <c r="B464" t="s">
         <v>882</v>
       </c>
-      <c r="B464" t="s">
-        <v>883</v>
-      </c>
       <c r="C464" t="s">
+        <v>879</v>
+      </c>
+      <c r="D464" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>883</v>
+      </c>
+      <c r="B465" t="s">
         <v>884</v>
       </c>
-      <c r="B465" t="s">
-        <v>885</v>
-      </c>
       <c r="C465" t="s">
+        <v>879</v>
+      </c>
+      <c r="D465" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>885</v>
+      </c>
+      <c r="B466" t="s">
         <v>886</v>
       </c>
-      <c r="B466" t="s">
-        <v>887</v>
-      </c>
       <c r="C466" t="s">
+        <v>879</v>
+      </c>
+      <c r="D466" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B467" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C467" t="s">
+        <v>879</v>
+      </c>
+      <c r="D467" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B468" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C468" t="s">
+        <v>879</v>
+      </c>
+      <c r="D468" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>889</v>
+      </c>
+      <c r="B469" t="s">
         <v>890</v>
-      </c>
-      <c r="B469" t="s">
-        <v>891</v>
       </c>
       <c r="C469" t="s">
         <v>150</v>
@@ -11646,41 +11657,41 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>891</v>
+      </c>
+      <c r="B470" t="s">
         <v>892</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
         <v>893</v>
       </c>
-      <c r="C470" t="s">
+      <c r="D470" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B471" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="B471" s="12" t="s">
+      <c r="C471" t="s">
         <v>897</v>
       </c>
-      <c r="C471" t="s">
+      <c r="D471" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B472" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="C472" t="s">
         <v>901</v>
-      </c>
-      <c r="C472" t="s">
-        <v>902</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>6</v>
@@ -11688,119 +11699,119 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>902</v>
+      </c>
+      <c r="B473" t="s">
         <v>903</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
+        <v>903</v>
+      </c>
+      <c r="D473" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="C473" t="s">
-        <v>904</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B474" t="s">
+        <v>903</v>
+      </c>
+      <c r="C474" t="s">
+        <v>903</v>
+      </c>
+      <c r="D474" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="C474" t="s">
-        <v>904</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>906</v>
+      </c>
+      <c r="B475" t="s">
         <v>907</v>
       </c>
-      <c r="B475" t="s">
-        <v>908</v>
-      </c>
       <c r="C475" t="s">
+        <v>903</v>
+      </c>
+      <c r="D475" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B476" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="B476" s="10" t="s">
+      <c r="D476" s="5" t="s">
         <v>910</v>
-      </c>
-      <c r="D476" s="5" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>911</v>
+      </c>
+      <c r="B477" t="s">
         <v>912</v>
       </c>
-      <c r="B477" t="s">
-        <v>913</v>
-      </c>
       <c r="C477" t="s">
+        <v>903</v>
+      </c>
+      <c r="D477" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D477" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B478" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C478" t="s">
+        <v>903</v>
+      </c>
+      <c r="D478" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D478" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B479" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C479" t="s">
+        <v>903</v>
+      </c>
+      <c r="D479" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D479" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B480" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C480" t="s">
+        <v>903</v>
+      </c>
+      <c r="D480" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D480" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>916</v>
+      </c>
+      <c r="B481" t="s">
         <v>917</v>
-      </c>
-      <c r="B481" t="s">
-        <v>918</v>
       </c>
       <c r="C481" t="s">
         <v>150</v>
@@ -11811,402 +11822,402 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>918</v>
+      </c>
+      <c r="B482" t="s">
         <v>919</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>920</v>
       </c>
-      <c r="C482" t="s">
+      <c r="D482" s="5" t="s">
         <v>921</v>
-      </c>
-      <c r="D482" s="5" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>922</v>
+      </c>
+      <c r="B483" t="s">
         <v>923</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
         <v>924</v>
       </c>
-      <c r="C483" t="s">
+      <c r="D483" s="5" t="s">
         <v>925</v>
-      </c>
-      <c r="D483" s="5" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>926</v>
+      </c>
+      <c r="B484" t="s">
         <v>927</v>
       </c>
-      <c r="B484" t="s">
+      <c r="C484" t="s">
         <v>928</v>
       </c>
-      <c r="C484" t="s">
+      <c r="D484" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B485" t="s">
+        <v>927</v>
+      </c>
+      <c r="C485" t="s">
         <v>928</v>
       </c>
-      <c r="C485" t="s">
+      <c r="D485" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B486" t="s">
+        <v>927</v>
+      </c>
+      <c r="C486" t="s">
         <v>928</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>932</v>
+      </c>
+      <c r="B487" t="s">
         <v>933</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
         <v>934</v>
       </c>
-      <c r="C487" t="s">
+      <c r="D487" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B488" t="s">
+        <v>933</v>
+      </c>
+      <c r="C488" t="s">
         <v>934</v>
       </c>
-      <c r="C488" t="s">
+      <c r="D488" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B489" t="s">
+        <v>933</v>
+      </c>
+      <c r="C489" t="s">
         <v>934</v>
       </c>
-      <c r="C489" t="s">
+      <c r="D489" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B490" t="s">
+        <v>933</v>
+      </c>
+      <c r="C490" t="s">
         <v>934</v>
       </c>
-      <c r="C490" t="s">
+      <c r="D490" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D490" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B491" t="s">
+        <v>933</v>
+      </c>
+      <c r="C491" t="s">
         <v>934</v>
       </c>
-      <c r="C491" t="s">
+      <c r="D491" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B492" t="s">
+        <v>933</v>
+      </c>
+      <c r="C492" t="s">
         <v>934</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B493" t="s">
+        <v>933</v>
+      </c>
+      <c r="C493" t="s">
         <v>934</v>
       </c>
-      <c r="C493" t="s">
+      <c r="D493" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="D493" s="4" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B494" t="s">
+        <v>933</v>
+      </c>
+      <c r="C494" t="s">
         <v>934</v>
       </c>
-      <c r="C494" t="s">
+      <c r="D494" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B495" t="s">
+        <v>933</v>
+      </c>
+      <c r="C495" t="s">
         <v>934</v>
       </c>
-      <c r="C495" t="s">
+      <c r="D495" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>944</v>
+      </c>
+      <c r="B496" t="s">
         <v>945</v>
       </c>
-      <c r="B496" t="s">
-        <v>946</v>
-      </c>
       <c r="C496" t="s">
+        <v>934</v>
+      </c>
+      <c r="D496" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B497" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C497" t="s">
+        <v>934</v>
+      </c>
+      <c r="D497" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>947</v>
+      </c>
+      <c r="B498" t="s">
         <v>948</v>
       </c>
-      <c r="B498" t="s">
-        <v>949</v>
-      </c>
       <c r="C498" t="s">
+        <v>934</v>
+      </c>
+      <c r="D498" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>949</v>
+      </c>
+      <c r="B499" t="s">
         <v>950</v>
       </c>
-      <c r="B499" t="s">
-        <v>951</v>
-      </c>
       <c r="C499" t="s">
+        <v>934</v>
+      </c>
+      <c r="D499" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>951</v>
+      </c>
+      <c r="B500" t="s">
         <v>952</v>
       </c>
-      <c r="B500" t="s">
-        <v>953</v>
-      </c>
       <c r="C500" t="s">
+        <v>934</v>
+      </c>
+      <c r="D500" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>953</v>
+      </c>
+      <c r="B501" t="s">
         <v>954</v>
       </c>
-      <c r="B501" t="s">
-        <v>955</v>
-      </c>
       <c r="C501" t="s">
+        <v>934</v>
+      </c>
+      <c r="D501" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>955</v>
+      </c>
+      <c r="B502" t="s">
         <v>956</v>
       </c>
-      <c r="B502" t="s">
+      <c r="C502" t="s">
         <v>957</v>
       </c>
-      <c r="C502" t="s">
+      <c r="D502" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="D502" s="5" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B503" t="s">
+        <v>956</v>
+      </c>
+      <c r="C503" t="s">
         <v>957</v>
       </c>
-      <c r="C503" t="s">
+      <c r="D503" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="D503" s="5" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>960</v>
+      </c>
+      <c r="B504" t="s">
         <v>961</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>962</v>
       </c>
-      <c r="C504" t="s">
+      <c r="D504" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B505" t="s">
+        <v>961</v>
+      </c>
+      <c r="C505" t="s">
         <v>962</v>
       </c>
-      <c r="C505" t="s">
+      <c r="D505" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B506" t="s">
+        <v>961</v>
+      </c>
+      <c r="C506" t="s">
         <v>962</v>
       </c>
-      <c r="C506" t="s">
+      <c r="D506" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B507" t="s">
+        <v>961</v>
+      </c>
+      <c r="C507" t="s">
         <v>962</v>
       </c>
-      <c r="C507" t="s">
+      <c r="D507" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B508" t="s">
+        <v>961</v>
+      </c>
+      <c r="C508" t="s">
         <v>962</v>
       </c>
-      <c r="C508" t="s">
+      <c r="D508" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B509" t="s">
+        <v>961</v>
+      </c>
+      <c r="C509" t="s">
         <v>962</v>
       </c>
-      <c r="C509" t="s">
+      <c r="D509" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="D509" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>969</v>
+      </c>
+      <c r="B510" t="s">
         <v>970</v>
-      </c>
-      <c r="B510" t="s">
-        <v>971</v>
       </c>
       <c r="C510" t="s">
         <v>150</v>
@@ -12217,38 +12228,38 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>971</v>
+      </c>
+      <c r="B511" t="s">
         <v>972</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C511" t="s">
         <v>973</v>
       </c>
-      <c r="C511" t="s">
+      <c r="D511" s="5" t="s">
         <v>974</v>
-      </c>
-      <c r="D511" s="5" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>975</v>
+      </c>
+      <c r="B512" t="s">
         <v>976</v>
       </c>
-      <c r="B512" t="s">
+      <c r="C512" t="s">
         <v>977</v>
       </c>
-      <c r="C512" t="s">
+      <c r="D512" s="5" t="s">
         <v>978</v>
-      </c>
-      <c r="D512" s="5" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>979</v>
+      </c>
+      <c r="B513" t="s">
         <v>980</v>
-      </c>
-      <c r="B513" t="s">
-        <v>981</v>
       </c>
       <c r="C513" t="s">
         <v>150</v>
@@ -12259,10 +12270,10 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>981</v>
+      </c>
+      <c r="B514" t="s">
         <v>982</v>
-      </c>
-      <c r="B514" t="s">
-        <v>983</v>
       </c>
       <c r="C514" t="s">
         <v>150</v>
@@ -12273,10 +12284,10 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>983</v>
+      </c>
+      <c r="B515" t="s">
         <v>984</v>
-      </c>
-      <c r="B515" t="s">
-        <v>985</v>
       </c>
       <c r="C515" t="s">
         <v>150</v>
@@ -12287,10 +12298,10 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>985</v>
+      </c>
+      <c r="B516" t="s">
         <v>986</v>
-      </c>
-      <c r="B516" t="s">
-        <v>987</v>
       </c>
       <c r="C516" t="s">
         <v>150</v>
@@ -12301,24 +12312,24 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>987</v>
+      </c>
+      <c r="B517" t="s">
         <v>988</v>
       </c>
-      <c r="B517" t="s">
+      <c r="C517" t="s">
         <v>989</v>
       </c>
-      <c r="C517" t="s">
+      <c r="D517" s="5" t="s">
         <v>990</v>
-      </c>
-      <c r="D517" s="5" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
+        <v>991</v>
+      </c>
+      <c r="B518" t="s">
         <v>992</v>
-      </c>
-      <c r="B518" t="s">
-        <v>993</v>
       </c>
       <c r="C518" t="s">
         <v>150</v>
@@ -12329,10 +12340,10 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>993</v>
+      </c>
+      <c r="B519" t="s">
         <v>994</v>
-      </c>
-      <c r="B519" t="s">
-        <v>995</v>
       </c>
       <c r="C519" t="s">
         <v>150</v>
@@ -12343,10 +12354,10 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
+        <v>995</v>
+      </c>
+      <c r="B520" t="s">
         <v>996</v>
-      </c>
-      <c r="B520" t="s">
-        <v>997</v>
       </c>
       <c r="C520" t="s">
         <v>150</v>
@@ -12357,24 +12368,24 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>997</v>
+      </c>
+      <c r="B521" t="s">
         <v>998</v>
       </c>
-      <c r="B521" t="s">
-        <v>999</v>
-      </c>
       <c r="C521" t="s">
+        <v>989</v>
+      </c>
+      <c r="D521" s="4" t="s">
         <v>990</v>
-      </c>
-      <c r="D521" s="4" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>999</v>
+      </c>
+      <c r="B522" t="s">
         <v>1000</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1001</v>
       </c>
       <c r="C522" t="s">
         <v>150</v>
@@ -12385,52 +12396,52 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B523" t="s">
         <v>1002</v>
       </c>
-      <c r="B523" t="s">
+      <c r="C523" t="s">
         <v>1003</v>
       </c>
-      <c r="C523" t="s">
+      <c r="D523" s="5" t="s">
         <v>1004</v>
-      </c>
-      <c r="D523" s="5" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B524" t="s">
         <v>1006</v>
       </c>
-      <c r="B524" t="s">
-        <v>1007</v>
-      </c>
       <c r="C524" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D524" s="5" t="s">
         <v>1004</v>
-      </c>
-      <c r="D524" s="5" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B525" t="s">
         <v>1008</v>
       </c>
-      <c r="B525" t="s">
+      <c r="C525" t="s">
         <v>1009</v>
       </c>
-      <c r="C525" t="s">
+      <c r="D525" s="5" t="s">
         <v>1010</v>
-      </c>
-      <c r="D525" s="5" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B526" t="s">
         <v>1012</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1013</v>
       </c>
       <c r="C526" t="s">
         <v>150</v>
@@ -12441,10 +12452,10 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B527" t="s">
         <v>1014</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1015</v>
       </c>
       <c r="C527" t="s">
         <v>150</v>
@@ -12455,24 +12466,24 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B528" t="s">
         <v>1016</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
         <v>1017</v>
       </c>
-      <c r="C528" t="s">
+      <c r="D528" s="5" t="s">
         <v>1018</v>
-      </c>
-      <c r="D528" s="5" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B529" t="s">
         <v>1020</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1021</v>
       </c>
       <c r="C529" t="s">
         <v>150</v>
@@ -12483,10 +12494,10 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B530" t="s">
         <v>1022</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1023</v>
       </c>
       <c r="C530" t="s">
         <v>150</v>
@@ -12497,10 +12508,10 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B531" t="s">
         <v>1024</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1025</v>
       </c>
       <c r="C531" t="s">
         <v>150</v>
@@ -12511,10 +12522,10 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B532" t="s">
         <v>1026</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1027</v>
       </c>
       <c r="C532" t="s">
         <v>150</v>
@@ -12525,24 +12536,24 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B533" t="s">
         <v>1028</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>1029</v>
       </c>
-      <c r="C533" t="s">
+      <c r="D533" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="D533" s="3" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B534" t="s">
         <v>1032</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1033</v>
       </c>
       <c r="C534" t="s">
         <v>150</v>
@@ -12553,10 +12564,10 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B535" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C535" t="s">
         <v>150</v>
@@ -12567,10 +12578,10 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B536" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C536" t="s">
         <v>150</v>
@@ -12581,10 +12592,10 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B537" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C537" t="s">
         <v>150</v>
@@ -12595,10 +12606,10 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B538" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C538" t="s">
         <v>150</v>
@@ -12609,10 +12620,10 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B539" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C539" t="s">
         <v>150</v>
@@ -12623,10 +12634,10 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B540" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C540" t="s">
         <v>150</v>
@@ -12637,41 +12648,41 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B541" t="s">
         <v>1040</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>1041</v>
       </c>
-      <c r="C541" t="s">
+      <c r="D541" s="5" t="s">
         <v>1042</v>
-      </c>
-      <c r="D541" s="5" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B542" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C542" t="s">
         <v>1041</v>
       </c>
-      <c r="C542" t="s">
+      <c r="D542" s="5" t="s">
         <v>1042</v>
-      </c>
-      <c r="D542" s="5" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B543" t="s">
         <v>1045</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>1046</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1047</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>6</v>
@@ -12679,24 +12690,24 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B544" t="s">
         <v>1048</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>1049</v>
       </c>
-      <c r="C544" t="s">
+      <c r="D544" s="5" t="s">
         <v>1050</v>
-      </c>
-      <c r="D544" s="5" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B545" t="s">
         <v>1052</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1053</v>
       </c>
       <c r="C545" t="s">
         <v>150</v>
@@ -12707,10 +12718,10 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B546" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C546" t="s">
         <v>150</v>
@@ -12721,10 +12732,10 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B547" t="s">
         <v>1055</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1056</v>
       </c>
       <c r="C547" t="s">
         <v>150</v>
@@ -12735,66 +12746,66 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B548" t="s">
         <v>1057</v>
       </c>
-      <c r="B548" t="s">
+      <c r="C548" t="s">
         <v>1058</v>
       </c>
-      <c r="C548" t="s">
+      <c r="D548" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="D548" s="5" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B549" t="s">
         <v>1061</v>
       </c>
-      <c r="B549" t="s">
-        <v>1062</v>
-      </c>
       <c r="C549" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D549" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="D549" s="5" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B550" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C550" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D550" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="D550" s="5" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B551" t="s">
         <v>1064</v>
       </c>
-      <c r="B551" t="s">
+      <c r="C551" t="s">
         <v>1065</v>
       </c>
-      <c r="C551" t="s">
+      <c r="D551" s="5" t="s">
         <v>1066</v>
-      </c>
-      <c r="D551" s="5" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B552" t="s">
         <v>1068</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1069</v>
       </c>
       <c r="C552" t="s">
         <v>150</v>
@@ -12805,108 +12816,108 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B553" t="s">
         <v>1070</v>
       </c>
-      <c r="B553" t="s">
+      <c r="C553" t="s">
         <v>1071</v>
       </c>
-      <c r="C553" t="s">
+      <c r="D553" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="D553" s="5" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B554" t="s">
         <v>1074</v>
       </c>
-      <c r="B554" t="s">
+      <c r="C554" t="s">
         <v>1075</v>
       </c>
-      <c r="C554" t="s">
+      <c r="D554" s="5" t="s">
         <v>1076</v>
-      </c>
-      <c r="D554" s="5" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B555" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C555" t="s">
         <v>1075</v>
       </c>
-      <c r="C555" t="s">
+      <c r="D555" s="5" t="s">
         <v>1076</v>
-      </c>
-      <c r="D555" s="5" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B556" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C556" t="s">
         <v>1075</v>
       </c>
-      <c r="C556" t="s">
+      <c r="D556" s="5" t="s">
         <v>1076</v>
-      </c>
-      <c r="D556" s="5" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B557" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C557" t="s">
         <v>1075</v>
       </c>
-      <c r="C557" t="s">
+      <c r="D557" s="5" t="s">
         <v>1076</v>
-      </c>
-      <c r="D557" s="5" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B558" t="s">
         <v>1081</v>
       </c>
-      <c r="B558" t="s">
-        <v>1082</v>
-      </c>
       <c r="C558" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D558" s="5" t="s">
         <v>1076</v>
-      </c>
-      <c r="D558" s="5" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B559" t="s">
         <v>1083</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C559" t="s">
         <v>1084</v>
       </c>
-      <c r="C559" t="s">
+      <c r="D559" s="5" t="s">
         <v>1085</v>
-      </c>
-      <c r="D559" s="5" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B560" t="s">
         <v>1087</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1088</v>
       </c>
       <c r="C560" t="s">
         <v>150</v>
@@ -12917,10 +12928,10 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B561" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C561" t="s">
         <v>150</v>
@@ -12931,10 +12942,10 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B562" t="s">
         <v>1090</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1091</v>
       </c>
       <c r="C562" t="s">
         <v>150</v>
@@ -12945,10 +12956,10 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B563" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C563" t="s">
         <v>150</v>
@@ -12959,10 +12970,10 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B564" t="s">
         <v>1093</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1094</v>
       </c>
       <c r="C564" t="s">
         <v>150</v>
@@ -12973,10 +12984,10 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B565" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C565" t="s">
         <v>150</v>
@@ -12987,10 +12998,10 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B566" t="s">
         <v>1096</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1097</v>
       </c>
       <c r="C566" t="s">
         <v>150</v>
@@ -13001,10 +13012,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B567" t="s">
         <v>1098</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1099</v>
       </c>
       <c r="C567" t="s">
         <v>150</v>
@@ -13015,10 +13026,10 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B568" t="s">
         <v>1100</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1101</v>
       </c>
       <c r="C568" t="s">
         <v>150</v>
@@ -13029,10 +13040,10 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B569" t="s">
         <v>1102</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1103</v>
       </c>
       <c r="C569" t="s">
         <v>150</v>
@@ -13043,10 +13054,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B570" t="s">
         <v>1104</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1105</v>
       </c>
       <c r="C570" t="s">
         <v>150</v>
@@ -13057,10 +13068,10 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B571" t="s">
         <v>1106</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1107</v>
       </c>
       <c r="C571" t="s">
         <v>150</v>
@@ -13071,10 +13082,10 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B572" t="s">
         <v>1108</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1109</v>
       </c>
       <c r="C572" t="s">
         <v>150</v>
@@ -13085,262 +13096,262 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B573" t="s">
         <v>1110</v>
       </c>
-      <c r="B573" t="s">
+      <c r="C573" t="s">
         <v>1111</v>
       </c>
-      <c r="C573" t="s">
+      <c r="D573" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D573" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B574" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C574" t="s">
         <v>1111</v>
       </c>
-      <c r="C574" t="s">
+      <c r="D574" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D574" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B575" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C575" t="s">
         <v>1111</v>
       </c>
-      <c r="C575" t="s">
+      <c r="D575" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D575" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B576" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C576" t="s">
         <v>1111</v>
       </c>
-      <c r="C576" t="s">
+      <c r="D576" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D576" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B577" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C577" t="s">
         <v>1111</v>
       </c>
-      <c r="C577" t="s">
+      <c r="D577" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D577" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B578" t="s">
         <v>1118</v>
       </c>
-      <c r="B578" t="s">
-        <v>1119</v>
-      </c>
       <c r="C578" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D578" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D578" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B579" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C579" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D579" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D579" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B580" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C580" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D580" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D580" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B581" t="s">
         <v>1122</v>
       </c>
-      <c r="B581" t="s">
+      <c r="C581" t="s">
         <v>1123</v>
       </c>
-      <c r="C581" t="s">
+      <c r="D581" s="5" t="s">
         <v>1124</v>
-      </c>
-      <c r="D581" s="5" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B582" t="s">
         <v>1126</v>
       </c>
-      <c r="B582" t="s">
-        <v>1127</v>
-      </c>
       <c r="C582" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D582" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D582" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B583" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C583" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D583" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D583" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B584" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C584" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D584" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D584" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B585" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C585" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D585" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D585" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B586" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C586" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D586" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D586" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B587" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C587" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D587" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D587" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B588" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C588" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D588" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D588" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B589" t="s">
         <v>1134</v>
       </c>
-      <c r="B589" t="s">
-        <v>1135</v>
-      </c>
       <c r="C589" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D589" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D589" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B590" t="s">
         <v>1136</v>
       </c>
-      <c r="B590" t="s">
-        <v>1137</v>
-      </c>
       <c r="C590" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D590" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D590" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B591" t="s">
         <v>1138</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1139</v>
       </c>
       <c r="C591" t="s">
         <v>150</v>
@@ -13351,10 +13362,10 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B592" t="s">
         <v>1140</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1141</v>
       </c>
       <c r="C592" t="s">
         <v>150</v>
@@ -13365,10 +13376,10 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B593" t="s">
         <v>1142</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1143</v>
       </c>
       <c r="C593" t="s">
         <v>150</v>
@@ -13379,10 +13390,10 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B594" t="s">
         <v>1144</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1145</v>
       </c>
       <c r="C594" t="s">
         <v>150</v>
@@ -13393,10 +13404,10 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B595" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C595" t="s">
         <v>150</v>
@@ -13407,10 +13418,10 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B596" t="s">
         <v>1147</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1148</v>
       </c>
       <c r="C596" t="s">
         <v>150</v>
@@ -13421,10 +13432,10 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B597" t="s">
         <v>1149</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1150</v>
       </c>
       <c r="C597" t="s">
         <v>150</v>
@@ -13435,38 +13446,38 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B598" t="s">
         <v>1151</v>
       </c>
-      <c r="B598" t="s">
+      <c r="C598" t="s">
         <v>1152</v>
       </c>
-      <c r="C598" t="s">
+      <c r="D598" s="5" t="s">
         <v>1153</v>
-      </c>
-      <c r="D598" s="5" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B599" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C599" t="s">
         <v>1152</v>
       </c>
-      <c r="C599" t="s">
+      <c r="D599" s="5" t="s">
         <v>1153</v>
-      </c>
-      <c r="D599" s="5" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B600" t="s">
         <v>1156</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1157</v>
       </c>
       <c r="C600" t="s">
         <v>150</v>
@@ -13477,10 +13488,10 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B601" t="s">
         <v>1158</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1159</v>
       </c>
       <c r="C601" t="s">
         <v>150</v>
@@ -13491,24 +13502,24 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B602" t="s">
         <v>1160</v>
       </c>
-      <c r="B602" t="s">
+      <c r="C602" t="s">
         <v>1161</v>
       </c>
-      <c r="C602" t="s">
+      <c r="D602" s="5" t="s">
         <v>1162</v>
-      </c>
-      <c r="D602" s="5" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B603" s="9" t="s">
         <v>1164</v>
-      </c>
-      <c r="B603" s="9" t="s">
-        <v>1165</v>
       </c>
       <c r="D603" s="2" t="s">
         <v>6</v>
@@ -13516,10 +13527,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B604" t="s">
         <v>1166</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1167</v>
       </c>
       <c r="C604" t="s">
         <v>150</v>
@@ -13530,234 +13541,234 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B605" t="s">
         <v>1168</v>
       </c>
-      <c r="B605" t="s">
+      <c r="C605" t="s">
         <v>1169</v>
       </c>
-      <c r="C605" t="s">
+      <c r="D605" s="3" t="s">
         <v>1170</v>
-      </c>
-      <c r="D605" s="3" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B606" t="s">
         <v>1172</v>
       </c>
-      <c r="B606" t="s">
+      <c r="C606" t="s">
         <v>1173</v>
       </c>
-      <c r="C606" t="s">
+      <c r="D606" s="5" t="s">
         <v>1174</v>
-      </c>
-      <c r="D606" s="5" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B607" t="s">
         <v>1176</v>
       </c>
-      <c r="B607" t="s">
+      <c r="C607" t="s">
         <v>1177</v>
       </c>
-      <c r="C607" t="s">
+      <c r="D607" s="5" t="s">
         <v>1178</v>
-      </c>
-      <c r="D607" s="5" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B608" t="s">
         <v>1180</v>
       </c>
-      <c r="B608" t="s">
+      <c r="C608" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D608" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D608" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B609" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D609" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D609" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B610" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D610" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D610" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B611" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D611" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D611" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B612" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D612" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D612" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B613" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D613" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D613" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B614" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D614" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D614" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B615" t="s">
         <v>1189</v>
       </c>
-      <c r="B615" t="s">
-        <v>1190</v>
-      </c>
       <c r="C615" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D615" s="5" t="s">
         <v>1181</v>
-      </c>
-      <c r="D615" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B616" t="s">
         <v>1191</v>
       </c>
-      <c r="B616" t="s">
+      <c r="C616" t="s">
         <v>1192</v>
       </c>
-      <c r="C616" t="s">
+      <c r="D616" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="D616" s="5" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B617" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C617" t="s">
         <v>1192</v>
       </c>
-      <c r="C617" t="s">
+      <c r="D617" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="D617" s="5" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B618" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C618" t="s">
         <v>1192</v>
       </c>
-      <c r="C618" t="s">
+      <c r="D618" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="D618" s="5" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B619" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C619" t="s">
         <v>1192</v>
       </c>
-      <c r="C619" t="s">
+      <c r="D619" s="3" t="s">
         <v>1193</v>
-      </c>
-      <c r="D619" s="3" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B620" t="s">
         <v>1198</v>
       </c>
-      <c r="B620" t="s">
+      <c r="C620" t="s">
         <v>1199</v>
       </c>
-      <c r="C620" t="s">
+      <c r="D620" s="5" t="s">
         <v>1200</v>
-      </c>
-      <c r="D620" s="5" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B621" t="s">
         <v>1202</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1203</v>
       </c>
       <c r="C621" t="s">
         <v>150</v>
@@ -13768,10 +13779,10 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B622" t="s">
         <v>1204</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1205</v>
       </c>
       <c r="C622" t="s">
         <v>150</v>
@@ -13782,10 +13793,10 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B623" t="s">
         <v>1206</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1207</v>
       </c>
       <c r="C623" t="s">
         <v>150</v>
@@ -13796,10 +13807,10 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B624" t="s">
         <v>1208</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1209</v>
       </c>
       <c r="C624" t="s">
         <v>150</v>
@@ -13810,10 +13821,10 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B625" t="s">
         <v>1210</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1211</v>
       </c>
       <c r="C625" t="s">
         <v>150</v>
@@ -13824,108 +13835,108 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B626" t="s">
         <v>1212</v>
       </c>
-      <c r="B626" t="s">
+      <c r="C626" t="s">
         <v>1213</v>
       </c>
-      <c r="C626" t="s">
+      <c r="D626" s="5" t="s">
         <v>1214</v>
-      </c>
-      <c r="D626" s="5" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B627" t="s">
         <v>1216</v>
       </c>
-      <c r="B627" t="s">
+      <c r="C627" t="s">
         <v>1217</v>
       </c>
-      <c r="C627" t="s">
+      <c r="D627" s="5" t="s">
         <v>1218</v>
-      </c>
-      <c r="D627" s="5" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B628" t="s">
         <v>1220</v>
       </c>
-      <c r="B628" t="s">
-        <v>1221</v>
-      </c>
       <c r="C628" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D628" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="D628" s="3" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B629" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C629" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D629" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="D629" s="3" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B630" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C630" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D630" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="D630" s="3" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B631" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C631" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D631" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="D631" s="3" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B632" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C632" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D632" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="D632" s="3" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B633" t="s">
         <v>1226</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1227</v>
       </c>
       <c r="C633" t="s">
         <v>150</v>
@@ -13936,10 +13947,10 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B634" t="s">
         <v>1228</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1229</v>
       </c>
       <c r="C634" t="s">
         <v>150</v>
@@ -13950,10 +13961,10 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B635" t="s">
         <v>1230</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1231</v>
       </c>
       <c r="C635" t="s">
         <v>150</v>
@@ -13964,10 +13975,10 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B636" t="s">
         <v>1232</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1233</v>
       </c>
       <c r="C636" t="s">
         <v>150</v>
@@ -13978,94 +13989,94 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B637" t="s">
         <v>1234</v>
       </c>
-      <c r="B637" t="s">
+      <c r="C637" t="s">
         <v>1235</v>
       </c>
-      <c r="C637" t="s">
+      <c r="D637" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="D637" s="5" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B638" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C638" t="s">
         <v>1235</v>
       </c>
-      <c r="C638" t="s">
+      <c r="D638" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="D638" s="5" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B639" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C639" t="s">
         <v>1235</v>
       </c>
-      <c r="C639" t="s">
+      <c r="D639" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="D639" s="5" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B640" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C640" t="s">
         <v>1235</v>
       </c>
-      <c r="C640" t="s">
+      <c r="D640" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="D640" s="5" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B641" t="s">
         <v>1241</v>
       </c>
-      <c r="B641" t="s">
-        <v>1242</v>
-      </c>
       <c r="C641" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D641" s="3" t="s">
         <v>1178</v>
-      </c>
-      <c r="D641" s="3" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B642" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C642" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D642" s="3" t="s">
         <v>1178</v>
-      </c>
-      <c r="D642" s="3" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B643" t="s">
         <v>1244</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1245</v>
       </c>
       <c r="C643" t="s">
         <v>150</v>
@@ -14076,108 +14087,108 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B644" t="s">
         <v>1246</v>
       </c>
-      <c r="B644" t="s">
+      <c r="C644" t="s">
         <v>1247</v>
       </c>
-      <c r="C644" t="s">
+      <c r="D644" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="D644" s="3" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B645" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C645" t="s">
         <v>1247</v>
       </c>
-      <c r="C645" t="s">
+      <c r="D645" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="D645" s="3" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B646" t="s">
         <v>1251</v>
       </c>
-      <c r="B646" t="s">
-        <v>1252</v>
-      </c>
       <c r="C646" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D646" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="D646" s="3" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B647" t="s">
         <v>1253</v>
       </c>
-      <c r="B647" t="s">
-        <v>1254</v>
-      </c>
       <c r="C647" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D647" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="D647" s="3" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B648" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C648" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D648" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="D648" s="3" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B649" t="s">
         <v>1256</v>
       </c>
-      <c r="B649" t="s">
-        <v>1257</v>
-      </c>
       <c r="C649" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D649" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="D649" s="3" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B650" t="s">
         <v>1258</v>
       </c>
-      <c r="B650" t="s">
-        <v>1259</v>
-      </c>
       <c r="C650" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D650" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="D650" s="3" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B651" t="s">
         <v>1260</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1261</v>
       </c>
       <c r="C651" t="s">
         <v>150</v>
@@ -14188,94 +14199,94 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B652" t="s">
         <v>1262</v>
       </c>
-      <c r="B652" t="s">
+      <c r="C652" t="s">
         <v>1263</v>
       </c>
-      <c r="C652" t="s">
+      <c r="D652" s="5" t="s">
         <v>1264</v>
-      </c>
-      <c r="D652" s="5" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B653" t="s">
         <v>1266</v>
       </c>
-      <c r="B653" t="s">
-        <v>1267</v>
-      </c>
       <c r="C653" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D653" s="5" t="s">
         <v>1264</v>
-      </c>
-      <c r="D653" s="5" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B654" t="s">
         <v>1268</v>
       </c>
-      <c r="B654" t="s">
+      <c r="C654" t="s">
         <v>1269</v>
       </c>
-      <c r="C654" t="s">
+      <c r="D654" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="D654" s="5" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B655" t="s">
         <v>1272</v>
       </c>
-      <c r="B655" t="s">
-        <v>1273</v>
-      </c>
       <c r="C655" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D655" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="D655" s="5" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B656" t="s">
         <v>1274</v>
       </c>
-      <c r="B656" t="s">
+      <c r="C656" t="s">
         <v>1275</v>
       </c>
-      <c r="C656" t="s">
+      <c r="D656" s="5" t="s">
         <v>1276</v>
-      </c>
-      <c r="D656" s="5" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B657" t="s">
         <v>1278</v>
       </c>
-      <c r="B657" t="s">
+      <c r="C657" t="s">
         <v>1279</v>
       </c>
-      <c r="C657" t="s">
+      <c r="D657" s="5" t="s">
         <v>1280</v>
-      </c>
-      <c r="D657" s="5" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B658" t="s">
         <v>1282</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1283</v>
       </c>
       <c r="C658" t="s">
         <v>150</v>
@@ -14286,161 +14297,161 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B659" s="9" t="s">
         <v>1284</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="D659" s="5" t="s">
         <v>1285</v>
-      </c>
-      <c r="D659" s="5" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B660" t="s">
         <v>1287</v>
       </c>
-      <c r="B660" t="s">
+      <c r="C660" t="s">
         <v>1288</v>
       </c>
-      <c r="C660" t="s">
+      <c r="D660" s="3" t="s">
         <v>1289</v>
-      </c>
-      <c r="D660" s="3" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B661" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C661" t="s">
         <v>1288</v>
       </c>
-      <c r="C661" t="s">
+      <c r="D661" s="3" t="s">
         <v>1289</v>
-      </c>
-      <c r="D661" s="3" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B662" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C662" t="s">
         <v>1288</v>
       </c>
-      <c r="C662" t="s">
+      <c r="D662" s="3" t="s">
         <v>1289</v>
-      </c>
-      <c r="D662" s="3" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B663" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C663" t="s">
         <v>1288</v>
       </c>
-      <c r="C663" t="s">
+      <c r="D663" s="3" t="s">
         <v>1289</v>
-      </c>
-      <c r="D663" s="3" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B664" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C664" t="s">
         <v>1288</v>
       </c>
-      <c r="C664" t="s">
+      <c r="D664" s="3" t="s">
         <v>1289</v>
-      </c>
-      <c r="D664" s="3" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B665" t="s">
         <v>1295</v>
       </c>
-      <c r="B665" t="s">
+      <c r="C665" t="s">
         <v>1296</v>
       </c>
-      <c r="C665" t="s">
+      <c r="D665" s="3" t="s">
         <v>1297</v>
-      </c>
-      <c r="D665" s="3" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B666" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C666" t="s">
         <v>1296</v>
       </c>
-      <c r="C666" t="s">
+      <c r="D666" s="3" t="s">
         <v>1297</v>
-      </c>
-      <c r="D666" s="3" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B667" t="s">
         <v>1300</v>
       </c>
-      <c r="B667" t="s">
-        <v>1301</v>
-      </c>
       <c r="C667" t="s">
+        <v>903</v>
+      </c>
+      <c r="D667" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D667" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B668" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C668" t="s">
+        <v>903</v>
+      </c>
+      <c r="D668" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D668" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B669" t="s">
         <v>1303</v>
       </c>
-      <c r="B669" t="s">
-        <v>1304</v>
-      </c>
       <c r="C669" t="s">
+        <v>903</v>
+      </c>
+      <c r="D669" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D669" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B670" t="s">
         <v>1305</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1306</v>
       </c>
       <c r="C670" t="s">
         <v>150</v>
@@ -14451,10 +14462,10 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B671" t="s">
         <v>1307</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1308</v>
       </c>
       <c r="C671" t="s">
         <v>150</v>
@@ -14465,7 +14476,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B672" t="s">
         <v>192</v>
@@ -14479,7 +14490,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B673" t="s">
         <v>192</v>
@@ -14493,24 +14504,24 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B674" t="s">
         <v>1311</v>
       </c>
-      <c r="B674" t="s">
+      <c r="C674" t="s">
         <v>1312</v>
       </c>
-      <c r="C674" t="s">
+      <c r="D674" s="5" t="s">
         <v>1313</v>
-      </c>
-      <c r="D674" s="5" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B675" t="s">
         <v>1315</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1316</v>
       </c>
       <c r="C675" t="s">
         <v>150</v>
@@ -14521,192 +14532,192 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B676" t="s">
         <v>1317</v>
       </c>
-      <c r="B676" t="s">
+      <c r="C676" t="s">
         <v>1318</v>
       </c>
-      <c r="C676" t="s">
+      <c r="D676" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D676" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B677" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C677" t="s">
         <v>1318</v>
       </c>
-      <c r="C677" t="s">
+      <c r="D677" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D677" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B678" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C678" t="s">
         <v>1318</v>
       </c>
-      <c r="C678" t="s">
+      <c r="D678" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D678" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B679" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C679" t="s">
         <v>1318</v>
       </c>
-      <c r="C679" t="s">
+      <c r="D679" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D679" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B680" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C680" t="s">
         <v>1318</v>
       </c>
-      <c r="C680" t="s">
+      <c r="D680" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D680" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B681" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C681" t="s">
         <v>1318</v>
       </c>
-      <c r="C681" t="s">
+      <c r="D681" s="5" t="s">
         <v>1319</v>
-      </c>
-      <c r="D681" s="5" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B682" t="s">
         <v>1326</v>
       </c>
-      <c r="B682" t="s">
-        <v>1327</v>
-      </c>
       <c r="C682" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D682" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D682" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B683" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C683" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D683" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="D683" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B684" t="s">
         <v>1329</v>
       </c>
-      <c r="B684" t="s">
+      <c r="C684" t="s">
         <v>1330</v>
       </c>
-      <c r="C684" t="s">
+      <c r="D684" s="5" t="s">
         <v>1331</v>
-      </c>
-      <c r="D684" s="5" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B685" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C685" t="s">
         <v>1330</v>
       </c>
-      <c r="C685" t="s">
+      <c r="D685" s="5" t="s">
         <v>1331</v>
-      </c>
-      <c r="D685" s="5" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B686" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C686" t="s">
         <v>1330</v>
       </c>
-      <c r="C686" t="s">
+      <c r="D686" s="5" t="s">
         <v>1331</v>
-      </c>
-      <c r="D686" s="5" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B687" t="s">
         <v>1335</v>
       </c>
-      <c r="B687" t="s">
+      <c r="C687" t="s">
         <v>1336</v>
       </c>
-      <c r="C687" t="s">
+      <c r="D687" s="5" t="s">
         <v>1337</v>
-      </c>
-      <c r="D687" s="5" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B688" t="s">
         <v>1339</v>
       </c>
-      <c r="B688" t="s">
-        <v>1340</v>
-      </c>
       <c r="C688" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D688" s="5" t="s">
         <v>1337</v>
-      </c>
-      <c r="D688" s="5" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B689" t="s">
         <v>1341</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1342</v>
       </c>
       <c r="C689" t="s">
         <v>150</v>
@@ -14717,161 +14728,161 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B690" t="s">
         <v>1343</v>
       </c>
-      <c r="B690" t="s">
+      <c r="C690" t="s">
         <v>1344</v>
       </c>
-      <c r="C690" t="s">
+      <c r="D690" s="5" t="s">
         <v>1345</v>
-      </c>
-      <c r="D690" s="5" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B691" t="s">
         <v>1347</v>
       </c>
-      <c r="B691" t="s">
+      <c r="C691" t="s">
         <v>1348</v>
       </c>
-      <c r="C691" t="s">
+      <c r="D691" s="5" t="s">
         <v>1349</v>
-      </c>
-      <c r="D691" s="5" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B692" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C692" t="s">
         <v>1348</v>
       </c>
-      <c r="C692" t="s">
+      <c r="D692" s="5" t="s">
         <v>1349</v>
-      </c>
-      <c r="D692" s="5" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B693" t="s">
         <v>1352</v>
       </c>
-      <c r="B693" t="s">
+      <c r="C693" t="s">
         <v>1353</v>
       </c>
-      <c r="C693" t="s">
+      <c r="D693" s="3" t="s">
         <v>1354</v>
-      </c>
-      <c r="D693" s="3" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B694" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C694" t="s">
         <v>1353</v>
       </c>
-      <c r="C694" t="s">
+      <c r="D694" s="3" t="s">
         <v>1354</v>
-      </c>
-      <c r="D694" s="3" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B695" t="s">
         <v>1357</v>
       </c>
-      <c r="B695" t="s">
-        <v>1358</v>
-      </c>
       <c r="C695" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D695" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="D695" s="3" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B696" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C696" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D696" s="5" t="s">
         <v>1337</v>
-      </c>
-      <c r="D696" s="5" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B697" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C697" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D697" s="5" t="s">
         <v>1337</v>
-      </c>
-      <c r="D697" s="5" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B699" t="s">
         <v>1362</v>
       </c>
-      <c r="B699" t="s">
-        <v>1363</v>
-      </c>
       <c r="C699" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D699" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="D699" s="3" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B700" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C700" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D700" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="D700" s="3" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B701" t="s">
         <v>1365</v>
-      </c>
-      <c r="B701" t="s">
-        <v>1366</v>
       </c>
       <c r="C701" t="s">
         <v>150</v>
@@ -14882,10 +14893,10 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B702" t="s">
         <v>1367</v>
-      </c>
-      <c r="B702" t="s">
-        <v>1368</v>
       </c>
       <c r="C702" t="s">
         <v>150</v>
@@ -14896,150 +14907,150 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B703" t="s">
         <v>1369</v>
       </c>
-      <c r="B703" t="s">
+      <c r="C703" t="s">
         <v>1370</v>
       </c>
-      <c r="C703" t="s">
+      <c r="D703" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="D703" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B704" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C704" t="s">
         <v>1370</v>
       </c>
-      <c r="C704" t="s">
+      <c r="D704" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="D704" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B705" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C705" t="s">
         <v>1370</v>
       </c>
-      <c r="C705" t="s">
+      <c r="D705" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="D705" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B706" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C706" t="s">
         <v>1370</v>
       </c>
-      <c r="C706" t="s">
+      <c r="D706" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="D706" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B707" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C707" t="s">
         <v>1370</v>
       </c>
-      <c r="C707" t="s">
+      <c r="D707" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="D707" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B708" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C708" t="s">
         <v>1370</v>
       </c>
-      <c r="C708" t="s">
+      <c r="D708" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="D708" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B709" t="s">
         <v>1378</v>
       </c>
-      <c r="B709" t="s">
-        <v>1379</v>
-      </c>
       <c r="C709" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D709" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="D709" s="3" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B710" t="s">
         <v>1380</v>
       </c>
-      <c r="B710" t="s">
+      <c r="C710" t="s">
         <v>1381</v>
       </c>
-      <c r="C710" t="s">
+      <c r="D710" s="3" t="s">
         <v>1382</v>
-      </c>
-      <c r="D710" s="3" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B711" t="s">
         <v>1384</v>
       </c>
-      <c r="B711" t="s">
+      <c r="C711" t="s">
         <v>1385</v>
       </c>
-      <c r="C711" t="s">
+      <c r="D711" s="5" t="s">
         <v>1386</v>
-      </c>
-      <c r="D711" s="5" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B712" t="s">
         <v>1388</v>
       </c>
-      <c r="B712" t="s">
+      <c r="C712" t="s">
         <v>1389</v>
       </c>
-      <c r="C712" t="s">
+      <c r="D712" s="3" t="s">
         <v>1390</v>
-      </c>
-      <c r="D712" s="3" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B713" t="s">
         <v>1392</v>
-      </c>
-      <c r="B713" t="s">
-        <v>1393</v>
       </c>
       <c r="C713" t="s">
         <v>150</v>
@@ -15050,332 +15061,332 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B714" t="s">
         <v>1394</v>
       </c>
-      <c r="B714" t="s">
+      <c r="C714" t="s">
         <v>1395</v>
       </c>
-      <c r="C714" t="s">
+      <c r="D714" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D714" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B715" t="s">
         <v>1398</v>
       </c>
-      <c r="B715" t="s">
-        <v>1399</v>
-      </c>
       <c r="C715" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D715" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D715" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B716" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C716" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D716" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D716" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B717" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C717" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D717" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D717" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B718" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C718" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D718" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D718" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B719" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C719" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D719" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D719" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B720" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C720" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D720" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D720" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B721" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C721" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D721" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D721" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B722" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C722" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D722" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D722" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B723" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C723" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D723" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D723" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B724" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C724" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D724" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D724" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B725" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C725" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D725" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D725" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="9" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B726" s="9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C726" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D726" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D726" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B727" t="s">
         <v>1411</v>
       </c>
-      <c r="B727" t="s">
-        <v>1412</v>
-      </c>
       <c r="C727" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D727" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D727" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B728" t="s">
         <v>1413</v>
       </c>
-      <c r="B728" t="s">
-        <v>1414</v>
-      </c>
       <c r="C728" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D728" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D728" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B729" t="s">
         <v>1415</v>
       </c>
-      <c r="B729" t="s">
-        <v>1416</v>
-      </c>
       <c r="C729" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D729" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D729" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B730" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C730" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D730" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D730" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B731" t="s">
         <v>1418</v>
       </c>
-      <c r="B731" t="s">
-        <v>1419</v>
-      </c>
       <c r="C731" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D731" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D731" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B732" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C732" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D732" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D732" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B733" t="s">
         <v>1421</v>
       </c>
-      <c r="B733" t="s">
-        <v>1422</v>
-      </c>
       <c r="C733" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D733" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="D733" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B734" t="s">
         <v>1423</v>
       </c>
-      <c r="B734" t="s">
+      <c r="C734" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D734" s="3" t="s">
         <v>1424</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D734" s="3" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B735" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D735" s="3" t="s">
         <v>1424</v>
-      </c>
-      <c r="C735" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D735" s="3" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B736" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D736" s="3" t="s">
         <v>1424</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D736" s="3" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B737" t="s">
         <v>1428</v>
-      </c>
-      <c r="B737" t="s">
-        <v>1429</v>
       </c>
       <c r="C737" t="s">
         <v>150</v>
@@ -15386,10 +15397,10 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B738" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C738" t="s">
         <v>150</v>
@@ -15400,10 +15411,10 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B739" t="s">
         <v>1431</v>
-      </c>
-      <c r="B739" t="s">
-        <v>1432</v>
       </c>
       <c r="C739" t="s">
         <v>150</v>
@@ -15414,10 +15425,10 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B740" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C740" t="s">
         <v>150</v>
@@ -15428,10 +15439,10 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B741" t="s">
         <v>1434</v>
-      </c>
-      <c r="B741" t="s">
-        <v>1435</v>
       </c>
       <c r="C741" t="s">
         <v>150</v>
@@ -15442,10 +15453,10 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B742" t="s">
         <v>1436</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1437</v>
       </c>
       <c r="C742" t="s">
         <v>150</v>
@@ -15456,10 +15467,10 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B743" t="s">
         <v>1438</v>
-      </c>
-      <c r="B743" t="s">
-        <v>1439</v>
       </c>
       <c r="C743" t="s">
         <v>150</v>
@@ -15470,10 +15481,10 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B744" t="s">
         <v>1440</v>
-      </c>
-      <c r="B744" t="s">
-        <v>1441</v>
       </c>
       <c r="C744" t="s">
         <v>150</v>
@@ -15484,10 +15495,10 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B745" t="s">
         <v>1442</v>
-      </c>
-      <c r="B745" t="s">
-        <v>1443</v>
       </c>
       <c r="C745" t="s">
         <v>150</v>
@@ -15498,10 +15509,10 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B746" t="s">
         <v>1444</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1445</v>
       </c>
       <c r="C746" t="s">
         <v>150</v>
@@ -15512,52 +15523,52 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B747" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="B747" s="9" t="s">
+      <c r="C747" t="s">
         <v>1447</v>
       </c>
-      <c r="C747" t="s">
+      <c r="D747" s="5" t="s">
         <v>1448</v>
-      </c>
-      <c r="D747" s="5" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B748" t="s">
         <v>1450</v>
       </c>
-      <c r="B748" t="s">
+      <c r="C748" t="s">
         <v>1451</v>
       </c>
-      <c r="C748" t="s">
+      <c r="D748" s="5" t="s">
         <v>1452</v>
-      </c>
-      <c r="D748" s="5" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B749" t="s">
         <v>1454</v>
       </c>
-      <c r="B749" t="s">
+      <c r="C749" t="s">
         <v>1455</v>
       </c>
-      <c r="C749" t="s">
+      <c r="D749" s="5" t="s">
         <v>1456</v>
-      </c>
-      <c r="D749" s="5" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B750" s="14" t="s">
         <v>1458</v>
-      </c>
-      <c r="B750" s="14" t="s">
-        <v>1459</v>
       </c>
       <c r="C750" t="s">
         <v>150</v>
@@ -15568,234 +15579,234 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B751" t="s">
         <v>1460</v>
       </c>
-      <c r="B751" t="s">
+      <c r="C751" t="s">
         <v>1461</v>
       </c>
-      <c r="C751" t="s">
+      <c r="D751" s="3" t="s">
         <v>1462</v>
-      </c>
-      <c r="D751" s="3" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B752" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C752" t="s">
         <v>1461</v>
       </c>
-      <c r="C752" t="s">
+      <c r="D752" s="3" t="s">
         <v>1462</v>
-      </c>
-      <c r="D752" s="3" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B753" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C753" t="s">
         <v>1461</v>
       </c>
-      <c r="C753" t="s">
+      <c r="D753" s="3" t="s">
         <v>1462</v>
-      </c>
-      <c r="D753" s="3" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B754" t="s">
         <v>1466</v>
       </c>
-      <c r="B754" t="s">
+      <c r="C754" t="s">
         <v>1467</v>
       </c>
-      <c r="C754" t="s">
+      <c r="D754" s="5" t="s">
         <v>1468</v>
-      </c>
-      <c r="D754" s="5" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B755" t="s">
         <v>1470</v>
       </c>
-      <c r="B755" t="s">
+      <c r="C755" t="s">
         <v>1471</v>
       </c>
-      <c r="C755" t="s">
+      <c r="D755" s="5" t="s">
         <v>1472</v>
-      </c>
-      <c r="D755" s="5" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B756" t="s">
         <v>1474</v>
       </c>
-      <c r="B756" t="s">
-        <v>1475</v>
-      </c>
       <c r="C756" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D756" s="5" t="s">
         <v>1472</v>
-      </c>
-      <c r="D756" s="5" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B757" t="s">
         <v>1476</v>
       </c>
-      <c r="B757" t="s">
-        <v>1477</v>
-      </c>
       <c r="C757" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D757" s="5" t="s">
         <v>1472</v>
-      </c>
-      <c r="D757" s="5" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B758" t="s">
         <v>1478</v>
       </c>
-      <c r="B758" t="s">
+      <c r="C758" t="s">
         <v>1479</v>
       </c>
-      <c r="C758" t="s">
+      <c r="D758" s="5" t="s">
         <v>1480</v>
-      </c>
-      <c r="D758" s="5" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B759" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C759" t="s">
         <v>1479</v>
       </c>
-      <c r="C759" t="s">
+      <c r="D759" s="5" t="s">
         <v>1480</v>
-      </c>
-      <c r="D759" s="5" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B760" t="s">
         <v>1483</v>
       </c>
-      <c r="B760" t="s">
+      <c r="C760" t="s">
         <v>1484</v>
       </c>
-      <c r="C760" t="s">
+      <c r="D760" s="5" t="s">
         <v>1485</v>
-      </c>
-      <c r="D760" s="5" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B761" t="s">
         <v>1487</v>
       </c>
-      <c r="B761" t="s">
+      <c r="C761" t="s">
         <v>1488</v>
       </c>
-      <c r="C761" t="s">
+      <c r="D761" s="5" t="s">
         <v>1489</v>
-      </c>
-      <c r="D761" s="5" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B762" t="s">
         <v>1491</v>
       </c>
-      <c r="B762" t="s">
+      <c r="C762" t="s">
         <v>1492</v>
       </c>
-      <c r="C762" t="s">
+      <c r="D762" s="5" t="s">
         <v>1493</v>
-      </c>
-      <c r="D762" s="5" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B763" t="s">
         <v>1495</v>
       </c>
-      <c r="B763" t="s">
+      <c r="C763" t="s">
         <v>1496</v>
       </c>
-      <c r="C763" t="s">
+      <c r="D763" s="5" t="s">
         <v>1497</v>
-      </c>
-      <c r="D763" s="5" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B764" t="s">
         <v>1499</v>
       </c>
-      <c r="B764" t="s">
+      <c r="C764" t="s">
         <v>1500</v>
       </c>
-      <c r="C764" t="s">
+      <c r="D764" s="3" t="s">
         <v>1501</v>
-      </c>
-      <c r="D764" s="3" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B765" t="s">
         <v>1503</v>
       </c>
-      <c r="B765" t="s">
-        <v>1504</v>
-      </c>
       <c r="C765" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D765" s="3" t="s">
         <v>1501</v>
-      </c>
-      <c r="D765" s="3" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B766" t="s">
         <v>1505</v>
       </c>
-      <c r="B766" t="s">
-        <v>1506</v>
-      </c>
       <c r="C766" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D766" s="3" t="s">
         <v>1501</v>
-      </c>
-      <c r="D766" s="3" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B767" t="s">
         <v>1507</v>
-      </c>
-      <c r="B767" t="s">
-        <v>1508</v>
       </c>
       <c r="C767" t="s">
         <v>150</v>
@@ -15806,52 +15817,52 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B768" t="s">
         <v>1509</v>
       </c>
-      <c r="B768" t="s">
+      <c r="C768" t="s">
         <v>1510</v>
       </c>
-      <c r="C768" t="s">
+      <c r="D768" s="5" t="s">
         <v>1511</v>
-      </c>
-      <c r="D768" s="5" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B769" t="s">
         <v>1513</v>
       </c>
-      <c r="B769" t="s">
+      <c r="C769" t="s">
         <v>1514</v>
       </c>
-      <c r="C769" t="s">
+      <c r="D769" s="3" t="s">
         <v>1515</v>
-      </c>
-      <c r="D769" s="3" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B770" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C770" t="s">
         <v>1514</v>
       </c>
-      <c r="C770" t="s">
+      <c r="D770" s="3" t="s">
         <v>1515</v>
-      </c>
-      <c r="D770" s="3" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B771" t="s">
         <v>1518</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1519</v>
       </c>
       <c r="C771" t="s">
         <v>150</v>
@@ -15862,66 +15873,66 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B772" t="s">
         <v>1520</v>
       </c>
-      <c r="B772" t="s">
+      <c r="C772" t="s">
         <v>1521</v>
       </c>
-      <c r="C772" t="s">
+      <c r="D772" s="5" t="s">
         <v>1522</v>
-      </c>
-      <c r="D772" s="5" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B773" t="s">
         <v>1524</v>
       </c>
-      <c r="B773" t="s">
-        <v>1525</v>
-      </c>
       <c r="C773" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D773" s="5" t="s">
         <v>1522</v>
-      </c>
-      <c r="D773" s="5" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B774" t="s">
         <v>1526</v>
       </c>
-      <c r="B774" t="s">
+      <c r="C774" t="s">
         <v>1527</v>
       </c>
-      <c r="C774" t="s">
+      <c r="D774" s="5" t="s">
         <v>1528</v>
-      </c>
-      <c r="D774" s="5" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B775" t="s">
         <v>1530</v>
       </c>
-      <c r="B775" t="s">
+      <c r="C775" t="s">
         <v>1531</v>
       </c>
-      <c r="C775" t="s">
+      <c r="D775" s="5" t="s">
         <v>1532</v>
-      </c>
-      <c r="D775" s="5" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B776" t="s">
         <v>1534</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1535</v>
       </c>
       <c r="C776" t="s">
         <v>150</v>
@@ -15932,10 +15943,10 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B777" t="s">
         <v>1536</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1537</v>
       </c>
       <c r="C777" t="s">
         <v>150</v>
@@ -15946,10 +15957,10 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B778" t="s">
         <v>1538</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1539</v>
       </c>
       <c r="C778" t="s">
         <v>150</v>
@@ -15960,10 +15971,10 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B779" t="s">
         <v>1540</v>
-      </c>
-      <c r="B779" t="s">
-        <v>1541</v>
       </c>
       <c r="C779" t="s">
         <v>150</v>
@@ -15980,7 +15991,8 @@
     <sortCondition ref="B766:B779"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D493" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90232397-B3DF-4815-B873-EFDFD2079EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4F2A4-B77C-409A-A2A3-FDE6B259791E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1567">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4674,9 +4674,6 @@
     <t>https://cdn.radarbox.com/airlines/sq/NO.png</t>
   </si>
   <si>
-    <t>Easyjet</t>
-  </si>
-  <si>
     <t>dcdcfedc-8c9d-408b-9f5d-2f0632eeb2c8</t>
   </si>
   <si>
@@ -4726,6 +4723,9 @@
   </si>
   <si>
     <t>01c94477-768e-47db-8adc-fb4e0b2d3d52</t>
+  </si>
+  <si>
+    <t>https://cdn.radarbox.com/airlines/sq/CAW.png</t>
   </si>
 </sst>
 </file>
@@ -5207,10 +5207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
-  <dimension ref="A1:D795"/>
+  <dimension ref="A1:D794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A772" workbookViewId="0">
-      <selection activeCell="A793" sqref="A793"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="D469" sqref="D469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11711,8 +11711,8 @@
       <c r="C469" t="s">
         <v>150</v>
       </c>
-      <c r="D469" s="2" t="s">
-        <v>6</v>
+      <c r="D469" s="3" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -16089,68 +16089,68 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>524</v>
+        <v>1549</v>
       </c>
       <c r="B784" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D784" s="17" t="s">
-        <v>527</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B785" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D785" s="17" t="s">
-        <v>1552</v>
+        <v>490</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B786" t="s">
-        <v>1554</v>
+        <v>170</v>
       </c>
       <c r="D786" s="17" t="s">
-        <v>490</v>
+        <v>172</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B787" t="s">
         <v>1555</v>
       </c>
-      <c r="B787" t="s">
-        <v>170</v>
-      </c>
       <c r="D787" s="17" t="s">
-        <v>172</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B788" t="s">
         <v>1558</v>
       </c>
-      <c r="B788" t="s">
-        <v>1556</v>
-      </c>
       <c r="D788" s="17" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B789" t="s">
         <v>1561</v>
       </c>
-      <c r="B789" t="s">
-        <v>1559</v>
-      </c>
       <c r="D789" s="17" t="s">
-        <v>1560</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
@@ -16158,10 +16158,10 @@
         <v>1563</v>
       </c>
       <c r="B790" t="s">
-        <v>1562</v>
+        <v>1500</v>
       </c>
       <c r="D790" s="17" t="s">
-        <v>1372</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
@@ -16169,10 +16169,10 @@
         <v>1564</v>
       </c>
       <c r="B791" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D791" s="17" t="s">
-        <v>1502</v>
+        <v>270</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
@@ -16180,25 +16180,14 @@
         <v>1565</v>
       </c>
       <c r="B792" t="s">
-        <v>270</v>
-      </c>
-      <c r="D792" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B793" t="s">
         <v>913</v>
       </c>
-      <c r="D793" s="17" t="s">
+      <c r="D792" s="17" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D795" s="15"/>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D794" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D779">
@@ -16405,7 +16394,7 @@
     <hyperlink ref="D659" r:id="rId195" xr:uid="{78F0CC44-B8AE-4E03-895F-C57997E5026A}"/>
     <hyperlink ref="D747" r:id="rId196" xr:uid="{E71CD44A-D53E-4D54-8EE6-900216727DCC}"/>
     <hyperlink ref="D781" r:id="rId197" xr:uid="{B0955C40-EB08-4263-B923-6D122ED6EC53}"/>
-    <hyperlink ref="D792" r:id="rId198" xr:uid="{17CD83D1-ECCC-4BCE-A73B-727898A6313A}"/>
+    <hyperlink ref="D791" r:id="rId198" xr:uid="{17CD83D1-ECCC-4BCE-A73B-727898A6313A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId199"/>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4F2A4-B77C-409A-A2A3-FDE6B259791E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4804CE-4BF7-49DD-BA34-C8129289E44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1568">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4726,6 +4726,9 @@
   </si>
   <si>
     <t>https://cdn.radarbox.com/airlines/sq/CAW.png</t>
+  </si>
+  <si>
+    <t>CAW</t>
   </si>
 </sst>
 </file>
@@ -5210,7 +5213,7 @@
   <dimension ref="A1:D794"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="D469" sqref="D469"/>
+      <selection activeCell="A469" sqref="A469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11702,14 +11705,14 @@
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="A469" s="15" t="s">
         <v>890</v>
       </c>
       <c r="B469" t="s">
         <v>891</v>
       </c>
-      <c r="C469" t="s">
-        <v>150</v>
+      <c r="C469" s="15" t="s">
+        <v>1567</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>1566</v>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E03405-1D4F-4DE9-8911-CD916238B247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7E3040-79C4-4F8E-A7E1-DD9271124C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -5214,7 +5214,7 @@
   <dimension ref="A1:D794"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:D84"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,7 +6341,7 @@
         <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>154</v>

--- a/compania.xlsx
+++ b/compania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7E3040-79C4-4F8E-A7E1-DD9271124C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4FE3B6-E15C-4BC4-BB5D-4231884B3BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AE0B7E4-0633-48C6-AF70-63C3B6AA35DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1569">
   <si>
     <t>LiveryId</t>
   </si>
@@ -4729,13 +4729,16 @@
   </si>
   <si>
     <t>CAW</t>
+  </si>
+  <si>
+    <t>e315d4b3-5372-47cf-ab87-2ab8b64bcc49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4814,6 +4817,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4852,7 +4862,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4884,13 +4894,34 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5213,8 +5244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D368-0491-4F68-8BB9-1D2405E21EA2}">
   <dimension ref="A1:D794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="D288" sqref="D288:D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9175,27 +9206,27 @@
       <c r="C288" t="s">
         <v>562</v>
       </c>
-      <c r="D288" s="5" t="s">
+      <c r="D288" s="19" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>565</v>
+        <v>1568</v>
       </c>
       <c r="B289" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C289" t="s">
         <v>562</v>
       </c>
-      <c r="D289" s="5" t="s">
+      <c r="D289" s="19" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B290" t="s">
         <v>566</v>
@@ -9203,13 +9234,13 @@
       <c r="C290" t="s">
         <v>562</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="5" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B291" t="s">
         <v>566</v>
@@ -9223,21 +9254,21 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B292" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C292" t="s">
-        <v>571</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>572</v>
+        <v>562</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B293" t="s">
         <v>570</v>
@@ -9251,7 +9282,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B294" t="s">
         <v>570</v>
@@ -9265,10 +9296,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B295" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C295" t="s">
         <v>571</v>
@@ -9279,10 +9310,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B296" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C296" t="s">
         <v>571</v>
@@ -9293,7 +9324,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B297" t="s">
         <v>578</v>
@@ -9307,10 +9338,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B298" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C298" t="s">
         <v>571</v>
@@ -9321,35 +9352,35 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B299" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C299" t="s">
         <v>571</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="5" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B300" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C300" t="s">
         <v>571</v>
       </c>
-      <c r="D300" s="5" t="s">
+      <c r="D300" s="3" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B301" t="s">
         <v>585</v>
@@ -9363,21 +9394,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B302" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C302" t="s">
-        <v>589</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B303" t="s">
         <v>588</v>
@@ -9391,7 +9422,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B304" t="s">
         <v>588</v>
@@ -9405,24 +9436,24 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B305" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C305" t="s">
-        <v>594</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>595</v>
+        <v>589</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B306" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C306" t="s">
         <v>594</v>
@@ -9433,7 +9464,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B307" t="s">
         <v>597</v>
@@ -9441,41 +9472,41 @@
       <c r="C307" t="s">
         <v>594</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="5" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B308" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C308" t="s">
-        <v>601</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
+      </c>
+      <c r="D308" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B309" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C309" t="s">
-        <v>150</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>6</v>
+        <v>601</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B310" t="s">
         <v>604</v>
@@ -9489,24 +9520,24 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B311" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C311" t="s">
-        <v>608</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>609</v>
+        <v>150</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B312" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C312" t="s">
         <v>608</v>
@@ -9517,10 +9548,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B313" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C313" t="s">
         <v>608</v>
@@ -9531,7 +9562,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B314" t="s">
         <v>607</v>
@@ -9545,49 +9576,49 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B315" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C315" t="s">
-        <v>150</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>6</v>
+        <v>608</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B316" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C316" t="s">
-        <v>618</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>619</v>
+        <v>150</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B317" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C317" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B318" t="s">
         <v>621</v>
@@ -9601,7 +9632,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B319" t="s">
         <v>621</v>
@@ -9615,46 +9646,46 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1543</v>
+        <v>625</v>
       </c>
       <c r="B320" t="s">
         <v>621</v>
       </c>
+      <c r="C320" t="s">
+        <v>622</v>
+      </c>
       <c r="D320" s="5" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B321" t="s">
+        <v>621</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>626</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>627</v>
       </c>
-      <c r="C321" t="s">
-        <v>150</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="C322" t="s">
+        <v>150</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="B322" t="s">
-        <v>629</v>
-      </c>
-      <c r="C322" t="s">
-        <v>630</v>
-      </c>
-      <c r="D322" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>632</v>
       </c>
       <c r="B323" t="s">
         <v>629</v>
@@ -9668,63 +9699,63 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B324" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C324" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B325" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C325" t="s">
-        <v>150</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>6</v>
+        <v>635</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B326" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C326" t="s">
-        <v>641</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>642</v>
+        <v>150</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B327" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C327" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B328" t="s">
         <v>644</v>
@@ -9738,10 +9769,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B329" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C329" t="s">
         <v>645</v>
@@ -9752,10 +9783,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B330" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C330" t="s">
         <v>645</v>
@@ -9766,10 +9797,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B331" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C331" t="s">
         <v>645</v>
@@ -9780,10 +9811,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B332" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C332" t="s">
         <v>645</v>
@@ -9794,10 +9825,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B333" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C333" t="s">
         <v>645</v>
@@ -9808,10 +9839,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B334" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C334" t="s">
         <v>645</v>
@@ -9822,21 +9853,21 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B335" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C335" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B336" t="s">
         <v>661</v>
@@ -9850,7 +9881,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B337" t="s">
         <v>661</v>
@@ -9864,7 +9895,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B338" t="s">
         <v>661</v>
@@ -9878,7 +9909,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B339" t="s">
         <v>661</v>
@@ -9892,10 +9923,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B340" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C340" t="s">
         <v>662</v>
@@ -9906,24 +9937,24 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B341" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C341" t="s">
-        <v>150</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>6</v>
+        <v>662</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B342" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C342" t="s">
         <v>150</v>
@@ -9934,7 +9965,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B343" t="s">
         <v>673</v>
@@ -9948,7 +9979,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B344" t="s">
         <v>673</v>
@@ -9962,7 +9993,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B345" t="s">
         <v>673</v>
@@ -9976,7 +10007,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B346" t="s">
         <v>673</v>
@@ -9990,7 +10021,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B347" t="s">
         <v>673</v>
@@ -10004,7 +10035,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B348" t="s">
         <v>673</v>
@@ -10018,7 +10049,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B349" t="s">
         <v>673</v>
@@ -10032,7 +10063,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B350" t="s">
         <v>673</v>
@@ -10046,7 +10077,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B351" t="s">
         <v>673</v>
@@ -10060,7 +10091,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B352" t="s">
         <v>673</v>
@@ -10074,7 +10105,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B353" t="s">
         <v>673</v>
@@ -10088,7 +10119,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B354" t="s">
         <v>673</v>
@@ -10102,7 +10133,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B355" t="s">
         <v>673</v>
@@ -10116,7 +10147,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B356" t="s">
         <v>673</v>
@@ -10130,7 +10161,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B357" t="s">
         <v>673</v>
@@ -10144,7 +10175,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B358" t="s">
         <v>673</v>
@@ -10158,7 +10189,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B359" t="s">
         <v>673</v>
@@ -10172,7 +10203,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B360" t="s">
         <v>673</v>
@@ -10186,7 +10217,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B361" t="s">
         <v>673</v>
@@ -10200,7 +10231,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B362" t="s">
         <v>673</v>
@@ -10214,7 +10245,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B363" t="s">
         <v>673</v>
@@ -10228,7 +10259,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B364" t="s">
         <v>673</v>
@@ -10242,7 +10273,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B365" t="s">
         <v>673</v>
@@ -10256,7 +10287,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B366" t="s">
         <v>673</v>
@@ -10270,7 +10301,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B367" t="s">
         <v>673</v>
@@ -10284,7 +10315,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B368" t="s">
         <v>673</v>
@@ -10298,7 +10329,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B369" t="s">
         <v>673</v>
@@ -10312,7 +10343,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B370" t="s">
         <v>673</v>
@@ -10326,7 +10357,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B371" t="s">
         <v>673</v>
@@ -10340,7 +10371,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B372" t="s">
         <v>673</v>
@@ -10354,7 +10385,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B373" t="s">
         <v>673</v>
@@ -10368,7 +10399,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B374" t="s">
         <v>673</v>
@@ -10382,7 +10413,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B375" t="s">
         <v>673</v>
@@ -10396,7 +10427,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B376" t="s">
         <v>673</v>
@@ -10410,7 +10441,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B377" t="s">
         <v>673</v>
@@ -10424,7 +10455,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B378" t="s">
         <v>673</v>
@@ -10438,7 +10469,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B379" t="s">
         <v>673</v>
@@ -10452,7 +10483,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B380" t="s">
         <v>673</v>
@@ -10466,7 +10497,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B381" t="s">
         <v>673</v>
@@ -10479,8 +10510,8 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>713</v>
+      <c r="A382" t="s">
+        <v>712</v>
       </c>
       <c r="B382" t="s">
         <v>673</v>
@@ -10493,8 +10524,8 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>714</v>
+      <c r="A383" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="B383" t="s">
         <v>673</v>
@@ -10508,7 +10539,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B384" t="s">
         <v>673</v>
@@ -10522,7 +10553,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B385" t="s">
         <v>673</v>
@@ -10536,7 +10567,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B386" t="s">
         <v>673</v>
@@ -10550,7 +10581,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B387" t="s">
         <v>673</v>
@@ -10564,7 +10595,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B388" t="s">
         <v>673</v>
@@ -10577,36 +10608,36 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="9" t="s">
+      <c r="A389" t="s">
+        <v>719</v>
+      </c>
+      <c r="B389" t="s">
+        <v>673</v>
+      </c>
+      <c r="C389" t="s">
+        <v>150</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B390" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="D389" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>722</v>
-      </c>
-      <c r="B390" t="s">
-        <v>723</v>
-      </c>
-      <c r="C390" t="s">
-        <v>723</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>724</v>
+      <c r="D390" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B391" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C391" t="s">
         <v>723</v>
@@ -10617,10 +10648,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B392" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C392" t="s">
         <v>723</v>
@@ -10631,24 +10662,24 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B393" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C393" t="s">
-        <v>150</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>6</v>
+        <v>723</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B394" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C394" t="s">
         <v>150</v>
@@ -10659,10 +10690,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B395" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C395" t="s">
         <v>150</v>
@@ -10673,63 +10704,63 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B396" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C396" t="s">
-        <v>737</v>
-      </c>
-      <c r="D396" s="5" t="s">
-        <v>738</v>
+        <v>150</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>735</v>
+      </c>
+      <c r="B397" t="s">
+        <v>736</v>
+      </c>
+      <c r="C397" t="s">
+        <v>737</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>739</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>740</v>
       </c>
-      <c r="C397" t="s">
-        <v>150</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="9" t="s">
+      <c r="C398" t="s">
+        <v>150</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B399" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D398" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>743</v>
-      </c>
-      <c r="B399" t="s">
-        <v>744</v>
-      </c>
-      <c r="C399" t="s">
-        <v>745</v>
-      </c>
-      <c r="D399" s="5" t="s">
-        <v>746</v>
+      <c r="D399" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B400" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C400" t="s">
         <v>745</v>
@@ -10740,49 +10771,49 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B401" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C401" t="s">
-        <v>150</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>6</v>
+        <v>745</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B402" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C402" t="s">
-        <v>218</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>219</v>
+        <v>150</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B403" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C403" t="s">
-        <v>756</v>
+        <v>218</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>757</v>
+        <v>219</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B404" t="s">
         <v>755</v>
@@ -10796,7 +10827,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B405" t="s">
         <v>755</v>
@@ -10810,10 +10841,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B406" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C406" t="s">
         <v>756</v>
@@ -10824,10 +10855,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B407" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C407" t="s">
         <v>756</v>
@@ -10838,66 +10869,66 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B408" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C408" t="s">
-        <v>766</v>
-      </c>
-      <c r="D408" s="5" t="s">
-        <v>767</v>
+        <v>756</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B409" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C409" t="s">
-        <v>150</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>6</v>
+        <v>766</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>768</v>
+      </c>
+      <c r="B410" t="s">
+        <v>769</v>
+      </c>
+      <c r="C410" t="s">
+        <v>150</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
         <v>770</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B411" t="s">
         <v>771</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C411" t="s">
         <v>772</v>
       </c>
-      <c r="D410" s="5" t="s">
+      <c r="D411" s="5" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="10" t="s">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B412" s="9" t="s">
         <v>775</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>776</v>
-      </c>
-      <c r="B412" t="s">
-        <v>777</v>
-      </c>
-      <c r="C412" t="s">
-        <v>150</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>6</v>
@@ -10905,7 +10936,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B413" t="s">
         <v>777</v>
@@ -10919,10 +10950,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B414" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C414" t="s">
         <v>150</v>
@@ -10933,7 +10964,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B415" t="s">
         <v>780</v>
@@ -10947,7 +10978,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B416" t="s">
         <v>780</v>
@@ -10961,7 +10992,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B417" t="s">
         <v>780</v>
@@ -10975,7 +11006,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B418" t="s">
         <v>780</v>
@@ -10989,10 +11020,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B419" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C419" t="s">
         <v>150</v>
@@ -11003,10 +11034,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B420" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C420" t="s">
         <v>150</v>
@@ -11017,7 +11048,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B421" t="s">
         <v>788</v>
@@ -11031,7 +11062,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B422" t="s">
         <v>788</v>
@@ -11045,7 +11076,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B423" t="s">
         <v>788</v>
@@ -11059,10 +11090,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B424" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C424" t="s">
         <v>150</v>
@@ -11073,10 +11104,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B425" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C425" t="s">
         <v>150</v>
@@ -11087,10 +11118,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B426" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C426" t="s">
         <v>150</v>
@@ -11101,10 +11132,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B427" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C427" t="s">
         <v>150</v>
@@ -11115,52 +11146,52 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B428" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C428" t="s">
-        <v>802</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>803</v>
+        <v>150</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B429" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C429" t="s">
-        <v>806</v>
-      </c>
-      <c r="D429" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B430" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C430" t="s">
-        <v>150</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>6</v>
+        <v>806</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B431" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C431" t="s">
         <v>150</v>
@@ -11171,24 +11202,24 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B432" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C432" t="s">
-        <v>814</v>
-      </c>
-      <c r="D432" s="5" t="s">
-        <v>815</v>
+        <v>150</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B433" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C433" t="s">
         <v>814</v>
@@ -11199,10 +11230,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B434" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C434" t="s">
         <v>814</v>
@@ -11213,7 +11244,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B435" t="s">
         <v>819</v>
@@ -11227,7 +11258,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B436" t="s">
         <v>819</v>
@@ -11241,7 +11272,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B437" t="s">
         <v>819</v>
@@ -11255,7 +11286,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B438" t="s">
         <v>819</v>
@@ -11269,37 +11300,37 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B439" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C439" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>824</v>
+      </c>
+      <c r="B440" t="s">
+        <v>825</v>
+      </c>
+      <c r="C440" t="s">
+        <v>826</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
         <v>828</v>
       </c>
-      <c r="B440" t="s">
-        <v>829</v>
-      </c>
-      <c r="C440" t="s">
-        <v>830</v>
-      </c>
-      <c r="D440" s="5" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="B441" s="11" t="s">
+      <c r="B441" t="s">
         <v>829</v>
       </c>
       <c r="C441" t="s">
@@ -11310,22 +11341,22 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>833</v>
-      </c>
-      <c r="B442" t="s">
-        <v>834</v>
+      <c r="A442" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B442" s="11" t="s">
+        <v>829</v>
       </c>
       <c r="C442" t="s">
-        <v>835</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B443" t="s">
         <v>834</v>
@@ -11339,7 +11370,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B444" t="s">
         <v>834</v>
@@ -11353,32 +11384,32 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1549</v>
+        <v>838</v>
       </c>
       <c r="B445" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D445" s="17" t="s">
-        <v>1551</v>
+        <v>834</v>
+      </c>
+      <c r="C445" t="s">
+        <v>835</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>839</v>
+        <v>1549</v>
       </c>
       <c r="B446" t="s">
-        <v>840</v>
-      </c>
-      <c r="C446" t="s">
-        <v>841</v>
-      </c>
-      <c r="D446" s="5" t="s">
-        <v>842</v>
+        <v>1550</v>
+      </c>
+      <c r="D446" s="17" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B447" t="s">
         <v>840</v>
@@ -11392,24 +11423,24 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B448" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C448" t="s">
-        <v>150</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>6</v>
+        <v>841</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B449" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C449" t="s">
         <v>150</v>
@@ -11420,10 +11451,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B450" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C450" t="s">
         <v>150</v>
@@ -11434,10 +11465,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B451" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C451" t="s">
         <v>150</v>
@@ -11448,10 +11479,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B452" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C452" t="s">
         <v>150</v>
@@ -11462,21 +11493,21 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B453" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C453" t="s">
-        <v>856</v>
-      </c>
-      <c r="D453" s="5" t="s">
-        <v>857</v>
+        <v>150</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B454" t="s">
         <v>855</v>
@@ -11490,21 +11521,21 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B455" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C455" t="s">
-        <v>860</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>861</v>
+        <v>856</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B456" t="s">
         <v>860</v>
@@ -11518,7 +11549,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B457" t="s">
         <v>860</v>
@@ -11532,7 +11563,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B458" t="s">
         <v>860</v>
@@ -11546,7 +11577,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B459" t="s">
         <v>860</v>
@@ -11560,7 +11591,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B460" t="s">
         <v>860</v>
@@ -11574,7 +11605,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B461" t="s">
         <v>860</v>
@@ -11588,7 +11619,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B462" t="s">
         <v>860</v>
@@ -11602,7 +11633,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B463" t="s">
         <v>860</v>
@@ -11616,7 +11647,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B464" t="s">
         <v>860</v>
@@ -11630,7 +11661,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B465" t="s">
         <v>860</v>
@@ -11644,7 +11675,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B466" t="s">
         <v>860</v>
@@ -11658,10 +11689,10 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B467" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="C467" t="s">
         <v>860</v>
@@ -11672,7 +11703,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B468" t="s">
         <v>874</v>
@@ -11686,10 +11717,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B469" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C469" t="s">
         <v>860</v>
@@ -11700,24 +11731,24 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B470" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C470" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B471" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C471" t="s">
         <v>880</v>
@@ -11728,10 +11759,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B472" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C472" t="s">
         <v>880</v>
@@ -11742,10 +11773,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B473" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C473" t="s">
         <v>880</v>
@@ -11756,7 +11787,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B474" t="s">
         <v>887</v>
@@ -11770,7 +11801,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B475" t="s">
         <v>887</v>
@@ -11783,78 +11814,78 @@
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="15" t="s">
+      <c r="A476" t="s">
+        <v>889</v>
+      </c>
+      <c r="B476" t="s">
+        <v>887</v>
+      </c>
+      <c r="C476" t="s">
+        <v>880</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B477" t="s">
         <v>891</v>
       </c>
-      <c r="C476" s="15" t="s">
+      <c r="C477" s="15" t="s">
         <v>1567</v>
       </c>
-      <c r="D476" s="3" t="s">
+      <c r="D477" s="3" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
         <v>892</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B478" t="s">
         <v>893</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C478" t="s">
         <v>894</v>
       </c>
-      <c r="D477" s="3" t="s">
+      <c r="D478" s="3" t="s">
         <v>895</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="9" t="s">
-        <v>896</v>
-      </c>
-      <c r="B478" s="12" t="s">
-        <v>897</v>
-      </c>
-      <c r="C478" t="s">
-        <v>898</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B479" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="C479" t="s">
+        <v>898</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B480" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C480" t="s">
         <v>902</v>
       </c>
-      <c r="D479" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>903</v>
-      </c>
-      <c r="B480" t="s">
-        <v>904</v>
-      </c>
-      <c r="C480" t="s">
-        <v>904</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>905</v>
+      <c r="D480" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B481" t="s">
         <v>904</v>
@@ -11868,10 +11899,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B482" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C482" t="s">
         <v>904</v>
@@ -11881,33 +11912,33 @@
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="9" t="s">
+      <c r="A483" t="s">
+        <v>907</v>
+      </c>
+      <c r="B483" t="s">
+        <v>908</v>
+      </c>
+      <c r="C483" t="s">
+        <v>904</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="B483" s="10" t="s">
+      <c r="B484" s="10" t="s">
         <v>910</v>
       </c>
-      <c r="D483" s="5" t="s">
+      <c r="D484" s="5" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>912</v>
-      </c>
-      <c r="B484" t="s">
-        <v>913</v>
-      </c>
-      <c r="C484" t="s">
-        <v>904</v>
-      </c>
-      <c r="D484" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B485" t="s">
         <v>913</v>
@@ -11921,7 +11952,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B486" t="s">
         <v>913</v>
@@ -11935,7 +11966,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B487" t="s">
         <v>913</v>
@@ -11949,74 +11980,74 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1565</v>
+        <v>916</v>
       </c>
       <c r="B488" t="s">
         <v>913</v>
       </c>
-      <c r="D488" s="17" t="s">
+      <c r="C488" t="s">
+        <v>904</v>
+      </c>
+      <c r="D488" s="5" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>917</v>
+        <v>1565</v>
       </c>
       <c r="B489" t="s">
-        <v>918</v>
-      </c>
-      <c r="C489" t="s">
-        <v>150</v>
-      </c>
-      <c r="D489" s="2" t="s">
-        <v>6</v>
+        <v>913</v>
+      </c>
+      <c r="D489" s="17" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B490" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C490" t="s">
-        <v>921</v>
-      </c>
-      <c r="D490" s="5" t="s">
-        <v>922</v>
+        <v>150</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B491" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C491" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B492" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C492" t="s">
-        <v>929</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>930</v>
+        <v>925</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B493" t="s">
         <v>928</v>
@@ -12029,8 +12060,8 @@
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
-        <v>932</v>
+      <c r="A494" t="s">
+        <v>931</v>
       </c>
       <c r="B494" t="s">
         <v>928</v>
@@ -12043,22 +12074,22 @@
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>933</v>
+      <c r="A495" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="B495" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C495" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B496" t="s">
         <v>934</v>
@@ -12072,7 +12103,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B497" t="s">
         <v>934</v>
@@ -12086,7 +12117,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B498" t="s">
         <v>934</v>
@@ -12100,7 +12131,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B499" t="s">
         <v>934</v>
@@ -12113,8 +12144,8 @@
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>941</v>
+      <c r="A500" t="s">
+        <v>940</v>
       </c>
       <c r="B500" t="s">
         <v>934</v>
@@ -12127,8 +12158,8 @@
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>942</v>
+      <c r="A501" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="B501" t="s">
         <v>934</v>
@@ -12136,13 +12167,13 @@
       <c r="C501" t="s">
         <v>935</v>
       </c>
-      <c r="D501" s="4" t="s">
+      <c r="D501" s="3" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B502" t="s">
         <v>934</v>
@@ -12150,13 +12181,13 @@
       <c r="C502" t="s">
         <v>935</v>
       </c>
-      <c r="D502" s="3" t="s">
+      <c r="D502" s="4" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B503" t="s">
         <v>934</v>
@@ -12170,10 +12201,10 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B504" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="C504" t="s">
         <v>935</v>
@@ -12184,7 +12215,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B505" t="s">
         <v>946</v>
@@ -12198,10 +12229,10 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B506" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C506" t="s">
         <v>935</v>
@@ -12212,10 +12243,10 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B507" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C507" t="s">
         <v>935</v>
@@ -12226,10 +12257,10 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B508" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C508" t="s">
         <v>935</v>
@@ -12240,10 +12271,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B509" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C509" t="s">
         <v>935</v>
@@ -12254,21 +12285,21 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B510" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C510" t="s">
-        <v>958</v>
-      </c>
-      <c r="D510" s="5" t="s">
-        <v>959</v>
+        <v>935</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B511" t="s">
         <v>957</v>
@@ -12282,21 +12313,21 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B512" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C512" t="s">
-        <v>963</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>964</v>
+        <v>958</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B513" t="s">
         <v>962</v>
@@ -12310,7 +12341,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B514" t="s">
         <v>962</v>
@@ -12324,7 +12355,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B515" t="s">
         <v>962</v>
@@ -12337,8 +12368,8 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
-        <v>968</v>
+      <c r="A516" t="s">
+        <v>967</v>
       </c>
       <c r="B516" t="s">
         <v>962</v>
@@ -12351,8 +12382,8 @@
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>969</v>
+      <c r="A517" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="B517" t="s">
         <v>962</v>
@@ -12366,66 +12397,66 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B518" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="C518" t="s">
-        <v>150</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>6</v>
+        <v>963</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B519" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C519" t="s">
-        <v>974</v>
-      </c>
-      <c r="D519" s="5" t="s">
-        <v>975</v>
+        <v>150</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B520" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C520" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D520" s="5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B521" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C521" t="s">
-        <v>150</v>
-      </c>
-      <c r="D521" s="2" t="s">
-        <v>6</v>
+        <v>978</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B522" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C522" t="s">
         <v>150</v>
@@ -12436,10 +12467,10 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B523" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C523" t="s">
         <v>150</v>
@@ -12450,10 +12481,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B524" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C524" t="s">
         <v>150</v>
@@ -12464,38 +12495,38 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B525" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C525" t="s">
-        <v>990</v>
-      </c>
-      <c r="D525" s="5" t="s">
-        <v>991</v>
+        <v>150</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B526" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C526" t="s">
-        <v>150</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>6</v>
+        <v>990</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B527" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C527" t="s">
         <v>150</v>
@@ -12506,10 +12537,10 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B528" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C528" t="s">
         <v>150</v>
@@ -12520,52 +12551,52 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B529" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C529" t="s">
-        <v>990</v>
-      </c>
-      <c r="D529" s="4" t="s">
-        <v>991</v>
+        <v>150</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B530" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C530" t="s">
-        <v>150</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>6</v>
+        <v>990</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B531" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C531" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D531" s="5" t="s">
-        <v>1005</v>
+        <v>150</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B532" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C532" t="s">
         <v>1004</v>
@@ -12576,38 +12607,38 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B533" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C533" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D533" s="5" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B534" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C534" t="s">
-        <v>150</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>6</v>
+        <v>1010</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B535" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C535" t="s">
         <v>150</v>
@@ -12618,38 +12649,38 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C536" t="s">
+        <v>150</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
         <v>1016</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B537" t="s">
         <v>1017</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C537" t="s">
         <v>1018</v>
       </c>
-      <c r="D536" s="5" t="s">
+      <c r="D537" s="5" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B538" t="s">
         <v>1021</v>
-      </c>
-      <c r="C537" t="s">
-        <v>150</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1023</v>
       </c>
       <c r="C538" t="s">
         <v>150</v>
@@ -12660,10 +12691,10 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B539" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C539" t="s">
         <v>150</v>
@@ -12674,10 +12705,10 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B540" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C540" t="s">
         <v>150</v>
@@ -12688,35 +12719,35 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B541" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C541" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D541" s="3" t="s">
-        <v>1031</v>
+        <v>150</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B542" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C542" t="s">
-        <v>150</v>
-      </c>
-      <c r="D542" s="5" t="s">
-        <v>6</v>
+        <v>1030</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B543" t="s">
         <v>1033</v>
@@ -12724,13 +12755,13 @@
       <c r="C543" t="s">
         <v>150</v>
       </c>
-      <c r="D543" s="2" t="s">
+      <c r="D543" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B544" t="s">
         <v>1033</v>
@@ -12744,7 +12775,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B545" t="s">
         <v>1033</v>
@@ -12758,7 +12789,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B546" t="s">
         <v>1033</v>
@@ -12772,7 +12803,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B547" t="s">
         <v>1033</v>
@@ -12786,7 +12817,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B548" t="s">
         <v>1033</v>
@@ -12800,21 +12831,21 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B549" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C549" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D549" s="5" t="s">
-        <v>1043</v>
+        <v>150</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B550" t="s">
         <v>1041</v>
@@ -12828,49 +12859,49 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B551" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C551" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>6</v>
+        <v>1042</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B552" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C552" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D552" s="5" t="s">
-        <v>1051</v>
+        <v>1047</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B553" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C553" t="s">
-        <v>150</v>
-      </c>
-      <c r="D553" s="2" t="s">
-        <v>6</v>
+        <v>1050</v>
+      </c>
+      <c r="D553" s="5" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B554" t="s">
         <v>1053</v>
@@ -12884,38 +12915,38 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C555" t="s">
+        <v>150</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
         <v>1055</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B556" t="s">
         <v>1056</v>
       </c>
-      <c r="C555" t="s">
-        <v>150</v>
-      </c>
-      <c r="D555" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+      <c r="C556" t="s">
+        <v>150</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B557" t="s">
         <v>1058</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D556" s="5" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1062</v>
       </c>
       <c r="C557" t="s">
         <v>1059</v>
@@ -12926,7 +12957,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B558" t="s">
         <v>1062</v>
@@ -12940,63 +12971,63 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B559" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C559" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D559" s="5" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B560" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C560" t="s">
-        <v>150</v>
-      </c>
-      <c r="D560" s="2" t="s">
-        <v>6</v>
+        <v>1066</v>
+      </c>
+      <c r="D560" s="5" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B561" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C561" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D561" s="5" t="s">
-        <v>1073</v>
+        <v>150</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B562" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C562" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D562" s="5" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B563" t="s">
         <v>1075</v>
@@ -13010,7 +13041,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B564" t="s">
         <v>1075</v>
@@ -13024,7 +13055,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B565" t="s">
         <v>1075</v>
@@ -13038,10 +13069,10 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B566" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="C566" t="s">
         <v>1076</v>
@@ -13052,35 +13083,35 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B567" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C567" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B568" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C568" t="s">
-        <v>150</v>
-      </c>
-      <c r="D568" s="2" t="s">
-        <v>6</v>
+        <v>1085</v>
+      </c>
+      <c r="D568" s="5" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B569" t="s">
         <v>1088</v>
@@ -13094,10 +13125,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B570" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C570" t="s">
         <v>150</v>
@@ -13108,7 +13139,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B571" t="s">
         <v>1091</v>
@@ -13122,10 +13153,10 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B572" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C572" t="s">
         <v>150</v>
@@ -13136,7 +13167,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B573" t="s">
         <v>1094</v>
@@ -13150,10 +13181,10 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B574" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C574" t="s">
         <v>150</v>
@@ -13164,10 +13195,10 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B575" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C575" t="s">
         <v>150</v>
@@ -13178,10 +13209,10 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B576" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C576" t="s">
         <v>150</v>
@@ -13192,10 +13223,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B577" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C577" t="s">
         <v>150</v>
@@ -13206,10 +13237,10 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B578" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C578" t="s">
         <v>150</v>
@@ -13220,10 +13251,10 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B579" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C579" t="s">
         <v>150</v>
@@ -13234,10 +13265,10 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B580" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C580" t="s">
         <v>150</v>
@@ -13248,21 +13279,21 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B581" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C581" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D581" s="3" t="s">
-        <v>1113</v>
+        <v>150</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B582" t="s">
         <v>1111</v>
@@ -13276,7 +13307,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B583" t="s">
         <v>1111</v>
@@ -13290,7 +13321,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B584" t="s">
         <v>1111</v>
@@ -13304,7 +13335,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B585" t="s">
         <v>1111</v>
@@ -13318,10 +13349,10 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B586" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="C586" t="s">
         <v>1112</v>
@@ -13332,7 +13363,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B587" t="s">
         <v>1119</v>
@@ -13346,7 +13377,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B588" t="s">
         <v>1119</v>
@@ -13360,35 +13391,35 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B589" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C589" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D589" s="5" t="s">
-        <v>1125</v>
+        <v>1112</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B590" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C590" t="s">
         <v>1124</v>
       </c>
-      <c r="D590" s="3" t="s">
+      <c r="D590" s="5" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B591" t="s">
         <v>1127</v>
@@ -13402,7 +13433,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B592" t="s">
         <v>1127</v>
@@ -13416,7 +13447,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B593" t="s">
         <v>1127</v>
@@ -13430,7 +13461,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B594" t="s">
         <v>1127</v>
@@ -13444,7 +13475,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B595" t="s">
         <v>1127</v>
@@ -13458,7 +13489,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B596" t="s">
         <v>1127</v>
@@ -13472,10 +13503,10 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B597" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C597" t="s">
         <v>1124</v>
@@ -13486,10 +13517,10 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B598" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C598" t="s">
         <v>1124</v>
@@ -13500,24 +13531,24 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B599" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C599" t="s">
-        <v>150</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>6</v>
+        <v>1124</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B600" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C600" t="s">
         <v>150</v>
@@ -13528,10 +13559,10 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B601" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C601" t="s">
         <v>150</v>
@@ -13542,10 +13573,10 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B602" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C602" t="s">
         <v>150</v>
@@ -13556,7 +13587,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B603" t="s">
         <v>1145</v>
@@ -13570,49 +13601,49 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C604" t="s">
+        <v>150</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>1147</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B605" t="s">
         <v>1148</v>
       </c>
-      <c r="C604" t="s">
-        <v>150</v>
-      </c>
-      <c r="D604" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+      <c r="C605" t="s">
+        <v>150</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B606" t="s">
         <v>1150</v>
       </c>
-      <c r="C605" t="s">
-        <v>150</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1152</v>
-      </c>
       <c r="C606" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D606" s="5" t="s">
-        <v>1154</v>
+        <v>150</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B607" t="s">
         <v>1152</v>
@@ -13626,24 +13657,24 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B608" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C608" t="s">
-        <v>150</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>6</v>
+        <v>1153</v>
+      </c>
+      <c r="D608" s="5" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B609" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C609" t="s">
         <v>150</v>
@@ -13654,38 +13685,38 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C610" t="s">
+        <v>150</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
         <v>1160</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B611" t="s">
         <v>1161</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C611" t="s">
         <v>1162</v>
       </c>
-      <c r="D610" s="5" t="s">
+      <c r="D611" s="5" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A611" s="10" t="s">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B612" s="9" t="s">
         <v>1165</v>
-      </c>
-      <c r="D611" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C612" t="s">
-        <v>150</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>6</v>
@@ -13693,63 +13724,63 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B613" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C613" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D613" s="3" t="s">
-        <v>1171</v>
+        <v>150</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B614" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C614" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D614" s="5" t="s">
-        <v>1175</v>
+        <v>1170</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B615" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C615" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="D615" s="5" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B616" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C616" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D616" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B617" t="s">
         <v>1181</v>
@@ -13763,7 +13794,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B618" t="s">
         <v>1181</v>
@@ -13777,7 +13808,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B619" t="s">
         <v>1181</v>
@@ -13790,8 +13821,8 @@
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
-        <v>1186</v>
+      <c r="A620" t="s">
+        <v>1185</v>
       </c>
       <c r="B620" t="s">
         <v>1181</v>
@@ -13804,8 +13835,8 @@
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
-        <v>1187</v>
+      <c r="A621" s="1" t="s">
+        <v>1186</v>
       </c>
       <c r="B621" t="s">
         <v>1181</v>
@@ -13819,7 +13850,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B622" t="s">
         <v>1181</v>
@@ -13832,11 +13863,11 @@
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
-        <v>1189</v>
+      <c r="A623" t="s">
+        <v>1188</v>
       </c>
       <c r="B623" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C623" t="s">
         <v>1181</v>
@@ -13846,22 +13877,22 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>1191</v>
+      <c r="A624" s="1" t="s">
+        <v>1189</v>
       </c>
       <c r="B624" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C624" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="D624" s="5" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B625" t="s">
         <v>1192</v>
@@ -13875,7 +13906,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B626" t="s">
         <v>1192</v>
@@ -13889,7 +13920,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B627" t="s">
         <v>1192</v>
@@ -13897,44 +13928,44 @@
       <c r="C627" t="s">
         <v>1193</v>
       </c>
-      <c r="D627" s="3" t="s">
+      <c r="D627" s="5" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B628" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C628" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D628" s="5" t="s">
-        <v>1201</v>
+        <v>1193</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B629" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C629" t="s">
-        <v>150</v>
-      </c>
-      <c r="D629" s="2" t="s">
-        <v>6</v>
+        <v>1200</v>
+      </c>
+      <c r="D629" s="5" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B630" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C630" t="s">
         <v>150</v>
@@ -13945,10 +13976,10 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B631" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C631" t="s">
         <v>150</v>
@@ -13959,10 +13990,10 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B632" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C632" t="s">
         <v>150</v>
@@ -13973,10 +14004,10 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B633" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C633" t="s">
         <v>150</v>
@@ -13987,49 +14018,49 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B634" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C634" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D634" s="5" t="s">
-        <v>1215</v>
+        <v>150</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B635" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C635" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="D635" s="5" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B636" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C636" t="s">
         <v>1218</v>
       </c>
-      <c r="D636" s="3" t="s">
+      <c r="D636" s="5" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B637" t="s">
         <v>1221</v>
@@ -14043,7 +14074,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B638" t="s">
         <v>1221</v>
@@ -14057,7 +14088,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B639" t="s">
         <v>1221</v>
@@ -14071,7 +14102,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B640" t="s">
         <v>1221</v>
@@ -14085,35 +14116,35 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1557</v>
+        <v>1225</v>
       </c>
       <c r="B641" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D641" s="17" t="s">
-        <v>1556</v>
+        <v>1221</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1226</v>
+        <v>1557</v>
       </c>
       <c r="B642" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C642" t="s">
-        <v>150</v>
-      </c>
-      <c r="D642" s="2" t="s">
-        <v>6</v>
+        <v>1555</v>
+      </c>
+      <c r="D642" s="17" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B643" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C643" t="s">
         <v>150</v>
@@ -14124,10 +14155,10 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B644" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C644" t="s">
         <v>150</v>
@@ -14138,10 +14169,10 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B645" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C645" t="s">
         <v>150</v>
@@ -14152,21 +14183,21 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B646" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C646" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D646" s="5" t="s">
-        <v>1237</v>
+        <v>150</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B647" t="s">
         <v>1235</v>
@@ -14180,7 +14211,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B648" t="s">
         <v>1235</v>
@@ -14194,7 +14225,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B649" t="s">
         <v>1235</v>
@@ -14208,21 +14239,21 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B650" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="C650" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D650" s="3" t="s">
-        <v>1179</v>
+        <v>1236</v>
+      </c>
+      <c r="D650" s="5" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B651" t="s">
         <v>1242</v>
@@ -14236,35 +14267,35 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B652" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C652" t="s">
-        <v>150</v>
-      </c>
-      <c r="D652" s="2" t="s">
-        <v>6</v>
+        <v>1178</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B653" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C653" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D653" s="3" t="s">
-        <v>1249</v>
+        <v>150</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B654" t="s">
         <v>1247</v>
@@ -14278,10 +14309,10 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B655" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="C655" t="s">
         <v>1248</v>
@@ -14292,10 +14323,10 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B656" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C656" t="s">
         <v>1248</v>
@@ -14306,7 +14337,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B657" t="s">
         <v>1254</v>
@@ -14320,10 +14351,10 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B658" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C658" t="s">
         <v>1248</v>
@@ -14334,10 +14365,10 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B659" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C659" t="s">
         <v>1248</v>
@@ -14348,38 +14379,38 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B660" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C660" t="s">
-        <v>150</v>
-      </c>
-      <c r="D660" s="2" t="s">
-        <v>6</v>
+        <v>1248</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B661" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C661" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D661" s="5" t="s">
-        <v>1265</v>
+        <v>150</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B662" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C662" t="s">
         <v>1264</v>
@@ -14390,24 +14421,24 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B663" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C663" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="D663" s="5" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B664" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C664" t="s">
         <v>1270</v>
@@ -14418,74 +14449,74 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B665" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C665" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="D665" s="5" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B666" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C666" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="D666" s="5" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
         <v>1282</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B668" t="s">
         <v>1283</v>
       </c>
-      <c r="C667" t="s">
-        <v>150</v>
-      </c>
-      <c r="D667" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A668" s="10" t="s">
+      <c r="C668" t="s">
+        <v>150</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" s="10" t="s">
         <v>1284</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B669" s="9" t="s">
         <v>1285</v>
       </c>
-      <c r="D668" s="5" t="s">
+      <c r="D669" s="5" t="s">
         <v>1286</v>
-      </c>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D669" s="3" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B670" t="s">
         <v>1288</v>
@@ -14499,7 +14530,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B671" t="s">
         <v>1288</v>
@@ -14513,7 +14544,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B672" t="s">
         <v>1288</v>
@@ -14527,7 +14558,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B673" t="s">
         <v>1288</v>
@@ -14541,21 +14572,21 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B674" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="C674" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="D674" s="3" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B675" t="s">
         <v>1296</v>
@@ -14569,21 +14600,21 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B676" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C676" t="s">
-        <v>904</v>
-      </c>
-      <c r="D676" s="5" t="s">
-        <v>905</v>
+        <v>1297</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B677" t="s">
         <v>1301</v>
@@ -14597,10 +14628,10 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B678" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C678" t="s">
         <v>904</v>
@@ -14611,24 +14642,24 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B679" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C679" t="s">
-        <v>150</v>
-      </c>
-      <c r="D679" s="2" t="s">
-        <v>6</v>
+        <v>904</v>
+      </c>
+      <c r="D679" s="5" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B680" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C680" t="s">
         <v>150</v>
@@ -14639,21 +14670,21 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B681" t="s">
-        <v>192</v>
+        <v>1308</v>
       </c>
       <c r="C681" t="s">
-        <v>192</v>
-      </c>
-      <c r="D681" s="3" t="s">
-        <v>193</v>
+        <v>150</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B682" t="s">
         <v>192</v>
@@ -14667,49 +14698,49 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B683" t="s">
-        <v>1312</v>
+        <v>192</v>
       </c>
       <c r="C683" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D683" s="5" t="s">
-        <v>1314</v>
+        <v>192</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B684" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C684" t="s">
-        <v>150</v>
-      </c>
-      <c r="D684" s="2" t="s">
-        <v>6</v>
+        <v>1313</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B685" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C685" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D685" s="3" t="s">
-        <v>1320</v>
+        <v>150</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B686" t="s">
         <v>1318</v>
@@ -14723,7 +14754,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B687" t="s">
         <v>1318</v>
@@ -14737,7 +14768,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B688" t="s">
         <v>1318</v>
@@ -14751,7 +14782,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B689" t="s">
         <v>1318</v>
@@ -14765,7 +14796,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B690" t="s">
         <v>1318</v>
@@ -14773,27 +14804,27 @@
       <c r="C690" t="s">
         <v>1319</v>
       </c>
-      <c r="D690" s="5" t="s">
+      <c r="D690" s="3" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B691" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="C691" t="s">
         <v>1319</v>
       </c>
-      <c r="D691" s="3" t="s">
+      <c r="D691" s="5" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B692" t="s">
         <v>1327</v>
@@ -14807,21 +14838,21 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B693" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C693" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D693" s="5" t="s">
-        <v>1332</v>
+        <v>1319</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B694" t="s">
         <v>1330</v>
@@ -14835,7 +14866,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B695" t="s">
         <v>1330</v>
@@ -14849,24 +14880,24 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B696" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C696" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B697" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C697" t="s">
         <v>1337</v>
@@ -14877,49 +14908,49 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B698" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C698" t="s">
-        <v>150</v>
-      </c>
-      <c r="D698" s="2" t="s">
-        <v>6</v>
+        <v>1337</v>
+      </c>
+      <c r="D698" s="5" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B699" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C699" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D699" s="5" t="s">
-        <v>1346</v>
+        <v>150</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B700" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C700" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D700" s="5" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B701" t="s">
         <v>1348</v>
@@ -14933,21 +14964,21 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B702" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="C702" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D702" s="3" t="s">
-        <v>1355</v>
+        <v>1349</v>
+      </c>
+      <c r="D702" s="5" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="B703" t="s">
         <v>1353</v>
@@ -14961,21 +14992,21 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B704" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="C704" t="s">
-        <v>1337</v>
+        <v>1354</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>1338</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B705" t="s">
         <v>1358</v>
@@ -14983,13 +15014,13 @@
       <c r="C705" t="s">
         <v>1337</v>
       </c>
-      <c r="D705" s="5" t="s">
+      <c r="D705" s="3" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B706" t="s">
         <v>1358</v>
@@ -15002,33 +15033,33 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A707" s="9" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B707" s="9" t="s">
+      <c r="A707" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B707" t="s">
         <v>1358</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1337</v>
       </c>
       <c r="D707" s="5" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B708" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D708" s="3" t="s">
+      <c r="A708" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B708" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D708" s="5" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B709" t="s">
         <v>1363</v>
@@ -15042,24 +15073,24 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B710" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C710" t="s">
-        <v>150</v>
-      </c>
-      <c r="D710" s="2" t="s">
-        <v>6</v>
+        <v>1337</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B711" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C711" t="s">
         <v>150</v>
@@ -15070,32 +15101,32 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1562</v>
+        <v>1367</v>
       </c>
       <c r="B712" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D712" s="17" t="s">
-        <v>1372</v>
+        <v>1368</v>
+      </c>
+      <c r="C712" t="s">
+        <v>150</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1369</v>
+        <v>1562</v>
       </c>
       <c r="B713" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D713" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D713" s="17" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B714" t="s">
         <v>1370</v>
@@ -15109,7 +15140,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B715" t="s">
         <v>1370</v>
@@ -15123,7 +15154,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B716" t="s">
         <v>1370</v>
@@ -15137,7 +15168,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B717" t="s">
         <v>1370</v>
@@ -15151,7 +15182,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B718" t="s">
         <v>1370</v>
@@ -15165,10 +15196,10 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B719" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="C719" t="s">
         <v>1371</v>
@@ -15179,80 +15210,80 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B720" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C720" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B721" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C721" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D721" s="5" t="s">
-        <v>1387</v>
+        <v>1382</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B722" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C722" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D722" s="3" t="s">
-        <v>1391</v>
+        <v>1386</v>
+      </c>
+      <c r="D722" s="5" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B723" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C723" t="s">
-        <v>150</v>
-      </c>
-      <c r="D723" s="2" t="s">
-        <v>6</v>
+        <v>1390</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B724" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C724" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D724" s="3" t="s">
-        <v>1397</v>
+        <v>150</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B725" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C725" t="s">
         <v>1396</v>
@@ -15263,7 +15294,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B726" t="s">
         <v>1399</v>
@@ -15277,7 +15308,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B727" t="s">
         <v>1399</v>
@@ -15291,7 +15322,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B728" t="s">
         <v>1399</v>
@@ -15305,7 +15336,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B729" t="s">
         <v>1399</v>
@@ -15319,7 +15350,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B730" t="s">
         <v>1399</v>
@@ -15333,7 +15364,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B731" t="s">
         <v>1399</v>
@@ -15347,7 +15378,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B732" t="s">
         <v>1399</v>
@@ -15361,7 +15392,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B733" t="s">
         <v>1399</v>
@@ -15375,7 +15406,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B734" t="s">
         <v>1399</v>
@@ -15389,7 +15420,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B735" t="s">
         <v>1399</v>
@@ -15402,10 +15433,10 @@
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A736" s="9" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B736" s="9" t="s">
+      <c r="A736" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B736" t="s">
         <v>1399</v>
       </c>
       <c r="C736" t="s">
@@ -15416,11 +15447,11 @@
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B737" t="s">
-        <v>1412</v>
+      <c r="A737" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B737" s="9" t="s">
+        <v>1399</v>
       </c>
       <c r="C737" t="s">
         <v>1396</v>
@@ -15431,10 +15462,10 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B738" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C738" t="s">
         <v>1396</v>
@@ -15445,10 +15476,10 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B739" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C739" t="s">
         <v>1396</v>
@@ -15459,7 +15490,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B740" t="s">
         <v>1416</v>
@@ -15473,10 +15504,10 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B741" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C741" t="s">
         <v>1396</v>
@@ -15487,7 +15518,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B742" t="s">
         <v>1419</v>
@@ -15501,10 +15532,10 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B743" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C743" t="s">
         <v>1396</v>
@@ -15515,21 +15546,21 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B744" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C744" t="s">
-        <v>1424</v>
+        <v>1396</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>1425</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B745" t="s">
         <v>1424</v>
@@ -15543,7 +15574,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B746" t="s">
         <v>1424</v>
@@ -15557,21 +15588,21 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B747" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="C747" t="s">
-        <v>150</v>
-      </c>
-      <c r="D747" s="2" t="s">
-        <v>6</v>
+        <v>1424</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B748" t="s">
         <v>1429</v>
@@ -15585,10 +15616,10 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B749" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C749" t="s">
         <v>150</v>
@@ -15599,7 +15630,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B750" s="14" t="s">
         <v>1432</v>
@@ -15613,35 +15644,35 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B751" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B751" s="18" t="s">
         <v>1432</v>
       </c>
-      <c r="D751" s="17" t="s">
-        <v>1548</v>
+      <c r="C751" t="s">
+        <v>150</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1434</v>
+        <v>1547</v>
       </c>
       <c r="B752" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C752" t="s">
-        <v>150</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>6</v>
+        <v>1432</v>
+      </c>
+      <c r="D752" s="17" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B753" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C753" t="s">
         <v>150</v>
@@ -15652,10 +15683,10 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B754" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C754" t="s">
         <v>150</v>
@@ -15666,10 +15697,10 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B755" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C755" t="s">
         <v>150</v>
@@ -15680,10 +15711,10 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B756" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C756" t="s">
         <v>150</v>
@@ -15694,91 +15725,91 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C757" t="s">
+        <v>150</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
         <v>1444</v>
       </c>
-      <c r="B757" t="s">
+      <c r="B758" t="s">
         <v>1445</v>
       </c>
-      <c r="C757" t="s">
-        <v>150</v>
-      </c>
-      <c r="D757" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A758" s="9" t="s">
+      <c r="C758" t="s">
+        <v>150</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B759" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="C758" t="s">
+      <c r="C759" t="s">
         <v>1448</v>
       </c>
-      <c r="D758" s="5" t="s">
+      <c r="D759" s="5" t="s">
         <v>1449</v>
-      </c>
-    </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B759" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D759" s="5" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B760" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C760" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B761" s="18" t="s">
-        <v>1459</v>
+        <v>1454</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1455</v>
       </c>
       <c r="C761" t="s">
-        <v>150</v>
-      </c>
-      <c r="D761" s="2" t="s">
-        <v>6</v>
+        <v>1456</v>
+      </c>
+      <c r="D761" s="5" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1461</v>
+        <v>1458</v>
+      </c>
+      <c r="B762" s="18" t="s">
+        <v>1459</v>
       </c>
       <c r="C762" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D762" s="3" t="s">
-        <v>1463</v>
+        <v>150</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B763" t="s">
         <v>1461</v>
@@ -15792,7 +15823,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B764" t="s">
         <v>1461</v>
@@ -15806,38 +15837,38 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B765" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="C765" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D765" s="5" t="s">
-        <v>1469</v>
+        <v>1462</v>
+      </c>
+      <c r="D765" s="3" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B766" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C766" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D766" s="5" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B767" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C767" t="s">
         <v>1472</v>
@@ -15848,10 +15879,10 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B768" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C768" t="s">
         <v>1472</v>
@@ -15862,21 +15893,21 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B769" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C769" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="D769" s="5" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B770" t="s">
         <v>1479</v>
@@ -15890,80 +15921,80 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B771" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="C771" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="D771" s="5" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B772" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C772" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D772" s="5" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="B773" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C773" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D773" s="5" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B774" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C774" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D774" s="5" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B775" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C775" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D775" s="3" t="s">
-        <v>1502</v>
+        <v>1497</v>
+      </c>
+      <c r="D775" s="5" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B776" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C776" t="s">
         <v>1501</v>
@@ -15974,74 +16005,74 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1563</v>
+        <v>1503</v>
       </c>
       <c r="B777" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D777" s="17" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D777" s="3" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>1505</v>
+        <v>1563</v>
       </c>
       <c r="B778" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C778" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D778" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D778" s="17" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B779" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C779" t="s">
-        <v>150</v>
-      </c>
-      <c r="D779" s="2" t="s">
-        <v>6</v>
+        <v>1501</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B780" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C780" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D780" s="5" t="s">
-        <v>1512</v>
+        <v>150</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B781" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C781" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D781" s="3" t="s">
-        <v>1516</v>
+        <v>1511</v>
+      </c>
+      <c r="D781" s="5" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B782" t="s">
         <v>1514</v>
@@ -16055,38 +16086,38 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B783" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="C783" t="s">
-        <v>150</v>
-      </c>
-      <c r="D783" s="2" t="s">
-        <v>6</v>
+        <v>1515</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B784" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="C784" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D784" s="5" t="s">
-        <v>1523</v>
+        <v>150</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B785" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C785" t="s">
         <v>1522</v>
@@ -16097,52 +16128,52 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B786" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C786" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="D786" s="5" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B787" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C787" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="D787" s="5" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B788" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C788" t="s">
-        <v>150</v>
-      </c>
-      <c r="D788" s="2" t="s">
-        <v>6</v>
+        <v>1532</v>
+      </c>
+      <c r="D788" s="5" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B789" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C789" t="s">
         <v>150</v>
@@ -16153,10 +16184,10 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B790" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C790" t="s">
         <v>150</v>
@@ -16167,10 +16198,10 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B791" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C791" t="s">
         <v>150</v>
@@ -16181,12 +16212,26 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C792" t="s">
+        <v>150</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
         <v>538</v>
       </c>
-      <c r="C792" t="s">
+      <c r="C793" t="s">
         <v>534</v>
       </c>
-      <c r="D792" s="16" t="s">
+      <c r="D793" s="16" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16195,14 +16240,15 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D794">
-    <sortCondition ref="B384:B794"/>
+    <sortCondition ref="B773:B794"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D501" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
-    <hyperlink ref="D529" r:id="rId2" xr:uid="{1FFD7F10-30E1-431E-898A-7FE98CA9E75E}"/>
+    <hyperlink ref="D502" r:id="rId1" xr:uid="{946F213D-09BC-40E8-B6F0-EFF2E9DA8800}"/>
+    <hyperlink ref="D530" r:id="rId2" xr:uid="{1FFD7F10-30E1-431E-898A-7FE98CA9E75E}"/>
     <hyperlink ref="D122" r:id="rId3" xr:uid="{5694FAF1-3C4D-41FD-9342-1F750914BD88}"/>
     <hyperlink ref="D123" r:id="rId4" xr:uid="{DE929E58-0827-4DE7-89E8-7164CAB16A48}"/>
     <hyperlink ref="D149" r:id="rId5" xr:uid="{F41125B7-D667-481B-B74B-B8CFB86E824E}"/>
@@ -16233,174 +16279,175 @@
     <hyperlink ref="D272" r:id="rId30" xr:uid="{06603856-CABA-41CC-8B3B-F3215E576EC9}"/>
     <hyperlink ref="D273" r:id="rId31" xr:uid="{55007813-6CB6-43CD-876C-FE838DE94AF9}"/>
     <hyperlink ref="D278" r:id="rId32" xr:uid="{2D8EC933-1BE9-4DFB-A220-A681BE615921}"/>
-    <hyperlink ref="D289" r:id="rId33" xr:uid="{761AE8F5-6CE5-45F1-B281-1C3F85C3AF27}"/>
+    <hyperlink ref="D290" r:id="rId33" xr:uid="{761AE8F5-6CE5-45F1-B281-1C3F85C3AF27}"/>
     <hyperlink ref="D288" r:id="rId34" xr:uid="{A4A2AF16-F107-4EA3-87D5-2E4889CFED26}"/>
     <hyperlink ref="D287" r:id="rId35" xr:uid="{636F97C2-A40D-4730-AD86-49EC8390577C}"/>
-    <hyperlink ref="D292" r:id="rId36" xr:uid="{A1825094-8361-41CF-A0DE-4A84AC5EB13E}"/>
-    <hyperlink ref="D293" r:id="rId37" xr:uid="{E0E4A481-A30C-4846-9C0B-86548B33EC38}"/>
-    <hyperlink ref="D294" r:id="rId38" xr:uid="{3A2E3784-72FD-4311-A9DD-EF8AF7B78089}"/>
-    <hyperlink ref="D295" r:id="rId39" xr:uid="{D115A1B5-B1D9-409C-BB9E-667F49A6C083}"/>
-    <hyperlink ref="D296" r:id="rId40" xr:uid="{10889A01-4559-4097-B267-1E6068B2EDD9}"/>
-    <hyperlink ref="D297" r:id="rId41" xr:uid="{BF493C2D-9194-4A43-BA82-B718205F57E5}"/>
-    <hyperlink ref="D298" r:id="rId42" xr:uid="{00375E0A-C35B-4E75-B31F-A82AC7A9B931}"/>
-    <hyperlink ref="D300" r:id="rId43" xr:uid="{7CECD78A-F0DD-4021-80A9-50DF2B814A4F}"/>
-    <hyperlink ref="D301" r:id="rId44" xr:uid="{487B22D0-57BA-4B40-877E-1FEC4051FE7C}"/>
-    <hyperlink ref="D305" r:id="rId45" xr:uid="{6E8C69AA-192A-4154-8C85-5C713441D938}"/>
-    <hyperlink ref="D306" r:id="rId46" xr:uid="{0F8F4654-49B4-430A-9560-018D6E62BA04}"/>
-    <hyperlink ref="D316" r:id="rId47" xr:uid="{385A0A0C-BDA8-4951-A24D-A5F4685BC65B}"/>
-    <hyperlink ref="D317" r:id="rId48" xr:uid="{D89BE6C8-8469-4F2C-9FC6-9FE6BD571CE1}"/>
-    <hyperlink ref="D318" r:id="rId49" xr:uid="{DC995FC6-4B24-4F0B-9645-C1C953BB9075}"/>
-    <hyperlink ref="D319" r:id="rId50" xr:uid="{E2AE46AD-3F70-45DB-8515-9BCD53AABC7D}"/>
-    <hyperlink ref="D322" r:id="rId51" xr:uid="{C06C8A75-5A3D-421C-9098-23D59F26FF3B}"/>
-    <hyperlink ref="D323" r:id="rId52" xr:uid="{154CCA85-9370-47F2-9CA1-AD3D91019655}"/>
-    <hyperlink ref="D324" r:id="rId53" xr:uid="{BDE4EA5B-E212-43AF-9F2D-E0D13DC21DFF}"/>
-    <hyperlink ref="D327" r:id="rId54" xr:uid="{459C73A2-5837-420A-9041-BA13EF27B907}"/>
-    <hyperlink ref="D328" r:id="rId55" xr:uid="{64087C42-A7E5-4954-A4CA-6FCD3AFC9F54}"/>
-    <hyperlink ref="D329" r:id="rId56" xr:uid="{F29AE44F-4E3D-48B1-91DA-EDE94508D8C4}"/>
-    <hyperlink ref="D330" r:id="rId57" xr:uid="{6501AA8B-F65E-4E03-B2DF-0B3378B03E48}"/>
-    <hyperlink ref="D331" r:id="rId58" xr:uid="{A8939077-23AF-4587-AE24-0E324533AAC6}"/>
-    <hyperlink ref="D332" r:id="rId59" xr:uid="{4FE90C1E-698A-4BCC-92F8-7707B6ACC42B}"/>
-    <hyperlink ref="D333" r:id="rId60" xr:uid="{E545AA3D-E166-49A7-9E84-8FE2AE6230A3}"/>
-    <hyperlink ref="D334" r:id="rId61" xr:uid="{D7524563-2549-4EDA-9AB4-4A578B02C796}"/>
-    <hyperlink ref="D335" r:id="rId62" xr:uid="{DF4E4437-78B1-4902-AFA1-5395FEB03076}"/>
-    <hyperlink ref="D336" r:id="rId63" xr:uid="{AD3F5082-2B66-4261-9EB2-CD2B2ACA7A7E}"/>
-    <hyperlink ref="D337" r:id="rId64" xr:uid="{DCACB595-564E-45B7-812F-95F2BFE2869D}"/>
-    <hyperlink ref="D338" r:id="rId65" xr:uid="{1D53DCDD-A90E-47F0-85E4-D7F1F7A4A0AC}"/>
-    <hyperlink ref="D339" r:id="rId66" xr:uid="{EC1FFFD2-3999-487A-8CA8-2314FA16DBBB}"/>
-    <hyperlink ref="D340" r:id="rId67" xr:uid="{B5CEE578-DD01-4EC9-93D7-01DDE211FE35}"/>
-    <hyperlink ref="D396" r:id="rId68" xr:uid="{1D3AC609-2E4B-40B6-AD33-7BA034F6183B}"/>
-    <hyperlink ref="D399" r:id="rId69" xr:uid="{5C77D951-3C85-4C4E-A8D9-F6AF0D5843DE}"/>
-    <hyperlink ref="D400" r:id="rId70" xr:uid="{15A99EDB-D519-4239-80CB-C53A72CE2619}"/>
-    <hyperlink ref="D408" r:id="rId71" xr:uid="{92EF42C3-7729-4CD5-8DA1-307456AC5A86}"/>
-    <hyperlink ref="D410" r:id="rId72" xr:uid="{85D1F75B-83E1-4CB7-956E-2C1DEB380C90}"/>
-    <hyperlink ref="D429" r:id="rId73" xr:uid="{2662653A-DD6A-4A24-A16D-DDAB0A6760CC}"/>
-    <hyperlink ref="D432" r:id="rId74" xr:uid="{91607537-76ED-421C-9EF0-77F8A2D8304A}"/>
-    <hyperlink ref="D433" r:id="rId75" xr:uid="{6BEC13F7-BF8E-4B73-90E5-C53796CDA863}"/>
-    <hyperlink ref="D434" r:id="rId76" xr:uid="{7BB177D0-D2B7-45D6-BEB8-228A983C8172}"/>
-    <hyperlink ref="D435" r:id="rId77" xr:uid="{6B2F58DF-AA6C-4BA7-B7EA-D0B7ECE46279}"/>
-    <hyperlink ref="D436" r:id="rId78" xr:uid="{5E3FF262-1E26-47E6-A40F-8AEF03715EF3}"/>
-    <hyperlink ref="D437" r:id="rId79" xr:uid="{4827EC17-D5E3-4F7E-8621-AF1577399BAA}"/>
-    <hyperlink ref="D438" r:id="rId80" xr:uid="{2FB66B37-E01F-4CBC-B69F-EAA6F4466B06}"/>
-    <hyperlink ref="D439" r:id="rId81" xr:uid="{2DEBA2DE-4AE2-44EE-9A0C-4BE62E8161CA}"/>
-    <hyperlink ref="D440" r:id="rId82" xr:uid="{9F336295-81C0-40F2-93DB-BCFC172F1706}"/>
-    <hyperlink ref="D446" r:id="rId83" xr:uid="{373CB7F6-BCED-430A-8FB7-4106FA77A5CE}"/>
-    <hyperlink ref="D447" r:id="rId84" xr:uid="{49DEADCC-DD9B-40F4-93C8-AB8B5B5D8C85}"/>
-    <hyperlink ref="D453" r:id="rId85" xr:uid="{27435455-E4D7-46FE-9979-76D8D5E45A7C}"/>
-    <hyperlink ref="D490" r:id="rId86" xr:uid="{CB445ED1-986D-49AA-B92A-D152D2EE26D7}"/>
-    <hyperlink ref="D491" r:id="rId87" xr:uid="{AC452A0B-C5A2-4ED3-9EB9-C8AF832ADF22}"/>
-    <hyperlink ref="D510" r:id="rId88" xr:uid="{008F7E1C-3DD9-488D-B92E-B47478E6257E}"/>
-    <hyperlink ref="D511" r:id="rId89" xr:uid="{DFD1AAE1-7763-43BA-B64B-50D8EF3A8FA4}"/>
-    <hyperlink ref="D519" r:id="rId90" xr:uid="{FE93D868-FB33-4933-869F-7E1364946E29}"/>
-    <hyperlink ref="D520" r:id="rId91" xr:uid="{3232589B-AD34-44A2-A894-DD86D94FFEB5}"/>
-    <hyperlink ref="D525" r:id="rId92" xr:uid="{C887C4B4-9C80-45CB-A0BD-5EEFCB9C6A5D}"/>
-    <hyperlink ref="D531" r:id="rId93" xr:uid="{922FF8E9-2048-495F-AECF-0934A9EDBBFD}"/>
-    <hyperlink ref="D532" r:id="rId94" xr:uid="{6BA9828B-BD89-4F94-9410-5284C9B221E4}"/>
-    <hyperlink ref="D533" r:id="rId95" xr:uid="{FF8A8CBB-337D-4C36-8DEA-88B26CA6FE1D}"/>
-    <hyperlink ref="D536" r:id="rId96" xr:uid="{BC87A924-52A1-4F62-B96D-D7768848AFD3}"/>
-    <hyperlink ref="D542" r:id="rId97" xr:uid="{801CB12B-C855-4D47-A845-0F2BBE148A2A}"/>
-    <hyperlink ref="D549" r:id="rId98" xr:uid="{6739B732-0245-4ADC-9A2D-3A23EAF29A45}"/>
-    <hyperlink ref="D550" r:id="rId99" xr:uid="{45825CC5-5E1E-45FD-9E2D-C8E45A0FD0DB}"/>
-    <hyperlink ref="D552" r:id="rId100" xr:uid="{EC3D4157-1CAE-4C13-954B-0DFF53D3DDB9}"/>
-    <hyperlink ref="D556" r:id="rId101" xr:uid="{E990EB42-0515-4430-A365-67BACA2D48CE}"/>
-    <hyperlink ref="D557" r:id="rId102" xr:uid="{FC673107-5C8A-4E1B-8C38-55F35E559ECB}"/>
-    <hyperlink ref="D558" r:id="rId103" xr:uid="{716AF2A5-F40B-4FCE-B0B8-1A836CBE6D26}"/>
-    <hyperlink ref="D559" r:id="rId104" xr:uid="{3A4F84A5-7A7C-4B23-AAB1-07FF7291F07B}"/>
-    <hyperlink ref="D561" r:id="rId105" xr:uid="{DBB07998-0CD2-41A8-B9C7-111A698C04D4}"/>
-    <hyperlink ref="D562" r:id="rId106" xr:uid="{A72954A2-4BE8-4E5B-A403-B1D9F9DAC964}"/>
-    <hyperlink ref="D563" r:id="rId107" xr:uid="{F77C3477-6D7E-45FF-9BC2-E21C6DA8DFDC}"/>
-    <hyperlink ref="D564" r:id="rId108" xr:uid="{3EAE3DE2-87FE-448A-8D9B-20D3C4D5400C}"/>
-    <hyperlink ref="D565" r:id="rId109" xr:uid="{C9D581BB-76F4-4C1D-8FCE-450FED677B68}"/>
-    <hyperlink ref="D566" r:id="rId110" xr:uid="{BE571891-8E35-469F-9FE6-1E8C6D264793}"/>
-    <hyperlink ref="D567" r:id="rId111" xr:uid="{64A3CE78-7C62-474D-86F4-CD2B0CD3764E}"/>
-    <hyperlink ref="D589" r:id="rId112" xr:uid="{6756F5E3-A910-40AF-B2FB-FA2896AEA41B}"/>
-    <hyperlink ref="D607" r:id="rId113" xr:uid="{799435F4-7649-46B9-9669-5C3B9E72D41A}"/>
-    <hyperlink ref="D606" r:id="rId114" xr:uid="{4E065C65-24D3-4F9B-97F2-39C3D2EA30F1}"/>
-    <hyperlink ref="D610" r:id="rId115" xr:uid="{4D5DAB33-F966-4485-9423-DF4F732554FC}"/>
-    <hyperlink ref="D614" r:id="rId116" xr:uid="{23E1B7C6-9D92-448C-9364-59F7D53F222B}"/>
-    <hyperlink ref="D615" r:id="rId117" xr:uid="{5A4CD2B6-0BED-4566-B9FC-BBE8FF1BB536}"/>
-    <hyperlink ref="D616" r:id="rId118" xr:uid="{E62F34BE-AD16-4697-AE3E-9E661A24148A}"/>
-    <hyperlink ref="D617" r:id="rId119" xr:uid="{121A711F-95BB-4538-B243-D3464240F575}"/>
-    <hyperlink ref="D618" r:id="rId120" xr:uid="{CD5D138F-1EF3-4FD4-9363-CE2F9579D4A0}"/>
-    <hyperlink ref="D619" r:id="rId121" xr:uid="{E0B3A71E-1BF1-43DD-A8B4-4F31545C0449}"/>
-    <hyperlink ref="D620" r:id="rId122" xr:uid="{26AE98E3-17E4-4C62-926F-5533DA8DDA54}"/>
-    <hyperlink ref="D621" r:id="rId123" xr:uid="{C86EF7AB-FDFC-41F5-8CFC-E1B8122AD848}"/>
-    <hyperlink ref="D622" r:id="rId124" xr:uid="{DEB8CDD4-F974-4551-9A88-9D3F031FAF61}"/>
-    <hyperlink ref="D623" r:id="rId125" xr:uid="{26A26117-6F55-41B0-B595-FB655A623076}"/>
-    <hyperlink ref="D624" r:id="rId126" xr:uid="{72A32827-9D20-4D73-B3C0-C324089DD165}"/>
-    <hyperlink ref="D625" r:id="rId127" xr:uid="{EC81D2F1-46AB-42B8-8F4C-04751200BFF4}"/>
-    <hyperlink ref="D626" r:id="rId128" xr:uid="{F6C7F9A4-D91A-402B-8A19-824CB5932DF9}"/>
-    <hyperlink ref="D628" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
-    <hyperlink ref="D634" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
-    <hyperlink ref="D635" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
-    <hyperlink ref="D646" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
-    <hyperlink ref="D647" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
-    <hyperlink ref="D648" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
-    <hyperlink ref="D649" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
-    <hyperlink ref="D661" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
-    <hyperlink ref="D662" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
-    <hyperlink ref="D663" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
-    <hyperlink ref="D664" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
-    <hyperlink ref="D665" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
-    <hyperlink ref="D666" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
-    <hyperlink ref="D676" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
-    <hyperlink ref="D677" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
-    <hyperlink ref="D678" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
-    <hyperlink ref="D487" r:id="rId145" xr:uid="{377CD652-368C-4314-A164-D49B86A5008D}"/>
-    <hyperlink ref="D486" r:id="rId146" xr:uid="{C951C838-B3A0-47F2-ADAE-652F18C58DC1}"/>
-    <hyperlink ref="D484" r:id="rId147" xr:uid="{888616A4-9F6D-45D1-8BF2-E426AFB16F80}"/>
-    <hyperlink ref="D485" r:id="rId148" xr:uid="{0B3F2A4A-91C2-4D5A-B29A-4D5117BFEFE3}"/>
-    <hyperlink ref="D690" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
-    <hyperlink ref="D693" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
-    <hyperlink ref="D694" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
-    <hyperlink ref="D695" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
-    <hyperlink ref="D696" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
-    <hyperlink ref="D697" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
-    <hyperlink ref="D699" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
-    <hyperlink ref="D700" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
-    <hyperlink ref="D701" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
-    <hyperlink ref="D765" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
-    <hyperlink ref="D766" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
-    <hyperlink ref="D767" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
-    <hyperlink ref="D768" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
-    <hyperlink ref="D769" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
-    <hyperlink ref="D770" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
-    <hyperlink ref="D771" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
-    <hyperlink ref="D772" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
-    <hyperlink ref="D773" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
-    <hyperlink ref="D780" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
-    <hyperlink ref="D784" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
-    <hyperlink ref="D785" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
-    <hyperlink ref="D786" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
-    <hyperlink ref="D787" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
+    <hyperlink ref="D293" r:id="rId36" xr:uid="{A1825094-8361-41CF-A0DE-4A84AC5EB13E}"/>
+    <hyperlink ref="D294" r:id="rId37" xr:uid="{E0E4A481-A30C-4846-9C0B-86548B33EC38}"/>
+    <hyperlink ref="D295" r:id="rId38" xr:uid="{3A2E3784-72FD-4311-A9DD-EF8AF7B78089}"/>
+    <hyperlink ref="D296" r:id="rId39" xr:uid="{D115A1B5-B1D9-409C-BB9E-667F49A6C083}"/>
+    <hyperlink ref="D297" r:id="rId40" xr:uid="{10889A01-4559-4097-B267-1E6068B2EDD9}"/>
+    <hyperlink ref="D298" r:id="rId41" xr:uid="{BF493C2D-9194-4A43-BA82-B718205F57E5}"/>
+    <hyperlink ref="D299" r:id="rId42" xr:uid="{00375E0A-C35B-4E75-B31F-A82AC7A9B931}"/>
+    <hyperlink ref="D301" r:id="rId43" xr:uid="{7CECD78A-F0DD-4021-80A9-50DF2B814A4F}"/>
+    <hyperlink ref="D302" r:id="rId44" xr:uid="{487B22D0-57BA-4B40-877E-1FEC4051FE7C}"/>
+    <hyperlink ref="D306" r:id="rId45" xr:uid="{6E8C69AA-192A-4154-8C85-5C713441D938}"/>
+    <hyperlink ref="D307" r:id="rId46" xr:uid="{0F8F4654-49B4-430A-9560-018D6E62BA04}"/>
+    <hyperlink ref="D317" r:id="rId47" xr:uid="{385A0A0C-BDA8-4951-A24D-A5F4685BC65B}"/>
+    <hyperlink ref="D318" r:id="rId48" xr:uid="{D89BE6C8-8469-4F2C-9FC6-9FE6BD571CE1}"/>
+    <hyperlink ref="D319" r:id="rId49" xr:uid="{DC995FC6-4B24-4F0B-9645-C1C953BB9075}"/>
+    <hyperlink ref="D320" r:id="rId50" xr:uid="{E2AE46AD-3F70-45DB-8515-9BCD53AABC7D}"/>
+    <hyperlink ref="D323" r:id="rId51" xr:uid="{C06C8A75-5A3D-421C-9098-23D59F26FF3B}"/>
+    <hyperlink ref="D324" r:id="rId52" xr:uid="{154CCA85-9370-47F2-9CA1-AD3D91019655}"/>
+    <hyperlink ref="D325" r:id="rId53" xr:uid="{BDE4EA5B-E212-43AF-9F2D-E0D13DC21DFF}"/>
+    <hyperlink ref="D328" r:id="rId54" xr:uid="{459C73A2-5837-420A-9041-BA13EF27B907}"/>
+    <hyperlink ref="D329" r:id="rId55" xr:uid="{64087C42-A7E5-4954-A4CA-6FCD3AFC9F54}"/>
+    <hyperlink ref="D330" r:id="rId56" xr:uid="{F29AE44F-4E3D-48B1-91DA-EDE94508D8C4}"/>
+    <hyperlink ref="D331" r:id="rId57" xr:uid="{6501AA8B-F65E-4E03-B2DF-0B3378B03E48}"/>
+    <hyperlink ref="D332" r:id="rId58" xr:uid="{A8939077-23AF-4587-AE24-0E324533AAC6}"/>
+    <hyperlink ref="D333" r:id="rId59" xr:uid="{4FE90C1E-698A-4BCC-92F8-7707B6ACC42B}"/>
+    <hyperlink ref="D334" r:id="rId60" xr:uid="{E545AA3D-E166-49A7-9E84-8FE2AE6230A3}"/>
+    <hyperlink ref="D335" r:id="rId61" xr:uid="{D7524563-2549-4EDA-9AB4-4A578B02C796}"/>
+    <hyperlink ref="D336" r:id="rId62" xr:uid="{DF4E4437-78B1-4902-AFA1-5395FEB03076}"/>
+    <hyperlink ref="D337" r:id="rId63" xr:uid="{AD3F5082-2B66-4261-9EB2-CD2B2ACA7A7E}"/>
+    <hyperlink ref="D338" r:id="rId64" xr:uid="{DCACB595-564E-45B7-812F-95F2BFE2869D}"/>
+    <hyperlink ref="D339" r:id="rId65" xr:uid="{1D53DCDD-A90E-47F0-85E4-D7F1F7A4A0AC}"/>
+    <hyperlink ref="D340" r:id="rId66" xr:uid="{EC1FFFD2-3999-487A-8CA8-2314FA16DBBB}"/>
+    <hyperlink ref="D341" r:id="rId67" xr:uid="{B5CEE578-DD01-4EC9-93D7-01DDE211FE35}"/>
+    <hyperlink ref="D397" r:id="rId68" xr:uid="{1D3AC609-2E4B-40B6-AD33-7BA034F6183B}"/>
+    <hyperlink ref="D400" r:id="rId69" xr:uid="{5C77D951-3C85-4C4E-A8D9-F6AF0D5843DE}"/>
+    <hyperlink ref="D401" r:id="rId70" xr:uid="{15A99EDB-D519-4239-80CB-C53A72CE2619}"/>
+    <hyperlink ref="D409" r:id="rId71" xr:uid="{92EF42C3-7729-4CD5-8DA1-307456AC5A86}"/>
+    <hyperlink ref="D411" r:id="rId72" xr:uid="{85D1F75B-83E1-4CB7-956E-2C1DEB380C90}"/>
+    <hyperlink ref="D430" r:id="rId73" xr:uid="{2662653A-DD6A-4A24-A16D-DDAB0A6760CC}"/>
+    <hyperlink ref="D433" r:id="rId74" xr:uid="{91607537-76ED-421C-9EF0-77F8A2D8304A}"/>
+    <hyperlink ref="D434" r:id="rId75" xr:uid="{6BEC13F7-BF8E-4B73-90E5-C53796CDA863}"/>
+    <hyperlink ref="D435" r:id="rId76" xr:uid="{7BB177D0-D2B7-45D6-BEB8-228A983C8172}"/>
+    <hyperlink ref="D436" r:id="rId77" xr:uid="{6B2F58DF-AA6C-4BA7-B7EA-D0B7ECE46279}"/>
+    <hyperlink ref="D437" r:id="rId78" xr:uid="{5E3FF262-1E26-47E6-A40F-8AEF03715EF3}"/>
+    <hyperlink ref="D438" r:id="rId79" xr:uid="{4827EC17-D5E3-4F7E-8621-AF1577399BAA}"/>
+    <hyperlink ref="D439" r:id="rId80" xr:uid="{2FB66B37-E01F-4CBC-B69F-EAA6F4466B06}"/>
+    <hyperlink ref="D440" r:id="rId81" xr:uid="{2DEBA2DE-4AE2-44EE-9A0C-4BE62E8161CA}"/>
+    <hyperlink ref="D441" r:id="rId82" xr:uid="{9F336295-81C0-40F2-93DB-BCFC172F1706}"/>
+    <hyperlink ref="D447" r:id="rId83" xr:uid="{373CB7F6-BCED-430A-8FB7-4106FA77A5CE}"/>
+    <hyperlink ref="D448" r:id="rId84" xr:uid="{49DEADCC-DD9B-40F4-93C8-AB8B5B5D8C85}"/>
+    <hyperlink ref="D454" r:id="rId85" xr:uid="{27435455-E4D7-46FE-9979-76D8D5E45A7C}"/>
+    <hyperlink ref="D491" r:id="rId86" xr:uid="{CB445ED1-986D-49AA-B92A-D152D2EE26D7}"/>
+    <hyperlink ref="D492" r:id="rId87" xr:uid="{AC452A0B-C5A2-4ED3-9EB9-C8AF832ADF22}"/>
+    <hyperlink ref="D511" r:id="rId88" xr:uid="{008F7E1C-3DD9-488D-B92E-B47478E6257E}"/>
+    <hyperlink ref="D512" r:id="rId89" xr:uid="{DFD1AAE1-7763-43BA-B64B-50D8EF3A8FA4}"/>
+    <hyperlink ref="D520" r:id="rId90" xr:uid="{FE93D868-FB33-4933-869F-7E1364946E29}"/>
+    <hyperlink ref="D521" r:id="rId91" xr:uid="{3232589B-AD34-44A2-A894-DD86D94FFEB5}"/>
+    <hyperlink ref="D526" r:id="rId92" xr:uid="{C887C4B4-9C80-45CB-A0BD-5EEFCB9C6A5D}"/>
+    <hyperlink ref="D532" r:id="rId93" xr:uid="{922FF8E9-2048-495F-AECF-0934A9EDBBFD}"/>
+    <hyperlink ref="D533" r:id="rId94" xr:uid="{6BA9828B-BD89-4F94-9410-5284C9B221E4}"/>
+    <hyperlink ref="D534" r:id="rId95" xr:uid="{FF8A8CBB-337D-4C36-8DEA-88B26CA6FE1D}"/>
+    <hyperlink ref="D537" r:id="rId96" xr:uid="{BC87A924-52A1-4F62-B96D-D7768848AFD3}"/>
+    <hyperlink ref="D543" r:id="rId97" xr:uid="{801CB12B-C855-4D47-A845-0F2BBE148A2A}"/>
+    <hyperlink ref="D550" r:id="rId98" xr:uid="{6739B732-0245-4ADC-9A2D-3A23EAF29A45}"/>
+    <hyperlink ref="D551" r:id="rId99" xr:uid="{45825CC5-5E1E-45FD-9E2D-C8E45A0FD0DB}"/>
+    <hyperlink ref="D553" r:id="rId100" xr:uid="{EC3D4157-1CAE-4C13-954B-0DFF53D3DDB9}"/>
+    <hyperlink ref="D557" r:id="rId101" xr:uid="{E990EB42-0515-4430-A365-67BACA2D48CE}"/>
+    <hyperlink ref="D558" r:id="rId102" xr:uid="{FC673107-5C8A-4E1B-8C38-55F35E559ECB}"/>
+    <hyperlink ref="D559" r:id="rId103" xr:uid="{716AF2A5-F40B-4FCE-B0B8-1A836CBE6D26}"/>
+    <hyperlink ref="D560" r:id="rId104" xr:uid="{3A4F84A5-7A7C-4B23-AAB1-07FF7291F07B}"/>
+    <hyperlink ref="D562" r:id="rId105" xr:uid="{DBB07998-0CD2-41A8-B9C7-111A698C04D4}"/>
+    <hyperlink ref="D563" r:id="rId106" xr:uid="{A72954A2-4BE8-4E5B-A403-B1D9F9DAC964}"/>
+    <hyperlink ref="D564" r:id="rId107" xr:uid="{F77C3477-6D7E-45FF-9BC2-E21C6DA8DFDC}"/>
+    <hyperlink ref="D565" r:id="rId108" xr:uid="{3EAE3DE2-87FE-448A-8D9B-20D3C4D5400C}"/>
+    <hyperlink ref="D566" r:id="rId109" xr:uid="{C9D581BB-76F4-4C1D-8FCE-450FED677B68}"/>
+    <hyperlink ref="D567" r:id="rId110" xr:uid="{BE571891-8E35-469F-9FE6-1E8C6D264793}"/>
+    <hyperlink ref="D568" r:id="rId111" xr:uid="{64A3CE78-7C62-474D-86F4-CD2B0CD3764E}"/>
+    <hyperlink ref="D590" r:id="rId112" xr:uid="{6756F5E3-A910-40AF-B2FB-FA2896AEA41B}"/>
+    <hyperlink ref="D608" r:id="rId113" xr:uid="{799435F4-7649-46B9-9669-5C3B9E72D41A}"/>
+    <hyperlink ref="D607" r:id="rId114" xr:uid="{4E065C65-24D3-4F9B-97F2-39C3D2EA30F1}"/>
+    <hyperlink ref="D611" r:id="rId115" xr:uid="{4D5DAB33-F966-4485-9423-DF4F732554FC}"/>
+    <hyperlink ref="D615" r:id="rId116" xr:uid="{23E1B7C6-9D92-448C-9364-59F7D53F222B}"/>
+    <hyperlink ref="D616" r:id="rId117" xr:uid="{5A4CD2B6-0BED-4566-B9FC-BBE8FF1BB536}"/>
+    <hyperlink ref="D617" r:id="rId118" xr:uid="{E62F34BE-AD16-4697-AE3E-9E661A24148A}"/>
+    <hyperlink ref="D618" r:id="rId119" xr:uid="{121A711F-95BB-4538-B243-D3464240F575}"/>
+    <hyperlink ref="D619" r:id="rId120" xr:uid="{CD5D138F-1EF3-4FD4-9363-CE2F9579D4A0}"/>
+    <hyperlink ref="D620" r:id="rId121" xr:uid="{E0B3A71E-1BF1-43DD-A8B4-4F31545C0449}"/>
+    <hyperlink ref="D621" r:id="rId122" xr:uid="{26AE98E3-17E4-4C62-926F-5533DA8DDA54}"/>
+    <hyperlink ref="D622" r:id="rId123" xr:uid="{C86EF7AB-FDFC-41F5-8CFC-E1B8122AD848}"/>
+    <hyperlink ref="D623" r:id="rId124" xr:uid="{DEB8CDD4-F974-4551-9A88-9D3F031FAF61}"/>
+    <hyperlink ref="D624" r:id="rId125" xr:uid="{26A26117-6F55-41B0-B595-FB655A623076}"/>
+    <hyperlink ref="D625" r:id="rId126" xr:uid="{72A32827-9D20-4D73-B3C0-C324089DD165}"/>
+    <hyperlink ref="D626" r:id="rId127" xr:uid="{EC81D2F1-46AB-42B8-8F4C-04751200BFF4}"/>
+    <hyperlink ref="D627" r:id="rId128" xr:uid="{F6C7F9A4-D91A-402B-8A19-824CB5932DF9}"/>
+    <hyperlink ref="D629" r:id="rId129" xr:uid="{14801064-65F3-45B3-ADC0-B8C4CC1621E1}"/>
+    <hyperlink ref="D635" r:id="rId130" xr:uid="{8AAC13ED-8DB4-4EA8-ACB6-D23469A37535}"/>
+    <hyperlink ref="D636" r:id="rId131" xr:uid="{697A3DF0-2013-4D9F-8BDC-313C36F915C4}"/>
+    <hyperlink ref="D647" r:id="rId132" xr:uid="{367B7077-EF8B-4FFC-9E17-F89642D53A40}"/>
+    <hyperlink ref="D648" r:id="rId133" xr:uid="{434824EC-EAFA-4591-9B06-40D34693F91E}"/>
+    <hyperlink ref="D649" r:id="rId134" xr:uid="{DDD79DD6-FC01-4959-8159-B0456A4CB76A}"/>
+    <hyperlink ref="D650" r:id="rId135" xr:uid="{D18FE89E-F6AA-4525-A315-2B9F8C7AC921}"/>
+    <hyperlink ref="D662" r:id="rId136" xr:uid="{B84B02B9-96BA-419D-BD92-09E9B9606131}"/>
+    <hyperlink ref="D663" r:id="rId137" xr:uid="{EB91FDD9-91FD-4FB7-AA19-3BA0579FCA51}"/>
+    <hyperlink ref="D664" r:id="rId138" xr:uid="{6FB3F002-F9A3-46A1-9B78-C47747439B39}"/>
+    <hyperlink ref="D665" r:id="rId139" xr:uid="{58EFAD57-F0A1-4B92-9D25-212FEE222F31}"/>
+    <hyperlink ref="D666" r:id="rId140" xr:uid="{183BF675-3A2E-403D-A06E-C731D9F51642}"/>
+    <hyperlink ref="D667" r:id="rId141" xr:uid="{018B0BA3-AD29-42DE-8923-36E155C6A986}"/>
+    <hyperlink ref="D677" r:id="rId142" xr:uid="{C9348AD5-226D-4304-A50F-EC3FF0CAB33B}"/>
+    <hyperlink ref="D678" r:id="rId143" xr:uid="{48F5FEB7-323E-48F2-A7C8-DF1835DC6C38}"/>
+    <hyperlink ref="D679" r:id="rId144" xr:uid="{2B55F233-6B16-4771-876F-87CE3A0EF815}"/>
+    <hyperlink ref="D488" r:id="rId145" xr:uid="{377CD652-368C-4314-A164-D49B86A5008D}"/>
+    <hyperlink ref="D487" r:id="rId146" xr:uid="{C951C838-B3A0-47F2-ADAE-652F18C58DC1}"/>
+    <hyperlink ref="D485" r:id="rId147" xr:uid="{888616A4-9F6D-45D1-8BF2-E426AFB16F80}"/>
+    <hyperlink ref="D486" r:id="rId148" xr:uid="{0B3F2A4A-91C2-4D5A-B29A-4D5117BFEFE3}"/>
+    <hyperlink ref="D691" r:id="rId149" xr:uid="{32B38E1E-A4E7-42B8-BF12-EA6BEF07E074}"/>
+    <hyperlink ref="D694" r:id="rId150" xr:uid="{F109F1BA-8C5B-4757-9957-3BDDA588335B}"/>
+    <hyperlink ref="D695" r:id="rId151" xr:uid="{4E8720F6-344F-4B16-A644-0AF6CB4ACF1B}"/>
+    <hyperlink ref="D696" r:id="rId152" xr:uid="{0A1DE376-E058-45A9-A4B0-9DF8C002D160}"/>
+    <hyperlink ref="D697" r:id="rId153" xr:uid="{4CD91277-83F0-4E73-A38C-37EBD4D8A9B8}"/>
+    <hyperlink ref="D698" r:id="rId154" xr:uid="{1F0CD3E3-9AD4-41BC-BE1D-7914826E66AA}"/>
+    <hyperlink ref="D700" r:id="rId155" xr:uid="{8E71EE83-92E9-4587-BAD9-90DDFA544F32}"/>
+    <hyperlink ref="D701" r:id="rId156" xr:uid="{3C677690-F88C-4EDD-B3B5-4A4A96F1CD90}"/>
+    <hyperlink ref="D702" r:id="rId157" xr:uid="{FD23CA58-C7F5-4BFB-B059-D79ACCD5F265}"/>
+    <hyperlink ref="D766" r:id="rId158" xr:uid="{79AAA263-9C0B-49B8-87A8-10A547CA8174}"/>
+    <hyperlink ref="D767" r:id="rId159" xr:uid="{7536459C-5E4B-43BC-80CC-3822BD729D1C}"/>
+    <hyperlink ref="D768" r:id="rId160" xr:uid="{FE97C1E2-0470-4632-832B-D01DE17348DA}"/>
+    <hyperlink ref="D769" r:id="rId161" xr:uid="{6A5BD822-88CE-43DB-8C20-B951CF089925}"/>
+    <hyperlink ref="D770" r:id="rId162" xr:uid="{4732A67F-D8E2-42B5-9A89-A2E598B61496}"/>
+    <hyperlink ref="D771" r:id="rId163" xr:uid="{CCDB83A4-73AA-4B3F-95C6-DE7A5C7040D1}"/>
+    <hyperlink ref="D772" r:id="rId164" xr:uid="{7E5DA399-9E16-42B1-82CC-44F8ADCF77E8}"/>
+    <hyperlink ref="D773" r:id="rId165" xr:uid="{766DD9C1-967F-4093-BED5-C03689B1C2F4}"/>
+    <hyperlink ref="D774" r:id="rId166" xr:uid="{241719F2-8D18-4F9B-93E0-B517E1E132CC}"/>
+    <hyperlink ref="D781" r:id="rId167" xr:uid="{50E29DF0-9C7A-4FAE-BD83-D3AA6808445C}"/>
+    <hyperlink ref="D785" r:id="rId168" xr:uid="{0B012D60-47A0-4583-B7A3-153D2ADC4497}"/>
+    <hyperlink ref="D786" r:id="rId169" xr:uid="{356DB55E-25DC-4CCC-B894-44D00272652C}"/>
+    <hyperlink ref="D787" r:id="rId170" xr:uid="{E290D20E-128D-4DB7-88FD-1F2D4E8B12D1}"/>
+    <hyperlink ref="D788" r:id="rId171" xr:uid="{4AFA8542-D4B0-4F30-B338-CB3DE306C8E8}"/>
     <hyperlink ref="D144" r:id="rId172" xr:uid="{0EBD26DB-323F-422E-91F1-A6E9B3505678}"/>
     <hyperlink ref="D161" r:id="rId173" xr:uid="{1E2FFDE3-C017-4939-9259-2985E718AAE3}"/>
-    <hyperlink ref="D454" r:id="rId174" xr:uid="{0146A258-4649-4022-9C92-DFFB658BE508}"/>
-    <hyperlink ref="D308" r:id="rId175" xr:uid="{2A61A2C5-37CB-4D8C-91CD-447AFA200AF2}"/>
-    <hyperlink ref="D326" r:id="rId176" xr:uid="{6375A925-1566-46EF-8443-76B8C7590BE3}"/>
+    <hyperlink ref="D455" r:id="rId174" xr:uid="{0146A258-4649-4022-9C92-DFFB658BE508}"/>
+    <hyperlink ref="D309" r:id="rId175" xr:uid="{2A61A2C5-37CB-4D8C-91CD-447AFA200AF2}"/>
+    <hyperlink ref="D327" r:id="rId176" xr:uid="{6375A925-1566-46EF-8443-76B8C7590BE3}"/>
     <hyperlink ref="D229" r:id="rId177" xr:uid="{8B8B3BFB-5644-4C02-BC77-C4CBF47D0231}"/>
     <hyperlink ref="D49" r:id="rId178" xr:uid="{485C788F-6611-4DD7-9386-F50BEB6B5426}"/>
     <hyperlink ref="D277" r:id="rId179" xr:uid="{EB456415-5E73-4EC2-A0F5-C0D5E832574A}"/>
     <hyperlink ref="D275" r:id="rId180" xr:uid="{443A8204-07FC-47A2-BFFA-7B87EE5F534E}"/>
-    <hyperlink ref="D721" r:id="rId181" xr:uid="{EC844E89-480C-4CC9-8C72-36E67E283B19}"/>
-    <hyperlink ref="D774" r:id="rId182" xr:uid="{B55CC98C-BBDE-4DF0-ACC4-8CA04D48CF92}"/>
-    <hyperlink ref="D760" r:id="rId183" xr:uid="{85F44E99-B727-4B52-A1E0-CFA70E348AA1}"/>
-    <hyperlink ref="D759" r:id="rId184" xr:uid="{6723CBC5-6A3F-4BFE-AF9F-8DF56C78F10B}"/>
-    <hyperlink ref="D683" r:id="rId185" xr:uid="{5CF31EDF-06B6-4415-A012-6F82B5722F09}"/>
-    <hyperlink ref="D705" r:id="rId186" xr:uid="{0CB78560-4132-4B06-9B2A-356E2626AD90}"/>
-    <hyperlink ref="D706" r:id="rId187" xr:uid="{784E37DE-46A1-489F-AC7B-76107BFEE17C}"/>
+    <hyperlink ref="D722" r:id="rId181" xr:uid="{EC844E89-480C-4CC9-8C72-36E67E283B19}"/>
+    <hyperlink ref="D775" r:id="rId182" xr:uid="{B55CC98C-BBDE-4DF0-ACC4-8CA04D48CF92}"/>
+    <hyperlink ref="D761" r:id="rId183" xr:uid="{85F44E99-B727-4B52-A1E0-CFA70E348AA1}"/>
+    <hyperlink ref="D760" r:id="rId184" xr:uid="{6723CBC5-6A3F-4BFE-AF9F-8DF56C78F10B}"/>
+    <hyperlink ref="D684" r:id="rId185" xr:uid="{5CF31EDF-06B6-4415-A012-6F82B5722F09}"/>
+    <hyperlink ref="D706" r:id="rId186" xr:uid="{0CB78560-4132-4B06-9B2A-356E2626AD90}"/>
+    <hyperlink ref="D707" r:id="rId187" xr:uid="{784E37DE-46A1-489F-AC7B-76107BFEE17C}"/>
     <hyperlink ref="D234" r:id="rId188" xr:uid="{BBF9F977-4784-46C9-8388-41C9646ED2B2}"/>
-    <hyperlink ref="D441" r:id="rId189" xr:uid="{D33A08DF-9188-4EE1-9721-A86E63B5B077}"/>
-    <hyperlink ref="D707" r:id="rId190" xr:uid="{905C95A8-9E8B-4D80-BD61-903BFEBA269D}"/>
+    <hyperlink ref="D442" r:id="rId189" xr:uid="{D33A08DF-9188-4EE1-9721-A86E63B5B077}"/>
+    <hyperlink ref="D708" r:id="rId190" xr:uid="{905C95A8-9E8B-4D80-BD61-903BFEBA269D}"/>
     <hyperlink ref="D22" r:id="rId191" xr:uid="{63D0470E-EDDE-4EE0-940F-3AD22C11B6BE}"/>
     <hyperlink ref="D124" r:id="rId192" xr:uid="{5BB47382-DD2A-41F1-B7C5-604C9E776B98}"/>
     <hyperlink ref="D274" r:id="rId193" xr:uid="{EA6A9843-F4D3-418D-BB5C-0D6671A1B46E}"/>
-    <hyperlink ref="D483" r:id="rId194" xr:uid="{31EBB85D-F54D-4D2F-AB55-A1BC50FC5EA4}"/>
-    <hyperlink ref="D668" r:id="rId195" xr:uid="{78F0CC44-B8AE-4E03-895F-C57997E5026A}"/>
-    <hyperlink ref="D758" r:id="rId196" xr:uid="{E71CD44A-D53E-4D54-8EE6-900216727DCC}"/>
-    <hyperlink ref="D320" r:id="rId197" xr:uid="{B0955C40-EB08-4263-B923-6D122ED6EC53}"/>
+    <hyperlink ref="D484" r:id="rId194" xr:uid="{31EBB85D-F54D-4D2F-AB55-A1BC50FC5EA4}"/>
+    <hyperlink ref="D669" r:id="rId195" xr:uid="{78F0CC44-B8AE-4E03-895F-C57997E5026A}"/>
+    <hyperlink ref="D759" r:id="rId196" xr:uid="{E71CD44A-D53E-4D54-8EE6-900216727DCC}"/>
+    <hyperlink ref="D321" r:id="rId197" xr:uid="{B0955C40-EB08-4263-B923-6D122ED6EC53}"/>
     <hyperlink ref="D147" r:id="rId198" xr:uid="{17CD83D1-ECCC-4BCE-A73B-727898A6313A}"/>
+    <hyperlink ref="D289" r:id="rId199" xr:uid="{C2279B45-F1FB-44C6-A85A-B7DCDBAC0110}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId199"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId200"/>
 </worksheet>
 </file>
--- a/compania.xlsx
+++ b/compania.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="1608">
   <si>
     <t>LiveryId</t>
   </si>
@@ -29594,16 +29594,16 @@
       <c r="Z673" s="3"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="3" t="s">
+      <c r="A674" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B674" s="3" t="s">
+      <c r="B674" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="C674" s="3" t="s">
+      <c r="C674" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="D674" s="9" t="s">
+      <c r="D674" s="6" t="s">
         <v>1294</v>
       </c>
       <c r="E674" s="3"/>
@@ -29630,16 +29630,16 @@
       <c r="Z674" s="3"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B675" s="1" t="s">
+      <c r="A675" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B675" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="C675" s="1" t="s">
+      <c r="C675" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="D675" s="6" t="s">
+      <c r="D675" s="9" t="s">
         <v>1294</v>
       </c>
       <c r="E675" s="3"/>
@@ -29667,16 +29667,16 @@
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D676" s="9" t="s">
-        <v>1294</v>
+        <v>1230</v>
+      </c>
+      <c r="D676" s="5" t="s">
+        <v>1231</v>
       </c>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
@@ -29703,7 +29703,7 @@
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="3" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>1299</v>
@@ -29739,16 +29739,16 @@
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="3" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D678" s="5" t="s">
-        <v>1231</v>
+        <v>6</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
@@ -29775,16 +29775,16 @@
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="3" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D679" s="4" t="s">
-        <v>7</v>
+        <v>1305</v>
+      </c>
+      <c r="D679" s="5" t="s">
+        <v>1306</v>
       </c>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
@@ -29811,7 +29811,7 @@
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="3" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>1304</v>
@@ -29847,10 +29847,10 @@
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="3" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="C681" s="3" t="s">
         <v>1305</v>
@@ -29883,10 +29883,10 @@
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="3" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C682" s="3" t="s">
         <v>1305</v>
@@ -29919,7 +29919,7 @@
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="3" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>1311</v>
@@ -29955,10 +29955,10 @@
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C684" s="3" t="s">
         <v>1305</v>
@@ -29991,10 +29991,10 @@
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="3" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C685" s="3" t="s">
         <v>1305</v>
@@ -30027,16 +30027,16 @@
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="3" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D686" s="5" t="s">
-        <v>1306</v>
+        <v>6</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
@@ -30063,16 +30063,16 @@
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="3" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D687" s="4" t="s">
-        <v>7</v>
+        <v>1321</v>
+      </c>
+      <c r="D687" s="9" t="s">
+        <v>1322</v>
       </c>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
@@ -30099,10 +30099,10 @@
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="3" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="C688" s="3" t="s">
         <v>1321</v>
@@ -30135,16 +30135,16 @@
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="3" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="D689" s="9" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
@@ -30171,10 +30171,10 @@
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="3" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="C690" s="3" t="s">
         <v>1327</v>
@@ -30207,16 +30207,16 @@
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="3" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="D691" s="9" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
@@ -30242,16 +30242,16 @@
       <c r="Z691" s="3"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="3" t="s">
+      <c r="A692" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B692" s="3" t="s">
+      <c r="B692" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="C692" s="3" t="s">
+      <c r="C692" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="D692" s="9" t="s">
+      <c r="D692" s="6" t="s">
         <v>1334</v>
       </c>
       <c r="E692" s="3"/>
@@ -30278,17 +30278,17 @@
       <c r="Z692" s="3"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B693" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C693" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D693" s="6" t="s">
-        <v>1334</v>
+      <c r="A693" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D693" s="9" t="s">
+        <v>1338</v>
       </c>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
@@ -30314,17 +30314,17 @@
       <c r="Z693" s="3"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B694" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C694" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D694" s="9" t="s">
-        <v>1338</v>
+      <c r="A694" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
@@ -30351,16 +30351,16 @@
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D695" s="20" t="s">
-        <v>7</v>
+      <c r="D695" s="6" t="s">
+        <v>1343</v>
       </c>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
@@ -30387,16 +30387,16 @@
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>6</v>
+        <v>1346</v>
       </c>
       <c r="D696" s="6" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
@@ -30422,16 +30422,16 @@
       <c r="Z696" s="3"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B697" s="1" t="s">
+      <c r="A697" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B697" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C697" s="1" t="s">
+      <c r="C697" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="D697" s="6" t="s">
+      <c r="D697" s="5" t="s">
         <v>1347</v>
       </c>
       <c r="E697" s="3"/>
@@ -30459,7 +30459,7 @@
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>1345</v>
@@ -30495,7 +30495,7 @@
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>1345</v>
@@ -30531,7 +30531,7 @@
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>1345</v>
@@ -30566,17 +30566,17 @@
       <c r="Z700" s="3"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B701" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C701" s="3" t="s">
+      <c r="A701" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C701" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="D701" s="5" t="s">
-        <v>1347</v>
+      <c r="D701" s="6" t="s">
+        <v>1353</v>
       </c>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
@@ -30602,17 +30602,17 @@
       <c r="Z701" s="3"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B702" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C702" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D702" s="6" t="s">
-        <v>1353</v>
+      <c r="A702" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D702" s="5" t="s">
+        <v>1357</v>
       </c>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="3" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>1355</v>
@@ -30675,16 +30675,16 @@
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D704" s="5" t="s">
-        <v>1357</v>
+        <v>948</v>
+      </c>
+      <c r="D704" s="9" t="s">
+        <v>949</v>
       </c>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
@@ -30711,7 +30711,7 @@
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="3" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>1360</v>
@@ -30747,10 +30747,10 @@
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C706" s="3" t="s">
         <v>948</v>
@@ -30783,16 +30783,16 @@
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="3" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="D707" s="9" t="s">
-        <v>949</v>
+        <v>6</v>
+      </c>
+      <c r="D707" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
@@ -30819,10 +30819,10 @@
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="3" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C708" s="3" t="s">
         <v>6</v>
@@ -30855,16 +30855,16 @@
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="3" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>1367</v>
+        <v>199</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D709" s="4" t="s">
-        <v>7</v>
+        <v>199</v>
+      </c>
+      <c r="D709" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
@@ -30891,7 +30891,7 @@
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>199</v>
@@ -30927,16 +30927,16 @@
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>199</v>
+        <v>1371</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D711" s="5" t="s">
-        <v>200</v>
+        <v>1372</v>
+      </c>
+      <c r="D711" s="9" t="s">
+        <v>1373</v>
       </c>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
@@ -30963,16 +30963,16 @@
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="3" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D712" s="9" t="s">
-        <v>1373</v>
+        <v>6</v>
+      </c>
+      <c r="D712" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
@@ -30999,16 +30999,16 @@
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="3" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D713" s="4" t="s">
-        <v>7</v>
+        <v>1378</v>
+      </c>
+      <c r="D713" s="5" t="s">
+        <v>1379</v>
       </c>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
@@ -31035,7 +31035,7 @@
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="3" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>1377</v>
@@ -31071,7 +31071,7 @@
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>1377</v>
@@ -31107,7 +31107,7 @@
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>1377</v>
@@ -31143,7 +31143,7 @@
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>1377</v>
@@ -31151,7 +31151,7 @@
       <c r="C717" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="D717" s="5" t="s">
+      <c r="D717" s="9" t="s">
         <v>1379</v>
       </c>
       <c r="E717" s="3"/>
@@ -31179,7 +31179,7 @@
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>1377</v>
@@ -31187,7 +31187,7 @@
       <c r="C718" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="D718" s="9" t="s">
+      <c r="D718" s="5" t="s">
         <v>1379</v>
       </c>
       <c r="E718" s="3"/>
@@ -31215,10 +31215,10 @@
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>1377</v>
+        <v>1386</v>
       </c>
       <c r="C719" s="3" t="s">
         <v>1378</v>
@@ -31250,16 +31250,16 @@
       <c r="Z719" s="3"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="3" t="s">
+      <c r="A720" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B720" s="3" t="s">
+      <c r="B720" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="C720" s="3" t="s">
+      <c r="C720" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="D720" s="5" t="s">
+      <c r="D720" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="E720" s="3"/>
@@ -31286,16 +31286,16 @@
       <c r="Z720" s="3"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B721" s="1" t="s">
+      <c r="A721" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B721" s="3" t="s">
         <v>1386</v>
       </c>
-      <c r="C721" s="1" t="s">
+      <c r="C721" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="D721" s="6" t="s">
+      <c r="D721" s="5" t="s">
         <v>1379</v>
       </c>
       <c r="E721" s="3"/>
@@ -31323,16 +31323,16 @@
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D722" s="5" t="s">
-        <v>1379</v>
+        <v>1390</v>
+      </c>
+      <c r="D722" s="9" t="s">
+        <v>1391</v>
       </c>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
@@ -31359,7 +31359,7 @@
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="3" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>1389</v>
@@ -31395,7 +31395,7 @@
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>1389</v>
@@ -31431,16 +31431,16 @@
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="D725" s="9" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
@@ -31467,10 +31467,10 @@
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="C726" s="3" t="s">
         <v>1396</v>
@@ -31503,16 +31503,16 @@
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="3" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D727" s="9" t="s">
-        <v>1397</v>
+        <v>6</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
@@ -31539,16 +31539,16 @@
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="3" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D728" s="4" t="s">
-        <v>7</v>
+        <v>1404</v>
+      </c>
+      <c r="D728" s="9" t="s">
+        <v>1405</v>
       </c>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
@@ -31575,16 +31575,16 @@
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="3" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="D729" s="9" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
@@ -31611,7 +31611,7 @@
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>1407</v>
@@ -31647,16 +31647,16 @@
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D731" s="9" t="s">
-        <v>1409</v>
+        <v>1413</v>
+      </c>
+      <c r="D731" s="5" t="s">
+        <v>1414</v>
       </c>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
@@ -31683,7 +31683,7 @@
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>1412</v>
@@ -31719,16 +31719,16 @@
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
@@ -31755,7 +31755,7 @@
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="3" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>1417</v>
@@ -31763,7 +31763,7 @@
       <c r="C734" s="3" t="s">
         <v>1396</v>
       </c>
-      <c r="D734" s="5" t="s">
+      <c r="D734" s="9" t="s">
         <v>1397</v>
       </c>
       <c r="E734" s="3"/>
@@ -31790,13 +31790,13 @@
       <c r="Z734" s="3"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B735" s="3" t="s">
+      <c r="A735" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B735" s="8" t="s">
         <v>1417</v>
       </c>
-      <c r="C735" s="3" t="s">
+      <c r="C735" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="D735" s="9" t="s">
@@ -31826,13 +31826,13 @@
       <c r="Z735" s="3"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="8" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B736" s="8" t="s">
+      <c r="A736" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B736" s="3" t="s">
         <v>1417</v>
       </c>
-      <c r="C736" s="1" t="s">
+      <c r="C736" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="D736" s="9" t="s">
@@ -31863,15 +31863,15 @@
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="C737" s="3" t="s">
         <v>1396</v>
       </c>
-      <c r="D737" s="9" t="s">
+      <c r="D737" s="5" t="s">
         <v>1397</v>
       </c>
       <c r="E737" s="3"/>
@@ -31899,7 +31899,7 @@
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="3" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>1422</v>
@@ -31935,16 +31935,16 @@
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D739" s="5" t="s">
-        <v>1397</v>
+        <v>6</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
@@ -31971,10 +31971,10 @@
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="3" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C740" s="3" t="s">
         <v>6</v>
@@ -32007,16 +32007,16 @@
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="3" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C741" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D741" s="4" t="s">
-        <v>7</v>
+        <v>1429</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>1431</v>
       </c>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
@@ -32043,12 +32043,12 @@
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C742" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C742" s="3" t="s">
         <v>1430</v>
       </c>
       <c r="D742" s="5" t="s">
@@ -32079,7 +32079,7 @@
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="3" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>1433</v>
@@ -32115,7 +32115,7 @@
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>1433</v>
@@ -32151,7 +32151,7 @@
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>1433</v>
@@ -32186,16 +32186,16 @@
       <c r="Z745" s="3"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B746" s="3" t="s">
+      <c r="A746" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B746" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="C746" s="3" t="s">
+      <c r="C746" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="D746" s="5" t="s">
+      <c r="D746" s="6" t="s">
         <v>1431</v>
       </c>
       <c r="E746" s="3"/>
@@ -32222,16 +32222,16 @@
       <c r="Z746" s="3"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B747" s="1" t="s">
+      <c r="A747" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B747" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="C747" s="1" t="s">
+      <c r="C747" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="D747" s="6" t="s">
+      <c r="D747" s="5" t="s">
         <v>1431</v>
       </c>
       <c r="E747" s="3"/>
@@ -32259,7 +32259,7 @@
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>1433</v>
@@ -32295,10 +32295,10 @@
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="C749" s="3" t="s">
         <v>1430</v>
@@ -32331,16 +32331,16 @@
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="3" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>1430</v>
+        <v>1444</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
@@ -32367,16 +32367,16 @@
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="3" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D751" s="5" t="s">
-        <v>1445</v>
+        <v>1448</v>
+      </c>
+      <c r="D751" s="9" t="s">
+        <v>1449</v>
       </c>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
@@ -32403,16 +32403,16 @@
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D752" s="9" t="s">
-        <v>1449</v>
+        <v>1452</v>
+      </c>
+      <c r="D752" s="5" t="s">
+        <v>1453</v>
       </c>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
@@ -32439,16 +32439,16 @@
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="3" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D753" s="5" t="s">
-        <v>1453</v>
+        <v>6</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
@@ -32475,16 +32475,16 @@
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="3" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D754" s="4" t="s">
-        <v>7</v>
+        <v>1458</v>
+      </c>
+      <c r="D754" s="5" t="s">
+        <v>1459</v>
       </c>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
@@ -32511,10 +32511,10 @@
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="3" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="C755" s="3" t="s">
         <v>1458</v>
@@ -32546,10 +32546,10 @@
       <c r="Z755" s="3"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="3" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B756" s="3" t="s">
+      <c r="A756" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B756" s="8" t="s">
         <v>1461</v>
       </c>
       <c r="C756" s="3" t="s">
@@ -32582,10 +32582,10 @@
       <c r="Z756" s="3"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B757" s="8" t="s">
+      <c r="A757" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B757" s="3" t="s">
         <v>1461</v>
       </c>
       <c r="C757" s="3" t="s">
@@ -32619,7 +32619,7 @@
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="3" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>1461</v>
@@ -32655,7 +32655,7 @@
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="3" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>1461</v>
@@ -32691,7 +32691,7 @@
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="3" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>1461</v>
@@ -32727,7 +32727,7 @@
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="3" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>1461</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="3" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>1461</v>
@@ -32799,7 +32799,7 @@
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="3" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>1461</v>
@@ -32835,7 +32835,7 @@
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="3" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>1461</v>
@@ -32871,7 +32871,7 @@
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="3" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>1461</v>
@@ -32907,7 +32907,7 @@
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="3" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>1461</v>
@@ -32943,10 +32943,10 @@
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="3" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
       <c r="C767" s="3" t="s">
         <v>1458</v>
@@ -32979,10 +32979,10 @@
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="3" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C768" s="3" t="s">
         <v>1458</v>
@@ -33015,10 +33015,10 @@
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="3" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C769" s="3" t="s">
         <v>1458</v>
@@ -33051,7 +33051,7 @@
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="3" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>1478</v>
@@ -33087,10 +33087,10 @@
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="3" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="C771" s="3" t="s">
         <v>1458</v>
@@ -33123,7 +33123,7 @@
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="3" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>1481</v>
@@ -33159,10 +33159,10 @@
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="C773" s="3" t="s">
         <v>1458</v>
@@ -33195,16 +33195,16 @@
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="3" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>1458</v>
+        <v>1486</v>
       </c>
       <c r="D774" s="5" t="s">
-        <v>1459</v>
+        <v>1487</v>
       </c>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
@@ -33231,7 +33231,7 @@
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="3" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>1486</v>
@@ -33267,7 +33267,7 @@
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>1486</v>
@@ -33303,16 +33303,16 @@
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="3" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D777" s="5" t="s">
-        <v>1487</v>
+        <v>6</v>
+      </c>
+      <c r="D777" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
@@ -33339,7 +33339,7 @@
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="3" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>1491</v>
@@ -33374,17 +33374,17 @@
       <c r="Z778" s="3"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B779" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C779" s="3" t="s">
+      <c r="A779" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C779" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D779" s="4" t="s">
-        <v>7</v>
+      <c r="D779" s="18" t="s">
+        <v>1495</v>
       </c>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
@@ -33410,17 +33410,17 @@
       <c r="Z779" s="3"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B780" s="1" t="s">
+      <c r="A780" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B780" s="21" t="s">
         <v>1494</v>
       </c>
-      <c r="C780" s="1" t="s">
+      <c r="C780" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D780" s="18" t="s">
-        <v>1495</v>
+      <c r="D780" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
@@ -33447,15 +33447,15 @@
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="3" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B781" s="21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B781" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="C781" s="3" t="s">
+      <c r="C781" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D781" s="4" t="s">
+      <c r="D781" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E781" s="3"/>
@@ -33483,15 +33483,15 @@
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C782" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C782" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D782" s="18" t="s">
+      <c r="D782" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E782" s="3"/>
@@ -33519,10 +33519,10 @@
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="3" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C783" s="3" t="s">
         <v>6</v>
@@ -33555,10 +33555,10 @@
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="3" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C784" s="3" t="s">
         <v>6</v>
@@ -33591,10 +33591,10 @@
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="3" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C785" s="3" t="s">
         <v>6</v>
@@ -33627,10 +33627,10 @@
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="3" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C786" s="3" t="s">
         <v>6</v>
@@ -33663,10 +33663,10 @@
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="3" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C787" s="3" t="s">
         <v>6</v>
@@ -33698,17 +33698,17 @@
       <c r="Z787" s="3"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B788" s="3" t="s">
-        <v>1509</v>
+      <c r="A788" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B788" s="8" t="s">
+        <v>1511</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D788" s="4" t="s">
-        <v>7</v>
+        <v>1512</v>
+      </c>
+      <c r="D788" s="9" t="s">
+        <v>1513</v>
       </c>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
@@ -33734,17 +33734,17 @@
       <c r="Z788" s="3"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="8" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B789" s="8" t="s">
-        <v>1511</v>
+      <c r="A789" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1515</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="D789" s="9" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
@@ -33771,16 +33771,16 @@
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="3" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="D790" s="9" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
@@ -33807,16 +33807,16 @@
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B791" s="3" t="s">
-        <v>1519</v>
+        <v>1522</v>
+      </c>
+      <c r="B791" s="21" t="s">
+        <v>1523</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D791" s="9" t="s">
-        <v>1521</v>
+        <v>6</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
@@ -33843,16 +33843,16 @@
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="3" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B792" s="21" t="s">
-        <v>1523</v>
+        <v>1524</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1525</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D792" s="4" t="s">
-        <v>7</v>
+        <v>1526</v>
+      </c>
+      <c r="D792" s="5" t="s">
+        <v>1527</v>
       </c>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
@@ -33879,7 +33879,7 @@
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="3" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>1525</v>
@@ -33915,7 +33915,7 @@
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="3" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>1525</v>
@@ -33951,16 +33951,16 @@
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="3" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="C795" s="3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D795" s="5" t="s">
-        <v>1527</v>
+        <v>1532</v>
+      </c>
+      <c r="D795" s="9" t="s">
+        <v>1533</v>
       </c>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
@@ -33986,17 +33986,17 @@
       <c r="Z795" s="3"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B796" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C796" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D796" s="9" t="s">
-        <v>1533</v>
+      <c r="A796" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D796" s="6" t="s">
+        <v>1537</v>
       </c>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
@@ -34022,16 +34022,16 @@
       <c r="Z796" s="3"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B797" s="1" t="s">
+      <c r="A797" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B797" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="C797" s="1" t="s">
+      <c r="C797" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="D797" s="6" t="s">
+      <c r="D797" s="9" t="s">
         <v>1537</v>
       </c>
       <c r="E797" s="3"/>
@@ -34059,10 +34059,10 @@
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="3" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="C798" s="3" t="s">
         <v>1536</v>
@@ -34095,10 +34095,10 @@
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="3" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C799" s="3" t="s">
         <v>1536</v>
@@ -34131,16 +34131,16 @@
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="3" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="D800" s="9" t="s">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
@@ -34167,7 +34167,7 @@
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>1544</v>
@@ -34203,16 +34203,16 @@
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="3" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="D802" s="9" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
@@ -34239,16 +34239,16 @@
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="3" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="D803" s="9" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
@@ -34275,16 +34275,16 @@
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="3" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="D804" s="9" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
@@ -34311,16 +34311,16 @@
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
@@ -34347,16 +34347,16 @@
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D806" s="9" t="s">
-        <v>1563</v>
+        <v>1566</v>
+      </c>
+      <c r="D806" s="5" t="s">
+        <v>1567</v>
       </c>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
@@ -34383,10 +34383,10 @@
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="3" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="C807" s="3" t="s">
         <v>1566</v>
@@ -34419,12 +34419,12 @@
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="3" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C808" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C808" s="1" t="s">
         <v>1566</v>
       </c>
       <c r="D808" s="5" t="s">
@@ -34455,12 +34455,12 @@
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="3" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C809" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C809" s="3" t="s">
         <v>1566</v>
       </c>
       <c r="D809" s="5" t="s">
@@ -34491,16 +34491,16 @@
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="3" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D810" s="5" t="s">
-        <v>1567</v>
+        <v>6</v>
+      </c>
+      <c r="D810" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
@@ -34527,16 +34527,16 @@
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="3" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D811" s="4" t="s">
-        <v>7</v>
+        <v>1577</v>
+      </c>
+      <c r="D811" s="9" t="s">
+        <v>1578</v>
       </c>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
@@ -34563,16 +34563,16 @@
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="3" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D812" s="9" t="s">
-        <v>1578</v>
+        <v>1581</v>
+      </c>
+      <c r="D812" s="5" t="s">
+        <v>1582</v>
       </c>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
@@ -34599,7 +34599,7 @@
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="3" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>1580</v>
@@ -34635,16 +34635,16 @@
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="3" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D814" s="5" t="s">
-        <v>1582</v>
+        <v>6</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
@@ -34671,16 +34671,16 @@
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="3" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D815" s="4" t="s">
-        <v>7</v>
+        <v>1588</v>
+      </c>
+      <c r="D815" s="9" t="s">
+        <v>1589</v>
       </c>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
@@ -34707,10 +34707,10 @@
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="3" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="C816" s="3" t="s">
         <v>1588</v>
@@ -34743,16 +34743,16 @@
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="3" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="D817" s="9" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
@@ -34779,16 +34779,16 @@
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="3" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="D818" s="9" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
@@ -34815,16 +34815,16 @@
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="3" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D819" s="9" t="s">
-        <v>1599</v>
+        <v>6</v>
+      </c>
+      <c r="D819" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
@@ -34851,10 +34851,10 @@
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="3" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C820" s="3" t="s">
         <v>6</v>
@@ -34887,10 +34887,10 @@
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="3" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C821" s="3" t="s">
         <v>6</v>
@@ -34923,10 +34923,10 @@
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="3" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C822" s="3" t="s">
         <v>6</v>
@@ -34958,18 +34958,10 @@
       <c r="Z822" s="3"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="3" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B823" s="3" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C823" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D823" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A823" s="3"/>
+      <c r="B823" s="3"/>
+      <c r="C823" s="3"/>
+      <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
@@ -35078,32 +35070,32 @@
       <c r="Z826" s="3"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="3"/>
-      <c r="B827" s="3"/>
-      <c r="C827" s="3"/>
-      <c r="D827" s="3"/>
-      <c r="E827" s="3"/>
-      <c r="F827" s="3"/>
-      <c r="G827" s="3"/>
-      <c r="H827" s="3"/>
-      <c r="I827" s="3"/>
-      <c r="J827" s="3"/>
-      <c r="K827" s="3"/>
-      <c r="L827" s="3"/>
-      <c r="M827" s="3"/>
-      <c r="N827" s="3"/>
-      <c r="O827" s="3"/>
-      <c r="P827" s="3"/>
-      <c r="Q827" s="3"/>
-      <c r="R827" s="3"/>
-      <c r="S827" s="3"/>
-      <c r="T827" s="3"/>
-      <c r="U827" s="3"/>
-      <c r="V827" s="3"/>
-      <c r="W827" s="3"/>
-      <c r="X827" s="3"/>
-      <c r="Y827" s="3"/>
-      <c r="Z827" s="3"/>
+      <c r="A827" s="22"/>
+      <c r="B827" s="22"/>
+      <c r="C827" s="22"/>
+      <c r="D827" s="22"/>
+      <c r="E827" s="22"/>
+      <c r="F827" s="22"/>
+      <c r="G827" s="22"/>
+      <c r="H827" s="22"/>
+      <c r="I827" s="22"/>
+      <c r="J827" s="22"/>
+      <c r="K827" s="22"/>
+      <c r="L827" s="22"/>
+      <c r="M827" s="22"/>
+      <c r="N827" s="22"/>
+      <c r="O827" s="22"/>
+      <c r="P827" s="22"/>
+      <c r="Q827" s="22"/>
+      <c r="R827" s="22"/>
+      <c r="S827" s="22"/>
+      <c r="T827" s="22"/>
+      <c r="U827" s="22"/>
+      <c r="V827" s="22"/>
+      <c r="W827" s="22"/>
+      <c r="X827" s="22"/>
+      <c r="Y827" s="22"/>
+      <c r="Z827" s="22"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="22"/>
@@ -39865,34 +39857,6 @@
       <c r="Y997" s="22"/>
       <c r="Z997" s="22"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="22"/>
-      <c r="B998" s="22"/>
-      <c r="C998" s="22"/>
-      <c r="D998" s="22"/>
-      <c r="E998" s="22"/>
-      <c r="F998" s="22"/>
-      <c r="G998" s="22"/>
-      <c r="H998" s="22"/>
-      <c r="I998" s="22"/>
-      <c r="J998" s="22"/>
-      <c r="K998" s="22"/>
-      <c r="L998" s="22"/>
-      <c r="M998" s="22"/>
-      <c r="N998" s="22"/>
-      <c r="O998" s="22"/>
-      <c r="P998" s="22"/>
-      <c r="Q998" s="22"/>
-      <c r="R998" s="22"/>
-      <c r="S998" s="22"/>
-      <c r="T998" s="22"/>
-      <c r="U998" s="22"/>
-      <c r="V998" s="22"/>
-      <c r="W998" s="22"/>
-      <c r="X998" s="22"/>
-      <c r="Y998" s="22"/>
-      <c r="Z998" s="22"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A274:Z274">
     <cfRule type="colorScale" priority="1">
@@ -39904,7 +39868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A998">
+  <conditionalFormatting sqref="A1:A997">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -40103,7 +40067,7 @@
     <hyperlink r:id="rId191" ref="D673"/>
     <hyperlink r:id="rId192" ref="D674"/>
     <hyperlink r:id="rId193" ref="D675"/>
-    <hyperlink r:id="rId194" ref="D676"/>
+    <hyperlink r:id="rId194" ref="D687"/>
     <hyperlink r:id="rId195" ref="D688"/>
     <hyperlink r:id="rId196" ref="D689"/>
     <hyperlink r:id="rId197" ref="D690"/>
@@ -40113,32 +40077,32 @@
     <hyperlink r:id="rId201" ref="D694"/>
     <hyperlink r:id="rId202" ref="D695"/>
     <hyperlink r:id="rId203" ref="D696"/>
-    <hyperlink r:id="rId204" ref="D697"/>
-    <hyperlink r:id="rId205" ref="D702"/>
+    <hyperlink r:id="rId204" ref="D701"/>
+    <hyperlink r:id="rId205" ref="D704"/>
     <hyperlink r:id="rId206" ref="D705"/>
     <hyperlink r:id="rId207" ref="D706"/>
-    <hyperlink r:id="rId208" ref="D707"/>
-    <hyperlink r:id="rId209" ref="D712"/>
-    <hyperlink r:id="rId210" ref="D718"/>
-    <hyperlink r:id="rId211" ref="D721"/>
+    <hyperlink r:id="rId208" ref="D711"/>
+    <hyperlink r:id="rId209" ref="D717"/>
+    <hyperlink r:id="rId210" ref="D720"/>
+    <hyperlink r:id="rId211" ref="D722"/>
     <hyperlink r:id="rId212" ref="D723"/>
     <hyperlink r:id="rId213" ref="D724"/>
     <hyperlink r:id="rId214" ref="D725"/>
     <hyperlink r:id="rId215" ref="D726"/>
-    <hyperlink r:id="rId216" ref="D727"/>
+    <hyperlink r:id="rId216" ref="D728"/>
     <hyperlink r:id="rId217" ref="D729"/>
     <hyperlink r:id="rId218" ref="D730"/>
-    <hyperlink r:id="rId219" ref="D731"/>
+    <hyperlink r:id="rId219" ref="D734"/>
     <hyperlink r:id="rId220" ref="D735"/>
     <hyperlink r:id="rId221" ref="D736"/>
-    <hyperlink r:id="rId222" ref="D737"/>
-    <hyperlink r:id="rId223" ref="D747"/>
-    <hyperlink r:id="rId224" ref="D752"/>
-    <hyperlink r:id="rId225" ref="D780"/>
-    <hyperlink r:id="rId226" ref="D782"/>
+    <hyperlink r:id="rId222" ref="D746"/>
+    <hyperlink r:id="rId223" ref="D751"/>
+    <hyperlink r:id="rId224" ref="D779"/>
+    <hyperlink r:id="rId225" ref="D781"/>
+    <hyperlink r:id="rId226" ref="D788"/>
     <hyperlink r:id="rId227" ref="D789"/>
     <hyperlink r:id="rId228" ref="D790"/>
-    <hyperlink r:id="rId229" ref="D791"/>
+    <hyperlink r:id="rId229" ref="D795"/>
     <hyperlink r:id="rId230" ref="D796"/>
     <hyperlink r:id="rId231" ref="D797"/>
     <hyperlink r:id="rId232" ref="D798"/>
@@ -40149,16 +40113,15 @@
     <hyperlink r:id="rId237" ref="D803"/>
     <hyperlink r:id="rId238" ref="D804"/>
     <hyperlink r:id="rId239" ref="D805"/>
-    <hyperlink r:id="rId240" ref="D806"/>
-    <hyperlink r:id="rId241" ref="D812"/>
+    <hyperlink r:id="rId240" ref="D811"/>
+    <hyperlink r:id="rId241" ref="D815"/>
     <hyperlink r:id="rId242" ref="D816"/>
     <hyperlink r:id="rId243" ref="D817"/>
     <hyperlink r:id="rId244" ref="D818"/>
-    <hyperlink r:id="rId245" ref="D819"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId246"/>
+  <drawing r:id="rId245"/>
 </worksheet>
 </file>
--- a/compania.xlsx
+++ b/compania.xlsx
@@ -4861,10 +4861,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
@@ -4922,19 +4919,19 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -4946,7 +4943,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -4955,25 +4952,25 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -20450,7 +20447,7 @@
       <c r="C424" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D424" s="16" t="s">
+      <c r="D424" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E424" s="3"/>
@@ -22817,7 +22814,7 @@
       <c r="Z489" s="3"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="17" t="s">
+      <c r="A490" s="16" t="s">
         <v>933</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -22853,7 +22850,7 @@
       <c r="Z490" s="3"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="17" t="s">
+      <c r="A491" s="16" t="s">
         <v>937</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -22889,7 +22886,7 @@
       <c r="Z491" s="3"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="17" t="s">
+      <c r="A492" s="16" t="s">
         <v>941</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -29810,7 +29807,7 @@
       <c r="C684" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D684" s="18" t="s">
+      <c r="D684" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E684" s="3"/>
@@ -32828,7 +32825,7 @@
       <c r="A768" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="B768" s="19" t="s">
+      <c r="B768" s="18" t="s">
         <v>1498</v>
       </c>
       <c r="C768" s="3" t="s">
@@ -33224,7 +33221,7 @@
       <c r="A779" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="B779" s="19" t="s">
+      <c r="B779" s="18" t="s">
         <v>1526</v>
       </c>
       <c r="C779" s="3" t="s">
@@ -34373,6 +34370,7 @@
       <c r="Z810" s="3"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
+      <c r="D811" s="19"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
@@ -34397,6 +34395,7 @@
       <c r="Z811" s="3"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
+      <c r="D812" s="19"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
@@ -34421,6 +34420,7 @@
       <c r="Z812" s="3"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
+      <c r="D813" s="19"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
@@ -34445,6 +34445,7 @@
       <c r="Z813" s="3"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
+      <c r="D814" s="19"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
@@ -34469,6 +34470,7 @@
       <c r="Z814" s="3"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
+      <c r="D815" s="19"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
@@ -34493,6 +34495,7 @@
       <c r="Z815" s="3"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
+      <c r="D816" s="19"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
@@ -34517,6 +34520,7 @@
       <c r="Z816" s="3"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
+      <c r="D817" s="19"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
@@ -34541,6 +34545,7 @@
       <c r="Z817" s="3"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
+      <c r="D818" s="19"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
@@ -34565,6 +34570,7 @@
       <c r="Z818" s="3"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
+      <c r="D819" s="19"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
@@ -34589,6 +34595,7 @@
       <c r="Z819" s="3"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
+      <c r="D820" s="19"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
@@ -34613,6 +34620,7 @@
       <c r="Z820" s="3"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
+      <c r="D821" s="19"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
@@ -34637,6 +34645,7 @@
       <c r="Z821" s="3"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
+      <c r="D822" s="19"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
@@ -34661,6 +34670,7 @@
       <c r="Z822" s="3"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
+      <c r="D823" s="19"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
@@ -34685,6 +34695,7 @@
       <c r="Z823" s="3"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
+      <c r="D824" s="19"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
@@ -34709,6 +34720,7 @@
       <c r="Z824" s="3"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
+      <c r="D825" s="19"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
@@ -34733,6 +34745,7 @@
       <c r="Z825" s="3"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
+      <c r="D826" s="19"/>
       <c r="E826" s="20"/>
       <c r="F826" s="20"/>
       <c r="G826" s="20"/>
@@ -34757,6 +34770,7 @@
       <c r="Z826" s="20"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
+      <c r="D827" s="19"/>
       <c r="E827" s="20"/>
       <c r="F827" s="20"/>
       <c r="G827" s="20"/>
@@ -34781,6 +34795,7 @@
       <c r="Z827" s="20"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
+      <c r="D828" s="19"/>
       <c r="E828" s="20"/>
       <c r="F828" s="20"/>
       <c r="G828" s="20"/>
@@ -34805,6 +34820,7 @@
       <c r="Z828" s="20"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
+      <c r="D829" s="19"/>
       <c r="E829" s="20"/>
       <c r="F829" s="20"/>
       <c r="G829" s="20"/>
@@ -34829,6 +34845,7 @@
       <c r="Z829" s="20"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
+      <c r="D830" s="19"/>
       <c r="E830" s="20"/>
       <c r="F830" s="20"/>
       <c r="G830" s="20"/>
@@ -34853,6 +34870,7 @@
       <c r="Z830" s="20"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
+      <c r="D831" s="19"/>
       <c r="E831" s="20"/>
       <c r="F831" s="20"/>
       <c r="G831" s="20"/>
@@ -34877,6 +34895,7 @@
       <c r="Z831" s="20"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
+      <c r="D832" s="19"/>
       <c r="E832" s="20"/>
       <c r="F832" s="20"/>
       <c r="G832" s="20"/>
@@ -34901,6 +34920,7 @@
       <c r="Z832" s="20"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
+      <c r="D833" s="19"/>
       <c r="E833" s="20"/>
       <c r="F833" s="20"/>
       <c r="G833" s="20"/>
@@ -34925,6 +34945,7 @@
       <c r="Z833" s="20"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
+      <c r="D834" s="19"/>
       <c r="E834" s="20"/>
       <c r="F834" s="20"/>
       <c r="G834" s="20"/>
@@ -34949,6 +34970,7 @@
       <c r="Z834" s="20"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
+      <c r="D835" s="19"/>
       <c r="E835" s="20"/>
       <c r="F835" s="20"/>
       <c r="G835" s="20"/>
@@ -34973,6 +34995,7 @@
       <c r="Z835" s="20"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
+      <c r="D836" s="19"/>
       <c r="E836" s="20"/>
       <c r="F836" s="20"/>
       <c r="G836" s="20"/>
@@ -34997,6 +35020,7 @@
       <c r="Z836" s="20"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
+      <c r="D837" s="19"/>
       <c r="E837" s="20"/>
       <c r="F837" s="20"/>
       <c r="G837" s="20"/>
@@ -35021,6 +35045,7 @@
       <c r="Z837" s="20"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
+      <c r="D838" s="19"/>
       <c r="E838" s="20"/>
       <c r="F838" s="20"/>
       <c r="G838" s="20"/>
@@ -35045,6 +35070,7 @@
       <c r="Z838" s="20"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
+      <c r="D839" s="19"/>
       <c r="E839" s="20"/>
       <c r="F839" s="20"/>
       <c r="G839" s="20"/>
@@ -35069,6 +35095,7 @@
       <c r="Z839" s="20"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
+      <c r="D840" s="19"/>
       <c r="E840" s="20"/>
       <c r="F840" s="20"/>
       <c r="G840" s="20"/>
@@ -35093,6 +35120,7 @@
       <c r="Z840" s="20"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
+      <c r="D841" s="19"/>
       <c r="E841" s="20"/>
       <c r="F841" s="20"/>
       <c r="G841" s="20"/>
@@ -35117,6 +35145,7 @@
       <c r="Z841" s="20"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
+      <c r="D842" s="19"/>
       <c r="E842" s="20"/>
       <c r="F842" s="20"/>
       <c r="G842" s="20"/>
@@ -35141,6 +35170,7 @@
       <c r="Z842" s="20"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
+      <c r="D843" s="19"/>
       <c r="E843" s="20"/>
       <c r="F843" s="20"/>
       <c r="G843" s="20"/>
@@ -35165,6 +35195,7 @@
       <c r="Z843" s="20"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
+      <c r="D844" s="19"/>
       <c r="E844" s="20"/>
       <c r="F844" s="20"/>
       <c r="G844" s="20"/>
@@ -35189,6 +35220,7 @@
       <c r="Z844" s="20"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
+      <c r="D845" s="19"/>
       <c r="E845" s="20"/>
       <c r="F845" s="20"/>
       <c r="G845" s="20"/>
@@ -35213,6 +35245,7 @@
       <c r="Z845" s="20"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
+      <c r="D846" s="19"/>
       <c r="E846" s="20"/>
       <c r="F846" s="20"/>
       <c r="G846" s="20"/>
@@ -35237,6 +35270,7 @@
       <c r="Z846" s="20"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
+      <c r="D847" s="19"/>
       <c r="E847" s="20"/>
       <c r="F847" s="20"/>
       <c r="G847" s="20"/>
@@ -35261,6 +35295,7 @@
       <c r="Z847" s="20"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
+      <c r="D848" s="19"/>
       <c r="E848" s="20"/>
       <c r="F848" s="20"/>
       <c r="G848" s="20"/>
@@ -35285,6 +35320,7 @@
       <c r="Z848" s="20"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
+      <c r="D849" s="19"/>
       <c r="E849" s="20"/>
       <c r="F849" s="20"/>
       <c r="G849" s="20"/>
@@ -35309,6 +35345,7 @@
       <c r="Z849" s="20"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
+      <c r="D850" s="19"/>
       <c r="E850" s="20"/>
       <c r="F850" s="20"/>
       <c r="G850" s="20"/>
@@ -35333,6 +35370,7 @@
       <c r="Z850" s="20"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
+      <c r="D851" s="19"/>
       <c r="E851" s="20"/>
       <c r="F851" s="20"/>
       <c r="G851" s="20"/>
@@ -35357,6 +35395,7 @@
       <c r="Z851" s="20"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
+      <c r="D852" s="19"/>
       <c r="E852" s="20"/>
       <c r="F852" s="20"/>
       <c r="G852" s="20"/>
@@ -35381,6 +35420,7 @@
       <c r="Z852" s="20"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
+      <c r="D853" s="19"/>
       <c r="E853" s="20"/>
       <c r="F853" s="20"/>
       <c r="G853" s="20"/>
@@ -35405,6 +35445,7 @@
       <c r="Z853" s="20"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
+      <c r="D854" s="19"/>
       <c r="E854" s="20"/>
       <c r="F854" s="20"/>
       <c r="G854" s="20"/>
@@ -35429,6 +35470,7 @@
       <c r="Z854" s="20"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
+      <c r="D855" s="19"/>
       <c r="E855" s="20"/>
       <c r="F855" s="20"/>
       <c r="G855" s="20"/>
@@ -35453,6 +35495,7 @@
       <c r="Z855" s="20"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
+      <c r="D856" s="19"/>
       <c r="E856" s="20"/>
       <c r="F856" s="20"/>
       <c r="G856" s="20"/>
@@ -35477,6 +35520,7 @@
       <c r="Z856" s="20"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
+      <c r="D857" s="19"/>
       <c r="E857" s="20"/>
       <c r="F857" s="20"/>
       <c r="G857" s="20"/>
@@ -35501,6 +35545,7 @@
       <c r="Z857" s="20"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
+      <c r="D858" s="19"/>
       <c r="E858" s="20"/>
       <c r="F858" s="20"/>
       <c r="G858" s="20"/>
@@ -35525,6 +35570,7 @@
       <c r="Z858" s="20"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
+      <c r="D859" s="19"/>
       <c r="E859" s="20"/>
       <c r="F859" s="20"/>
       <c r="G859" s="20"/>
@@ -35549,6 +35595,7 @@
       <c r="Z859" s="20"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
+      <c r="D860" s="19"/>
       <c r="E860" s="20"/>
       <c r="F860" s="20"/>
       <c r="G860" s="20"/>
@@ -35573,6 +35620,7 @@
       <c r="Z860" s="20"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
+      <c r="D861" s="19"/>
       <c r="E861" s="20"/>
       <c r="F861" s="20"/>
       <c r="G861" s="20"/>
@@ -35597,6 +35645,7 @@
       <c r="Z861" s="20"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
+      <c r="D862" s="19"/>
       <c r="E862" s="20"/>
       <c r="F862" s="20"/>
       <c r="G862" s="20"/>
@@ -35621,6 +35670,7 @@
       <c r="Z862" s="20"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
+      <c r="D863" s="19"/>
       <c r="E863" s="20"/>
       <c r="F863" s="20"/>
       <c r="G863" s="20"/>
@@ -35645,6 +35695,7 @@
       <c r="Z863" s="20"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
+      <c r="D864" s="19"/>
       <c r="E864" s="20"/>
       <c r="F864" s="20"/>
       <c r="G864" s="20"/>
@@ -35669,6 +35720,7 @@
       <c r="Z864" s="20"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
+      <c r="D865" s="19"/>
       <c r="E865" s="20"/>
       <c r="F865" s="20"/>
       <c r="G865" s="20"/>
@@ -35693,6 +35745,7 @@
       <c r="Z865" s="20"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
+      <c r="D866" s="19"/>
       <c r="E866" s="20"/>
       <c r="F866" s="20"/>
       <c r="G866" s="20"/>
@@ -35717,6 +35770,7 @@
       <c r="Z866" s="20"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
+      <c r="D867" s="19"/>
       <c r="E867" s="20"/>
       <c r="F867" s="20"/>
       <c r="G867" s="20"/>
@@ -35741,6 +35795,7 @@
       <c r="Z867" s="20"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
+      <c r="D868" s="19"/>
       <c r="E868" s="20"/>
       <c r="F868" s="20"/>
       <c r="G868" s="20"/>
@@ -35765,6 +35820,7 @@
       <c r="Z868" s="20"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
+      <c r="D869" s="19"/>
       <c r="E869" s="20"/>
       <c r="F869" s="20"/>
       <c r="G869" s="20"/>
@@ -35789,6 +35845,7 @@
       <c r="Z869" s="20"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
+      <c r="D870" s="19"/>
       <c r="E870" s="20"/>
       <c r="F870" s="20"/>
       <c r="G870" s="20"/>
@@ -35813,6 +35870,7 @@
       <c r="Z870" s="20"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
+      <c r="D871" s="19"/>
       <c r="E871" s="20"/>
       <c r="F871" s="20"/>
       <c r="G871" s="20"/>
@@ -35837,6 +35895,7 @@
       <c r="Z871" s="20"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
+      <c r="D872" s="19"/>
       <c r="E872" s="20"/>
       <c r="F872" s="20"/>
       <c r="G872" s="20"/>
@@ -35861,6 +35920,7 @@
       <c r="Z872" s="20"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
+      <c r="D873" s="19"/>
       <c r="E873" s="20"/>
       <c r="F873" s="20"/>
       <c r="G873" s="20"/>
@@ -35885,6 +35945,7 @@
       <c r="Z873" s="20"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
+      <c r="D874" s="19"/>
       <c r="E874" s="20"/>
       <c r="F874" s="20"/>
       <c r="G874" s="20"/>
@@ -35909,6 +35970,7 @@
       <c r="Z874" s="20"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
+      <c r="D875" s="19"/>
       <c r="E875" s="20"/>
       <c r="F875" s="20"/>
       <c r="G875" s="20"/>
@@ -35933,6 +35995,7 @@
       <c r="Z875" s="20"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
+      <c r="D876" s="19"/>
       <c r="E876" s="20"/>
       <c r="F876" s="20"/>
       <c r="G876" s="20"/>
@@ -35957,6 +36020,7 @@
       <c r="Z876" s="20"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
+      <c r="D877" s="19"/>
       <c r="E877" s="20"/>
       <c r="F877" s="20"/>
       <c r="G877" s="20"/>
@@ -35981,6 +36045,7 @@
       <c r="Z877" s="20"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
+      <c r="D878" s="19"/>
       <c r="E878" s="20"/>
       <c r="F878" s="20"/>
       <c r="G878" s="20"/>
@@ -36005,6 +36070,7 @@
       <c r="Z878" s="20"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
+      <c r="D879" s="19"/>
       <c r="E879" s="20"/>
       <c r="F879" s="20"/>
       <c r="G879" s="20"/>
@@ -36029,6 +36095,7 @@
       <c r="Z879" s="20"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
+      <c r="D880" s="19"/>
       <c r="E880" s="20"/>
       <c r="F880" s="20"/>
       <c r="G880" s="20"/>
@@ -36053,6 +36120,7 @@
       <c r="Z880" s="20"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
+      <c r="D881" s="19"/>
       <c r="E881" s="20"/>
       <c r="F881" s="20"/>
       <c r="G881" s="20"/>
@@ -36077,6 +36145,7 @@
       <c r="Z881" s="20"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
+      <c r="D882" s="19"/>
       <c r="E882" s="20"/>
       <c r="F882" s="20"/>
       <c r="G882" s="20"/>
@@ -36101,6 +36170,7 @@
       <c r="Z882" s="20"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
+      <c r="D883" s="19"/>
       <c r="E883" s="20"/>
       <c r="F883" s="20"/>
       <c r="G883" s="20"/>
@@ -36125,6 +36195,7 @@
       <c r="Z883" s="20"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
+      <c r="D884" s="19"/>
       <c r="E884" s="20"/>
       <c r="F884" s="20"/>
       <c r="G884" s="20"/>
@@ -36149,6 +36220,7 @@
       <c r="Z884" s="20"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
+      <c r="D885" s="19"/>
       <c r="E885" s="20"/>
       <c r="F885" s="20"/>
       <c r="G885" s="20"/>
@@ -36173,6 +36245,7 @@
       <c r="Z885" s="20"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
+      <c r="D886" s="19"/>
       <c r="E886" s="20"/>
       <c r="F886" s="20"/>
       <c r="G886" s="20"/>
@@ -36197,6 +36270,7 @@
       <c r="Z886" s="20"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
+      <c r="D887" s="19"/>
       <c r="E887" s="20"/>
       <c r="F887" s="20"/>
       <c r="G887" s="20"/>
@@ -36221,6 +36295,7 @@
       <c r="Z887" s="20"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
+      <c r="D888" s="19"/>
       <c r="E888" s="20"/>
       <c r="F888" s="20"/>
       <c r="G888" s="20"/>
@@ -36245,6 +36320,7 @@
       <c r="Z888" s="20"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
+      <c r="D889" s="19"/>
       <c r="E889" s="20"/>
       <c r="F889" s="20"/>
       <c r="G889" s="20"/>
@@ -36269,6 +36345,7 @@
       <c r="Z889" s="20"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
+      <c r="D890" s="19"/>
       <c r="E890" s="20"/>
       <c r="F890" s="20"/>
       <c r="G890" s="20"/>
@@ -36293,6 +36370,7 @@
       <c r="Z890" s="20"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
+      <c r="D891" s="19"/>
       <c r="E891" s="20"/>
       <c r="F891" s="20"/>
       <c r="G891" s="20"/>
@@ -36317,6 +36395,7 @@
       <c r="Z891" s="20"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
+      <c r="D892" s="19"/>
       <c r="E892" s="20"/>
       <c r="F892" s="20"/>
       <c r="G892" s="20"/>
@@ -36341,6 +36420,7 @@
       <c r="Z892" s="20"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
+      <c r="D893" s="19"/>
       <c r="E893" s="20"/>
       <c r="F893" s="20"/>
       <c r="G893" s="20"/>
@@ -36365,6 +36445,7 @@
       <c r="Z893" s="20"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
+      <c r="D894" s="19"/>
       <c r="E894" s="20"/>
       <c r="F894" s="20"/>
       <c r="G894" s="20"/>
@@ -36389,6 +36470,7 @@
       <c r="Z894" s="20"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
+      <c r="D895" s="19"/>
       <c r="E895" s="20"/>
       <c r="F895" s="20"/>
       <c r="G895" s="20"/>
@@ -36413,6 +36495,7 @@
       <c r="Z895" s="20"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
+      <c r="D896" s="19"/>
       <c r="E896" s="20"/>
       <c r="F896" s="20"/>
       <c r="G896" s="20"/>
@@ -36437,6 +36520,7 @@
       <c r="Z896" s="20"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
+      <c r="D897" s="19"/>
       <c r="E897" s="20"/>
       <c r="F897" s="20"/>
       <c r="G897" s="20"/>
@@ -36461,6 +36545,7 @@
       <c r="Z897" s="20"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
+      <c r="D898" s="19"/>
       <c r="E898" s="20"/>
       <c r="F898" s="20"/>
       <c r="G898" s="20"/>
@@ -36485,6 +36570,7 @@
       <c r="Z898" s="20"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
+      <c r="D899" s="19"/>
       <c r="E899" s="20"/>
       <c r="F899" s="20"/>
       <c r="G899" s="20"/>
@@ -36509,6 +36595,7 @@
       <c r="Z899" s="20"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
+      <c r="D900" s="19"/>
       <c r="E900" s="20"/>
       <c r="F900" s="20"/>
       <c r="G900" s="20"/>
@@ -36533,6 +36620,7 @@
       <c r="Z900" s="20"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
+      <c r="D901" s="19"/>
       <c r="E901" s="20"/>
       <c r="F901" s="20"/>
       <c r="G901" s="20"/>
@@ -36557,6 +36645,7 @@
       <c r="Z901" s="20"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
+      <c r="D902" s="19"/>
       <c r="E902" s="20"/>
       <c r="F902" s="20"/>
       <c r="G902" s="20"/>
@@ -36581,6 +36670,7 @@
       <c r="Z902" s="20"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
+      <c r="D903" s="19"/>
       <c r="E903" s="20"/>
       <c r="F903" s="20"/>
       <c r="G903" s="20"/>
@@ -36605,6 +36695,7 @@
       <c r="Z903" s="20"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
+      <c r="D904" s="19"/>
       <c r="E904" s="20"/>
       <c r="F904" s="20"/>
       <c r="G904" s="20"/>
@@ -36629,6 +36720,7 @@
       <c r="Z904" s="20"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
+      <c r="D905" s="19"/>
       <c r="E905" s="20"/>
       <c r="F905" s="20"/>
       <c r="G905" s="20"/>
@@ -36653,6 +36745,7 @@
       <c r="Z905" s="20"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
+      <c r="D906" s="19"/>
       <c r="E906" s="20"/>
       <c r="F906" s="20"/>
       <c r="G906" s="20"/>
@@ -36677,6 +36770,7 @@
       <c r="Z906" s="20"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
+      <c r="D907" s="19"/>
       <c r="E907" s="20"/>
       <c r="F907" s="20"/>
       <c r="G907" s="20"/>
@@ -36701,6 +36795,7 @@
       <c r="Z907" s="20"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
+      <c r="D908" s="19"/>
       <c r="E908" s="20"/>
       <c r="F908" s="20"/>
       <c r="G908" s="20"/>
@@ -36725,6 +36820,7 @@
       <c r="Z908" s="20"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
+      <c r="D909" s="19"/>
       <c r="E909" s="20"/>
       <c r="F909" s="20"/>
       <c r="G909" s="20"/>
@@ -36749,6 +36845,7 @@
       <c r="Z909" s="20"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
+      <c r="D910" s="19"/>
       <c r="E910" s="20"/>
       <c r="F910" s="20"/>
       <c r="G910" s="20"/>
@@ -36773,6 +36870,7 @@
       <c r="Z910" s="20"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
+      <c r="D911" s="19"/>
       <c r="E911" s="20"/>
       <c r="F911" s="20"/>
       <c r="G911" s="20"/>
@@ -36797,6 +36895,7 @@
       <c r="Z911" s="20"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
+      <c r="D912" s="19"/>
       <c r="E912" s="20"/>
       <c r="F912" s="20"/>
       <c r="G912" s="20"/>
@@ -36821,6 +36920,7 @@
       <c r="Z912" s="20"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
+      <c r="D913" s="19"/>
       <c r="E913" s="20"/>
       <c r="F913" s="20"/>
       <c r="G913" s="20"/>
@@ -36845,6 +36945,7 @@
       <c r="Z913" s="20"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
+      <c r="D914" s="19"/>
       <c r="E914" s="20"/>
       <c r="F914" s="20"/>
       <c r="G914" s="20"/>
@@ -36869,6 +36970,7 @@
       <c r="Z914" s="20"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
+      <c r="D915" s="19"/>
       <c r="E915" s="20"/>
       <c r="F915" s="20"/>
       <c r="G915" s="20"/>
@@ -36893,6 +36995,7 @@
       <c r="Z915" s="20"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
+      <c r="D916" s="19"/>
       <c r="E916" s="20"/>
       <c r="F916" s="20"/>
       <c r="G916" s="20"/>
@@ -36917,6 +37020,7 @@
       <c r="Z916" s="20"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
+      <c r="D917" s="19"/>
       <c r="E917" s="20"/>
       <c r="F917" s="20"/>
       <c r="G917" s="20"/>
@@ -36941,6 +37045,7 @@
       <c r="Z917" s="20"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
+      <c r="D918" s="19"/>
       <c r="E918" s="20"/>
       <c r="F918" s="20"/>
       <c r="G918" s="20"/>
@@ -36965,6 +37070,7 @@
       <c r="Z918" s="20"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
+      <c r="D919" s="19"/>
       <c r="E919" s="20"/>
       <c r="F919" s="20"/>
       <c r="G919" s="20"/>
@@ -36989,6 +37095,7 @@
       <c r="Z919" s="20"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
+      <c r="D920" s="19"/>
       <c r="E920" s="20"/>
       <c r="F920" s="20"/>
       <c r="G920" s="20"/>
@@ -37013,6 +37120,7 @@
       <c r="Z920" s="20"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
+      <c r="D921" s="19"/>
       <c r="E921" s="20"/>
       <c r="F921" s="20"/>
       <c r="G921" s="20"/>
@@ -37037,6 +37145,7 @@
       <c r="Z921" s="20"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
+      <c r="D922" s="19"/>
       <c r="E922" s="20"/>
       <c r="F922" s="20"/>
       <c r="G922" s="20"/>
@@ -37061,6 +37170,7 @@
       <c r="Z922" s="20"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
+      <c r="D923" s="19"/>
       <c r="E923" s="20"/>
       <c r="F923" s="20"/>
       <c r="G923" s="20"/>
@@ -37085,6 +37195,7 @@
       <c r="Z923" s="20"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
+      <c r="D924" s="19"/>
       <c r="E924" s="20"/>
       <c r="F924" s="20"/>
       <c r="G924" s="20"/>
@@ -37109,6 +37220,7 @@
       <c r="Z924" s="20"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
+      <c r="D925" s="19"/>
       <c r="E925" s="20"/>
       <c r="F925" s="20"/>
       <c r="G925" s="20"/>
@@ -37133,6 +37245,7 @@
       <c r="Z925" s="20"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
+      <c r="D926" s="19"/>
       <c r="E926" s="20"/>
       <c r="F926" s="20"/>
       <c r="G926" s="20"/>
@@ -37157,6 +37270,7 @@
       <c r="Z926" s="20"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
+      <c r="D927" s="19"/>
       <c r="E927" s="20"/>
       <c r="F927" s="20"/>
       <c r="G927" s="20"/>
@@ -37181,6 +37295,7 @@
       <c r="Z927" s="20"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
+      <c r="D928" s="19"/>
       <c r="E928" s="20"/>
       <c r="F928" s="20"/>
       <c r="G928" s="20"/>
@@ -37205,6 +37320,7 @@
       <c r="Z928" s="20"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
+      <c r="D929" s="19"/>
       <c r="E929" s="20"/>
       <c r="F929" s="20"/>
       <c r="G929" s="20"/>
@@ -37229,6 +37345,7 @@
       <c r="Z929" s="20"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
+      <c r="D930" s="19"/>
       <c r="E930" s="20"/>
       <c r="F930" s="20"/>
       <c r="G930" s="20"/>
@@ -37253,6 +37370,7 @@
       <c r="Z930" s="20"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
+      <c r="D931" s="19"/>
       <c r="E931" s="20"/>
       <c r="F931" s="20"/>
       <c r="G931" s="20"/>
@@ -37277,6 +37395,7 @@
       <c r="Z931" s="20"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
+      <c r="D932" s="19"/>
       <c r="E932" s="20"/>
       <c r="F932" s="20"/>
       <c r="G932" s="20"/>
@@ -37301,6 +37420,7 @@
       <c r="Z932" s="20"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
+      <c r="D933" s="19"/>
       <c r="E933" s="20"/>
       <c r="F933" s="20"/>
       <c r="G933" s="20"/>
@@ -37325,6 +37445,7 @@
       <c r="Z933" s="20"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
+      <c r="D934" s="19"/>
       <c r="E934" s="20"/>
       <c r="F934" s="20"/>
       <c r="G934" s="20"/>
@@ -37349,6 +37470,7 @@
       <c r="Z934" s="20"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
+      <c r="D935" s="19"/>
       <c r="E935" s="20"/>
       <c r="F935" s="20"/>
       <c r="G935" s="20"/>
@@ -37373,6 +37495,7 @@
       <c r="Z935" s="20"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
+      <c r="D936" s="19"/>
       <c r="E936" s="20"/>
       <c r="F936" s="20"/>
       <c r="G936" s="20"/>
@@ -37397,6 +37520,7 @@
       <c r="Z936" s="20"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
+      <c r="D937" s="19"/>
       <c r="E937" s="20"/>
       <c r="F937" s="20"/>
       <c r="G937" s="20"/>
@@ -37421,6 +37545,7 @@
       <c r="Z937" s="20"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
+      <c r="D938" s="19"/>
       <c r="E938" s="20"/>
       <c r="F938" s="20"/>
       <c r="G938" s="20"/>
@@ -37445,6 +37570,7 @@
       <c r="Z938" s="20"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
+      <c r="D939" s="19"/>
       <c r="E939" s="20"/>
       <c r="F939" s="20"/>
       <c r="G939" s="20"/>
@@ -37469,6 +37595,7 @@
       <c r="Z939" s="20"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
+      <c r="D940" s="19"/>
       <c r="E940" s="20"/>
       <c r="F940" s="20"/>
       <c r="G940" s="20"/>
@@ -37493,6 +37620,7 @@
       <c r="Z940" s="20"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
+      <c r="D941" s="19"/>
       <c r="E941" s="20"/>
       <c r="F941" s="20"/>
       <c r="G941" s="20"/>
@@ -37517,6 +37645,7 @@
       <c r="Z941" s="20"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
+      <c r="D942" s="19"/>
       <c r="E942" s="20"/>
       <c r="F942" s="20"/>
       <c r="G942" s="20"/>
@@ -37541,6 +37670,7 @@
       <c r="Z942" s="20"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
+      <c r="D943" s="19"/>
       <c r="E943" s="20"/>
       <c r="F943" s="20"/>
       <c r="G943" s="20"/>
@@ -37565,6 +37695,7 @@
       <c r="Z943" s="20"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
+      <c r="D944" s="19"/>
       <c r="E944" s="20"/>
       <c r="F944" s="20"/>
       <c r="G944" s="20"/>
@@ -37589,6 +37720,7 @@
       <c r="Z944" s="20"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
+      <c r="D945" s="19"/>
       <c r="E945" s="20"/>
       <c r="F945" s="20"/>
       <c r="G945" s="20"/>
@@ -37613,6 +37745,7 @@
       <c r="Z945" s="20"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
+      <c r="D946" s="19"/>
       <c r="E946" s="20"/>
       <c r="F946" s="20"/>
       <c r="G946" s="20"/>
@@ -37637,6 +37770,7 @@
       <c r="Z946" s="20"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
+      <c r="D947" s="19"/>
       <c r="E947" s="20"/>
       <c r="F947" s="20"/>
       <c r="G947" s="20"/>
@@ -37661,6 +37795,7 @@
       <c r="Z947" s="20"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
+      <c r="D948" s="19"/>
       <c r="E948" s="20"/>
       <c r="F948" s="20"/>
       <c r="G948" s="20"/>
@@ -37685,6 +37820,7 @@
       <c r="Z948" s="20"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
+      <c r="D949" s="19"/>
       <c r="E949" s="20"/>
       <c r="F949" s="20"/>
       <c r="G949" s="20"/>
@@ -37709,6 +37845,7 @@
       <c r="Z949" s="20"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
+      <c r="D950" s="19"/>
       <c r="E950" s="20"/>
       <c r="F950" s="20"/>
       <c r="G950" s="20"/>
@@ -37733,6 +37870,7 @@
       <c r="Z950" s="20"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
+      <c r="D951" s="19"/>
       <c r="E951" s="20"/>
       <c r="F951" s="20"/>
       <c r="G951" s="20"/>
@@ -37757,6 +37895,7 @@
       <c r="Z951" s="20"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
+      <c r="D952" s="19"/>
       <c r="E952" s="20"/>
       <c r="F952" s="20"/>
       <c r="G952" s="20"/>
@@ -37781,6 +37920,7 @@
       <c r="Z952" s="20"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
+      <c r="D953" s="19"/>
       <c r="E953" s="20"/>
       <c r="F953" s="20"/>
       <c r="G953" s="20"/>
@@ -37805,6 +37945,7 @@
       <c r="Z953" s="20"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
+      <c r="D954" s="19"/>
       <c r="E954" s="20"/>
       <c r="F954" s="20"/>
       <c r="G954" s="20"/>
@@ -37829,6 +37970,7 @@
       <c r="Z954" s="20"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
+      <c r="D955" s="19"/>
       <c r="E955" s="20"/>
       <c r="F955" s="20"/>
       <c r="G955" s="20"/>
@@ -37853,6 +37995,7 @@
       <c r="Z955" s="20"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
+      <c r="D956" s="19"/>
       <c r="E956" s="20"/>
       <c r="F956" s="20"/>
       <c r="G956" s="20"/>
@@ -37877,6 +38020,7 @@
       <c r="Z956" s="20"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
+      <c r="D957" s="19"/>
       <c r="E957" s="20"/>
       <c r="F957" s="20"/>
       <c r="G957" s="20"/>
@@ -37901,6 +38045,7 @@
       <c r="Z957" s="20"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
+      <c r="D958" s="19"/>
       <c r="E958" s="20"/>
       <c r="F958" s="20"/>
       <c r="G958" s="20"/>
@@ -37925,6 +38070,7 @@
       <c r="Z958" s="20"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
+      <c r="D959" s="19"/>
       <c r="E959" s="20"/>
       <c r="F959" s="20"/>
       <c r="G959" s="20"/>
@@ -37949,6 +38095,7 @@
       <c r="Z959" s="20"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
+      <c r="D960" s="19"/>
       <c r="E960" s="20"/>
       <c r="F960" s="20"/>
       <c r="G960" s="20"/>
@@ -37973,6 +38120,7 @@
       <c r="Z960" s="20"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
+      <c r="D961" s="19"/>
       <c r="E961" s="20"/>
       <c r="F961" s="20"/>
       <c r="G961" s="20"/>
@@ -37997,6 +38145,7 @@
       <c r="Z961" s="20"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
+      <c r="D962" s="19"/>
       <c r="E962" s="20"/>
       <c r="F962" s="20"/>
       <c r="G962" s="20"/>
@@ -38021,6 +38170,7 @@
       <c r="Z962" s="20"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
+      <c r="D963" s="19"/>
       <c r="E963" s="20"/>
       <c r="F963" s="20"/>
       <c r="G963" s="20"/>
@@ -38045,6 +38195,7 @@
       <c r="Z963" s="20"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
+      <c r="D964" s="19"/>
       <c r="E964" s="20"/>
       <c r="F964" s="20"/>
       <c r="G964" s="20"/>
@@ -38069,6 +38220,7 @@
       <c r="Z964" s="20"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
+      <c r="D965" s="19"/>
       <c r="E965" s="20"/>
       <c r="F965" s="20"/>
       <c r="G965" s="20"/>
@@ -38093,6 +38245,7 @@
       <c r="Z965" s="20"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
+      <c r="D966" s="19"/>
       <c r="E966" s="20"/>
       <c r="F966" s="20"/>
       <c r="G966" s="20"/>
@@ -38117,6 +38270,7 @@
       <c r="Z966" s="20"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
+      <c r="D967" s="19"/>
       <c r="E967" s="20"/>
       <c r="F967" s="20"/>
       <c r="G967" s="20"/>
@@ -38141,6 +38295,7 @@
       <c r="Z967" s="20"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
+      <c r="D968" s="19"/>
       <c r="E968" s="20"/>
       <c r="F968" s="20"/>
       <c r="G968" s="20"/>
@@ -38165,6 +38320,7 @@
       <c r="Z968" s="20"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
+      <c r="D969" s="19"/>
       <c r="E969" s="20"/>
       <c r="F969" s="20"/>
       <c r="G969" s="20"/>
@@ -38189,6 +38345,7 @@
       <c r="Z969" s="20"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
+      <c r="D970" s="19"/>
       <c r="E970" s="20"/>
       <c r="F970" s="20"/>
       <c r="G970" s="20"/>
@@ -38213,6 +38370,7 @@
       <c r="Z970" s="20"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
+      <c r="D971" s="19"/>
       <c r="E971" s="20"/>
       <c r="F971" s="20"/>
       <c r="G971" s="20"/>
@@ -38237,6 +38395,7 @@
       <c r="Z971" s="20"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
+      <c r="D972" s="19"/>
       <c r="E972" s="20"/>
       <c r="F972" s="20"/>
       <c r="G972" s="20"/>
@@ -38261,6 +38420,7 @@
       <c r="Z972" s="20"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
+      <c r="D973" s="19"/>
       <c r="E973" s="20"/>
       <c r="F973" s="20"/>
       <c r="G973" s="20"/>
@@ -38285,6 +38445,7 @@
       <c r="Z973" s="20"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
+      <c r="D974" s="19"/>
       <c r="E974" s="20"/>
       <c r="F974" s="20"/>
       <c r="G974" s="20"/>
@@ -38309,6 +38470,7 @@
       <c r="Z974" s="20"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
+      <c r="D975" s="19"/>
       <c r="E975" s="20"/>
       <c r="F975" s="20"/>
       <c r="G975" s="20"/>
@@ -38333,6 +38495,7 @@
       <c r="Z975" s="20"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
+      <c r="D976" s="19"/>
       <c r="E976" s="20"/>
       <c r="F976" s="20"/>
       <c r="G976" s="20"/>
@@ -38357,6 +38520,7 @@
       <c r="Z976" s="20"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
+      <c r="D977" s="19"/>
       <c r="E977" s="20"/>
       <c r="F977" s="20"/>
       <c r="G977" s="20"/>
@@ -38381,6 +38545,7 @@
       <c r="Z977" s="20"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
+      <c r="D978" s="19"/>
       <c r="E978" s="20"/>
       <c r="F978" s="20"/>
       <c r="G978" s="20"/>
@@ -38405,6 +38570,7 @@
       <c r="Z978" s="20"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
+      <c r="D979" s="19"/>
       <c r="E979" s="20"/>
       <c r="F979" s="20"/>
       <c r="G979" s="20"/>
@@ -38429,6 +38595,7 @@
       <c r="Z979" s="20"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
+      <c r="D980" s="19"/>
       <c r="E980" s="20"/>
       <c r="F980" s="20"/>
       <c r="G980" s="20"/>
@@ -38453,6 +38620,7 @@
       <c r="Z980" s="20"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
+      <c r="D981" s="19"/>
       <c r="E981" s="20"/>
       <c r="F981" s="20"/>
       <c r="G981" s="20"/>
@@ -38477,6 +38645,7 @@
       <c r="Z981" s="20"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
+      <c r="D982" s="19"/>
       <c r="E982" s="20"/>
       <c r="F982" s="20"/>
       <c r="G982" s="20"/>
@@ -38501,6 +38670,7 @@
       <c r="Z982" s="20"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
+      <c r="D983" s="19"/>
       <c r="E983" s="20"/>
       <c r="F983" s="20"/>
       <c r="G983" s="20"/>
@@ -38525,6 +38695,7 @@
       <c r="Z983" s="20"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
+      <c r="D984" s="19"/>
       <c r="E984" s="20"/>
       <c r="F984" s="20"/>
       <c r="G984" s="20"/>
@@ -38549,6 +38720,7 @@
       <c r="Z984" s="20"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
+      <c r="D985" s="19"/>
       <c r="E985" s="20"/>
       <c r="F985" s="20"/>
       <c r="G985" s="20"/>
@@ -38573,6 +38745,7 @@
       <c r="Z985" s="20"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
+      <c r="D986" s="19"/>
       <c r="E986" s="20"/>
       <c r="F986" s="20"/>
       <c r="G986" s="20"/>
@@ -38597,6 +38770,7 @@
       <c r="Z986" s="20"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
+      <c r="D987" s="19"/>
       <c r="E987" s="20"/>
       <c r="F987" s="20"/>
       <c r="G987" s="20"/>
@@ -38621,6 +38795,7 @@
       <c r="Z987" s="20"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
+      <c r="D988" s="19"/>
       <c r="E988" s="20"/>
       <c r="F988" s="20"/>
       <c r="G988" s="20"/>
@@ -38645,6 +38820,7 @@
       <c r="Z988" s="20"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
+      <c r="D989" s="19"/>
       <c r="E989" s="20"/>
       <c r="F989" s="20"/>
       <c r="G989" s="20"/>
@@ -38669,6 +38845,7 @@
       <c r="Z989" s="20"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
+      <c r="D990" s="19"/>
       <c r="E990" s="20"/>
       <c r="F990" s="20"/>
       <c r="G990" s="20"/>
@@ -38693,6 +38870,7 @@
       <c r="Z990" s="20"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
+      <c r="D991" s="19"/>
       <c r="E991" s="20"/>
       <c r="F991" s="20"/>
       <c r="G991" s="20"/>
@@ -38717,6 +38895,7 @@
       <c r="Z991" s="20"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
+      <c r="D992" s="19"/>
       <c r="E992" s="20"/>
       <c r="F992" s="20"/>
       <c r="G992" s="20"/>
@@ -38741,6 +38920,7 @@
       <c r="Z992" s="20"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
+      <c r="D993" s="19"/>
       <c r="E993" s="20"/>
       <c r="F993" s="20"/>
       <c r="G993" s="20"/>
@@ -38765,6 +38945,7 @@
       <c r="Z993" s="20"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
+      <c r="D994" s="19"/>
       <c r="E994" s="20"/>
       <c r="F994" s="20"/>
       <c r="G994" s="20"/>
@@ -38789,6 +38970,7 @@
       <c r="Z994" s="20"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
+      <c r="D995" s="19"/>
       <c r="E995" s="20"/>
       <c r="F995" s="20"/>
       <c r="G995" s="20"/>
@@ -38813,6 +38995,7 @@
       <c r="Z995" s="20"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
+      <c r="D996" s="19"/>
       <c r="E996" s="20"/>
       <c r="F996" s="20"/>
       <c r="G996" s="20"/>
@@ -38852,13 +39035,9 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D424"/>
-    <hyperlink r:id="rId2" ref="D728"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>